--- a/inst/extdata/data_gsk.xlsx
+++ b/inst/extdata/data_gsk.xlsx
@@ -11,14 +11,14 @@
     <sheet name="other_cell_lines" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$K$264</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$K$265</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2307" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="602">
   <si>
     <t>Cell</t>
   </si>
@@ -719,150 +719,6 @@
     <t>Control</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_ControlTF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_ControlTF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_ControlTF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_Controlhist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_Controlhist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_ControlTF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_Controlhist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_Controlhist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_Controlhist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_ControlTF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_ControlTF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_ControlTF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_ControlTF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_ControlTF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_ControlTF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_ControlTF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_ControlTF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_WCE_ChIP-Seq_ControlTF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_WCE_ChIP-Seq_ControlTF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_WCE_ChIP-Seq_ControlTF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_WCE_ChIP-Seq_ControlTF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/NHBE_CTCF_ChIP-Seq_P3Lungepitheliacelltypes89_CTCF_P3Lungepitheliacelltypes89_bwa_samse_BR3TR1_edited.bw</t>
   </si>
   <si>
@@ -1133,66 +989,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_V_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_CL_WCE_ChIP-Seq_ControlTF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_CL_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_CL_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_CL_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_PL_WCE_ChIP-Seq_ControlTF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_PL_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_PL_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_PL_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_P_WCE_ChIP-Seq_ControlTF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_P_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_P_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_P_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_VL_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_VL_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_VL_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_VL_WCE_ChIP-Seq_Controlhist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_V_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_V_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_V_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_V_WCE_ChIP-Seq_Controlhist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_CL_H3K27me3_ChIP-Seq_P2MonocyteMacrophage89_H3K27me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
@@ -1520,18 +1316,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_CL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_CL_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_CL_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_CL_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_CL_WCE_ChIP-Seq_Controlhist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
   </si>
   <si>
@@ -1568,18 +1352,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_PL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_PL_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_PL_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_PL_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_PL_WCE_ChIP-Seq_Controlhist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_P_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
   </si>
   <si>
@@ -1598,18 +1370,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_P_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_P_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_P_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_P_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_P_WCE_ChIP-Seq_Controlhist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_VL_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
   </si>
   <si>
@@ -1628,18 +1388,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_VL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_VL_WCE_ChIP-Seq_ControlTF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_VL_WCE_ChIP-Seq_ControlTF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_VL_WCE_ChIP-Seq_ControlTF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_VL_WCE_ChIP-Seq_ControlTF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_V_CTCF_ChIP-Seq_P2MonocyteMacrophage89_CTCF_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
   </si>
   <si>
@@ -1658,30 +1406,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_V_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_V_WCE_ChIP-Seq_ControlTF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_V_WCE_ChIP-Seq_ControlTF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_V_WCE_ChIP-Seq_ControlTF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_V_WCE_ChIP-Seq_ControlTF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_WCE_ChIP-Seq_ControlTF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_WCE_ChIP-Seq_ControlTF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_WCE_ChIP-Seq_ControlTF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_WCE_ChIP-Seq_ControlTF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_CL_H3K27me3_ChIP-Seq_P2MonocyteMacrophage89_H3K27me3_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
   </si>
   <si>
@@ -1772,18 +1496,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_V_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_WCE_ChIP-Seq_ControlTF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_WCE_ChIP-Seq_Controlhist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_WCE_ChIP-Seq_Controlhist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_WCE_ChIP-Seq_Controlhist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/KU812_hist_BR1_H3K27ac_TR2_edited.bam</t>
   </si>
   <si>
@@ -1818,6 +1530,300 @@
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/KU812_ATAC_ATAC-Seq_P1Erythroidcelltypes90_ATAC_P1Erythroidcelltypes90_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_CL_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_CL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_CL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_CL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_P_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_P_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_P_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_P_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_P_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_PL_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_PL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_PL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_PL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_PL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_V_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_V_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_V_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_V_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_V_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_VL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_VL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_VL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_VL_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_VL_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_CL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_CL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_CL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_CL_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_CL_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_P_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_P_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_P_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_P_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_P_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_PL_WCE_ChIP-Seq_control_hist_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_PL_WCE_ChIP-Seq_control_hist_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_PL_WCE_ChIP-Seq_control_hist_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_PL_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_PL_WCE_ChIP-Seq_control_hist_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_V_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_control_TF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_V_WCE_ChIP-Seq_control_TF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_control_TF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_V_WCE_ChIP-Seq_control_TF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_V_WCE_ChIP-Seq_control_TF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_V_WCE_ChIP-Seq_control_TF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_VL_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_control_TF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_VL_WCE_ChIP-Seq_control_TF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_control_TF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_VL_WCE_ChIP-Seq_control_TF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_VL_WCE_ChIP-Seq_control_TF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_VL_WCE_ChIP-Seq_control_TF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_WCE_ChIP-Seq_control_TF_no1_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_WCE_ChIP-Seq_control_TF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_WCE_ChIP-Seq_control_TF_no2_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_WCE_ChIP-Seq_control_TF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_WCE_ChIP-Seq_control_TF_no3_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/U937_WCE_ChIP-Seq_control_TF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/U937_WCE_ChIP-Seq_control_TF_no4_P2MonocyteMacrophage89_WCE_P2MonocyteMacrophage89_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bigwig/THP1_CL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_CL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bam</t>
   </si>
 </sst>
 </file>
@@ -2203,11 +2209,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K264"/>
+  <dimension ref="A1:K265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E124" sqref="E124"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,17 +2289,17 @@
         <v>84</v>
       </c>
       <c r="H2" t="str">
-        <f>CONCATENATE(A2, "_", F2, "_", G2)</f>
+        <f t="shared" ref="H2:H65" si="0">CONCATENATE(A2, "_", F2, "_", G2)</f>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>331</v>
+        <v>283</v>
       </c>
       <c r="K2" t="s">
-        <v>419</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2319,17 +2325,17 @@
         <v>84</v>
       </c>
       <c r="H3" t="str">
-        <f>CONCATENATE(A3, "_", F3, "_", G3)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR2_Baseline</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>332</v>
+        <v>284</v>
       </c>
       <c r="K3" t="s">
-        <v>422</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2355,7 +2361,7 @@
         <v>84</v>
       </c>
       <c r="H4" t="str">
-        <f>CONCATENATE(A4, "_", F4, "_", G4)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I4">
@@ -2365,7 +2371,7 @@
         <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>416</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2391,7 +2397,7 @@
         <v>84</v>
       </c>
       <c r="H5" t="str">
-        <f>CONCATENATE(A5, "_", F5, "_", G5)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I5">
@@ -2401,7 +2407,7 @@
         <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>417</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2427,7 +2433,7 @@
         <v>84</v>
       </c>
       <c r="H6" t="str">
-        <f>CONCATENATE(A6, "_", F6, "_", G6)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR2_Baseline</v>
       </c>
       <c r="I6">
@@ -2437,7 +2443,7 @@
         <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>418</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2463,7 +2469,7 @@
         <v>84</v>
       </c>
       <c r="H7" t="str">
-        <f>CONCATENATE(A7, "_", F7, "_", G7)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I7">
@@ -2473,7 +2479,7 @@
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>408</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2499,7 +2505,7 @@
         <v>84</v>
       </c>
       <c r="H8" t="str">
-        <f>CONCATENATE(A8, "_", F8, "_", G8)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I8">
@@ -2509,7 +2515,7 @@
         <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>409</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2535,7 +2541,7 @@
         <v>84</v>
       </c>
       <c r="H9" t="str">
-        <f>CONCATENATE(A9, "_", F9, "_", G9)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR2_Baseline</v>
       </c>
       <c r="I9">
@@ -2545,7 +2551,7 @@
         <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>413</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2571,7 +2577,7 @@
         <v>84</v>
       </c>
       <c r="H10" t="str">
-        <f>CONCATENATE(A10, "_", F10, "_", G10)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I10">
@@ -2581,7 +2587,7 @@
         <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>410</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2607,7 +2613,7 @@
         <v>84</v>
       </c>
       <c r="H11" t="str">
-        <f>CONCATENATE(A11, "_", F11, "_", G11)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR2_Baseline</v>
       </c>
       <c r="I11">
@@ -2617,7 +2623,7 @@
         <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>414</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2643,7 +2649,7 @@
         <v>84</v>
       </c>
       <c r="H12" t="str">
-        <f>CONCATENATE(A12, "_", F12, "_", G12)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I12">
@@ -2653,7 +2659,7 @@
         <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>411</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2679,7 +2685,7 @@
         <v>84</v>
       </c>
       <c r="H13" t="str">
-        <f>CONCATENATE(A13, "_", F13, "_", G13)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I13">
@@ -2689,7 +2695,7 @@
         <v>28</v>
       </c>
       <c r="K13" t="s">
-        <v>412</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2715,7 +2721,7 @@
         <v>84</v>
       </c>
       <c r="H14" t="str">
-        <f>CONCATENATE(A14, "_", F14, "_", G14)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR2_Baseline</v>
       </c>
       <c r="I14">
@@ -2725,7 +2731,7 @@
         <v>31</v>
       </c>
       <c r="K14" t="s">
-        <v>415</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2751,17 +2757,17 @@
         <v>84</v>
       </c>
       <c r="H15" t="str">
-        <f>CONCATENATE(A15, "_", F15, "_", G15)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR1_Baseline</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="K15" t="s">
-        <v>432</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2787,17 +2793,17 @@
         <v>84</v>
       </c>
       <c r="H16" t="str">
-        <f>CONCATENATE(A16, "_", F16, "_", G16)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR2_Baseline</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="K16" t="s">
-        <v>439</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2823,7 +2829,7 @@
         <v>84</v>
       </c>
       <c r="H17" t="str">
-        <f>CONCATENATE(A17, "_", F17, "_", G17)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR1_Baseline</v>
       </c>
       <c r="I17">
@@ -2833,7 +2839,7 @@
         <v>41</v>
       </c>
       <c r="K17" t="s">
-        <v>425</v>
+        <v>357</v>
       </c>
     </row>
     <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2859,7 +2865,7 @@
         <v>84</v>
       </c>
       <c r="H18" t="str">
-        <f>CONCATENATE(A18, "_", F18, "_", G18)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR2_Baseline</v>
       </c>
       <c r="I18">
@@ -2869,7 +2875,7 @@
         <v>42</v>
       </c>
       <c r="K18" t="s">
-        <v>426</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2895,7 +2901,7 @@
         <v>84</v>
       </c>
       <c r="H19" t="str">
-        <f>CONCATENATE(A19, "_", F19, "_", G19)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR1_Baseline</v>
       </c>
       <c r="I19">
@@ -2905,7 +2911,7 @@
         <v>35</v>
       </c>
       <c r="K19" t="s">
-        <v>427</v>
+        <v>359</v>
       </c>
     </row>
     <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2931,7 +2937,7 @@
         <v>84</v>
       </c>
       <c r="H20" t="str">
-        <f>CONCATENATE(A20, "_", F20, "_", G20)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR2_Baseline</v>
       </c>
       <c r="I20">
@@ -2941,7 +2947,7 @@
         <v>38</v>
       </c>
       <c r="K20" t="s">
-        <v>428</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -2967,7 +2973,7 @@
         <v>84</v>
       </c>
       <c r="H21" t="str">
-        <f>CONCATENATE(A21, "_", F21, "_", G21)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR1_Baseline</v>
       </c>
       <c r="I21">
@@ -2977,7 +2983,7 @@
         <v>36</v>
       </c>
       <c r="K21" t="s">
-        <v>420</v>
+        <v>352</v>
       </c>
     </row>
     <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3003,7 +3009,7 @@
         <v>84</v>
       </c>
       <c r="H22" t="str">
-        <f>CONCATENATE(A22, "_", F22, "_", G22)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR2_Baseline</v>
       </c>
       <c r="I22">
@@ -3013,7 +3019,7 @@
         <v>39</v>
       </c>
       <c r="K22" t="s">
-        <v>423</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3039,7 +3045,7 @@
         <v>84</v>
       </c>
       <c r="H23" t="str">
-        <f>CONCATENATE(A23, "_", F23, "_", G23)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR1_Baseline</v>
       </c>
       <c r="I23">
@@ -3049,7 +3055,7 @@
         <v>37</v>
       </c>
       <c r="K23" t="s">
-        <v>421</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3075,7 +3081,7 @@
         <v>84</v>
       </c>
       <c r="H24" t="str">
-        <f>CONCATENATE(A24, "_", F24, "_", G24)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR2_Baseline</v>
       </c>
       <c r="I24">
@@ -3085,7 +3091,7 @@
         <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>424</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3111,17 +3117,17 @@
         <v>84</v>
       </c>
       <c r="H25" t="str">
-        <f>CONCATENATE(A25, "_", F25, "_", G25)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="K25" t="s">
-        <v>453</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3147,17 +3153,17 @@
         <v>84</v>
       </c>
       <c r="H26" t="str">
-        <f>CONCATENATE(A26, "_", F26, "_", G26)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="K26" t="s">
-        <v>458</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3183,7 +3189,7 @@
         <v>84</v>
       </c>
       <c r="H27" t="str">
-        <f>CONCATENATE(A27, "_", F27, "_", G27)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I27">
@@ -3193,7 +3199,7 @@
         <v>51</v>
       </c>
       <c r="K27" t="s">
-        <v>435</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3219,7 +3225,7 @@
         <v>84</v>
       </c>
       <c r="H28" t="str">
-        <f>CONCATENATE(A28, "_", F28, "_", G28)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I28">
@@ -3229,7 +3235,7 @@
         <v>52</v>
       </c>
       <c r="K28" t="s">
-        <v>436</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3255,7 +3261,7 @@
         <v>84</v>
       </c>
       <c r="H29" t="str">
-        <f>CONCATENATE(A29, "_", F29, "_", G29)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I29">
@@ -3265,7 +3271,7 @@
         <v>53</v>
       </c>
       <c r="K29" t="s">
-        <v>437</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3291,7 +3297,7 @@
         <v>84</v>
       </c>
       <c r="H30" t="str">
-        <f>CONCATENATE(A30, "_", F30, "_", G30)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I30">
@@ -3301,7 +3307,7 @@
         <v>54</v>
       </c>
       <c r="K30" t="s">
-        <v>438</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3327,7 +3333,7 @@
         <v>84</v>
       </c>
       <c r="H31" t="str">
-        <f>CONCATENATE(A31, "_", F31, "_", G31)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I31">
@@ -3337,7 +3343,7 @@
         <v>43</v>
       </c>
       <c r="K31" t="s">
-        <v>440</v>
+        <v>372</v>
       </c>
     </row>
     <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3363,7 +3369,7 @@
         <v>84</v>
       </c>
       <c r="H32" t="str">
-        <f>CONCATENATE(A32, "_", F32, "_", G32)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I32">
@@ -3373,7 +3379,7 @@
         <v>44</v>
       </c>
       <c r="K32" t="s">
-        <v>444</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3399,7 +3405,7 @@
         <v>84</v>
       </c>
       <c r="H33" t="str">
-        <f>CONCATENATE(A33, "_", F33, "_", G33)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I33">
@@ -3409,7 +3415,7 @@
         <v>48</v>
       </c>
       <c r="K33" t="s">
-        <v>450</v>
+        <v>382</v>
       </c>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3435,7 +3441,7 @@
         <v>84</v>
       </c>
       <c r="H34" t="str">
-        <f>CONCATENATE(A34, "_", F34, "_", G34)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I34">
@@ -3445,7 +3451,7 @@
         <v>45</v>
       </c>
       <c r="K34" t="s">
-        <v>429</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3471,7 +3477,7 @@
         <v>84</v>
       </c>
       <c r="H35" t="str">
-        <f>CONCATENATE(A35, "_", F35, "_", G35)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I35">
@@ -3481,7 +3487,7 @@
         <v>49</v>
       </c>
       <c r="K35" t="s">
-        <v>433</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3507,7 +3513,7 @@
         <v>84</v>
       </c>
       <c r="H36" t="str">
-        <f>CONCATENATE(A36, "_", F36, "_", G36)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I36">
@@ -3517,7 +3523,7 @@
         <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>430</v>
+        <v>362</v>
       </c>
     </row>
     <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3543,7 +3549,7 @@
         <v>84</v>
       </c>
       <c r="H37" t="str">
-        <f>CONCATENATE(A37, "_", F37, "_", G37)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I37">
@@ -3553,7 +3559,7 @@
         <v>47</v>
       </c>
       <c r="K37" t="s">
-        <v>431</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3579,7 +3585,7 @@
         <v>84</v>
       </c>
       <c r="H38" t="str">
-        <f>CONCATENATE(A38, "_", F38, "_", G38)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I38">
@@ -3589,7 +3595,7 @@
         <v>50</v>
       </c>
       <c r="K38" t="s">
-        <v>434</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3615,17 +3621,17 @@
         <v>84</v>
       </c>
       <c r="H39" t="str">
-        <f>CONCATENATE(A39, "_", F39, "_", G39)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>357</v>
+        <v>309</v>
       </c>
       <c r="K39" t="s">
-        <v>598</v>
+        <v>502</v>
       </c>
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3651,17 +3657,17 @@
         <v>84</v>
       </c>
       <c r="H40" t="str">
-        <f>CONCATENATE(A40, "_", F40, "_", G40)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR2_Baseline</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>358</v>
+        <v>310</v>
       </c>
       <c r="K40" t="s">
-        <v>599</v>
+        <v>503</v>
       </c>
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3687,7 +3693,7 @@
         <v>84</v>
       </c>
       <c r="H41" t="str">
-        <f>CONCATENATE(A41, "_", F41, "_", G41)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I41">
@@ -3697,7 +3703,7 @@
         <v>63</v>
       </c>
       <c r="K41" t="s">
-        <v>447</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3723,7 +3729,7 @@
         <v>84</v>
       </c>
       <c r="H42" t="str">
-        <f>CONCATENATE(A42, "_", F42, "_", G42)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I42">
@@ -3733,7 +3739,7 @@
         <v>64</v>
       </c>
       <c r="K42" t="s">
-        <v>448</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3759,7 +3765,7 @@
         <v>84</v>
       </c>
       <c r="H43" t="str">
-        <f>CONCATENATE(A43, "_", F43, "_", G43)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR2_Baseline</v>
       </c>
       <c r="I43">
@@ -3769,7 +3775,7 @@
         <v>65</v>
       </c>
       <c r="K43" t="s">
-        <v>449</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3795,7 +3801,7 @@
         <v>84</v>
       </c>
       <c r="H44" t="str">
-        <f>CONCATENATE(A44, "_", F44, "_", G44)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I44">
@@ -3805,7 +3811,7 @@
         <v>55</v>
       </c>
       <c r="K44" t="s">
-        <v>461</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3831,7 +3837,7 @@
         <v>84</v>
       </c>
       <c r="H45" t="str">
-        <f>CONCATENATE(A45, "_", F45, "_", G45)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I45">
@@ -3841,7 +3847,7 @@
         <v>56</v>
       </c>
       <c r="K45" t="s">
-        <v>588</v>
+        <v>492</v>
       </c>
     </row>
     <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3867,7 +3873,7 @@
         <v>84</v>
       </c>
       <c r="H46" t="str">
-        <f>CONCATENATE(A46, "_", F46, "_", G46)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR2_Baseline</v>
       </c>
       <c r="I46">
@@ -3877,7 +3883,7 @@
         <v>60</v>
       </c>
       <c r="K46" t="s">
-        <v>589</v>
+        <v>493</v>
       </c>
     </row>
     <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3903,7 +3909,7 @@
         <v>84</v>
       </c>
       <c r="H47" t="str">
-        <f>CONCATENATE(A47, "_", F47, "_", G47)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I47">
@@ -3913,7 +3919,7 @@
         <v>57</v>
       </c>
       <c r="K47" t="s">
-        <v>441</v>
+        <v>373</v>
       </c>
     </row>
     <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3939,7 +3945,7 @@
         <v>84</v>
       </c>
       <c r="H48" t="str">
-        <f>CONCATENATE(A48, "_", F48, "_", G48)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR2_Baseline</v>
       </c>
       <c r="I48">
@@ -3949,7 +3955,7 @@
         <v>61</v>
       </c>
       <c r="K48" t="s">
-        <v>445</v>
+        <v>377</v>
       </c>
     </row>
     <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3975,7 +3981,7 @@
         <v>84</v>
       </c>
       <c r="H49" t="str">
-        <f>CONCATENATE(A49, "_", F49, "_", G49)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I49">
@@ -3985,7 +3991,7 @@
         <v>58</v>
       </c>
       <c r="K49" t="s">
-        <v>442</v>
+        <v>374</v>
       </c>
     </row>
     <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4011,7 +4017,7 @@
         <v>84</v>
       </c>
       <c r="H50" t="str">
-        <f>CONCATENATE(A50, "_", F50, "_", G50)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I50">
@@ -4021,7 +4027,7 @@
         <v>59</v>
       </c>
       <c r="K50" t="s">
-        <v>443</v>
+        <v>375</v>
       </c>
     </row>
     <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4047,7 +4053,7 @@
         <v>84</v>
       </c>
       <c r="H51" t="str">
-        <f>CONCATENATE(A51, "_", F51, "_", G51)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR2_Baseline</v>
       </c>
       <c r="I51">
@@ -4057,7 +4063,7 @@
         <v>62</v>
       </c>
       <c r="K51" t="s">
-        <v>446</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4083,17 +4089,17 @@
         <v>84</v>
       </c>
       <c r="H52" t="str">
-        <f>CONCATENATE(A52, "_", F52, "_", G52)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR1_Baseline</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="K52" t="s">
-        <v>592</v>
+        <v>496</v>
       </c>
     </row>
     <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4119,17 +4125,17 @@
         <v>84</v>
       </c>
       <c r="H53" t="str">
-        <f>CONCATENATE(A53, "_", F53, "_", G53)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR2_Baseline</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="K53" t="s">
-        <v>593</v>
+        <v>497</v>
       </c>
     </row>
     <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4155,7 +4161,7 @@
         <v>84</v>
       </c>
       <c r="H54" t="str">
-        <f>CONCATENATE(A54, "_", F54, "_", G54)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR1_Baseline</v>
       </c>
       <c r="I54">
@@ -4165,7 +4171,7 @@
         <v>72</v>
       </c>
       <c r="K54" t="s">
-        <v>456</v>
+        <v>388</v>
       </c>
     </row>
     <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4191,7 +4197,7 @@
         <v>84</v>
       </c>
       <c r="H55" t="str">
-        <f>CONCATENATE(A55, "_", F55, "_", G55)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR2_Baseline</v>
       </c>
       <c r="I55">
@@ -4201,7 +4207,7 @@
         <v>73</v>
       </c>
       <c r="K55" t="s">
-        <v>457</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4227,7 +4233,7 @@
         <v>84</v>
       </c>
       <c r="H56" t="str">
-        <f>CONCATENATE(A56, "_", F56, "_", G56)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR1_Baseline</v>
       </c>
       <c r="I56">
@@ -4237,7 +4243,7 @@
         <v>66</v>
       </c>
       <c r="K56" t="s">
-        <v>590</v>
+        <v>494</v>
       </c>
     </row>
     <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4263,7 +4269,7 @@
         <v>84</v>
       </c>
       <c r="H57" t="str">
-        <f>CONCATENATE(A57, "_", F57, "_", G57)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR2_Baseline</v>
       </c>
       <c r="I57">
@@ -4273,7 +4279,7 @@
         <v>69</v>
       </c>
       <c r="K57" t="s">
-        <v>591</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4299,7 +4305,7 @@
         <v>84</v>
       </c>
       <c r="H58" t="str">
-        <f>CONCATENATE(A58, "_", F58, "_", G58)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR1_Baseline</v>
       </c>
       <c r="I58">
@@ -4309,7 +4315,7 @@
         <v>67</v>
       </c>
       <c r="K58" t="s">
-        <v>451</v>
+        <v>383</v>
       </c>
     </row>
     <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4335,7 +4341,7 @@
         <v>84</v>
       </c>
       <c r="H59" t="str">
-        <f>CONCATENATE(A59, "_", F59, "_", G59)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR2_Baseline</v>
       </c>
       <c r="I59">
@@ -4345,7 +4351,7 @@
         <v>70</v>
       </c>
       <c r="K59" t="s">
-        <v>454</v>
+        <v>386</v>
       </c>
     </row>
     <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4371,7 +4377,7 @@
         <v>84</v>
       </c>
       <c r="H60" t="str">
-        <f>CONCATENATE(A60, "_", F60, "_", G60)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR1_Baseline</v>
       </c>
       <c r="I60">
@@ -4381,7 +4387,7 @@
         <v>68</v>
       </c>
       <c r="K60" t="s">
-        <v>452</v>
+        <v>384</v>
       </c>
     </row>
     <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4407,7 +4413,7 @@
         <v>84</v>
       </c>
       <c r="H61" t="str">
-        <f>CONCATENATE(A61, "_", F61, "_", G61)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR2_Baseline</v>
       </c>
       <c r="I61">
@@ -4417,7 +4423,7 @@
         <v>71</v>
       </c>
       <c r="K61" t="s">
-        <v>455</v>
+        <v>387</v>
       </c>
     </row>
     <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4443,17 +4449,17 @@
         <v>84</v>
       </c>
       <c r="H62" t="str">
-        <f>CONCATENATE(A62, "_", F62, "_", G62)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="K62" t="s">
-        <v>596</v>
+        <v>500</v>
       </c>
     </row>
     <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4479,17 +4485,17 @@
         <v>84</v>
       </c>
       <c r="H63" t="str">
-        <f>CONCATENATE(A63, "_", F63, "_", G63)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>340</v>
+        <v>292</v>
       </c>
       <c r="K63" t="s">
-        <v>597</v>
+        <v>501</v>
       </c>
     </row>
     <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4515,7 +4521,7 @@
         <v>84</v>
       </c>
       <c r="H64" t="str">
-        <f>CONCATENATE(A64, "_", F64, "_", G64)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="I64">
@@ -4525,7 +4531,7 @@
         <v>80</v>
       </c>
       <c r="K64" t="s">
-        <v>464</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4551,7 +4557,7 @@
         <v>84</v>
       </c>
       <c r="H65" t="str">
-        <f>CONCATENATE(A65, "_", F65, "_", G65)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="I65">
@@ -4561,7 +4567,7 @@
         <v>81</v>
       </c>
       <c r="K65" t="s">
-        <v>465</v>
+        <v>397</v>
       </c>
     </row>
     <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4587,7 +4593,7 @@
         <v>84</v>
       </c>
       <c r="H66" t="str">
-        <f>CONCATENATE(A66, "_", F66, "_", G66)</f>
+        <f t="shared" ref="H66:H129" si="1">CONCATENATE(A66, "_", F66, "_", G66)</f>
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="I66">
@@ -4597,7 +4603,7 @@
         <v>74</v>
       </c>
       <c r="K66" t="s">
-        <v>594</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4623,7 +4629,7 @@
         <v>84</v>
       </c>
       <c r="H67" t="str">
-        <f>CONCATENATE(A67, "_", F67, "_", G67)</f>
+        <f t="shared" si="1"/>
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="I67">
@@ -4633,7 +4639,7 @@
         <v>77</v>
       </c>
       <c r="K67" t="s">
-        <v>595</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4659,7 +4665,7 @@
         <v>84</v>
       </c>
       <c r="H68" t="str">
-        <f>CONCATENATE(A68, "_", F68, "_", G68)</f>
+        <f t="shared" si="1"/>
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="I68">
@@ -4669,7 +4675,7 @@
         <v>75</v>
       </c>
       <c r="K68" t="s">
-        <v>459</v>
+        <v>391</v>
       </c>
     </row>
     <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4695,7 +4701,7 @@
         <v>84</v>
       </c>
       <c r="H69" t="str">
-        <f>CONCATENATE(A69, "_", F69, "_", G69)</f>
+        <f t="shared" si="1"/>
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="I69">
@@ -4705,7 +4711,7 @@
         <v>78</v>
       </c>
       <c r="K69" t="s">
-        <v>462</v>
+        <v>394</v>
       </c>
     </row>
     <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4731,7 +4737,7 @@
         <v>84</v>
       </c>
       <c r="H70" t="str">
-        <f>CONCATENATE(A70, "_", F70, "_", G70)</f>
+        <f t="shared" si="1"/>
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="I70">
@@ -4741,7 +4747,7 @@
         <v>76</v>
       </c>
       <c r="K70" t="s">
-        <v>460</v>
+        <v>392</v>
       </c>
     </row>
     <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4767,7 +4773,7 @@
         <v>84</v>
       </c>
       <c r="H71" t="str">
-        <f>CONCATENATE(A71, "_", F71, "_", G71)</f>
+        <f t="shared" si="1"/>
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="I71">
@@ -4777,10 +4783,10 @@
         <v>79</v>
       </c>
       <c r="K71" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -4803,20 +4809,20 @@
         <v>84</v>
       </c>
       <c r="H72" t="str">
-        <f>CONCATENATE(A72, "_", F72, "_", G72)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>309</v>
+        <v>261</v>
       </c>
       <c r="K72" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -4839,20 +4845,20 @@
         <v>84</v>
       </c>
       <c r="H73" t="str">
-        <f>CONCATENATE(A73, "_", F73, "_", G73)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>310</v>
+        <v>262</v>
       </c>
       <c r="K73" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -4875,20 +4881,20 @@
         <v>86</v>
       </c>
       <c r="H74" t="str">
-        <f>CONCATENATE(A74, "_", F74, "_", G74)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I74">
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>311</v>
+        <v>263</v>
       </c>
       <c r="K74" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -4911,20 +4917,20 @@
         <v>86</v>
       </c>
       <c r="H75" t="str">
-        <f>CONCATENATE(A75, "_", F75, "_", G75)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I75">
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="K75" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -4947,20 +4953,20 @@
         <v>88</v>
       </c>
       <c r="H76" t="str">
-        <f>CONCATENATE(A76, "_", F76, "_", G76)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I76">
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>313</v>
+        <v>265</v>
       </c>
       <c r="K76" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -4983,20 +4989,20 @@
         <v>88</v>
       </c>
       <c r="H77" t="str">
-        <f>CONCATENATE(A77, "_", F77, "_", G77)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I77">
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>314</v>
+        <v>266</v>
       </c>
       <c r="K77" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -5019,20 +5025,20 @@
         <v>87</v>
       </c>
       <c r="H78" t="str">
-        <f>CONCATENATE(A78, "_", F78, "_", G78)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I78">
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="K78" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -5055,20 +5061,20 @@
         <v>87</v>
       </c>
       <c r="H79" t="str">
-        <f>CONCATENATE(A79, "_", F79, "_", G79)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I79">
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="K79" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -5091,20 +5097,20 @@
         <v>90</v>
       </c>
       <c r="H80" t="str">
-        <f>CONCATENATE(A80, "_", F80, "_", G80)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>317</v>
+        <v>269</v>
       </c>
       <c r="K80" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -5127,20 +5133,20 @@
         <v>89</v>
       </c>
       <c r="H81" t="str">
-        <f>CONCATENATE(A81, "_", F81, "_", G81)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I81">
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="K81" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -5163,20 +5169,20 @@
         <v>86</v>
       </c>
       <c r="H82" t="str">
-        <f>CONCATENATE(A82, "_", F82, "_", G82)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I82">
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>233</v>
+        <v>504</v>
       </c>
       <c r="K82" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -5199,20 +5205,20 @@
         <v>86</v>
       </c>
       <c r="H83" t="str">
-        <f>CONCATENATE(A83, "_", F83, "_", G83)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I83">
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>234</v>
+        <v>506</v>
       </c>
       <c r="K83" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -5235,20 +5241,20 @@
         <v>86</v>
       </c>
       <c r="H84" t="str">
-        <f>CONCATENATE(A84, "_", F84, "_", G84)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>235</v>
+        <v>508</v>
       </c>
       <c r="K84" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -5271,20 +5277,20 @@
         <v>86</v>
       </c>
       <c r="H85" t="str">
-        <f>CONCATENATE(A85, "_", F85, "_", G85)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I85">
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>236</v>
+        <v>510</v>
       </c>
       <c r="K85" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -5307,20 +5313,20 @@
         <v>88</v>
       </c>
       <c r="H86" t="str">
-        <f>CONCATENATE(A86, "_", F86, "_", G86)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I86">
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>241</v>
+        <v>512</v>
       </c>
       <c r="K86" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -5343,20 +5349,20 @@
         <v>88</v>
       </c>
       <c r="H87" t="str">
-        <f>CONCATENATE(A87, "_", F87, "_", G87)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>242</v>
+        <v>514</v>
       </c>
       <c r="K87" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -5379,20 +5385,20 @@
         <v>88</v>
       </c>
       <c r="H88" t="str">
-        <f>CONCATENATE(A88, "_", F88, "_", G88)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I88">
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>243</v>
+        <v>516</v>
       </c>
       <c r="K88" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -5415,20 +5421,20 @@
         <v>88</v>
       </c>
       <c r="H89" t="str">
-        <f>CONCATENATE(A89, "_", F89, "_", G89)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I89">
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>244</v>
+        <v>518</v>
       </c>
       <c r="K89" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -5451,20 +5457,20 @@
         <v>87</v>
       </c>
       <c r="H90" t="str">
-        <f>CONCATENATE(A90, "_", F90, "_", G90)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I90">
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>237</v>
+        <v>520</v>
       </c>
       <c r="K90" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -5487,20 +5493,20 @@
         <v>87</v>
       </c>
       <c r="H91" t="str">
-        <f>CONCATENATE(A91, "_", F91, "_", G91)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I91">
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>238</v>
+        <v>522</v>
       </c>
       <c r="K91" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -5523,20 +5529,20 @@
         <v>87</v>
       </c>
       <c r="H92" t="str">
-        <f>CONCATENATE(A92, "_", F92, "_", G92)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I92">
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>239</v>
+        <v>524</v>
       </c>
       <c r="K92" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -5559,20 +5565,20 @@
         <v>87</v>
       </c>
       <c r="H93" t="str">
-        <f>CONCATENATE(A93, "_", F93, "_", G93)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I93">
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>240</v>
+        <v>526</v>
       </c>
       <c r="K93" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -5595,20 +5601,20 @@
         <v>90</v>
       </c>
       <c r="H94" t="str">
-        <f>CONCATENATE(A94, "_", F94, "_", G94)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I94">
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>249</v>
+        <v>528</v>
       </c>
       <c r="K94" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -5631,20 +5637,20 @@
         <v>90</v>
       </c>
       <c r="H95" t="str">
-        <f>CONCATENATE(A95, "_", F95, "_", G95)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I95">
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="K95" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -5667,20 +5673,20 @@
         <v>90</v>
       </c>
       <c r="H96" t="str">
-        <f>CONCATENATE(A96, "_", F96, "_", G96)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>251</v>
+        <v>532</v>
       </c>
       <c r="K96" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -5703,20 +5709,20 @@
         <v>90</v>
       </c>
       <c r="H97" t="str">
-        <f>CONCATENATE(A97, "_", F97, "_", G97)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I97">
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>252</v>
+        <v>534</v>
       </c>
       <c r="K97" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -5739,20 +5745,20 @@
         <v>89</v>
       </c>
       <c r="H98" t="str">
-        <f>CONCATENATE(A98, "_", F98, "_", G98)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I98">
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>245</v>
+        <v>536</v>
       </c>
       <c r="K98" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -5775,20 +5781,20 @@
         <v>89</v>
       </c>
       <c r="H99" t="str">
-        <f>CONCATENATE(A99, "_", F99, "_", G99)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I99">
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>246</v>
+        <v>538</v>
       </c>
       <c r="K99" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -5811,20 +5817,20 @@
         <v>89</v>
       </c>
       <c r="H100" t="str">
-        <f>CONCATENATE(A100, "_", F100, "_", G100)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I100">
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>247</v>
+        <v>540</v>
       </c>
       <c r="K100" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -5847,20 +5853,20 @@
         <v>89</v>
       </c>
       <c r="H101" t="str">
-        <f>CONCATENATE(A101, "_", F101, "_", G101)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I101">
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>248</v>
+        <v>542</v>
       </c>
       <c r="K101" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -5883,7 +5889,7 @@
         <v>84</v>
       </c>
       <c r="H102" t="str">
-        <f>CONCATENATE(A102, "_", F102, "_", G102)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I102">
@@ -5893,10 +5899,10 @@
         <v>123</v>
       </c>
       <c r="K102" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -5919,7 +5925,7 @@
         <v>84</v>
       </c>
       <c r="H103" t="str">
-        <f>CONCATENATE(A103, "_", F103, "_", G103)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I103">
@@ -5929,10 +5935,10 @@
         <v>124</v>
       </c>
       <c r="K103" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -5955,7 +5961,7 @@
         <v>86</v>
       </c>
       <c r="H104" t="str">
-        <f>CONCATENATE(A104, "_", F104, "_", G104)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I104">
@@ -5965,10 +5971,10 @@
         <v>118</v>
       </c>
       <c r="K104" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -5991,7 +5997,7 @@
         <v>86</v>
       </c>
       <c r="H105" t="str">
-        <f>CONCATENATE(A105, "_", F105, "_", G105)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I105">
@@ -6001,10 +6007,10 @@
         <v>119</v>
       </c>
       <c r="K105" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -6027,7 +6033,7 @@
         <v>88</v>
       </c>
       <c r="H106" t="str">
-        <f>CONCATENATE(A106, "_", F106, "_", G106)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I106">
@@ -6037,10 +6043,10 @@
         <v>135</v>
       </c>
       <c r="K106" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -6063,7 +6069,7 @@
         <v>88</v>
       </c>
       <c r="H107" t="str">
-        <f>CONCATENATE(A107, "_", F107, "_", G107)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I107">
@@ -6073,10 +6079,10 @@
         <v>136</v>
       </c>
       <c r="K107" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -6099,7 +6105,7 @@
         <v>87</v>
       </c>
       <c r="H108" t="str">
-        <f>CONCATENATE(A108, "_", F108, "_", G108)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I108">
@@ -6109,10 +6115,10 @@
         <v>129</v>
       </c>
       <c r="K108" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -6135,7 +6141,7 @@
         <v>87</v>
       </c>
       <c r="H109" t="str">
-        <f>CONCATENATE(A109, "_", F109, "_", G109)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I109">
@@ -6145,10 +6151,10 @@
         <v>130</v>
       </c>
       <c r="K109" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -6171,7 +6177,7 @@
         <v>90</v>
       </c>
       <c r="H110" t="str">
-        <f>CONCATENATE(A110, "_", F110, "_", G110)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I110">
@@ -6181,10 +6187,10 @@
         <v>147</v>
       </c>
       <c r="K110" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -6207,7 +6213,7 @@
         <v>90</v>
       </c>
       <c r="H111" t="str">
-        <f>CONCATENATE(A111, "_", F111, "_", G111)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I111">
@@ -6217,10 +6223,10 @@
         <v>148</v>
       </c>
       <c r="K111" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>20</v>
       </c>
@@ -6243,7 +6249,7 @@
         <v>89</v>
       </c>
       <c r="H112" t="str">
-        <f>CONCATENATE(A112, "_", F112, "_", G112)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I112">
@@ -6253,10 +6259,10 @@
         <v>141</v>
       </c>
       <c r="K112" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>20</v>
       </c>
@@ -6279,7 +6285,7 @@
         <v>89</v>
       </c>
       <c r="H113" t="str">
-        <f>CONCATENATE(A113, "_", F113, "_", G113)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I113">
@@ -6289,10 +6295,10 @@
         <v>142</v>
       </c>
       <c r="K113" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -6315,7 +6321,7 @@
         <v>84</v>
       </c>
       <c r="H114" t="str">
-        <f>CONCATENATE(A114, "_", F114, "_", G114)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I114">
@@ -6325,10 +6331,10 @@
         <v>125</v>
       </c>
       <c r="K114" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -6351,7 +6357,7 @@
         <v>84</v>
       </c>
       <c r="H115" t="str">
-        <f>CONCATENATE(A115, "_", F115, "_", G115)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I115">
@@ -6361,10 +6367,10 @@
         <v>126</v>
       </c>
       <c r="K115" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -6387,7 +6393,7 @@
         <v>86</v>
       </c>
       <c r="H116" t="str">
-        <f>CONCATENATE(A116, "_", F116, "_", G116)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I116">
@@ -6397,10 +6403,10 @@
         <v>120</v>
       </c>
       <c r="K116" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -6423,7 +6429,7 @@
         <v>88</v>
       </c>
       <c r="H117" t="str">
-        <f>CONCATENATE(A117, "_", F117, "_", G117)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I117">
@@ -6433,10 +6439,10 @@
         <v>137</v>
       </c>
       <c r="K117" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -6459,7 +6465,7 @@
         <v>88</v>
       </c>
       <c r="H118" t="str">
-        <f>CONCATENATE(A118, "_", F118, "_", G118)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I118">
@@ -6469,10 +6475,10 @@
         <v>138</v>
       </c>
       <c r="K118" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -6495,7 +6501,7 @@
         <v>87</v>
       </c>
       <c r="H119" t="str">
-        <f>CONCATENATE(A119, "_", F119, "_", G119)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I119">
@@ -6505,10 +6511,10 @@
         <v>131</v>
       </c>
       <c r="K119" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -6531,7 +6537,7 @@
         <v>87</v>
       </c>
       <c r="H120" t="str">
-        <f>CONCATENATE(A120, "_", F120, "_", G120)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I120">
@@ -6541,10 +6547,10 @@
         <v>132</v>
       </c>
       <c r="K120" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -6567,7 +6573,7 @@
         <v>90</v>
       </c>
       <c r="H121" t="str">
-        <f>CONCATENATE(A121, "_", F121, "_", G121)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I121">
@@ -6577,10 +6583,10 @@
         <v>149</v>
       </c>
       <c r="K121" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -6603,7 +6609,7 @@
         <v>90</v>
       </c>
       <c r="H122" t="str">
-        <f>CONCATENATE(A122, "_", F122, "_", G122)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I122">
@@ -6613,10 +6619,10 @@
         <v>150</v>
       </c>
       <c r="K122" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -6639,7 +6645,7 @@
         <v>89</v>
       </c>
       <c r="H123" t="str">
-        <f>CONCATENATE(A123, "_", F123, "_", G123)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I123">
@@ -6649,10 +6655,10 @@
         <v>143</v>
       </c>
       <c r="K123" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -6675,7 +6681,7 @@
         <v>89</v>
       </c>
       <c r="H124" t="str">
-        <f>CONCATENATE(A124, "_", F124, "_", G124)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I124">
@@ -6685,10 +6691,10 @@
         <v>144</v>
       </c>
       <c r="K124" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -6711,7 +6717,7 @@
         <v>84</v>
       </c>
       <c r="H125" t="str">
-        <f>CONCATENATE(A125, "_", F125, "_", G125)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I125">
@@ -6721,10 +6727,10 @@
         <v>211</v>
       </c>
       <c r="K125" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -6747,7 +6753,7 @@
         <v>84</v>
       </c>
       <c r="H126" t="str">
-        <f>CONCATENATE(A126, "_", F126, "_", G126)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I126">
@@ -6757,10 +6763,10 @@
         <v>210</v>
       </c>
       <c r="K126" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -6783,7 +6789,7 @@
         <v>86</v>
       </c>
       <c r="H127" t="str">
-        <f>CONCATENATE(A127, "_", F127, "_", G127)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I127">
@@ -6793,10 +6799,10 @@
         <v>208</v>
       </c>
       <c r="K127" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>20</v>
       </c>
@@ -6819,7 +6825,7 @@
         <v>86</v>
       </c>
       <c r="H128" t="str">
-        <f>CONCATENATE(A128, "_", F128, "_", G128)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I128">
@@ -6829,10 +6835,10 @@
         <v>209</v>
       </c>
       <c r="K128" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>20</v>
       </c>
@@ -6855,7 +6861,7 @@
         <v>88</v>
       </c>
       <c r="H129" t="str">
-        <f>CONCATENATE(A129, "_", F129, "_", G129)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I129">
@@ -6865,10 +6871,10 @@
         <v>212</v>
       </c>
       <c r="K129" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -6891,7 +6897,7 @@
         <v>88</v>
       </c>
       <c r="H130" t="str">
-        <f>CONCATENATE(A130, "_", F130, "_", G130)</f>
+        <f t="shared" ref="H130:H193" si="2">CONCATENATE(A130, "_", F130, "_", G130)</f>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I130">
@@ -6901,10 +6907,10 @@
         <v>213</v>
       </c>
       <c r="K130" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>20</v>
       </c>
@@ -6927,7 +6933,7 @@
         <v>87</v>
       </c>
       <c r="H131" t="str">
-        <f>CONCATENATE(A131, "_", F131, "_", G131)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I131">
@@ -6937,10 +6943,10 @@
         <v>214</v>
       </c>
       <c r="K131" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>20</v>
       </c>
@@ -6963,7 +6969,7 @@
         <v>87</v>
       </c>
       <c r="H132" t="str">
-        <f>CONCATENATE(A132, "_", F132, "_", G132)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I132">
@@ -6973,10 +6979,10 @@
         <v>215</v>
       </c>
       <c r="K132" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>20</v>
       </c>
@@ -6999,7 +7005,7 @@
         <v>90</v>
       </c>
       <c r="H133" t="str">
-        <f>CONCATENATE(A133, "_", F133, "_", G133)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I133">
@@ -7009,10 +7015,10 @@
         <v>216</v>
       </c>
       <c r="K133" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -7035,7 +7041,7 @@
         <v>90</v>
       </c>
       <c r="H134" t="str">
-        <f>CONCATENATE(A134, "_", F134, "_", G134)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I134">
@@ -7045,10 +7051,10 @@
         <v>217</v>
       </c>
       <c r="K134" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>20</v>
       </c>
@@ -7071,7 +7077,7 @@
         <v>89</v>
       </c>
       <c r="H135" t="str">
-        <f>CONCATENATE(A135, "_", F135, "_", G135)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I135">
@@ -7081,10 +7087,10 @@
         <v>218</v>
       </c>
       <c r="K135" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>20</v>
       </c>
@@ -7107,7 +7113,7 @@
         <v>89</v>
       </c>
       <c r="H136" t="str">
-        <f>CONCATENATE(A136, "_", F136, "_", G136)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I136">
@@ -7117,10 +7123,10 @@
         <v>219</v>
       </c>
       <c r="K136" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -7143,7 +7149,7 @@
         <v>84</v>
       </c>
       <c r="H137" t="str">
-        <f>CONCATENATE(A137, "_", F137, "_", G137)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I137">
@@ -7153,10 +7159,10 @@
         <v>127</v>
       </c>
       <c r="K137" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>20</v>
       </c>
@@ -7179,7 +7185,7 @@
         <v>84</v>
       </c>
       <c r="H138" t="str">
-        <f>CONCATENATE(A138, "_", F138, "_", G138)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I138">
@@ -7189,10 +7195,10 @@
         <v>128</v>
       </c>
       <c r="K138" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -7215,7 +7221,7 @@
         <v>86</v>
       </c>
       <c r="H139" t="str">
-        <f>CONCATENATE(A139, "_", F139, "_", G139)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I139">
@@ -7225,10 +7231,10 @@
         <v>121</v>
       </c>
       <c r="K139" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>20</v>
       </c>
@@ -7251,7 +7257,7 @@
         <v>86</v>
       </c>
       <c r="H140" t="str">
-        <f>CONCATENATE(A140, "_", F140, "_", G140)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I140">
@@ -7261,10 +7267,10 @@
         <v>122</v>
       </c>
       <c r="K140" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -7287,7 +7293,7 @@
         <v>88</v>
       </c>
       <c r="H141" t="str">
-        <f>CONCATENATE(A141, "_", F141, "_", G141)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I141">
@@ -7297,10 +7303,10 @@
         <v>139</v>
       </c>
       <c r="K141" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>20</v>
       </c>
@@ -7323,7 +7329,7 @@
         <v>88</v>
       </c>
       <c r="H142" t="str">
-        <f>CONCATENATE(A142, "_", F142, "_", G142)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I142">
@@ -7333,10 +7339,10 @@
         <v>140</v>
       </c>
       <c r="K142" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>20</v>
       </c>
@@ -7359,7 +7365,7 @@
         <v>87</v>
       </c>
       <c r="H143" t="str">
-        <f>CONCATENATE(A143, "_", F143, "_", G143)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I143">
@@ -7369,10 +7375,10 @@
         <v>133</v>
       </c>
       <c r="K143" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>20</v>
       </c>
@@ -7395,7 +7401,7 @@
         <v>87</v>
       </c>
       <c r="H144" t="str">
-        <f>CONCATENATE(A144, "_", F144, "_", G144)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I144">
@@ -7405,10 +7411,10 @@
         <v>134</v>
       </c>
       <c r="K144" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -7431,7 +7437,7 @@
         <v>90</v>
       </c>
       <c r="H145" t="str">
-        <f>CONCATENATE(A145, "_", F145, "_", G145)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I145">
@@ -7441,10 +7447,10 @@
         <v>151</v>
       </c>
       <c r="K145" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -7467,7 +7473,7 @@
         <v>90</v>
       </c>
       <c r="H146" t="str">
-        <f>CONCATENATE(A146, "_", F146, "_", G146)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I146">
@@ -7477,10 +7483,10 @@
         <v>152</v>
       </c>
       <c r="K146" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>20</v>
       </c>
@@ -7503,7 +7509,7 @@
         <v>89</v>
       </c>
       <c r="H147" t="str">
-        <f>CONCATENATE(A147, "_", F147, "_", G147)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I147">
@@ -7513,10 +7519,10 @@
         <v>145</v>
       </c>
       <c r="K147" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>20</v>
       </c>
@@ -7539,7 +7545,7 @@
         <v>89</v>
       </c>
       <c r="H148" t="str">
-        <f>CONCATENATE(A148, "_", F148, "_", G148)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I148">
@@ -7549,10 +7555,10 @@
         <v>146</v>
       </c>
       <c r="K148" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>20</v>
       </c>
@@ -7566,7 +7572,7 @@
         <v>205</v>
       </c>
       <c r="E149" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="F149" t="s">
         <v>13</v>
@@ -7575,20 +7581,20 @@
         <v>84</v>
       </c>
       <c r="H149" t="str">
-        <f>CONCATENATE(A149, "_", F149, "_", G149)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I149">
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>253</v>
+        <v>544</v>
       </c>
       <c r="K149" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -7602,7 +7608,7 @@
         <v>205</v>
       </c>
       <c r="E150" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="F150" t="s">
         <v>13</v>
@@ -7611,20 +7617,20 @@
         <v>84</v>
       </c>
       <c r="H150" t="str">
-        <f>CONCATENATE(A150, "_", F150, "_", G150)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I150">
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>254</v>
+        <v>546</v>
       </c>
       <c r="K150" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>20</v>
       </c>
@@ -7638,7 +7644,7 @@
         <v>205</v>
       </c>
       <c r="E151" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="F151" t="s">
         <v>13</v>
@@ -7647,20 +7653,20 @@
         <v>84</v>
       </c>
       <c r="H151" t="str">
-        <f>CONCATENATE(A151, "_", F151, "_", G151)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I151">
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>255</v>
+        <v>548</v>
       </c>
       <c r="K151" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -7674,7 +7680,7 @@
         <v>205</v>
       </c>
       <c r="E152" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="F152" t="s">
         <v>13</v>
@@ -7683,20 +7689,20 @@
         <v>84</v>
       </c>
       <c r="H152" t="str">
-        <f>CONCATENATE(A152, "_", F152, "_", G152)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I152">
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>256</v>
+        <v>550</v>
       </c>
       <c r="K152" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>21</v>
       </c>
@@ -7716,20 +7722,20 @@
         <v>84</v>
       </c>
       <c r="H153" t="str">
-        <f>CONCATENATE(A153, "_", F153, "_", G153)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I153">
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>319</v>
+        <v>271</v>
       </c>
       <c r="K153" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>21</v>
       </c>
@@ -7749,20 +7755,20 @@
         <v>84</v>
       </c>
       <c r="H154" t="str">
-        <f>CONCATENATE(A154, "_", F154, "_", G154)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I154">
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>320</v>
+        <v>272</v>
       </c>
       <c r="K154" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>21</v>
       </c>
@@ -7782,20 +7788,20 @@
         <v>86</v>
       </c>
       <c r="H155" t="str">
-        <f>CONCATENATE(A155, "_", F155, "_", G155)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I155">
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="K155" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>21</v>
       </c>
@@ -7815,20 +7821,20 @@
         <v>86</v>
       </c>
       <c r="H156" t="str">
-        <f>CONCATENATE(A156, "_", F156, "_", G156)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I156">
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="K156" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>21</v>
       </c>
@@ -7848,20 +7854,20 @@
         <v>88</v>
       </c>
       <c r="H157" t="str">
-        <f>CONCATENATE(A157, "_", F157, "_", G157)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I157">
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>323</v>
+        <v>275</v>
       </c>
       <c r="K157" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>21</v>
       </c>
@@ -7881,20 +7887,20 @@
         <v>88</v>
       </c>
       <c r="H158" t="str">
-        <f>CONCATENATE(A158, "_", F158, "_", G158)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I158">
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>324</v>
+        <v>276</v>
       </c>
       <c r="K158" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>21</v>
       </c>
@@ -7914,20 +7920,20 @@
         <v>87</v>
       </c>
       <c r="H159" t="str">
-        <f>CONCATENATE(A159, "_", F159, "_", G159)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I159">
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>325</v>
+        <v>277</v>
       </c>
       <c r="K159" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>21</v>
       </c>
@@ -7947,20 +7953,20 @@
         <v>87</v>
       </c>
       <c r="H160" t="str">
-        <f>CONCATENATE(A160, "_", F160, "_", G160)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I160">
         <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="K160" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>21</v>
       </c>
@@ -7980,20 +7986,20 @@
         <v>90</v>
       </c>
       <c r="H161" t="str">
-        <f>CONCATENATE(A161, "_", F161, "_", G161)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I161">
         <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>327</v>
+        <v>279</v>
       </c>
       <c r="K161" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>21</v>
       </c>
@@ -8013,20 +8019,20 @@
         <v>90</v>
       </c>
       <c r="H162" t="str">
-        <f>CONCATENATE(A162, "_", F162, "_", G162)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I162">
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>328</v>
+        <v>280</v>
       </c>
       <c r="K162" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>21</v>
       </c>
@@ -8046,20 +8052,20 @@
         <v>89</v>
       </c>
       <c r="H163" t="str">
-        <f>CONCATENATE(A163, "_", F163, "_", G163)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I163">
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>329</v>
+        <v>281</v>
       </c>
       <c r="K163" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>21</v>
       </c>
@@ -8079,14 +8085,14 @@
         <v>89</v>
       </c>
       <c r="H164" t="str">
-        <f>CONCATENATE(A164, "_", F164, "_", G164)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I164">
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>330</v>
+        <v>282</v>
       </c>
       <c r="K164" t="s">
         <v>111</v>
@@ -8112,17 +8118,17 @@
         <v>86</v>
       </c>
       <c r="H165" t="str">
-        <f>CONCATENATE(A165, "_", F165, "_", G165)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I165">
         <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>257</v>
+        <v>552</v>
       </c>
       <c r="K165" t="s">
-        <v>500</v>
+        <v>553</v>
       </c>
     </row>
     <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8145,17 +8151,17 @@
         <v>86</v>
       </c>
       <c r="H166" t="str">
-        <f>CONCATENATE(A166, "_", F166, "_", G166)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I166">
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>258</v>
+        <v>554</v>
       </c>
       <c r="K166" t="s">
-        <v>501</v>
+        <v>555</v>
       </c>
     </row>
     <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8178,17 +8184,17 @@
         <v>86</v>
       </c>
       <c r="H167" t="str">
-        <f>CONCATENATE(A167, "_", F167, "_", G167)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I167">
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>259</v>
+        <v>556</v>
       </c>
       <c r="K167" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
     </row>
     <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8211,17 +8217,17 @@
         <v>86</v>
       </c>
       <c r="H168" t="str">
-        <f>CONCATENATE(A168, "_", F168, "_", G168)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I168">
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>260</v>
+        <v>558</v>
       </c>
       <c r="K168" t="s">
-        <v>503</v>
+        <v>559</v>
       </c>
     </row>
     <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8244,17 +8250,17 @@
         <v>88</v>
       </c>
       <c r="H169" t="str">
-        <f>CONCATENATE(A169, "_", F169, "_", G169)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I169">
         <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>265</v>
+        <v>560</v>
       </c>
       <c r="K169" t="s">
-        <v>526</v>
+        <v>561</v>
       </c>
     </row>
     <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8277,17 +8283,17 @@
         <v>88</v>
       </c>
       <c r="H170" t="str">
-        <f>CONCATENATE(A170, "_", F170, "_", G170)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I170">
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>266</v>
+        <v>562</v>
       </c>
       <c r="K170" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
     </row>
     <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8310,17 +8316,17 @@
         <v>88</v>
       </c>
       <c r="H171" t="str">
-        <f>CONCATENATE(A171, "_", F171, "_", G171)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I171">
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
       <c r="K171" t="s">
-        <v>528</v>
+        <v>565</v>
       </c>
     </row>
     <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8343,17 +8349,17 @@
         <v>88</v>
       </c>
       <c r="H172" t="str">
-        <f>CONCATENATE(A172, "_", F172, "_", G172)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I172">
         <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>268</v>
+        <v>566</v>
       </c>
       <c r="K172" t="s">
-        <v>529</v>
+        <v>567</v>
       </c>
     </row>
     <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8376,17 +8382,17 @@
         <v>87</v>
       </c>
       <c r="H173" t="str">
-        <f>CONCATENATE(A173, "_", F173, "_", G173)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I173">
         <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>261</v>
+        <v>568</v>
       </c>
       <c r="K173" t="s">
-        <v>516</v>
+        <v>569</v>
       </c>
     </row>
     <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8409,17 +8415,17 @@
         <v>87</v>
       </c>
       <c r="H174" t="str">
-        <f>CONCATENATE(A174, "_", F174, "_", G174)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I174">
         <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>262</v>
+        <v>570</v>
       </c>
       <c r="K174" t="s">
-        <v>517</v>
+        <v>571</v>
       </c>
     </row>
     <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8442,17 +8448,17 @@
         <v>87</v>
       </c>
       <c r="H175" t="str">
-        <f>CONCATENATE(A175, "_", F175, "_", G175)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I175">
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>263</v>
+        <v>572</v>
       </c>
       <c r="K175" t="s">
-        <v>518</v>
+        <v>573</v>
       </c>
     </row>
     <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8475,17 +8481,17 @@
         <v>87</v>
       </c>
       <c r="H176" t="str">
-        <f>CONCATENATE(A176, "_", F176, "_", G176)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I176">
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>264</v>
+        <v>574</v>
       </c>
       <c r="K176" t="s">
-        <v>519</v>
+        <v>575</v>
       </c>
     </row>
     <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8508,17 +8514,17 @@
         <v>90</v>
       </c>
       <c r="H177" t="str">
-        <f>CONCATENATE(A177, "_", F177, "_", G177)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>273</v>
+        <v>576</v>
       </c>
       <c r="K177" t="s">
-        <v>546</v>
+        <v>577</v>
       </c>
     </row>
     <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8541,17 +8547,17 @@
         <v>90</v>
       </c>
       <c r="H178" t="str">
-        <f>CONCATENATE(A178, "_", F178, "_", G178)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I178">
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>274</v>
+        <v>578</v>
       </c>
       <c r="K178" t="s">
-        <v>547</v>
+        <v>579</v>
       </c>
     </row>
     <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8574,17 +8580,17 @@
         <v>90</v>
       </c>
       <c r="H179" t="str">
-        <f>CONCATENATE(A179, "_", F179, "_", G179)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I179">
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>275</v>
+        <v>580</v>
       </c>
       <c r="K179" t="s">
-        <v>548</v>
+        <v>581</v>
       </c>
     </row>
     <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8607,17 +8613,17 @@
         <v>90</v>
       </c>
       <c r="H180" t="str">
-        <f>CONCATENATE(A180, "_", F180, "_", G180)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I180">
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>276</v>
+        <v>582</v>
       </c>
       <c r="K180" t="s">
-        <v>549</v>
+        <v>583</v>
       </c>
     </row>
     <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8640,17 +8646,17 @@
         <v>89</v>
       </c>
       <c r="H181" t="str">
-        <f>CONCATENATE(A181, "_", F181, "_", G181)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I181">
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>269</v>
+        <v>584</v>
       </c>
       <c r="K181" t="s">
-        <v>536</v>
+        <v>585</v>
       </c>
     </row>
     <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8673,17 +8679,17 @@
         <v>89</v>
       </c>
       <c r="H182" t="str">
-        <f>CONCATENATE(A182, "_", F182, "_", G182)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I182">
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>270</v>
+        <v>586</v>
       </c>
       <c r="K182" t="s">
-        <v>537</v>
+        <v>587</v>
       </c>
     </row>
     <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8706,17 +8712,17 @@
         <v>89</v>
       </c>
       <c r="H183" t="str">
-        <f>CONCATENATE(A183, "_", F183, "_", G183)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I183">
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>271</v>
+        <v>588</v>
       </c>
       <c r="K183" t="s">
-        <v>538</v>
+        <v>589</v>
       </c>
     </row>
     <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8739,17 +8745,17 @@
         <v>89</v>
       </c>
       <c r="H184" t="str">
-        <f>CONCATENATE(A184, "_", F184, "_", G184)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I184">
         <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>272</v>
+        <v>590</v>
       </c>
       <c r="K184" t="s">
-        <v>539</v>
+        <v>591</v>
       </c>
     </row>
     <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8772,7 +8778,7 @@
         <v>84</v>
       </c>
       <c r="H185" t="str">
-        <f>CONCATENATE(A185, "_", F185, "_", G185)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I185">
@@ -8782,7 +8788,7 @@
         <v>159</v>
       </c>
       <c r="K185" t="s">
-        <v>504</v>
+        <v>432</v>
       </c>
     </row>
     <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8805,7 +8811,7 @@
         <v>84</v>
       </c>
       <c r="H186" t="str">
-        <f>CONCATENATE(A186, "_", F186, "_", G186)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I186">
@@ -8815,7 +8821,7 @@
         <v>160</v>
       </c>
       <c r="K186" t="s">
-        <v>505</v>
+        <v>433</v>
       </c>
     </row>
     <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8838,7 +8844,7 @@
         <v>86</v>
       </c>
       <c r="H187" t="str">
-        <f>CONCATENATE(A187, "_", F187, "_", G187)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I187">
@@ -8848,7 +8854,7 @@
         <v>153</v>
       </c>
       <c r="K187" t="s">
-        <v>494</v>
+        <v>426</v>
       </c>
     </row>
     <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8871,7 +8877,7 @@
         <v>86</v>
       </c>
       <c r="H188" t="str">
-        <f>CONCATENATE(A188, "_", F188, "_", G188)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I188">
@@ -8881,7 +8887,7 @@
         <v>154</v>
       </c>
       <c r="K188" t="s">
-        <v>495</v>
+        <v>427</v>
       </c>
     </row>
     <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8904,7 +8910,7 @@
         <v>88</v>
       </c>
       <c r="H189" t="str">
-        <f>CONCATENATE(A189, "_", F189, "_", G189)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I189">
@@ -8914,7 +8920,7 @@
         <v>171</v>
       </c>
       <c r="K189" t="s">
-        <v>520</v>
+        <v>444</v>
       </c>
     </row>
     <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8937,7 +8943,7 @@
         <v>88</v>
       </c>
       <c r="H190" t="str">
-        <f>CONCATENATE(A190, "_", F190, "_", G190)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I190">
@@ -8947,7 +8953,7 @@
         <v>172</v>
       </c>
       <c r="K190" t="s">
-        <v>521</v>
+        <v>445</v>
       </c>
     </row>
     <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8970,7 +8976,7 @@
         <v>87</v>
       </c>
       <c r="H191" t="str">
-        <f>CONCATENATE(A191, "_", F191, "_", G191)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I191">
@@ -8980,7 +8986,7 @@
         <v>165</v>
       </c>
       <c r="K191" t="s">
-        <v>510</v>
+        <v>438</v>
       </c>
     </row>
     <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9003,7 +9009,7 @@
         <v>87</v>
       </c>
       <c r="H192" t="str">
-        <f>CONCATENATE(A192, "_", F192, "_", G192)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I192">
@@ -9013,7 +9019,7 @@
         <v>166</v>
       </c>
       <c r="K192" t="s">
-        <v>511</v>
+        <v>439</v>
       </c>
     </row>
     <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9036,7 +9042,7 @@
         <v>90</v>
       </c>
       <c r="H193" t="str">
-        <f>CONCATENATE(A193, "_", F193, "_", G193)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I193">
@@ -9046,7 +9052,7 @@
         <v>183</v>
       </c>
       <c r="K193" t="s">
-        <v>540</v>
+        <v>456</v>
       </c>
     </row>
     <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9069,7 +9075,7 @@
         <v>90</v>
       </c>
       <c r="H194" t="str">
-        <f>CONCATENATE(A194, "_", F194, "_", G194)</f>
+        <f t="shared" ref="H194:H257" si="3">CONCATENATE(A194, "_", F194, "_", G194)</f>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I194">
@@ -9079,7 +9085,7 @@
         <v>184</v>
       </c>
       <c r="K194" t="s">
-        <v>541</v>
+        <v>457</v>
       </c>
     </row>
     <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9102,7 +9108,7 @@
         <v>89</v>
       </c>
       <c r="H195" t="str">
-        <f>CONCATENATE(A195, "_", F195, "_", G195)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I195">
@@ -9112,7 +9118,7 @@
         <v>177</v>
       </c>
       <c r="K195" t="s">
-        <v>530</v>
+        <v>450</v>
       </c>
     </row>
     <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9135,7 +9141,7 @@
         <v>89</v>
       </c>
       <c r="H196" t="str">
-        <f>CONCATENATE(A196, "_", F196, "_", G196)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I196">
@@ -9145,7 +9151,7 @@
         <v>178</v>
       </c>
       <c r="K196" t="s">
-        <v>531</v>
+        <v>451</v>
       </c>
     </row>
     <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9168,7 +9174,7 @@
         <v>84</v>
       </c>
       <c r="H197" t="str">
-        <f>CONCATENATE(A197, "_", F197, "_", G197)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I197">
@@ -9178,7 +9184,7 @@
         <v>161</v>
       </c>
       <c r="K197" t="s">
-        <v>506</v>
+        <v>434</v>
       </c>
     </row>
     <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9201,7 +9207,7 @@
         <v>84</v>
       </c>
       <c r="H198" t="str">
-        <f>CONCATENATE(A198, "_", F198, "_", G198)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I198">
@@ -9211,7 +9217,7 @@
         <v>162</v>
       </c>
       <c r="K198" t="s">
-        <v>507</v>
+        <v>435</v>
       </c>
     </row>
     <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9234,7 +9240,7 @@
         <v>86</v>
       </c>
       <c r="H199" t="str">
-        <f>CONCATENATE(A199, "_", F199, "_", G199)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I199">
@@ -9244,7 +9250,7 @@
         <v>155</v>
       </c>
       <c r="K199" t="s">
-        <v>496</v>
+        <v>428</v>
       </c>
     </row>
     <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9267,7 +9273,7 @@
         <v>86</v>
       </c>
       <c r="H200" t="str">
-        <f>CONCATENATE(A200, "_", F200, "_", G200)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I200">
@@ -9277,7 +9283,7 @@
         <v>156</v>
       </c>
       <c r="K200" t="s">
-        <v>497</v>
+        <v>429</v>
       </c>
     </row>
     <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9300,7 +9306,7 @@
         <v>88</v>
       </c>
       <c r="H201" t="str">
-        <f>CONCATENATE(A201, "_", F201, "_", G201)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I201">
@@ -9310,7 +9316,7 @@
         <v>173</v>
       </c>
       <c r="K201" t="s">
-        <v>522</v>
+        <v>446</v>
       </c>
     </row>
     <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9333,7 +9339,7 @@
         <v>88</v>
       </c>
       <c r="H202" t="str">
-        <f>CONCATENATE(A202, "_", F202, "_", G202)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I202">
@@ -9343,7 +9349,7 @@
         <v>174</v>
       </c>
       <c r="K202" t="s">
-        <v>523</v>
+        <v>447</v>
       </c>
     </row>
     <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9366,7 +9372,7 @@
         <v>87</v>
       </c>
       <c r="H203" t="str">
-        <f>CONCATENATE(A203, "_", F203, "_", G203)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I203">
@@ -9376,7 +9382,7 @@
         <v>167</v>
       </c>
       <c r="K203" t="s">
-        <v>512</v>
+        <v>440</v>
       </c>
     </row>
     <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9399,7 +9405,7 @@
         <v>87</v>
       </c>
       <c r="H204" t="str">
-        <f>CONCATENATE(A204, "_", F204, "_", G204)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I204">
@@ -9409,7 +9415,7 @@
         <v>168</v>
       </c>
       <c r="K204" t="s">
-        <v>513</v>
+        <v>441</v>
       </c>
     </row>
     <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9432,7 +9438,7 @@
         <v>90</v>
       </c>
       <c r="H205" t="str">
-        <f>CONCATENATE(A205, "_", F205, "_", G205)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I205">
@@ -9442,7 +9448,7 @@
         <v>185</v>
       </c>
       <c r="K205" t="s">
-        <v>542</v>
+        <v>458</v>
       </c>
     </row>
     <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9465,7 +9471,7 @@
         <v>90</v>
       </c>
       <c r="H206" t="str">
-        <f>CONCATENATE(A206, "_", F206, "_", G206)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I206">
@@ -9475,7 +9481,7 @@
         <v>186</v>
       </c>
       <c r="K206" t="s">
-        <v>543</v>
+        <v>459</v>
       </c>
     </row>
     <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9498,7 +9504,7 @@
         <v>89</v>
       </c>
       <c r="H207" t="str">
-        <f>CONCATENATE(A207, "_", F207, "_", G207)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I207">
@@ -9508,7 +9514,7 @@
         <v>179</v>
       </c>
       <c r="K207" t="s">
-        <v>532</v>
+        <v>452</v>
       </c>
     </row>
     <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9531,7 +9537,7 @@
         <v>89</v>
       </c>
       <c r="H208" t="str">
-        <f>CONCATENATE(A208, "_", F208, "_", G208)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I208">
@@ -9541,7 +9547,7 @@
         <v>180</v>
       </c>
       <c r="K208" t="s">
-        <v>533</v>
+        <v>453</v>
       </c>
     </row>
     <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9564,7 +9570,7 @@
         <v>84</v>
       </c>
       <c r="H209" t="str">
-        <f>CONCATENATE(A209, "_", F209, "_", G209)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I209">
@@ -9574,7 +9580,7 @@
         <v>222</v>
       </c>
       <c r="K209" t="s">
-        <v>556</v>
+        <v>464</v>
       </c>
     </row>
     <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9597,7 +9603,7 @@
         <v>84</v>
       </c>
       <c r="H210" t="str">
-        <f>CONCATENATE(A210, "_", F210, "_", G210)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I210">
@@ -9607,7 +9613,7 @@
         <v>223</v>
       </c>
       <c r="K210" t="s">
-        <v>557</v>
+        <v>465</v>
       </c>
     </row>
     <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9630,7 +9636,7 @@
         <v>86</v>
       </c>
       <c r="H211" t="str">
-        <f>CONCATENATE(A211, "_", F211, "_", G211)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I211">
@@ -9640,7 +9646,7 @@
         <v>220</v>
       </c>
       <c r="K211" t="s">
-        <v>554</v>
+        <v>462</v>
       </c>
     </row>
     <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9663,7 +9669,7 @@
         <v>86</v>
       </c>
       <c r="H212" t="str">
-        <f>CONCATENATE(A212, "_", F212, "_", G212)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I212">
@@ -9673,7 +9679,7 @@
         <v>221</v>
       </c>
       <c r="K212" t="s">
-        <v>555</v>
+        <v>463</v>
       </c>
     </row>
     <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9696,7 +9702,7 @@
         <v>88</v>
       </c>
       <c r="H213" t="str">
-        <f>CONCATENATE(A213, "_", F213, "_", G213)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I213">
@@ -9706,7 +9712,7 @@
         <v>224</v>
       </c>
       <c r="K213" t="s">
-        <v>558</v>
+        <v>466</v>
       </c>
     </row>
     <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9729,7 +9735,7 @@
         <v>88</v>
       </c>
       <c r="H214" t="str">
-        <f>CONCATENATE(A214, "_", F214, "_", G214)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I214">
@@ -9739,7 +9745,7 @@
         <v>225</v>
       </c>
       <c r="K214" t="s">
-        <v>559</v>
+        <v>467</v>
       </c>
     </row>
     <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9762,7 +9768,7 @@
         <v>87</v>
       </c>
       <c r="H215" t="str">
-        <f>CONCATENATE(A215, "_", F215, "_", G215)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I215">
@@ -9772,7 +9778,7 @@
         <v>226</v>
       </c>
       <c r="K215" t="s">
-        <v>560</v>
+        <v>468</v>
       </c>
     </row>
     <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9795,7 +9801,7 @@
         <v>87</v>
       </c>
       <c r="H216" t="str">
-        <f>CONCATENATE(A216, "_", F216, "_", G216)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I216">
@@ -9805,7 +9811,7 @@
         <v>227</v>
       </c>
       <c r="K216" t="s">
-        <v>561</v>
+        <v>469</v>
       </c>
     </row>
     <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9828,7 +9834,7 @@
         <v>90</v>
       </c>
       <c r="H217" t="str">
-        <f>CONCATENATE(A217, "_", F217, "_", G217)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I217">
@@ -9838,7 +9844,7 @@
         <v>228</v>
       </c>
       <c r="K217" t="s">
-        <v>562</v>
+        <v>470</v>
       </c>
     </row>
     <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9861,7 +9867,7 @@
         <v>90</v>
       </c>
       <c r="H218" t="str">
-        <f>CONCATENATE(A218, "_", F218, "_", G218)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I218">
@@ -9871,7 +9877,7 @@
         <v>229</v>
       </c>
       <c r="K218" t="s">
-        <v>563</v>
+        <v>471</v>
       </c>
     </row>
     <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9894,7 +9900,7 @@
         <v>89</v>
       </c>
       <c r="H219" t="str">
-        <f>CONCATENATE(A219, "_", F219, "_", G219)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I219">
@@ -9904,7 +9910,7 @@
         <v>230</v>
       </c>
       <c r="K219" t="s">
-        <v>564</v>
+        <v>472</v>
       </c>
     </row>
     <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9927,7 +9933,7 @@
         <v>89</v>
       </c>
       <c r="H220" t="str">
-        <f>CONCATENATE(A220, "_", F220, "_", G220)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I220">
@@ -9937,7 +9943,7 @@
         <v>231</v>
       </c>
       <c r="K220" t="s">
-        <v>565</v>
+        <v>473</v>
       </c>
     </row>
     <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9960,7 +9966,7 @@
         <v>84</v>
       </c>
       <c r="H221" t="str">
-        <f>CONCATENATE(A221, "_", F221, "_", G221)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I221">
@@ -9970,7 +9976,7 @@
         <v>163</v>
       </c>
       <c r="K221" t="s">
-        <v>508</v>
+        <v>436</v>
       </c>
     </row>
     <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9993,7 +9999,7 @@
         <v>84</v>
       </c>
       <c r="H222" t="str">
-        <f>CONCATENATE(A222, "_", F222, "_", G222)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I222">
@@ -10003,7 +10009,7 @@
         <v>164</v>
       </c>
       <c r="K222" t="s">
-        <v>509</v>
+        <v>437</v>
       </c>
     </row>
     <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10026,7 +10032,7 @@
         <v>86</v>
       </c>
       <c r="H223" t="str">
-        <f>CONCATENATE(A223, "_", F223, "_", G223)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I223">
@@ -10036,7 +10042,7 @@
         <v>157</v>
       </c>
       <c r="K223" t="s">
-        <v>498</v>
+        <v>430</v>
       </c>
     </row>
     <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10059,7 +10065,7 @@
         <v>86</v>
       </c>
       <c r="H224" t="str">
-        <f>CONCATENATE(A224, "_", F224, "_", G224)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I224">
@@ -10069,7 +10075,7 @@
         <v>158</v>
       </c>
       <c r="K224" t="s">
-        <v>499</v>
+        <v>431</v>
       </c>
     </row>
     <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10092,7 +10098,7 @@
         <v>88</v>
       </c>
       <c r="H225" t="str">
-        <f>CONCATENATE(A225, "_", F225, "_", G225)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I225">
@@ -10102,7 +10108,7 @@
         <v>175</v>
       </c>
       <c r="K225" t="s">
-        <v>524</v>
+        <v>448</v>
       </c>
     </row>
     <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10125,7 +10131,7 @@
         <v>88</v>
       </c>
       <c r="H226" t="str">
-        <f>CONCATENATE(A226, "_", F226, "_", G226)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I226">
@@ -10135,7 +10141,7 @@
         <v>176</v>
       </c>
       <c r="K226" t="s">
-        <v>525</v>
+        <v>449</v>
       </c>
     </row>
     <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10158,7 +10164,7 @@
         <v>87</v>
       </c>
       <c r="H227" t="str">
-        <f>CONCATENATE(A227, "_", F227, "_", G227)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I227">
@@ -10168,7 +10174,7 @@
         <v>169</v>
       </c>
       <c r="K227" t="s">
-        <v>514</v>
+        <v>442</v>
       </c>
     </row>
     <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10191,7 +10197,7 @@
         <v>87</v>
       </c>
       <c r="H228" t="str">
-        <f>CONCATENATE(A228, "_", F228, "_", G228)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I228">
@@ -10201,7 +10207,7 @@
         <v>170</v>
       </c>
       <c r="K228" t="s">
-        <v>515</v>
+        <v>443</v>
       </c>
     </row>
     <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10224,7 +10230,7 @@
         <v>90</v>
       </c>
       <c r="H229" t="str">
-        <f>CONCATENATE(A229, "_", F229, "_", G229)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I229">
@@ -10234,7 +10240,7 @@
         <v>187</v>
       </c>
       <c r="K229" t="s">
-        <v>544</v>
+        <v>460</v>
       </c>
     </row>
     <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10257,7 +10263,7 @@
         <v>90</v>
       </c>
       <c r="H230" t="str">
-        <f>CONCATENATE(A230, "_", F230, "_", G230)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I230">
@@ -10267,7 +10273,7 @@
         <v>188</v>
       </c>
       <c r="K230" t="s">
-        <v>545</v>
+        <v>461</v>
       </c>
     </row>
     <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10290,7 +10296,7 @@
         <v>89</v>
       </c>
       <c r="H231" t="str">
-        <f>CONCATENATE(A231, "_", F231, "_", G231)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I231">
@@ -10300,7 +10306,7 @@
         <v>181</v>
       </c>
       <c r="K231" t="s">
-        <v>534</v>
+        <v>454</v>
       </c>
     </row>
     <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10323,7 +10329,7 @@
         <v>89</v>
       </c>
       <c r="H232" t="str">
-        <f>CONCATENATE(A232, "_", F232, "_", G232)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I232">
@@ -10333,7 +10339,7 @@
         <v>182</v>
       </c>
       <c r="K232" t="s">
-        <v>535</v>
+        <v>455</v>
       </c>
     </row>
     <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10347,7 +10353,7 @@
         <v>205</v>
       </c>
       <c r="E233" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="F233" t="s">
         <v>13</v>
@@ -10356,17 +10362,17 @@
         <v>84</v>
       </c>
       <c r="H233" t="str">
-        <f>CONCATENATE(A233, "_", F233, "_", G233)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I233">
         <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>277</v>
+        <v>592</v>
       </c>
       <c r="K233" t="s">
-        <v>550</v>
+        <v>593</v>
       </c>
     </row>
     <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10380,7 +10386,7 @@
         <v>205</v>
       </c>
       <c r="E234" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="F234" t="s">
         <v>13</v>
@@ -10389,17 +10395,17 @@
         <v>84</v>
       </c>
       <c r="H234" t="str">
-        <f>CONCATENATE(A234, "_", F234, "_", G234)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I234">
         <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>278</v>
+        <v>594</v>
       </c>
       <c r="K234" t="s">
-        <v>551</v>
+        <v>595</v>
       </c>
     </row>
     <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10413,7 +10419,7 @@
         <v>205</v>
       </c>
       <c r="E235" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="F235" t="s">
         <v>13</v>
@@ -10422,17 +10428,17 @@
         <v>84</v>
       </c>
       <c r="H235" t="str">
-        <f>CONCATENATE(A235, "_", F235, "_", G235)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I235">
         <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>279</v>
+        <v>596</v>
       </c>
       <c r="K235" t="s">
-        <v>552</v>
+        <v>597</v>
       </c>
     </row>
     <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10446,7 +10452,7 @@
         <v>205</v>
       </c>
       <c r="E236" t="s">
-        <v>288</v>
+        <v>240</v>
       </c>
       <c r="F236" t="s">
         <v>13</v>
@@ -10455,17 +10461,17 @@
         <v>84</v>
       </c>
       <c r="H236" t="str">
-        <f>CONCATENATE(A236, "_", F236, "_", G236)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I236">
         <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>280</v>
+        <v>598</v>
       </c>
       <c r="K236" t="s">
-        <v>553</v>
+        <v>599</v>
       </c>
     </row>
     <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10491,17 +10497,17 @@
         <v>84</v>
       </c>
       <c r="H237" t="str">
-        <f>CONCATENATE(A237, "_", F237, "_", G237)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I237">
         <v>3</v>
       </c>
       <c r="J237" t="s">
-        <v>341</v>
+        <v>293</v>
       </c>
       <c r="K237" t="s">
-        <v>466</v>
+        <v>398</v>
       </c>
     </row>
     <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10527,17 +10533,17 @@
         <v>84</v>
       </c>
       <c r="H238" t="str">
-        <f>CONCATENATE(A238, "_", F238, "_", G238)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I238">
         <v>3</v>
       </c>
       <c r="J238" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="K238" t="s">
-        <v>467</v>
+        <v>399</v>
       </c>
     </row>
     <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10563,17 +10569,17 @@
         <v>84</v>
       </c>
       <c r="H239" t="str">
-        <f>CONCATENATE(A239, "_", F239, "_", G239)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I239">
         <v>3</v>
       </c>
       <c r="J239" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="K239" t="s">
-        <v>468</v>
+        <v>400</v>
       </c>
     </row>
     <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10599,17 +10605,17 @@
         <v>84</v>
       </c>
       <c r="H240" t="str">
-        <f>CONCATENATE(A240, "_", F240, "_", G240)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I240">
         <v>3</v>
       </c>
       <c r="J240" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="K240" t="s">
-        <v>469</v>
+        <v>401</v>
       </c>
     </row>
     <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10635,17 +10641,17 @@
         <v>84</v>
       </c>
       <c r="H241" t="str">
-        <f>CONCATENATE(A241, "_", F241, "_", G241)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I241">
         <v>3</v>
       </c>
       <c r="J241" t="s">
-        <v>345</v>
+        <v>297</v>
       </c>
       <c r="K241" t="s">
-        <v>470</v>
+        <v>402</v>
       </c>
     </row>
     <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10671,17 +10677,17 @@
         <v>84</v>
       </c>
       <c r="H242" t="str">
-        <f>CONCATENATE(A242, "_", F242, "_", G242)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I242">
         <v>3</v>
       </c>
       <c r="J242" t="s">
-        <v>346</v>
+        <v>298</v>
       </c>
       <c r="K242" t="s">
-        <v>471</v>
+        <v>403</v>
       </c>
     </row>
     <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10707,17 +10713,17 @@
         <v>84</v>
       </c>
       <c r="H243" t="str">
-        <f>CONCATENATE(A243, "_", F243, "_", G243)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I243">
         <v>3</v>
       </c>
       <c r="J243" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="K243" t="s">
-        <v>472</v>
+        <v>404</v>
       </c>
     </row>
     <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10743,17 +10749,17 @@
         <v>84</v>
       </c>
       <c r="H244" t="str">
-        <f>CONCATENATE(A244, "_", F244, "_", G244)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I244">
         <v>3</v>
       </c>
       <c r="J244" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="K244" t="s">
-        <v>473</v>
+        <v>405</v>
       </c>
     </row>
     <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10779,17 +10785,17 @@
         <v>84</v>
       </c>
       <c r="H245" t="str">
-        <f>CONCATENATE(A245, "_", F245, "_", G245)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I245">
         <v>3</v>
       </c>
       <c r="J245" t="s">
-        <v>349</v>
+        <v>301</v>
       </c>
       <c r="K245" t="s">
-        <v>474</v>
+        <v>406</v>
       </c>
     </row>
     <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10815,17 +10821,17 @@
         <v>84</v>
       </c>
       <c r="H246" t="str">
-        <f>CONCATENATE(A246, "_", F246, "_", G246)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I246">
         <v>3</v>
       </c>
       <c r="J246" t="s">
-        <v>350</v>
+        <v>302</v>
       </c>
       <c r="K246" t="s">
-        <v>475</v>
+        <v>407</v>
       </c>
     </row>
     <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10851,17 +10857,17 @@
         <v>84</v>
       </c>
       <c r="H247" t="str">
-        <f>CONCATENATE(A247, "_", F247, "_", G247)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I247">
         <v>3</v>
       </c>
       <c r="J247" t="s">
-        <v>351</v>
+        <v>303</v>
       </c>
       <c r="K247" t="s">
-        <v>476</v>
+        <v>408</v>
       </c>
     </row>
     <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10887,17 +10893,17 @@
         <v>84</v>
       </c>
       <c r="H248" t="str">
-        <f>CONCATENATE(A248, "_", F248, "_", G248)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I248">
         <v>3</v>
       </c>
       <c r="J248" t="s">
-        <v>352</v>
+        <v>304</v>
       </c>
       <c r="K248" t="s">
-        <v>477</v>
+        <v>409</v>
       </c>
     </row>
     <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10923,17 +10929,17 @@
         <v>84</v>
       </c>
       <c r="H249" t="str">
-        <f>CONCATENATE(A249, "_", F249, "_", G249)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I249">
         <v>3</v>
       </c>
       <c r="J249" t="s">
-        <v>353</v>
+        <v>305</v>
       </c>
       <c r="K249" t="s">
-        <v>478</v>
+        <v>410</v>
       </c>
     </row>
     <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10959,17 +10965,17 @@
         <v>84</v>
       </c>
       <c r="H250" t="str">
-        <f>CONCATENATE(A250, "_", F250, "_", G250)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I250">
         <v>3</v>
       </c>
       <c r="J250" t="s">
-        <v>354</v>
+        <v>306</v>
       </c>
       <c r="K250" t="s">
-        <v>479</v>
+        <v>411</v>
       </c>
     </row>
     <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10995,17 +11001,17 @@
         <v>84</v>
       </c>
       <c r="H251" t="str">
-        <f>CONCATENATE(A251, "_", F251, "_", G251)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I251">
         <v>3</v>
       </c>
       <c r="J251" t="s">
-        <v>355</v>
+        <v>307</v>
       </c>
       <c r="K251" t="s">
-        <v>480</v>
+        <v>412</v>
       </c>
     </row>
     <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11031,17 +11037,17 @@
         <v>84</v>
       </c>
       <c r="H252" t="str">
-        <f>CONCATENATE(A252, "_", F252, "_", G252)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I252">
         <v>3</v>
       </c>
       <c r="J252" t="s">
-        <v>356</v>
+        <v>308</v>
       </c>
       <c r="K252" t="s">
-        <v>481</v>
+        <v>413</v>
       </c>
     </row>
     <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11058,7 +11064,7 @@
         <v>84</v>
       </c>
       <c r="H253" t="str">
-        <f>CONCATENATE(A253, "_", F253, "_", G253)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I253">
@@ -11068,7 +11074,7 @@
         <v>112</v>
       </c>
       <c r="K253" t="s">
-        <v>566</v>
+        <v>474</v>
       </c>
     </row>
     <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11085,7 +11091,7 @@
         <v>84</v>
       </c>
       <c r="H254" t="str">
-        <f>CONCATENATE(A254, "_", F254, "_", G254)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I254">
@@ -11095,7 +11101,7 @@
         <v>113</v>
       </c>
       <c r="K254" t="s">
-        <v>567</v>
+        <v>475</v>
       </c>
     </row>
     <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11106,23 +11112,23 @@
         <v>11</v>
       </c>
       <c r="F255" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="G255" t="s">
         <v>84</v>
       </c>
       <c r="H255" t="str">
-        <f>CONCATENATE(A255, "_", F255, "_", G255)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I255">
         <v>3</v>
       </c>
       <c r="J255" t="s">
-        <v>281</v>
+        <v>233</v>
       </c>
       <c r="K255" t="s">
-        <v>568</v>
+        <v>476</v>
       </c>
     </row>
     <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11139,7 +11145,7 @@
         <v>84</v>
       </c>
       <c r="H256" t="str">
-        <f>CONCATENATE(A256, "_", F256, "_", G256)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I256">
@@ -11149,7 +11155,7 @@
         <v>114</v>
       </c>
       <c r="K256" t="s">
-        <v>569</v>
+        <v>477</v>
       </c>
     </row>
     <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11166,7 +11172,7 @@
         <v>84</v>
       </c>
       <c r="H257" t="str">
-        <f>CONCATENATE(A257, "_", F257, "_", G257)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I257">
@@ -11176,7 +11182,7 @@
         <v>115</v>
       </c>
       <c r="K257" t="s">
-        <v>570</v>
+        <v>478</v>
       </c>
     </row>
     <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11187,23 +11193,23 @@
         <v>8</v>
       </c>
       <c r="F258" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="G258" t="s">
         <v>84</v>
       </c>
       <c r="H258" t="str">
-        <f>CONCATENATE(A258, "_", F258, "_", G258)</f>
+        <f t="shared" ref="H258:H321" si="4">CONCATENATE(A258, "_", F258, "_", G258)</f>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I258">
         <v>3</v>
       </c>
       <c r="J258" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="K258" t="s">
-        <v>571</v>
+        <v>479</v>
       </c>
     </row>
     <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11220,17 +11226,17 @@
         <v>84</v>
       </c>
       <c r="H259" t="str">
-        <f>CONCATENATE(A259, "_", F259, "_", G259)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I259">
         <v>3</v>
       </c>
       <c r="J259" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="K259" t="s">
-        <v>572</v>
+        <v>480</v>
       </c>
     </row>
     <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11247,17 +11253,17 @@
         <v>84</v>
       </c>
       <c r="H260" t="str">
-        <f>CONCATENATE(A260, "_", F260, "_", G260)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I260">
         <v>3</v>
       </c>
       <c r="J260" t="s">
-        <v>284</v>
+        <v>236</v>
       </c>
       <c r="K260" t="s">
-        <v>573</v>
+        <v>481</v>
       </c>
     </row>
     <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11268,23 +11274,23 @@
         <v>9</v>
       </c>
       <c r="F261" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="G261" t="s">
         <v>84</v>
       </c>
       <c r="H261" t="str">
-        <f>CONCATENATE(A261, "_", F261, "_", G261)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I261">
         <v>3</v>
       </c>
       <c r="J261" t="s">
-        <v>285</v>
+        <v>237</v>
       </c>
       <c r="K261" t="s">
-        <v>574</v>
+        <v>482</v>
       </c>
     </row>
     <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11301,7 +11307,7 @@
         <v>84</v>
       </c>
       <c r="H262" t="str">
-        <f>CONCATENATE(A262, "_", F262, "_", G262)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I262">
@@ -11311,7 +11317,7 @@
         <v>116</v>
       </c>
       <c r="K262" t="s">
-        <v>575</v>
+        <v>483</v>
       </c>
     </row>
     <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11328,7 +11334,7 @@
         <v>84</v>
       </c>
       <c r="H263" t="str">
-        <f>CONCATENATE(A263, "_", F263, "_", G263)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I263">
@@ -11338,7 +11344,7 @@
         <v>117</v>
       </c>
       <c r="K263" t="s">
-        <v>576</v>
+        <v>484</v>
       </c>
     </row>
     <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11349,40 +11355,72 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="G264" t="s">
         <v>84</v>
       </c>
       <c r="H264" t="str">
-        <f>CONCATENATE(A264, "_", F264, "_", G264)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I264">
         <v>3</v>
       </c>
       <c r="J264" t="s">
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="K264" t="s">
-        <v>577</v>
+        <v>485</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>20</v>
+      </c>
+      <c r="B265" t="s">
+        <v>206</v>
+      </c>
+      <c r="C265" t="s">
+        <v>205</v>
+      </c>
+      <c r="D265" t="s">
+        <v>205</v>
+      </c>
+      <c r="E265" t="s">
+        <v>8</v>
+      </c>
+      <c r="F265" t="s">
+        <v>14</v>
+      </c>
+      <c r="G265" t="s">
+        <v>86</v>
+      </c>
+      <c r="H265" t="str">
+        <f t="shared" si="4"/>
+        <v>THP-1_BR2_LPS</v>
+      </c>
+      <c r="I265">
+        <v>2</v>
+      </c>
+      <c r="J265" t="s">
+        <v>600</v>
+      </c>
+      <c r="K265" t="s">
+        <v>601</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K264">
+  <autoFilter ref="A1:K265">
     <filterColumn colId="0">
       <filters>
         <filter val="THP-1"/>
+        <filter val="U937"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">
       <filters>
-        <filter val="Control"/>
-        <filter val="CTCF"/>
-        <filter val="H3K27ac"/>
-        <filter val="H3K27me3"/>
-        <filter val="H3K4me3"/>
-        <filter val="Input"/>
+        <filter val="ATAC"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -11423,7 +11461,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>289</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
         <v>192</v>
@@ -11432,12 +11470,12 @@
         <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
         <v>192</v>
@@ -11446,12 +11484,12 @@
         <v>197</v>
       </c>
       <c r="D3" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>293</v>
+        <v>245</v>
       </c>
       <c r="B4" t="s">
         <v>193</v>
@@ -11460,26 +11498,26 @@
         <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>295</v>
+        <v>247</v>
       </c>
       <c r="B5" t="s">
-        <v>294</v>
+        <v>246</v>
       </c>
       <c r="C5" t="s">
         <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="B6" t="s">
         <v>193</v>
@@ -11488,21 +11526,21 @@
         <v>197</v>
       </c>
       <c r="D6" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>297</v>
+        <v>249</v>
       </c>
       <c r="B7" t="s">
         <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="D7" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -11516,21 +11554,21 @@
         <v>198</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="B9" t="s">
         <v>193</v>
       </c>
       <c r="C9" t="s">
-        <v>298</v>
+        <v>250</v>
       </c>
       <c r="D9" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -11544,34 +11582,34 @@
         <v>198</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="C11" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="D11" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="D12" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="B13" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="C13" t="s">
         <v>201</v>
@@ -11579,10 +11617,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="B14" t="s">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="C14" t="s">
         <v>201</v>

--- a/inst/extdata/data_gsk.xlsx
+++ b/inst/extdata/data_gsk.xlsx
@@ -11,14 +11,14 @@
     <sheet name="other_cell_lines" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$K$265</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$K$272</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2316" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="609">
   <si>
     <t>Cell</t>
   </si>
@@ -1824,6 +1824,27 @@
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_CL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bam/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes87_ATAC_P3Lungepitheliacelltypes87_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bam/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes87_ATAC_P3Lungepitheliacelltypes87_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bam/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes87_ATAC_P3Lungepitheliacelltypes87_bwa_samse_BR3TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes87_ATAC_P3Lungepitheliacelltypes87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes87_ATAC_P3Lungepitheliacelltypes87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes87_ATAC_P3Lungepitheliacelltypes87_bwa_samse_BR3TR1_edited.bw</t>
   </si>
 </sst>
 </file>
@@ -2208,12 +2229,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K265"/>
+  <dimension ref="A1:K272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E76" sqref="E76"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2266,7 +2286,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2302,7 +2322,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2338,7 +2358,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2374,7 +2394,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2410,7 +2430,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2446,7 +2466,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2482,7 +2502,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -2518,7 +2538,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -2554,7 +2574,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -2590,7 +2610,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -2626,7 +2646,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2662,7 +2682,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2698,7 +2718,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -2734,7 +2754,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2770,7 +2790,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2806,7 +2826,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2842,7 +2862,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2878,7 +2898,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -2914,7 +2934,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2950,7 +2970,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2986,7 +3006,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -3022,7 +3042,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -3058,7 +3078,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -3094,7 +3114,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -3130,7 +3150,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -3166,7 +3186,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -3202,7 +3222,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -3238,7 +3258,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -3274,7 +3294,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -3310,7 +3330,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -3346,7 +3366,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -3382,7 +3402,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -3418,7 +3438,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -3454,7 +3474,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -3490,7 +3510,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -3526,7 +3546,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -3562,7 +3582,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -3598,7 +3618,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -3634,7 +3654,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -3670,7 +3690,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -3706,7 +3726,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -3742,7 +3762,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -3778,7 +3798,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -3814,7 +3834,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -3850,7 +3870,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -3886,7 +3906,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -3922,7 +3942,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -3958,7 +3978,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -3994,7 +4014,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -4030,7 +4050,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -4066,7 +4086,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -4102,7 +4122,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -4138,7 +4158,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -4174,7 +4194,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -4210,7 +4230,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -4246,7 +4266,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -4282,7 +4302,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -4318,7 +4338,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -4354,7 +4374,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -4390,7 +4410,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -4426,7 +4446,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -4462,7 +4482,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -4498,7 +4518,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -4534,7 +4554,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -4570,7 +4590,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -4606,7 +4626,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -4642,7 +4662,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -4678,7 +4698,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -4714,7 +4734,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -4750,7 +4770,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -4809,7 +4829,7 @@
         <v>84</v>
       </c>
       <c r="H72" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A72, "_", F72, "_", G72)</f>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I72">
@@ -4845,7 +4865,7 @@
         <v>84</v>
       </c>
       <c r="H73" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A73, "_", F73, "_", G73)</f>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I73">
@@ -4881,7 +4901,7 @@
         <v>86</v>
       </c>
       <c r="H74" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A74, "_", F74, "_", G74)</f>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I74">
@@ -4917,7 +4937,7 @@
         <v>86</v>
       </c>
       <c r="H75" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A75, "_", F75, "_", G75)</f>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I75">
@@ -4953,7 +4973,7 @@
         <v>88</v>
       </c>
       <c r="H76" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A76, "_", F76, "_", G76)</f>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I76">
@@ -4989,7 +5009,7 @@
         <v>88</v>
       </c>
       <c r="H77" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A77, "_", F77, "_", G77)</f>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I77">
@@ -5025,7 +5045,7 @@
         <v>87</v>
       </c>
       <c r="H78" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A78, "_", F78, "_", G78)</f>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I78">
@@ -5061,7 +5081,7 @@
         <v>87</v>
       </c>
       <c r="H79" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A79, "_", F79, "_", G79)</f>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I79">
@@ -5097,7 +5117,7 @@
         <v>90</v>
       </c>
       <c r="H80" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A80, "_", F80, "_", G80)</f>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I80">
@@ -5133,7 +5153,7 @@
         <v>89</v>
       </c>
       <c r="H81" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A81, "_", F81, "_", G81)</f>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I81">
@@ -5146,7 +5166,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -5169,7 +5189,7 @@
         <v>86</v>
       </c>
       <c r="H82" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A82, "_", F82, "_", G82)</f>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I82">
@@ -5182,7 +5202,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -5205,7 +5225,7 @@
         <v>86</v>
       </c>
       <c r="H83" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A83, "_", F83, "_", G83)</f>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I83">
@@ -5218,7 +5238,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -5241,7 +5261,7 @@
         <v>86</v>
       </c>
       <c r="H84" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A84, "_", F84, "_", G84)</f>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I84">
@@ -5254,7 +5274,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -5277,7 +5297,7 @@
         <v>86</v>
       </c>
       <c r="H85" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A85, "_", F85, "_", G85)</f>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I85">
@@ -5290,7 +5310,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -5313,7 +5333,7 @@
         <v>88</v>
       </c>
       <c r="H86" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A86, "_", F86, "_", G86)</f>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I86">
@@ -5326,7 +5346,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -5349,7 +5369,7 @@
         <v>88</v>
       </c>
       <c r="H87" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A87, "_", F87, "_", G87)</f>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I87">
@@ -5362,7 +5382,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -5385,7 +5405,7 @@
         <v>88</v>
       </c>
       <c r="H88" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A88, "_", F88, "_", G88)</f>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I88">
@@ -5398,7 +5418,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -5421,7 +5441,7 @@
         <v>88</v>
       </c>
       <c r="H89" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A89, "_", F89, "_", G89)</f>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I89">
@@ -5434,7 +5454,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -5457,7 +5477,7 @@
         <v>87</v>
       </c>
       <c r="H90" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A90, "_", F90, "_", G90)</f>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I90">
@@ -5470,7 +5490,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -5493,7 +5513,7 @@
         <v>87</v>
       </c>
       <c r="H91" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A91, "_", F91, "_", G91)</f>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I91">
@@ -5506,7 +5526,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -5529,7 +5549,7 @@
         <v>87</v>
       </c>
       <c r="H92" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A92, "_", F92, "_", G92)</f>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I92">
@@ -5542,7 +5562,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -5565,7 +5585,7 @@
         <v>87</v>
       </c>
       <c r="H93" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A93, "_", F93, "_", G93)</f>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I93">
@@ -5578,7 +5598,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -5601,7 +5621,7 @@
         <v>90</v>
       </c>
       <c r="H94" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A94, "_", F94, "_", G94)</f>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I94">
@@ -5614,7 +5634,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -5637,7 +5657,7 @@
         <v>90</v>
       </c>
       <c r="H95" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A95, "_", F95, "_", G95)</f>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I95">
@@ -5650,7 +5670,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -5673,7 +5693,7 @@
         <v>90</v>
       </c>
       <c r="H96" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A96, "_", F96, "_", G96)</f>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I96">
@@ -5686,7 +5706,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -5709,7 +5729,7 @@
         <v>90</v>
       </c>
       <c r="H97" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A97, "_", F97, "_", G97)</f>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I97">
@@ -5722,7 +5742,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -5745,7 +5765,7 @@
         <v>89</v>
       </c>
       <c r="H98" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A98, "_", F98, "_", G98)</f>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I98">
@@ -5758,7 +5778,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -5781,7 +5801,7 @@
         <v>89</v>
       </c>
       <c r="H99" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A99, "_", F99, "_", G99)</f>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I99">
@@ -5794,7 +5814,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -5817,7 +5837,7 @@
         <v>89</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A100, "_", F100, "_", G100)</f>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I100">
@@ -5830,7 +5850,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -5853,7 +5873,7 @@
         <v>89</v>
       </c>
       <c r="H101" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A101, "_", F101, "_", G101)</f>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I101">
@@ -5866,7 +5886,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -5889,7 +5909,7 @@
         <v>84</v>
       </c>
       <c r="H102" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A102, "_", F102, "_", G102)</f>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I102">
@@ -5902,7 +5922,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -5925,7 +5945,7 @@
         <v>84</v>
       </c>
       <c r="H103" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A103, "_", F103, "_", G103)</f>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I103">
@@ -5938,7 +5958,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -5961,7 +5981,7 @@
         <v>86</v>
       </c>
       <c r="H104" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A104, "_", F104, "_", G104)</f>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I104">
@@ -5974,7 +5994,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -5997,7 +6017,7 @@
         <v>86</v>
       </c>
       <c r="H105" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A105, "_", F105, "_", G105)</f>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I105">
@@ -6010,7 +6030,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -6033,7 +6053,7 @@
         <v>88</v>
       </c>
       <c r="H106" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A106, "_", F106, "_", G106)</f>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I106">
@@ -6046,7 +6066,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -6069,7 +6089,7 @@
         <v>88</v>
       </c>
       <c r="H107" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A107, "_", F107, "_", G107)</f>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I107">
@@ -6082,7 +6102,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -6105,7 +6125,7 @@
         <v>87</v>
       </c>
       <c r="H108" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A108, "_", F108, "_", G108)</f>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I108">
@@ -6118,7 +6138,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -6141,7 +6161,7 @@
         <v>87</v>
       </c>
       <c r="H109" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A109, "_", F109, "_", G109)</f>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I109">
@@ -6154,7 +6174,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -6177,7 +6197,7 @@
         <v>90</v>
       </c>
       <c r="H110" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A110, "_", F110, "_", G110)</f>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I110">
@@ -6190,7 +6210,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -6213,7 +6233,7 @@
         <v>90</v>
       </c>
       <c r="H111" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A111, "_", F111, "_", G111)</f>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I111">
@@ -6226,7 +6246,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>20</v>
       </c>
@@ -6249,7 +6269,7 @@
         <v>89</v>
       </c>
       <c r="H112" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A112, "_", F112, "_", G112)</f>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I112">
@@ -6262,7 +6282,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>20</v>
       </c>
@@ -6285,7 +6305,7 @@
         <v>89</v>
       </c>
       <c r="H113" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A113, "_", F113, "_", G113)</f>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I113">
@@ -6298,7 +6318,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -6321,7 +6341,7 @@
         <v>84</v>
       </c>
       <c r="H114" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A114, "_", F114, "_", G114)</f>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I114">
@@ -6334,7 +6354,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -6357,7 +6377,7 @@
         <v>84</v>
       </c>
       <c r="H115" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A115, "_", F115, "_", G115)</f>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I115">
@@ -6370,7 +6390,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -6393,7 +6413,7 @@
         <v>86</v>
       </c>
       <c r="H116" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A116, "_", F116, "_", G116)</f>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I116">
@@ -6406,7 +6426,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -6429,7 +6449,7 @@
         <v>88</v>
       </c>
       <c r="H117" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A117, "_", F117, "_", G117)</f>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I117">
@@ -6442,7 +6462,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -6465,7 +6485,7 @@
         <v>88</v>
       </c>
       <c r="H118" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A118, "_", F118, "_", G118)</f>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I118">
@@ -6478,7 +6498,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -6501,7 +6521,7 @@
         <v>87</v>
       </c>
       <c r="H119" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A119, "_", F119, "_", G119)</f>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I119">
@@ -6514,7 +6534,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -6537,7 +6557,7 @@
         <v>87</v>
       </c>
       <c r="H120" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A120, "_", F120, "_", G120)</f>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I120">
@@ -6550,7 +6570,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -6573,7 +6593,7 @@
         <v>90</v>
       </c>
       <c r="H121" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A121, "_", F121, "_", G121)</f>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I121">
@@ -6586,7 +6606,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -6609,7 +6629,7 @@
         <v>90</v>
       </c>
       <c r="H122" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A122, "_", F122, "_", G122)</f>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I122">
@@ -6622,7 +6642,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -6645,7 +6665,7 @@
         <v>89</v>
       </c>
       <c r="H123" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A123, "_", F123, "_", G123)</f>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I123">
@@ -6658,7 +6678,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -6681,7 +6701,7 @@
         <v>89</v>
       </c>
       <c r="H124" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A124, "_", F124, "_", G124)</f>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I124">
@@ -6694,7 +6714,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -6717,7 +6737,7 @@
         <v>84</v>
       </c>
       <c r="H125" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A125, "_", F125, "_", G125)</f>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I125">
@@ -6730,7 +6750,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -6753,7 +6773,7 @@
         <v>84</v>
       </c>
       <c r="H126" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A126, "_", F126, "_", G126)</f>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I126">
@@ -6766,7 +6786,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -6789,7 +6809,7 @@
         <v>86</v>
       </c>
       <c r="H127" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A127, "_", F127, "_", G127)</f>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I127">
@@ -6802,7 +6822,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>20</v>
       </c>
@@ -6825,7 +6845,7 @@
         <v>86</v>
       </c>
       <c r="H128" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A128, "_", F128, "_", G128)</f>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I128">
@@ -6838,7 +6858,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>20</v>
       </c>
@@ -6861,7 +6881,7 @@
         <v>88</v>
       </c>
       <c r="H129" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(A129, "_", F129, "_", G129)</f>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I129">
@@ -6874,7 +6894,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -6897,7 +6917,7 @@
         <v>88</v>
       </c>
       <c r="H130" t="str">
-        <f t="shared" ref="H130:H193" si="2">CONCATENATE(A130, "_", F130, "_", G130)</f>
+        <f>CONCATENATE(A130, "_", F130, "_", G130)</f>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I130">
@@ -6910,7 +6930,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>20</v>
       </c>
@@ -6933,7 +6953,7 @@
         <v>87</v>
       </c>
       <c r="H131" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A131, "_", F131, "_", G131)</f>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I131">
@@ -6946,7 +6966,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>20</v>
       </c>
@@ -6969,7 +6989,7 @@
         <v>87</v>
       </c>
       <c r="H132" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A132, "_", F132, "_", G132)</f>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I132">
@@ -6982,7 +7002,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>20</v>
       </c>
@@ -7005,7 +7025,7 @@
         <v>90</v>
       </c>
       <c r="H133" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A133, "_", F133, "_", G133)</f>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I133">
@@ -7018,7 +7038,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -7041,7 +7061,7 @@
         <v>90</v>
       </c>
       <c r="H134" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A134, "_", F134, "_", G134)</f>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I134">
@@ -7054,7 +7074,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>20</v>
       </c>
@@ -7077,7 +7097,7 @@
         <v>89</v>
       </c>
       <c r="H135" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A135, "_", F135, "_", G135)</f>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I135">
@@ -7090,7 +7110,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>20</v>
       </c>
@@ -7113,7 +7133,7 @@
         <v>89</v>
       </c>
       <c r="H136" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A136, "_", F136, "_", G136)</f>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I136">
@@ -7126,7 +7146,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -7149,7 +7169,7 @@
         <v>84</v>
       </c>
       <c r="H137" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A137, "_", F137, "_", G137)</f>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I137">
@@ -7162,7 +7182,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>20</v>
       </c>
@@ -7185,7 +7205,7 @@
         <v>84</v>
       </c>
       <c r="H138" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A138, "_", F138, "_", G138)</f>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I138">
@@ -7198,7 +7218,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -7221,7 +7241,7 @@
         <v>86</v>
       </c>
       <c r="H139" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A139, "_", F139, "_", G139)</f>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I139">
@@ -7234,7 +7254,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>20</v>
       </c>
@@ -7257,7 +7277,7 @@
         <v>86</v>
       </c>
       <c r="H140" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A140, "_", F140, "_", G140)</f>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I140">
@@ -7270,7 +7290,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -7293,7 +7313,7 @@
         <v>88</v>
       </c>
       <c r="H141" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A141, "_", F141, "_", G141)</f>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I141">
@@ -7306,7 +7326,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>20</v>
       </c>
@@ -7329,7 +7349,7 @@
         <v>88</v>
       </c>
       <c r="H142" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A142, "_", F142, "_", G142)</f>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I142">
@@ -7342,7 +7362,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>20</v>
       </c>
@@ -7365,7 +7385,7 @@
         <v>87</v>
       </c>
       <c r="H143" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A143, "_", F143, "_", G143)</f>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I143">
@@ -7378,7 +7398,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>20</v>
       </c>
@@ -7401,7 +7421,7 @@
         <v>87</v>
       </c>
       <c r="H144" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A144, "_", F144, "_", G144)</f>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I144">
@@ -7414,7 +7434,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -7437,7 +7457,7 @@
         <v>90</v>
       </c>
       <c r="H145" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A145, "_", F145, "_", G145)</f>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I145">
@@ -7450,7 +7470,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -7473,7 +7493,7 @@
         <v>90</v>
       </c>
       <c r="H146" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A146, "_", F146, "_", G146)</f>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I146">
@@ -7486,7 +7506,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>20</v>
       </c>
@@ -7509,7 +7529,7 @@
         <v>89</v>
       </c>
       <c r="H147" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A147, "_", F147, "_", G147)</f>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I147">
@@ -7522,7 +7542,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>20</v>
       </c>
@@ -7545,7 +7565,7 @@
         <v>89</v>
       </c>
       <c r="H148" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A148, "_", F148, "_", G148)</f>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I148">
@@ -7558,7 +7578,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>20</v>
       </c>
@@ -7581,7 +7601,7 @@
         <v>84</v>
       </c>
       <c r="H149" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A149, "_", F149, "_", G149)</f>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I149">
@@ -7594,7 +7614,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -7617,7 +7637,7 @@
         <v>84</v>
       </c>
       <c r="H150" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A150, "_", F150, "_", G150)</f>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I150">
@@ -7630,7 +7650,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>20</v>
       </c>
@@ -7653,7 +7673,7 @@
         <v>84</v>
       </c>
       <c r="H151" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A151, "_", F151, "_", G151)</f>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I151">
@@ -7666,7 +7686,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>20</v>
       </c>
@@ -7689,7 +7709,7 @@
         <v>84</v>
       </c>
       <c r="H152" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A152, "_", F152, "_", G152)</f>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I152">
@@ -7722,7 +7742,7 @@
         <v>84</v>
       </c>
       <c r="H153" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A153, "_", F153, "_", G153)</f>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I153">
@@ -7755,7 +7775,7 @@
         <v>84</v>
       </c>
       <c r="H154" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A154, "_", F154, "_", G154)</f>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I154">
@@ -7788,7 +7808,7 @@
         <v>86</v>
       </c>
       <c r="H155" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A155, "_", F155, "_", G155)</f>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I155">
@@ -7821,7 +7841,7 @@
         <v>86</v>
       </c>
       <c r="H156" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A156, "_", F156, "_", G156)</f>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I156">
@@ -7854,7 +7874,7 @@
         <v>88</v>
       </c>
       <c r="H157" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A157, "_", F157, "_", G157)</f>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I157">
@@ -7887,7 +7907,7 @@
         <v>88</v>
       </c>
       <c r="H158" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A158, "_", F158, "_", G158)</f>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I158">
@@ -7920,7 +7940,7 @@
         <v>87</v>
       </c>
       <c r="H159" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A159, "_", F159, "_", G159)</f>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I159">
@@ -7953,7 +7973,7 @@
         <v>87</v>
       </c>
       <c r="H160" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A160, "_", F160, "_", G160)</f>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I160">
@@ -7986,7 +8006,7 @@
         <v>90</v>
       </c>
       <c r="H161" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A161, "_", F161, "_", G161)</f>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I161">
@@ -8019,7 +8039,7 @@
         <v>90</v>
       </c>
       <c r="H162" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A162, "_", F162, "_", G162)</f>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I162">
@@ -8052,7 +8072,7 @@
         <v>89</v>
       </c>
       <c r="H163" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A163, "_", F163, "_", G163)</f>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I163">
@@ -8085,7 +8105,7 @@
         <v>89</v>
       </c>
       <c r="H164" t="str">
-        <f t="shared" si="2"/>
+        <f>CONCATENATE(A164, "_", F164, "_", G164)</f>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I164">
@@ -8098,7 +8118,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>21</v>
       </c>
@@ -8118,7 +8138,7 @@
         <v>86</v>
       </c>
       <c r="H165" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H130:H193" si="2">CONCATENATE(A165, "_", F165, "_", G165)</f>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I165">
@@ -8131,7 +8151,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -8164,7 +8184,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>21</v>
       </c>
@@ -8197,7 +8217,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>21</v>
       </c>
@@ -8230,7 +8250,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>21</v>
       </c>
@@ -8263,7 +8283,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>21</v>
       </c>
@@ -8296,7 +8316,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>21</v>
       </c>
@@ -8329,7 +8349,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>21</v>
       </c>
@@ -8362,7 +8382,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>21</v>
       </c>
@@ -8395,7 +8415,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>21</v>
       </c>
@@ -8428,7 +8448,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>21</v>
       </c>
@@ -8461,7 +8481,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>21</v>
       </c>
@@ -8494,7 +8514,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>21</v>
       </c>
@@ -8527,7 +8547,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>21</v>
       </c>
@@ -8560,7 +8580,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>21</v>
       </c>
@@ -8593,7 +8613,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>21</v>
       </c>
@@ -8626,7 +8646,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>21</v>
       </c>
@@ -8659,7 +8679,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>21</v>
       </c>
@@ -8692,7 +8712,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>21</v>
       </c>
@@ -8725,7 +8745,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>21</v>
       </c>
@@ -8758,7 +8778,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -8791,7 +8811,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>21</v>
       </c>
@@ -8824,7 +8844,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>21</v>
       </c>
@@ -8857,7 +8877,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>21</v>
       </c>
@@ -8890,7 +8910,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -8923,7 +8943,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -8956,7 +8976,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -8989,7 +9009,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -9022,7 +9042,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -9055,7 +9075,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -9088,7 +9108,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -9121,7 +9141,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>21</v>
       </c>
@@ -9154,7 +9174,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>21</v>
       </c>
@@ -9187,7 +9207,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -9220,7 +9240,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>21</v>
       </c>
@@ -9253,7 +9273,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>21</v>
       </c>
@@ -9286,7 +9306,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>21</v>
       </c>
@@ -9319,7 +9339,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>21</v>
       </c>
@@ -9352,7 +9372,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>21</v>
       </c>
@@ -9385,7 +9405,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>21</v>
       </c>
@@ -9418,7 +9438,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>21</v>
       </c>
@@ -9451,7 +9471,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>21</v>
       </c>
@@ -9484,7 +9504,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>21</v>
       </c>
@@ -9517,7 +9537,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>21</v>
       </c>
@@ -9550,7 +9570,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>21</v>
       </c>
@@ -9583,7 +9603,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>21</v>
       </c>
@@ -9616,7 +9636,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>21</v>
       </c>
@@ -9649,7 +9669,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>21</v>
       </c>
@@ -9682,7 +9702,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>21</v>
       </c>
@@ -9715,7 +9735,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>21</v>
       </c>
@@ -9748,7 +9768,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>21</v>
       </c>
@@ -9781,7 +9801,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>21</v>
       </c>
@@ -9814,7 +9834,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>21</v>
       </c>
@@ -9847,7 +9867,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>21</v>
       </c>
@@ -9880,7 +9900,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>21</v>
       </c>
@@ -9913,7 +9933,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>21</v>
       </c>
@@ -9946,7 +9966,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>21</v>
       </c>
@@ -9979,7 +9999,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>21</v>
       </c>
@@ -10012,7 +10032,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>21</v>
       </c>
@@ -10045,7 +10065,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>21</v>
       </c>
@@ -10078,7 +10098,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>21</v>
       </c>
@@ -10111,7 +10131,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>21</v>
       </c>
@@ -10144,7 +10164,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>21</v>
       </c>
@@ -10177,7 +10197,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>21</v>
       </c>
@@ -10210,7 +10230,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>21</v>
       </c>
@@ -10243,7 +10263,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>21</v>
       </c>
@@ -10276,7 +10296,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>21</v>
       </c>
@@ -10309,7 +10329,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>21</v>
       </c>
@@ -10342,7 +10362,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>21</v>
       </c>
@@ -10375,7 +10395,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>21</v>
       </c>
@@ -10408,7 +10428,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>21</v>
       </c>
@@ -10441,7 +10461,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>21</v>
       </c>
@@ -10474,7 +10494,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -10497,7 +10517,7 @@
         <v>84</v>
       </c>
       <c r="H237" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A237, "_", F237, "_", G237)</f>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I237">
@@ -10510,7 +10530,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -10533,7 +10553,7 @@
         <v>84</v>
       </c>
       <c r="H238" t="str">
-        <f t="shared" si="3"/>
+        <f>CONCATENATE(A238, "_", F238, "_", G238)</f>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I238">
@@ -10546,21 +10566,21 @@
         <v>399</v>
       </c>
     </row>
-    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B239" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C239" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D239" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E239" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F239" t="s">
         <v>13</v>
@@ -10569,34 +10589,34 @@
         <v>84</v>
       </c>
       <c r="H239" t="str">
-        <f t="shared" si="3"/>
-        <v>A549_BR1_Baseline</v>
+        <f>CONCATENATE(A239, "_", F239, "_", G239)</f>
+        <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I239">
         <v>3</v>
       </c>
       <c r="J239" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="K239" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B240" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C240" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D240" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E240" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F240" t="s">
         <v>14</v>
@@ -10605,34 +10625,25 @@
         <v>84</v>
       </c>
       <c r="H240" t="str">
-        <f t="shared" si="3"/>
-        <v>A549_BR2_Baseline</v>
+        <f>CONCATENATE(A240, "_", F240, "_", G240)</f>
+        <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I240">
         <v>3</v>
       </c>
       <c r="J240" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="K240" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>17</v>
-      </c>
-      <c r="B241" t="s">
-        <v>200</v>
-      </c>
-      <c r="C241" t="s">
-        <v>202</v>
-      </c>
-      <c r="D241" t="s">
-        <v>201</v>
+        <v>85</v>
       </c>
       <c r="E241" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F241" t="s">
         <v>13</v>
@@ -10641,34 +10652,25 @@
         <v>84</v>
       </c>
       <c r="H241" t="str">
-        <f t="shared" si="3"/>
-        <v>A549_BR1_Baseline</v>
+        <f>CONCATENATE(A241, "_", F241, "_", G241)</f>
+        <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I241">
         <v>3</v>
       </c>
       <c r="J241" t="s">
-        <v>297</v>
+        <v>112</v>
       </c>
       <c r="K241" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>17</v>
-      </c>
-      <c r="B242" t="s">
-        <v>200</v>
-      </c>
-      <c r="C242" t="s">
-        <v>202</v>
-      </c>
-      <c r="D242" t="s">
-        <v>201</v>
+        <v>85</v>
       </c>
       <c r="E242" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F242" t="s">
         <v>14</v>
@@ -10677,56 +10679,47 @@
         <v>84</v>
       </c>
       <c r="H242" t="str">
-        <f t="shared" si="3"/>
-        <v>A549_BR2_Baseline</v>
+        <f>CONCATENATE(A242, "_", F242, "_", G242)</f>
+        <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I242">
         <v>3</v>
       </c>
       <c r="J242" t="s">
-        <v>298</v>
+        <v>113</v>
       </c>
       <c r="K242" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>17</v>
-      </c>
-      <c r="B243" t="s">
-        <v>200</v>
-      </c>
-      <c r="C243" t="s">
-        <v>202</v>
-      </c>
-      <c r="D243" t="s">
-        <v>201</v>
+        <v>85</v>
       </c>
       <c r="E243" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F243" t="s">
-        <v>13</v>
+        <v>239</v>
       </c>
       <c r="G243" t="s">
         <v>84</v>
       </c>
       <c r="H243" t="str">
-        <f t="shared" si="3"/>
-        <v>A549_BR1_Baseline</v>
+        <f>CONCATENATE(A243, "_", F243, "_", G243)</f>
+        <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I243">
         <v>3</v>
       </c>
       <c r="J243" t="s">
-        <v>299</v>
+        <v>233</v>
       </c>
       <c r="K243" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>17</v>
       </c>
@@ -10740,65 +10733,65 @@
         <v>201</v>
       </c>
       <c r="E244" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F244" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G244" t="s">
         <v>84</v>
       </c>
       <c r="H244" t="str">
-        <f t="shared" si="3"/>
-        <v>A549_BR2_Baseline</v>
+        <f>CONCATENATE(A244, "_", F244, "_", G244)</f>
+        <v>A549_BR1_Baseline</v>
       </c>
       <c r="I244">
         <v>3</v>
       </c>
       <c r="J244" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K244" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B245" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C245" t="s">
+        <v>202</v>
+      </c>
+      <c r="D245" t="s">
         <v>201</v>
       </c>
-      <c r="D245" t="s">
-        <v>203</v>
-      </c>
       <c r="E245" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F245" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G245" t="s">
         <v>84</v>
       </c>
       <c r="H245" t="str">
-        <f t="shared" si="3"/>
-        <v>BEAS2B_BR1_Baseline</v>
+        <f>CONCATENATE(A245, "_", F245, "_", G245)</f>
+        <v>A549_BR2_Baseline</v>
       </c>
       <c r="I245">
         <v>3</v>
       </c>
       <c r="J245" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="K245" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>18</v>
       </c>
@@ -10812,29 +10805,29 @@
         <v>203</v>
       </c>
       <c r="E246" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F246" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G246" t="s">
         <v>84</v>
       </c>
       <c r="H246" t="str">
-        <f t="shared" si="3"/>
-        <v>BEAS2B_BR2_Baseline</v>
+        <f>CONCATENATE(A246, "_", F246, "_", G246)</f>
+        <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I246">
         <v>3</v>
       </c>
       <c r="J246" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K246" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>18</v>
       </c>
@@ -10851,148 +10844,121 @@
         <v>8</v>
       </c>
       <c r="F247" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G247" t="s">
         <v>84</v>
       </c>
       <c r="H247" t="str">
-        <f t="shared" si="3"/>
-        <v>BEAS2B_BR1_Baseline</v>
+        <f>CONCATENATE(A247, "_", F247, "_", G247)</f>
+        <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I247">
         <v>3</v>
       </c>
       <c r="J247" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K247" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>18</v>
-      </c>
-      <c r="B248" t="s">
-        <v>204</v>
-      </c>
-      <c r="C248" t="s">
-        <v>201</v>
-      </c>
-      <c r="D248" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="E248" t="s">
         <v>8</v>
       </c>
       <c r="F248" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G248" t="s">
         <v>84</v>
       </c>
       <c r="H248" t="str">
-        <f t="shared" si="3"/>
-        <v>BEAS2B_BR2_Baseline</v>
+        <f>CONCATENATE(A248, "_", F248, "_", G248)</f>
+        <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I248">
         <v>3</v>
       </c>
       <c r="J248" t="s">
-        <v>304</v>
+        <v>114</v>
       </c>
       <c r="K248" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>18</v>
-      </c>
-      <c r="B249" t="s">
-        <v>204</v>
-      </c>
-      <c r="C249" t="s">
-        <v>201</v>
-      </c>
-      <c r="D249" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="E249" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F249" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G249" t="s">
         <v>84</v>
       </c>
       <c r="H249" t="str">
-        <f t="shared" si="3"/>
-        <v>BEAS2B_BR1_Baseline</v>
+        <f>CONCATENATE(A249, "_", F249, "_", G249)</f>
+        <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I249">
         <v>3</v>
       </c>
       <c r="J249" t="s">
-        <v>305</v>
+        <v>115</v>
       </c>
       <c r="K249" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>18</v>
-      </c>
-      <c r="B250" t="s">
-        <v>204</v>
-      </c>
-      <c r="C250" t="s">
-        <v>201</v>
-      </c>
-      <c r="D250" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="E250" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F250" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="G250" t="s">
         <v>84</v>
       </c>
       <c r="H250" t="str">
-        <f t="shared" si="3"/>
-        <v>BEAS2B_BR2_Baseline</v>
+        <f>CONCATENATE(A250, "_", F250, "_", G250)</f>
+        <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I250">
         <v>3</v>
       </c>
       <c r="J250" t="s">
-        <v>306</v>
+        <v>234</v>
       </c>
       <c r="K250" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B251" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C251" t="s">
+        <v>202</v>
+      </c>
+      <c r="D251" t="s">
         <v>201</v>
       </c>
-      <c r="D251" t="s">
-        <v>203</v>
-      </c>
       <c r="E251" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F251" t="s">
         <v>13</v>
@@ -11001,34 +10967,34 @@
         <v>84</v>
       </c>
       <c r="H251" t="str">
-        <f t="shared" si="3"/>
-        <v>BEAS2B_BR1_Baseline</v>
+        <f>CONCATENATE(A251, "_", F251, "_", G251)</f>
+        <v>A549_BR1_Baseline</v>
       </c>
       <c r="I251">
         <v>3</v>
       </c>
       <c r="J251" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="K251" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B252" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C252" t="s">
+        <v>202</v>
+      </c>
+      <c r="D252" t="s">
         <v>201</v>
       </c>
-      <c r="D252" t="s">
-        <v>203</v>
-      </c>
       <c r="E252" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F252" t="s">
         <v>14</v>
@@ -11037,25 +11003,34 @@
         <v>84</v>
       </c>
       <c r="H252" t="str">
-        <f t="shared" si="3"/>
-        <v>BEAS2B_BR2_Baseline</v>
+        <f>CONCATENATE(A252, "_", F252, "_", G252)</f>
+        <v>A549_BR2_Baseline</v>
       </c>
       <c r="I252">
         <v>3</v>
       </c>
       <c r="J252" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="K252" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="B253" t="s">
+        <v>204</v>
+      </c>
+      <c r="C253" t="s">
+        <v>201</v>
+      </c>
+      <c r="D253" t="s">
+        <v>203</v>
       </c>
       <c r="E253" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F253" t="s">
         <v>13</v>
@@ -11064,25 +11039,34 @@
         <v>84</v>
       </c>
       <c r="H253" t="str">
-        <f t="shared" si="3"/>
-        <v>NHBE_BR1_Baseline</v>
+        <f>CONCATENATE(A253, "_", F253, "_", G253)</f>
+        <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I253">
         <v>3</v>
       </c>
       <c r="J253" t="s">
-        <v>112</v>
+        <v>305</v>
       </c>
       <c r="K253" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="B254" t="s">
+        <v>204</v>
+      </c>
+      <c r="C254" t="s">
+        <v>201</v>
+      </c>
+      <c r="D254" t="s">
+        <v>203</v>
       </c>
       <c r="E254" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F254" t="s">
         <v>14</v>
@@ -11091,209 +11075,245 @@
         <v>84</v>
       </c>
       <c r="H254" t="str">
-        <f t="shared" si="3"/>
-        <v>NHBE_BR2_Baseline</v>
+        <f>CONCATENATE(A254, "_", F254, "_", G254)</f>
+        <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I254">
         <v>3</v>
       </c>
       <c r="J254" t="s">
-        <v>113</v>
+        <v>306</v>
       </c>
       <c r="K254" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>85</v>
       </c>
       <c r="E255" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F255" t="s">
-        <v>239</v>
+        <v>13</v>
       </c>
       <c r="G255" t="s">
         <v>84</v>
       </c>
       <c r="H255" t="str">
-        <f t="shared" si="3"/>
-        <v>NHBE_BR3_Baseline</v>
+        <f>CONCATENATE(A255, "_", F255, "_", G255)</f>
+        <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I255">
         <v>3</v>
       </c>
       <c r="J255" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K255" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>85</v>
       </c>
       <c r="E256" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F256" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G256" t="s">
         <v>84</v>
       </c>
       <c r="H256" t="str">
-        <f t="shared" si="3"/>
-        <v>NHBE_BR1_Baseline</v>
+        <f>CONCATENATE(A256, "_", F256, "_", G256)</f>
+        <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I256">
         <v>3</v>
       </c>
       <c r="J256" t="s">
-        <v>114</v>
+        <v>236</v>
       </c>
       <c r="K256" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>85</v>
       </c>
       <c r="E257" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F257" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="G257" t="s">
         <v>84</v>
       </c>
       <c r="H257" t="str">
-        <f t="shared" si="3"/>
-        <v>NHBE_BR2_Baseline</v>
+        <f>CONCATENATE(A257, "_", F257, "_", G257)</f>
+        <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I257">
         <v>3</v>
       </c>
       <c r="J257" t="s">
-        <v>115</v>
+        <v>237</v>
       </c>
       <c r="K257" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>85</v>
+        <v>17</v>
+      </c>
+      <c r="B258" t="s">
+        <v>200</v>
+      </c>
+      <c r="C258" t="s">
+        <v>202</v>
+      </c>
+      <c r="D258" t="s">
+        <v>201</v>
       </c>
       <c r="E258" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>239</v>
+        <v>13</v>
       </c>
       <c r="G258" t="s">
         <v>84</v>
       </c>
       <c r="H258" t="str">
-        <f t="shared" ref="H258:H321" si="4">CONCATENATE(A258, "_", F258, "_", G258)</f>
-        <v>NHBE_BR3_Baseline</v>
+        <f>CONCATENATE(A258, "_", F258, "_", G258)</f>
+        <v>A549_BR1_Baseline</v>
       </c>
       <c r="I258">
         <v>3</v>
       </c>
       <c r="J258" t="s">
-        <v>234</v>
+        <v>299</v>
       </c>
       <c r="K258" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>85</v>
+        <v>17</v>
+      </c>
+      <c r="B259" t="s">
+        <v>200</v>
+      </c>
+      <c r="C259" t="s">
+        <v>202</v>
+      </c>
+      <c r="D259" t="s">
+        <v>201</v>
       </c>
       <c r="E259" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G259" t="s">
         <v>84</v>
       </c>
       <c r="H259" t="str">
-        <f t="shared" si="4"/>
-        <v>NHBE_BR1_Baseline</v>
+        <f>CONCATENATE(A259, "_", F259, "_", G259)</f>
+        <v>A549_BR2_Baseline</v>
       </c>
       <c r="I259">
         <v>3</v>
       </c>
       <c r="J259" t="s">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="K259" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="B260" t="s">
+        <v>204</v>
+      </c>
+      <c r="C260" t="s">
+        <v>201</v>
+      </c>
+      <c r="D260" t="s">
+        <v>203</v>
       </c>
       <c r="E260" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G260" t="s">
         <v>84</v>
       </c>
       <c r="H260" t="str">
-        <f t="shared" si="4"/>
-        <v>NHBE_BR2_Baseline</v>
+        <f>CONCATENATE(A260, "_", F260, "_", G260)</f>
+        <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I260">
         <v>3</v>
       </c>
       <c r="J260" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="K260" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>85</v>
+        <v>18</v>
+      </c>
+      <c r="B261" t="s">
+        <v>204</v>
+      </c>
+      <c r="C261" t="s">
+        <v>201</v>
+      </c>
+      <c r="D261" t="s">
+        <v>203</v>
       </c>
       <c r="E261" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>239</v>
+        <v>14</v>
       </c>
       <c r="G261" t="s">
         <v>84</v>
       </c>
       <c r="H261" t="str">
-        <f t="shared" si="4"/>
-        <v>NHBE_BR3_Baseline</v>
+        <f>CONCATENATE(A261, "_", F261, "_", G261)</f>
+        <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I261">
         <v>3</v>
       </c>
       <c r="J261" t="s">
-        <v>237</v>
+        <v>308</v>
       </c>
       <c r="K261" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>85</v>
       </c>
@@ -11307,7 +11327,7 @@
         <v>84</v>
       </c>
       <c r="H262" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(A262, "_", F262, "_", G262)</f>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I262">
@@ -11320,7 +11340,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>85</v>
       </c>
@@ -11334,7 +11354,7 @@
         <v>84</v>
       </c>
       <c r="H263" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(A263, "_", F263, "_", G263)</f>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I263">
@@ -11347,7 +11367,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>85</v>
       </c>
@@ -11361,7 +11381,7 @@
         <v>84</v>
       </c>
       <c r="H264" t="str">
-        <f t="shared" si="4"/>
+        <f>CONCATENATE(A264, "_", F264, "_", G264)</f>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I264">
@@ -11374,7 +11394,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>20</v>
       </c>
@@ -11397,7 +11417,7 @@
         <v>86</v>
       </c>
       <c r="H265" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H258:H265" si="4">CONCATENATE(A265, "_", F265, "_", G265)</f>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I265">
@@ -11410,20 +11430,221 @@
         <v>601</v>
       </c>
     </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>17</v>
+      </c>
+      <c r="B266" t="s">
+        <v>200</v>
+      </c>
+      <c r="C266" t="s">
+        <v>202</v>
+      </c>
+      <c r="D266" t="s">
+        <v>201</v>
+      </c>
+      <c r="E266" t="s">
+        <v>22</v>
+      </c>
+      <c r="F266" t="s">
+        <v>13</v>
+      </c>
+      <c r="G266" t="s">
+        <v>84</v>
+      </c>
+      <c r="H266" t="str">
+        <f>CONCATENATE(A266, "_", F266, "_", G266)</f>
+        <v>A549_BR1_Baseline</v>
+      </c>
+      <c r="I266">
+        <v>3</v>
+      </c>
+      <c r="K266" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>17</v>
+      </c>
+      <c r="B267" t="s">
+        <v>200</v>
+      </c>
+      <c r="C267" t="s">
+        <v>202</v>
+      </c>
+      <c r="D267" t="s">
+        <v>201</v>
+      </c>
+      <c r="E267" t="s">
+        <v>22</v>
+      </c>
+      <c r="F267" t="s">
+        <v>14</v>
+      </c>
+      <c r="G267" t="s">
+        <v>84</v>
+      </c>
+      <c r="H267" t="str">
+        <f>CONCATENATE(A267, "_", F267, "_", G267)</f>
+        <v>A549_BR2_Baseline</v>
+      </c>
+      <c r="I267">
+        <v>3</v>
+      </c>
+      <c r="K267" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>18</v>
+      </c>
+      <c r="B268" t="s">
+        <v>204</v>
+      </c>
+      <c r="C268" t="s">
+        <v>201</v>
+      </c>
+      <c r="D268" t="s">
+        <v>203</v>
+      </c>
+      <c r="E268" t="s">
+        <v>22</v>
+      </c>
+      <c r="F268" t="s">
+        <v>13</v>
+      </c>
+      <c r="G268" t="s">
+        <v>84</v>
+      </c>
+      <c r="H268" t="str">
+        <f>CONCATENATE(A268, "_", F268, "_", G268)</f>
+        <v>BEAS2B_BR1_Baseline</v>
+      </c>
+      <c r="I268">
+        <v>3</v>
+      </c>
+      <c r="K268" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>18</v>
+      </c>
+      <c r="B269" t="s">
+        <v>204</v>
+      </c>
+      <c r="C269" t="s">
+        <v>201</v>
+      </c>
+      <c r="D269" t="s">
+        <v>203</v>
+      </c>
+      <c r="E269" t="s">
+        <v>22</v>
+      </c>
+      <c r="F269" t="s">
+        <v>14</v>
+      </c>
+      <c r="G269" t="s">
+        <v>84</v>
+      </c>
+      <c r="H269" t="str">
+        <f>CONCATENATE(A269, "_", F269, "_", G269)</f>
+        <v>BEAS2B_BR2_Baseline</v>
+      </c>
+      <c r="I269">
+        <v>3</v>
+      </c>
+      <c r="K269" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>85</v>
+      </c>
+      <c r="E270" t="s">
+        <v>22</v>
+      </c>
+      <c r="F270" t="s">
+        <v>13</v>
+      </c>
+      <c r="G270" t="s">
+        <v>84</v>
+      </c>
+      <c r="H270" t="str">
+        <f>CONCATENATE(A270, "_", F270, "_", G270)</f>
+        <v>NHBE_BR1_Baseline</v>
+      </c>
+      <c r="I270">
+        <v>3</v>
+      </c>
+      <c r="J270" t="s">
+        <v>606</v>
+      </c>
+      <c r="K270" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>85</v>
+      </c>
+      <c r="E271" t="s">
+        <v>22</v>
+      </c>
+      <c r="F271" t="s">
+        <v>14</v>
+      </c>
+      <c r="G271" t="s">
+        <v>84</v>
+      </c>
+      <c r="H271" t="str">
+        <f>CONCATENATE(A271, "_", F271, "_", G271)</f>
+        <v>NHBE_BR2_Baseline</v>
+      </c>
+      <c r="I271">
+        <v>3</v>
+      </c>
+      <c r="J271" t="s">
+        <v>607</v>
+      </c>
+      <c r="K271" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>85</v>
+      </c>
+      <c r="E272" t="s">
+        <v>22</v>
+      </c>
+      <c r="F272" t="s">
+        <v>239</v>
+      </c>
+      <c r="G272" t="s">
+        <v>84</v>
+      </c>
+      <c r="H272" t="str">
+        <f>CONCATENATE(A272, "_", F272, "_", G272)</f>
+        <v>NHBE_BR3_Baseline</v>
+      </c>
+      <c r="I272">
+        <v>3</v>
+      </c>
+      <c r="J272" t="s">
+        <v>608</v>
+      </c>
+      <c r="K272" t="s">
+        <v>605</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K265">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="THP-1"/>
-        <filter val="U937"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="ATAC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K272"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/inst/extdata/data_gsk.xlsx
+++ b/inst/extdata/data_gsk.xlsx
@@ -1040,180 +1040,24 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_PL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/F36P_hist_BR1_H3K27ac_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/F36P_hist_BR1_H3K27ac_TR2_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/F36P_hist_BR1_H3K27me3_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/F36P_hist_BR1_H3K4me3_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/F36P_hist_BR1_H3K4me3_TR2_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/F36P_hist_BR2_H3K27ac_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/F36P_hist_BR2_H3K27me3_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/F36P_hist_BR2_H3K4me3_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/F36P_TF_BR1_CTCF_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/F36P_TF_BR1_CTCF_TR2_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/F36P_TF_BR2_CTCF_TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/F36P_ATAC_ATAC-seq_P1Erythroidcelltypes87_ATAC_P1Erythroidcelltypes87_bwa_samse_BR1TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/HEL9217_hist_BR1_H3K27me3_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/HEL9217_hist_BR1_H3K4me3_TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/F36P_ATAC_ATAC-seq_P1Erythroidcelltypes87_ATAC_P1Erythroidcelltypes87_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/HEL9217_hist_BR2_H3K27me3_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/HEL9217_hist_BR2_H3K4me3_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/HEL9217_TF_BR1_CTCF_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/HEL9217_TF_BR2_CTCF_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/HEL9217_hist_BR1_H3K27ac_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/HEL9217_hist_BR2_H3K27ac_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/K562_hist_BR1_H3K27me3_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/K562_hist_BR1_H3K4me3_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/K562_hist_BR1_H3K4me3_TR2_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/HEL9217_ATAC_ATAC-seq_P1Erythroidcelltypes87_ATAC_P1Erythroidcelltypes87_bwa_samse_BR1TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/K562_hist_BR2_H3K27me3_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/K562_hist_BR2_H3K4me3_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/K562_TF_BR1_CTCF_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/K562_TF_BR1_CTCF_TR2_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/K562_TF_BR2_CTCF_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/K562_TF_BR2_CTCF_TR2_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/HEL9217_ATAC_ATAC-seq_P1Erythroidcelltypes87_ATAC_P1Erythroidcelltypes87_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/K562_hist_BR1_H3K27ac_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/KU812_hist_BR1_H3K27me3_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/KU812_hist_BR1_H3K4me3_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/KU812_hist_BR1_H3K4me3_TR2_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/K562_hist_BR1_H3K27ac_TR2_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/KU812_hist_BR2_H3K27me3_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/KU812_hist_BR2_H3K4me3_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/KU812_TF_BR1_CTCF_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/KU812_TF_BR1_CTCF_TR2_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/KU812_TF_BR2_CTCF_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/K562_hist_BR2_H3K27ac_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/MEG01_hist_BR1_H3K27me3_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/MEG01_hist_BR1_H3K4me3_TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/K562_ATAC_ATAC-seq_P1Erythroidcelltypes87_ATAC_P1Erythroidcelltypes87_bwa_samse_BR1TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/MEG01_hist_BR2_H3K27me3_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/MEG01_hist_BR2_H3K4me3_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/MEG01_TF_BR1_CTCF_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/MEG01_TF_BR2_CTCF_TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/K562_ATAC_ATAC-seq_P1Erythroidcelltypes87_ATAC_P1Erythroidcelltypes87_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/UT7_hist_BR1_H3K27me3_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/UT7_hist_BR1_H3K4me3_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/KU812_hist_BR1_H3K27ac_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/UT7_hist_BR2_H3K27me3_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/UT7_hist_BR2_H3K4me3_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/UT7_TF_BR1_CTCF_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/UT7_TF_BR2_CTCF_TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bam/A549_CTCF_ChIP-Seq_P3Lungepitheliacelltypes89_CTCF_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bam</t>
   </si>
   <si>
@@ -1496,30 +1340,12 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_V_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/KU812_hist_BR1_H3K27ac_TR2_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/KU812_hist_BR2_H3K27ac_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/MEG01_hist_BR1_H3K27ac_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/MEG01_hist_BR2_H3K27ac_TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/Meg01_ATAC_ATAC-seq_P1Erythroidcelltypes87_ATAC_P1Erythroidcelltypes87_bwa_samse_BR1TR1_edited.bam</t>
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/Meg01_ATAC_ATAC-seq_P1Erythroidcelltypes87_ATAC_P1Erythroidcelltypes87_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/UT7_hist_BR1_H3K27ac_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam_with_align2rawsignal/UT7_hist_BR2_H3K27ac_TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/UT7_ATAC_ATAC-seq_P1Erythroidcelltypes87_ATAC_P1Erythroidcelltypes87_bwa_samse_BR1TR1_edited.bam</t>
   </si>
   <si>
@@ -1845,6 +1671,180 @@
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes87_ATAC_P3Lungepitheliacelltypes87_bwa_samse_BR3TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/F36P_TF_BR1_CTCF_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/F36P_TF_BR1_CTCF_TR2_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/F36P_TF_BR2_CTCF_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/F36P_hist_BR1_H3K27ac_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/F36P_hist_BR1_H3K27ac_TR2_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/F36P_hist_BR2_H3K27ac_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/F36P_hist_BR1_H3K27me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/F36P_hist_BR2_H3K27me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/F36P_hist_BR1_H3K4me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/F36P_hist_BR1_H3K4me3_TR2_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/F36P_hist_BR2_H3K4me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/HEL9217_TF_BR1_CTCF_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/HEL9217_TF_BR2_CTCF_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/HEL9217_hist_BR1_H3K27ac_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/HEL9217_hist_BR2_H3K27ac_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/HEL9217_hist_BR1_H3K27me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/HEL9217_hist_BR2_H3K27me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/HEL9217_hist_BR1_H3K4me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/HEL9217_hist_BR2_H3K4me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/K562_TF_BR1_CTCF_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/K562_TF_BR1_CTCF_TR2_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/K562_TF_BR2_CTCF_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/K562_TF_BR2_CTCF_TR2_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/K562_hist_BR1_H3K27ac_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/K562_hist_BR1_H3K27ac_TR2_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/K562_hist_BR2_H3K27ac_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/K562_hist_BR1_H3K27me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/K562_hist_BR2_H3K27me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/K562_hist_BR1_H3K4me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/K562_hist_BR1_H3K4me3_TR2_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/K562_hist_BR2_H3K4me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/KU812_TF_BR1_CTCF_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/KU812_TF_BR1_CTCF_TR2_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/KU812_TF_BR2_CTCF_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/KU812_hist_BR1_H3K27ac_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/KU812_hist_BR1_H3K27ac_TR2_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/KU812_hist_BR2_H3K27ac_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/KU812_hist_BR1_H3K27me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/KU812_hist_BR2_H3K27me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/KU812_hist_BR1_H3K4me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/KU812_hist_BR1_H3K4me3_TR2_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/KU812_hist_BR2_H3K4me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/MEG01_TF_BR1_CTCF_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/MEG01_TF_BR2_CTCF_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/MEG01_hist_BR1_H3K27ac_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/MEG01_hist_BR2_H3K27ac_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/MEG01_hist_BR1_H3K27me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/MEG01_hist_BR2_H3K27me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/MEG01_hist_BR1_H3K4me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/MEG01_hist_BR2_H3K4me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/UT7_TF_BR1_CTCF_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/UT7_TF_BR2_CTCF_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/UT7_hist_BR1_H3K27ac_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/UT7_hist_BR2_H3K27ac_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/UT7_hist_BR1_H3K27me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/UT7_hist_BR2_H3K27me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/UT7_hist_BR1_H3K4me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/UT7_hist_BR2_H3K4me3_TR1_edited.bam</t>
   </si>
 </sst>
 </file>
@@ -2233,7 +2233,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2319,7 +2319,7 @@
         <v>283</v>
       </c>
       <c r="K2" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2355,7 +2355,7 @@
         <v>284</v>
       </c>
       <c r="K3" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2391,7 +2391,7 @@
         <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>348</v>
+        <v>551</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2427,7 +2427,7 @@
         <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>349</v>
+        <v>552</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2463,7 +2463,7 @@
         <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>350</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2499,7 +2499,7 @@
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>340</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2535,7 +2535,7 @@
         <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>341</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2571,7 +2571,7 @@
         <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>345</v>
+        <v>556</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2607,7 +2607,7 @@
         <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>342</v>
+        <v>557</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2643,7 +2643,7 @@
         <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>346</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2679,7 +2679,7 @@
         <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>343</v>
+        <v>559</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2715,7 +2715,7 @@
         <v>28</v>
       </c>
       <c r="K13" t="s">
-        <v>344</v>
+        <v>560</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2751,7 +2751,7 @@
         <v>31</v>
       </c>
       <c r="K14" t="s">
-        <v>347</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2787,7 +2787,7 @@
         <v>285</v>
       </c>
       <c r="K15" t="s">
-        <v>364</v>
+        <v>342</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2823,7 +2823,7 @@
         <v>286</v>
       </c>
       <c r="K16" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2859,7 +2859,7 @@
         <v>41</v>
       </c>
       <c r="K17" t="s">
-        <v>357</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2895,7 +2895,7 @@
         <v>42</v>
       </c>
       <c r="K18" t="s">
-        <v>358</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2931,7 +2931,7 @@
         <v>35</v>
       </c>
       <c r="K19" t="s">
-        <v>359</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2967,7 +2967,7 @@
         <v>38</v>
       </c>
       <c r="K20" t="s">
-        <v>360</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3003,7 +3003,7 @@
         <v>36</v>
       </c>
       <c r="K21" t="s">
-        <v>352</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3039,7 +3039,7 @@
         <v>39</v>
       </c>
       <c r="K22" t="s">
-        <v>355</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3075,7 +3075,7 @@
         <v>37</v>
       </c>
       <c r="K23" t="s">
-        <v>353</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3111,7 +3111,7 @@
         <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>356</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3147,7 +3147,7 @@
         <v>287</v>
       </c>
       <c r="K25" t="s">
-        <v>385</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3183,7 +3183,7 @@
         <v>288</v>
       </c>
       <c r="K26" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3219,7 +3219,7 @@
         <v>51</v>
       </c>
       <c r="K27" t="s">
-        <v>367</v>
+        <v>570</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3255,7 +3255,7 @@
         <v>52</v>
       </c>
       <c r="K28" t="s">
-        <v>368</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3291,7 +3291,7 @@
         <v>53</v>
       </c>
       <c r="K29" t="s">
-        <v>369</v>
+        <v>572</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3327,7 +3327,7 @@
         <v>54</v>
       </c>
       <c r="K30" t="s">
-        <v>370</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3363,7 +3363,7 @@
         <v>43</v>
       </c>
       <c r="K31" t="s">
-        <v>372</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3399,7 +3399,7 @@
         <v>44</v>
       </c>
       <c r="K32" t="s">
-        <v>376</v>
+        <v>575</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3435,7 +3435,7 @@
         <v>48</v>
       </c>
       <c r="K33" t="s">
-        <v>382</v>
+        <v>576</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3471,7 +3471,7 @@
         <v>45</v>
       </c>
       <c r="K34" t="s">
-        <v>361</v>
+        <v>577</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3507,7 +3507,7 @@
         <v>49</v>
       </c>
       <c r="K35" t="s">
-        <v>365</v>
+        <v>578</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3543,7 +3543,7 @@
         <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>362</v>
+        <v>579</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3579,7 +3579,7 @@
         <v>47</v>
       </c>
       <c r="K37" t="s">
-        <v>363</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3615,7 +3615,7 @@
         <v>50</v>
       </c>
       <c r="K38" t="s">
-        <v>366</v>
+        <v>581</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3651,7 +3651,7 @@
         <v>309</v>
       </c>
       <c r="K39" t="s">
-        <v>502</v>
+        <v>444</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -3687,7 +3687,7 @@
         <v>310</v>
       </c>
       <c r="K40" t="s">
-        <v>503</v>
+        <v>445</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -3723,7 +3723,7 @@
         <v>63</v>
       </c>
       <c r="K41" t="s">
-        <v>379</v>
+        <v>582</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3759,7 +3759,7 @@
         <v>64</v>
       </c>
       <c r="K42" t="s">
-        <v>380</v>
+        <v>583</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3795,7 +3795,7 @@
         <v>65</v>
       </c>
       <c r="K43" t="s">
-        <v>381</v>
+        <v>584</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3831,7 +3831,7 @@
         <v>55</v>
       </c>
       <c r="K44" t="s">
-        <v>393</v>
+        <v>585</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3867,7 +3867,7 @@
         <v>56</v>
       </c>
       <c r="K45" t="s">
-        <v>492</v>
+        <v>586</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3903,7 +3903,7 @@
         <v>60</v>
       </c>
       <c r="K46" t="s">
-        <v>493</v>
+        <v>587</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3939,7 +3939,7 @@
         <v>57</v>
       </c>
       <c r="K47" t="s">
-        <v>373</v>
+        <v>588</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3975,7 +3975,7 @@
         <v>61</v>
       </c>
       <c r="K48" t="s">
-        <v>377</v>
+        <v>589</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -4011,7 +4011,7 @@
         <v>58</v>
       </c>
       <c r="K49" t="s">
-        <v>374</v>
+        <v>590</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -4047,7 +4047,7 @@
         <v>59</v>
       </c>
       <c r="K50" t="s">
-        <v>375</v>
+        <v>591</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -4083,7 +4083,7 @@
         <v>62</v>
       </c>
       <c r="K51" t="s">
-        <v>378</v>
+        <v>592</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -4119,7 +4119,7 @@
         <v>289</v>
       </c>
       <c r="K52" t="s">
-        <v>496</v>
+        <v>440</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -4155,7 +4155,7 @@
         <v>290</v>
       </c>
       <c r="K53" t="s">
-        <v>497</v>
+        <v>441</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -4191,7 +4191,7 @@
         <v>72</v>
       </c>
       <c r="K54" t="s">
-        <v>388</v>
+        <v>593</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -4227,7 +4227,7 @@
         <v>73</v>
       </c>
       <c r="K55" t="s">
-        <v>389</v>
+        <v>594</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4263,7 +4263,7 @@
         <v>66</v>
       </c>
       <c r="K56" t="s">
-        <v>494</v>
+        <v>595</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4299,7 +4299,7 @@
         <v>69</v>
       </c>
       <c r="K57" t="s">
-        <v>495</v>
+        <v>596</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4335,7 +4335,7 @@
         <v>67</v>
       </c>
       <c r="K58" t="s">
-        <v>383</v>
+        <v>597</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -4371,7 +4371,7 @@
         <v>70</v>
       </c>
       <c r="K59" t="s">
-        <v>386</v>
+        <v>598</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4407,7 +4407,7 @@
         <v>68</v>
       </c>
       <c r="K60" t="s">
-        <v>384</v>
+        <v>599</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4443,7 +4443,7 @@
         <v>71</v>
       </c>
       <c r="K61" t="s">
-        <v>387</v>
+        <v>600</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4479,7 +4479,7 @@
         <v>291</v>
       </c>
       <c r="K62" t="s">
-        <v>500</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -4515,7 +4515,7 @@
         <v>292</v>
       </c>
       <c r="K63" t="s">
-        <v>501</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
@@ -4551,7 +4551,7 @@
         <v>80</v>
       </c>
       <c r="K64" t="s">
-        <v>396</v>
+        <v>601</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4587,7 +4587,7 @@
         <v>81</v>
       </c>
       <c r="K65" t="s">
-        <v>397</v>
+        <v>602</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4613,7 +4613,7 @@
         <v>84</v>
       </c>
       <c r="H66" t="str">
-        <f t="shared" ref="H66:H129" si="1">CONCATENATE(A66, "_", F66, "_", G66)</f>
+        <f t="shared" ref="H66:H71" si="1">CONCATENATE(A66, "_", F66, "_", G66)</f>
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="I66">
@@ -4623,7 +4623,7 @@
         <v>74</v>
       </c>
       <c r="K66" t="s">
-        <v>498</v>
+        <v>603</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4659,7 +4659,7 @@
         <v>77</v>
       </c>
       <c r="K67" t="s">
-        <v>499</v>
+        <v>604</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -4695,7 +4695,7 @@
         <v>75</v>
       </c>
       <c r="K68" t="s">
-        <v>391</v>
+        <v>605</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -4731,7 +4731,7 @@
         <v>78</v>
       </c>
       <c r="K69" t="s">
-        <v>394</v>
+        <v>606</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4767,7 +4767,7 @@
         <v>76</v>
       </c>
       <c r="K70" t="s">
-        <v>392</v>
+        <v>607</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4803,7 +4803,7 @@
         <v>79</v>
       </c>
       <c r="K71" t="s">
-        <v>395</v>
+        <v>608</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -4829,7 +4829,7 @@
         <v>84</v>
       </c>
       <c r="H72" t="str">
-        <f>CONCATENATE(A72, "_", F72, "_", G72)</f>
+        <f t="shared" ref="H72:H103" si="2">CONCATENATE(A72, "_", F72, "_", G72)</f>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I72">
@@ -4865,7 +4865,7 @@
         <v>84</v>
       </c>
       <c r="H73" t="str">
-        <f>CONCATENATE(A73, "_", F73, "_", G73)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I73">
@@ -4901,7 +4901,7 @@
         <v>86</v>
       </c>
       <c r="H74" t="str">
-        <f>CONCATENATE(A74, "_", F74, "_", G74)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I74">
@@ -4937,7 +4937,7 @@
         <v>86</v>
       </c>
       <c r="H75" t="str">
-        <f>CONCATENATE(A75, "_", F75, "_", G75)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I75">
@@ -4973,7 +4973,7 @@
         <v>88</v>
       </c>
       <c r="H76" t="str">
-        <f>CONCATENATE(A76, "_", F76, "_", G76)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I76">
@@ -5009,7 +5009,7 @@
         <v>88</v>
       </c>
       <c r="H77" t="str">
-        <f>CONCATENATE(A77, "_", F77, "_", G77)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I77">
@@ -5045,7 +5045,7 @@
         <v>87</v>
       </c>
       <c r="H78" t="str">
-        <f>CONCATENATE(A78, "_", F78, "_", G78)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I78">
@@ -5081,7 +5081,7 @@
         <v>87</v>
       </c>
       <c r="H79" t="str">
-        <f>CONCATENATE(A79, "_", F79, "_", G79)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I79">
@@ -5117,7 +5117,7 @@
         <v>90</v>
       </c>
       <c r="H80" t="str">
-        <f>CONCATENATE(A80, "_", F80, "_", G80)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I80">
@@ -5153,7 +5153,7 @@
         <v>89</v>
       </c>
       <c r="H81" t="str">
-        <f>CONCATENATE(A81, "_", F81, "_", G81)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I81">
@@ -5189,17 +5189,17 @@
         <v>86</v>
       </c>
       <c r="H82" t="str">
-        <f>CONCATENATE(A82, "_", F82, "_", G82)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I82">
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>504</v>
+        <v>446</v>
       </c>
       <c r="K82" t="s">
-        <v>505</v>
+        <v>447</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -5225,17 +5225,17 @@
         <v>86</v>
       </c>
       <c r="H83" t="str">
-        <f>CONCATENATE(A83, "_", F83, "_", G83)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I83">
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>506</v>
+        <v>448</v>
       </c>
       <c r="K83" t="s">
-        <v>507</v>
+        <v>449</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -5261,17 +5261,17 @@
         <v>86</v>
       </c>
       <c r="H84" t="str">
-        <f>CONCATENATE(A84, "_", F84, "_", G84)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I84">
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>508</v>
+        <v>450</v>
       </c>
       <c r="K84" t="s">
-        <v>509</v>
+        <v>451</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -5297,17 +5297,17 @@
         <v>86</v>
       </c>
       <c r="H85" t="str">
-        <f>CONCATENATE(A85, "_", F85, "_", G85)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I85">
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>510</v>
+        <v>452</v>
       </c>
       <c r="K85" t="s">
-        <v>511</v>
+        <v>453</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -5333,17 +5333,17 @@
         <v>88</v>
       </c>
       <c r="H86" t="str">
-        <f>CONCATENATE(A86, "_", F86, "_", G86)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I86">
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>512</v>
+        <v>454</v>
       </c>
       <c r="K86" t="s">
-        <v>513</v>
+        <v>455</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -5369,17 +5369,17 @@
         <v>88</v>
       </c>
       <c r="H87" t="str">
-        <f>CONCATENATE(A87, "_", F87, "_", G87)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I87">
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>514</v>
+        <v>456</v>
       </c>
       <c r="K87" t="s">
-        <v>515</v>
+        <v>457</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -5405,17 +5405,17 @@
         <v>88</v>
       </c>
       <c r="H88" t="str">
-        <f>CONCATENATE(A88, "_", F88, "_", G88)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I88">
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>516</v>
+        <v>458</v>
       </c>
       <c r="K88" t="s">
-        <v>517</v>
+        <v>459</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
@@ -5441,17 +5441,17 @@
         <v>88</v>
       </c>
       <c r="H89" t="str">
-        <f>CONCATENATE(A89, "_", F89, "_", G89)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I89">
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>518</v>
+        <v>460</v>
       </c>
       <c r="K89" t="s">
-        <v>519</v>
+        <v>461</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
@@ -5477,17 +5477,17 @@
         <v>87</v>
       </c>
       <c r="H90" t="str">
-        <f>CONCATENATE(A90, "_", F90, "_", G90)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I90">
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>520</v>
+        <v>462</v>
       </c>
       <c r="K90" t="s">
-        <v>521</v>
+        <v>463</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
@@ -5513,17 +5513,17 @@
         <v>87</v>
       </c>
       <c r="H91" t="str">
-        <f>CONCATENATE(A91, "_", F91, "_", G91)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I91">
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>522</v>
+        <v>464</v>
       </c>
       <c r="K91" t="s">
-        <v>523</v>
+        <v>465</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
@@ -5549,17 +5549,17 @@
         <v>87</v>
       </c>
       <c r="H92" t="str">
-        <f>CONCATENATE(A92, "_", F92, "_", G92)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I92">
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>524</v>
+        <v>466</v>
       </c>
       <c r="K92" t="s">
-        <v>525</v>
+        <v>467</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -5585,17 +5585,17 @@
         <v>87</v>
       </c>
       <c r="H93" t="str">
-        <f>CONCATENATE(A93, "_", F93, "_", G93)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I93">
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>526</v>
+        <v>468</v>
       </c>
       <c r="K93" t="s">
-        <v>527</v>
+        <v>469</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
@@ -5621,17 +5621,17 @@
         <v>90</v>
       </c>
       <c r="H94" t="str">
-        <f>CONCATENATE(A94, "_", F94, "_", G94)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I94">
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>528</v>
+        <v>470</v>
       </c>
       <c r="K94" t="s">
-        <v>529</v>
+        <v>471</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
@@ -5657,17 +5657,17 @@
         <v>90</v>
       </c>
       <c r="H95" t="str">
-        <f>CONCATENATE(A95, "_", F95, "_", G95)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I95">
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>530</v>
+        <v>472</v>
       </c>
       <c r="K95" t="s">
-        <v>531</v>
+        <v>473</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
@@ -5693,17 +5693,17 @@
         <v>90</v>
       </c>
       <c r="H96" t="str">
-        <f>CONCATENATE(A96, "_", F96, "_", G96)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I96">
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>532</v>
+        <v>474</v>
       </c>
       <c r="K96" t="s">
-        <v>533</v>
+        <v>475</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -5729,17 +5729,17 @@
         <v>90</v>
       </c>
       <c r="H97" t="str">
-        <f>CONCATENATE(A97, "_", F97, "_", G97)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I97">
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>534</v>
+        <v>476</v>
       </c>
       <c r="K97" t="s">
-        <v>535</v>
+        <v>477</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5765,17 +5765,17 @@
         <v>89</v>
       </c>
       <c r="H98" t="str">
-        <f>CONCATENATE(A98, "_", F98, "_", G98)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I98">
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>536</v>
+        <v>478</v>
       </c>
       <c r="K98" t="s">
-        <v>537</v>
+        <v>479</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -5801,17 +5801,17 @@
         <v>89</v>
       </c>
       <c r="H99" t="str">
-        <f>CONCATENATE(A99, "_", F99, "_", G99)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I99">
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>538</v>
+        <v>480</v>
       </c>
       <c r="K99" t="s">
-        <v>539</v>
+        <v>481</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -5837,17 +5837,17 @@
         <v>89</v>
       </c>
       <c r="H100" t="str">
-        <f>CONCATENATE(A100, "_", F100, "_", G100)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I100">
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>540</v>
+        <v>482</v>
       </c>
       <c r="K100" t="s">
-        <v>541</v>
+        <v>483</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -5873,17 +5873,17 @@
         <v>89</v>
       </c>
       <c r="H101" t="str">
-        <f>CONCATENATE(A101, "_", F101, "_", G101)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I101">
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>542</v>
+        <v>484</v>
       </c>
       <c r="K101" t="s">
-        <v>543</v>
+        <v>485</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -5909,7 +5909,7 @@
         <v>84</v>
       </c>
       <c r="H102" t="str">
-        <f>CONCATENATE(A102, "_", F102, "_", G102)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I102">
@@ -5945,7 +5945,7 @@
         <v>84</v>
       </c>
       <c r="H103" t="str">
-        <f>CONCATENATE(A103, "_", F103, "_", G103)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I103">
@@ -5981,7 +5981,7 @@
         <v>86</v>
       </c>
       <c r="H104" t="str">
-        <f>CONCATENATE(A104, "_", F104, "_", G104)</f>
+        <f t="shared" ref="H104:H135" si="3">CONCATENATE(A104, "_", F104, "_", G104)</f>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I104">
@@ -6017,7 +6017,7 @@
         <v>86</v>
       </c>
       <c r="H105" t="str">
-        <f>CONCATENATE(A105, "_", F105, "_", G105)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I105">
@@ -6053,7 +6053,7 @@
         <v>88</v>
       </c>
       <c r="H106" t="str">
-        <f>CONCATENATE(A106, "_", F106, "_", G106)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I106">
@@ -6089,7 +6089,7 @@
         <v>88</v>
       </c>
       <c r="H107" t="str">
-        <f>CONCATENATE(A107, "_", F107, "_", G107)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I107">
@@ -6125,7 +6125,7 @@
         <v>87</v>
       </c>
       <c r="H108" t="str">
-        <f>CONCATENATE(A108, "_", F108, "_", G108)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I108">
@@ -6161,7 +6161,7 @@
         <v>87</v>
       </c>
       <c r="H109" t="str">
-        <f>CONCATENATE(A109, "_", F109, "_", G109)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I109">
@@ -6197,7 +6197,7 @@
         <v>90</v>
       </c>
       <c r="H110" t="str">
-        <f>CONCATENATE(A110, "_", F110, "_", G110)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I110">
@@ -6233,7 +6233,7 @@
         <v>90</v>
       </c>
       <c r="H111" t="str">
-        <f>CONCATENATE(A111, "_", F111, "_", G111)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I111">
@@ -6269,7 +6269,7 @@
         <v>89</v>
       </c>
       <c r="H112" t="str">
-        <f>CONCATENATE(A112, "_", F112, "_", G112)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I112">
@@ -6305,7 +6305,7 @@
         <v>89</v>
       </c>
       <c r="H113" t="str">
-        <f>CONCATENATE(A113, "_", F113, "_", G113)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I113">
@@ -6341,7 +6341,7 @@
         <v>84</v>
       </c>
       <c r="H114" t="str">
-        <f>CONCATENATE(A114, "_", F114, "_", G114)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I114">
@@ -6351,7 +6351,7 @@
         <v>125</v>
       </c>
       <c r="K114" t="s">
-        <v>415</v>
+        <v>363</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -6377,7 +6377,7 @@
         <v>84</v>
       </c>
       <c r="H115" t="str">
-        <f>CONCATENATE(A115, "_", F115, "_", G115)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I115">
@@ -6387,7 +6387,7 @@
         <v>126</v>
       </c>
       <c r="K115" t="s">
-        <v>416</v>
+        <v>364</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
@@ -6413,7 +6413,7 @@
         <v>86</v>
       </c>
       <c r="H116" t="str">
-        <f>CONCATENATE(A116, "_", F116, "_", G116)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I116">
@@ -6423,7 +6423,7 @@
         <v>120</v>
       </c>
       <c r="K116" t="s">
-        <v>414</v>
+        <v>362</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -6449,7 +6449,7 @@
         <v>88</v>
       </c>
       <c r="H117" t="str">
-        <f>CONCATENATE(A117, "_", F117, "_", G117)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I117">
@@ -6459,7 +6459,7 @@
         <v>137</v>
       </c>
       <c r="K117" t="s">
-        <v>419</v>
+        <v>367</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -6485,7 +6485,7 @@
         <v>88</v>
       </c>
       <c r="H118" t="str">
-        <f>CONCATENATE(A118, "_", F118, "_", G118)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I118">
@@ -6495,7 +6495,7 @@
         <v>138</v>
       </c>
       <c r="K118" t="s">
-        <v>420</v>
+        <v>368</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -6521,7 +6521,7 @@
         <v>87</v>
       </c>
       <c r="H119" t="str">
-        <f>CONCATENATE(A119, "_", F119, "_", G119)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I119">
@@ -6531,7 +6531,7 @@
         <v>131</v>
       </c>
       <c r="K119" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -6557,7 +6557,7 @@
         <v>87</v>
       </c>
       <c r="H120" t="str">
-        <f>CONCATENATE(A120, "_", F120, "_", G120)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I120">
@@ -6567,7 +6567,7 @@
         <v>132</v>
       </c>
       <c r="K120" t="s">
-        <v>418</v>
+        <v>366</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -6593,7 +6593,7 @@
         <v>90</v>
       </c>
       <c r="H121" t="str">
-        <f>CONCATENATE(A121, "_", F121, "_", G121)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I121">
@@ -6603,7 +6603,7 @@
         <v>149</v>
       </c>
       <c r="K121" t="s">
-        <v>423</v>
+        <v>371</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -6629,7 +6629,7 @@
         <v>90</v>
       </c>
       <c r="H122" t="str">
-        <f>CONCATENATE(A122, "_", F122, "_", G122)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I122">
@@ -6639,7 +6639,7 @@
         <v>150</v>
       </c>
       <c r="K122" t="s">
-        <v>424</v>
+        <v>372</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -6665,7 +6665,7 @@
         <v>89</v>
       </c>
       <c r="H123" t="str">
-        <f>CONCATENATE(A123, "_", F123, "_", G123)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I123">
@@ -6675,7 +6675,7 @@
         <v>143</v>
       </c>
       <c r="K123" t="s">
-        <v>421</v>
+        <v>369</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
@@ -6701,7 +6701,7 @@
         <v>89</v>
       </c>
       <c r="H124" t="str">
-        <f>CONCATENATE(A124, "_", F124, "_", G124)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I124">
@@ -6711,7 +6711,7 @@
         <v>144</v>
       </c>
       <c r="K124" t="s">
-        <v>422</v>
+        <v>370</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
@@ -6737,7 +6737,7 @@
         <v>84</v>
       </c>
       <c r="H125" t="str">
-        <f>CONCATENATE(A125, "_", F125, "_", G125)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I125">
@@ -6773,7 +6773,7 @@
         <v>84</v>
       </c>
       <c r="H126" t="str">
-        <f>CONCATENATE(A126, "_", F126, "_", G126)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I126">
@@ -6809,7 +6809,7 @@
         <v>86</v>
       </c>
       <c r="H127" t="str">
-        <f>CONCATENATE(A127, "_", F127, "_", G127)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I127">
@@ -6819,7 +6819,7 @@
         <v>208</v>
       </c>
       <c r="K127" t="s">
-        <v>425</v>
+        <v>373</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
@@ -6845,7 +6845,7 @@
         <v>86</v>
       </c>
       <c r="H128" t="str">
-        <f>CONCATENATE(A128, "_", F128, "_", G128)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I128">
@@ -6881,7 +6881,7 @@
         <v>88</v>
       </c>
       <c r="H129" t="str">
-        <f>CONCATENATE(A129, "_", F129, "_", G129)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I129">
@@ -6917,7 +6917,7 @@
         <v>88</v>
       </c>
       <c r="H130" t="str">
-        <f>CONCATENATE(A130, "_", F130, "_", G130)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I130">
@@ -6953,7 +6953,7 @@
         <v>87</v>
       </c>
       <c r="H131" t="str">
-        <f>CONCATENATE(A131, "_", F131, "_", G131)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I131">
@@ -6989,7 +6989,7 @@
         <v>87</v>
       </c>
       <c r="H132" t="str">
-        <f>CONCATENATE(A132, "_", F132, "_", G132)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I132">
@@ -7025,7 +7025,7 @@
         <v>90</v>
       </c>
       <c r="H133" t="str">
-        <f>CONCATENATE(A133, "_", F133, "_", G133)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I133">
@@ -7061,7 +7061,7 @@
         <v>90</v>
       </c>
       <c r="H134" t="str">
-        <f>CONCATENATE(A134, "_", F134, "_", G134)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I134">
@@ -7097,7 +7097,7 @@
         <v>89</v>
       </c>
       <c r="H135" t="str">
-        <f>CONCATENATE(A135, "_", F135, "_", G135)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I135">
@@ -7133,7 +7133,7 @@
         <v>89</v>
       </c>
       <c r="H136" t="str">
-        <f>CONCATENATE(A136, "_", F136, "_", G136)</f>
+        <f t="shared" ref="H136:H167" si="4">CONCATENATE(A136, "_", F136, "_", G136)</f>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I136">
@@ -7169,7 +7169,7 @@
         <v>84</v>
       </c>
       <c r="H137" t="str">
-        <f>CONCATENATE(A137, "_", F137, "_", G137)</f>
+        <f t="shared" si="4"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I137">
@@ -7205,7 +7205,7 @@
         <v>84</v>
       </c>
       <c r="H138" t="str">
-        <f>CONCATENATE(A138, "_", F138, "_", G138)</f>
+        <f t="shared" si="4"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I138">
@@ -7241,7 +7241,7 @@
         <v>86</v>
       </c>
       <c r="H139" t="str">
-        <f>CONCATENATE(A139, "_", F139, "_", G139)</f>
+        <f t="shared" si="4"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I139">
@@ -7277,7 +7277,7 @@
         <v>86</v>
       </c>
       <c r="H140" t="str">
-        <f>CONCATENATE(A140, "_", F140, "_", G140)</f>
+        <f t="shared" si="4"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I140">
@@ -7313,7 +7313,7 @@
         <v>88</v>
       </c>
       <c r="H141" t="str">
-        <f>CONCATENATE(A141, "_", F141, "_", G141)</f>
+        <f t="shared" si="4"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I141">
@@ -7323,7 +7323,7 @@
         <v>139</v>
       </c>
       <c r="K141" t="s">
-        <v>486</v>
+        <v>434</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -7349,7 +7349,7 @@
         <v>88</v>
       </c>
       <c r="H142" t="str">
-        <f>CONCATENATE(A142, "_", F142, "_", G142)</f>
+        <f t="shared" si="4"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I142">
@@ -7359,7 +7359,7 @@
         <v>140</v>
       </c>
       <c r="K142" t="s">
-        <v>487</v>
+        <v>435</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -7385,7 +7385,7 @@
         <v>87</v>
       </c>
       <c r="H143" t="str">
-        <f>CONCATENATE(A143, "_", F143, "_", G143)</f>
+        <f t="shared" si="4"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I143">
@@ -7421,7 +7421,7 @@
         <v>87</v>
       </c>
       <c r="H144" t="str">
-        <f>CONCATENATE(A144, "_", F144, "_", G144)</f>
+        <f t="shared" si="4"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I144">
@@ -7457,7 +7457,7 @@
         <v>90</v>
       </c>
       <c r="H145" t="str">
-        <f>CONCATENATE(A145, "_", F145, "_", G145)</f>
+        <f t="shared" si="4"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I145">
@@ -7467,7 +7467,7 @@
         <v>151</v>
       </c>
       <c r="K145" t="s">
-        <v>490</v>
+        <v>438</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
@@ -7493,7 +7493,7 @@
         <v>90</v>
       </c>
       <c r="H146" t="str">
-        <f>CONCATENATE(A146, "_", F146, "_", G146)</f>
+        <f t="shared" si="4"/>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I146">
@@ -7503,7 +7503,7 @@
         <v>152</v>
       </c>
       <c r="K146" t="s">
-        <v>491</v>
+        <v>439</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
@@ -7529,7 +7529,7 @@
         <v>89</v>
       </c>
       <c r="H147" t="str">
-        <f>CONCATENATE(A147, "_", F147, "_", G147)</f>
+        <f t="shared" si="4"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I147">
@@ -7539,7 +7539,7 @@
         <v>145</v>
       </c>
       <c r="K147" t="s">
-        <v>488</v>
+        <v>436</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
@@ -7565,7 +7565,7 @@
         <v>89</v>
       </c>
       <c r="H148" t="str">
-        <f>CONCATENATE(A148, "_", F148, "_", G148)</f>
+        <f t="shared" si="4"/>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I148">
@@ -7575,7 +7575,7 @@
         <v>146</v>
       </c>
       <c r="K148" t="s">
-        <v>489</v>
+        <v>437</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
@@ -7601,17 +7601,17 @@
         <v>84</v>
       </c>
       <c r="H149" t="str">
-        <f>CONCATENATE(A149, "_", F149, "_", G149)</f>
+        <f t="shared" si="4"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I149">
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>544</v>
+        <v>486</v>
       </c>
       <c r="K149" t="s">
-        <v>545</v>
+        <v>487</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
@@ -7637,17 +7637,17 @@
         <v>84</v>
       </c>
       <c r="H150" t="str">
-        <f>CONCATENATE(A150, "_", F150, "_", G150)</f>
+        <f t="shared" si="4"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I150">
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>546</v>
+        <v>488</v>
       </c>
       <c r="K150" t="s">
-        <v>547</v>
+        <v>489</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -7673,17 +7673,17 @@
         <v>84</v>
       </c>
       <c r="H151" t="str">
-        <f>CONCATENATE(A151, "_", F151, "_", G151)</f>
+        <f t="shared" si="4"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I151">
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>548</v>
+        <v>490</v>
       </c>
       <c r="K151" t="s">
-        <v>549</v>
+        <v>491</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
@@ -7709,17 +7709,17 @@
         <v>84</v>
       </c>
       <c r="H152" t="str">
-        <f>CONCATENATE(A152, "_", F152, "_", G152)</f>
+        <f t="shared" si="4"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I152">
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>550</v>
+        <v>492</v>
       </c>
       <c r="K152" t="s">
-        <v>551</v>
+        <v>493</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
@@ -7742,7 +7742,7 @@
         <v>84</v>
       </c>
       <c r="H153" t="str">
-        <f>CONCATENATE(A153, "_", F153, "_", G153)</f>
+        <f t="shared" si="4"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I153">
@@ -7775,7 +7775,7 @@
         <v>84</v>
       </c>
       <c r="H154" t="str">
-        <f>CONCATENATE(A154, "_", F154, "_", G154)</f>
+        <f t="shared" si="4"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I154">
@@ -7808,7 +7808,7 @@
         <v>86</v>
       </c>
       <c r="H155" t="str">
-        <f>CONCATENATE(A155, "_", F155, "_", G155)</f>
+        <f t="shared" si="4"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I155">
@@ -7841,7 +7841,7 @@
         <v>86</v>
       </c>
       <c r="H156" t="str">
-        <f>CONCATENATE(A156, "_", F156, "_", G156)</f>
+        <f t="shared" si="4"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I156">
@@ -7874,7 +7874,7 @@
         <v>88</v>
       </c>
       <c r="H157" t="str">
-        <f>CONCATENATE(A157, "_", F157, "_", G157)</f>
+        <f t="shared" si="4"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I157">
@@ -7907,7 +7907,7 @@
         <v>88</v>
       </c>
       <c r="H158" t="str">
-        <f>CONCATENATE(A158, "_", F158, "_", G158)</f>
+        <f t="shared" si="4"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I158">
@@ -7940,7 +7940,7 @@
         <v>87</v>
       </c>
       <c r="H159" t="str">
-        <f>CONCATENATE(A159, "_", F159, "_", G159)</f>
+        <f t="shared" si="4"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I159">
@@ -7973,7 +7973,7 @@
         <v>87</v>
       </c>
       <c r="H160" t="str">
-        <f>CONCATENATE(A160, "_", F160, "_", G160)</f>
+        <f t="shared" si="4"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I160">
@@ -8006,7 +8006,7 @@
         <v>90</v>
       </c>
       <c r="H161" t="str">
-        <f>CONCATENATE(A161, "_", F161, "_", G161)</f>
+        <f t="shared" si="4"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I161">
@@ -8039,7 +8039,7 @@
         <v>90</v>
       </c>
       <c r="H162" t="str">
-        <f>CONCATENATE(A162, "_", F162, "_", G162)</f>
+        <f t="shared" si="4"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I162">
@@ -8072,7 +8072,7 @@
         <v>89</v>
       </c>
       <c r="H163" t="str">
-        <f>CONCATENATE(A163, "_", F163, "_", G163)</f>
+        <f t="shared" si="4"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I163">
@@ -8105,7 +8105,7 @@
         <v>89</v>
       </c>
       <c r="H164" t="str">
-        <f>CONCATENATE(A164, "_", F164, "_", G164)</f>
+        <f t="shared" si="4"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I164">
@@ -8138,17 +8138,17 @@
         <v>86</v>
       </c>
       <c r="H165" t="str">
-        <f t="shared" ref="H130:H193" si="2">CONCATENATE(A165, "_", F165, "_", G165)</f>
+        <f t="shared" ref="H165:H193" si="5">CONCATENATE(A165, "_", F165, "_", G165)</f>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I165">
         <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>552</v>
+        <v>494</v>
       </c>
       <c r="K165" t="s">
-        <v>553</v>
+        <v>495</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
@@ -8171,17 +8171,17 @@
         <v>86</v>
       </c>
       <c r="H166" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I166">
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>554</v>
+        <v>496</v>
       </c>
       <c r="K166" t="s">
-        <v>555</v>
+        <v>497</v>
       </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
@@ -8204,17 +8204,17 @@
         <v>86</v>
       </c>
       <c r="H167" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I167">
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>556</v>
+        <v>498</v>
       </c>
       <c r="K167" t="s">
-        <v>557</v>
+        <v>499</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
@@ -8237,17 +8237,17 @@
         <v>86</v>
       </c>
       <c r="H168" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I168">
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>558</v>
+        <v>500</v>
       </c>
       <c r="K168" t="s">
-        <v>559</v>
+        <v>501</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
@@ -8270,17 +8270,17 @@
         <v>88</v>
       </c>
       <c r="H169" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I169">
         <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>560</v>
+        <v>502</v>
       </c>
       <c r="K169" t="s">
-        <v>561</v>
+        <v>503</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
@@ -8303,17 +8303,17 @@
         <v>88</v>
       </c>
       <c r="H170" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I170">
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>562</v>
+        <v>504</v>
       </c>
       <c r="K170" t="s">
-        <v>563</v>
+        <v>505</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -8336,17 +8336,17 @@
         <v>88</v>
       </c>
       <c r="H171" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I171">
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>564</v>
+        <v>506</v>
       </c>
       <c r="K171" t="s">
-        <v>565</v>
+        <v>507</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -8369,17 +8369,17 @@
         <v>88</v>
       </c>
       <c r="H172" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I172">
         <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>566</v>
+        <v>508</v>
       </c>
       <c r="K172" t="s">
-        <v>567</v>
+        <v>509</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -8402,17 +8402,17 @@
         <v>87</v>
       </c>
       <c r="H173" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I173">
         <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>568</v>
+        <v>510</v>
       </c>
       <c r="K173" t="s">
-        <v>569</v>
+        <v>511</v>
       </c>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
@@ -8435,17 +8435,17 @@
         <v>87</v>
       </c>
       <c r="H174" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I174">
         <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>570</v>
+        <v>512</v>
       </c>
       <c r="K174" t="s">
-        <v>571</v>
+        <v>513</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
@@ -8468,17 +8468,17 @@
         <v>87</v>
       </c>
       <c r="H175" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I175">
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>572</v>
+        <v>514</v>
       </c>
       <c r="K175" t="s">
-        <v>573</v>
+        <v>515</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
@@ -8501,17 +8501,17 @@
         <v>87</v>
       </c>
       <c r="H176" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I176">
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>574</v>
+        <v>516</v>
       </c>
       <c r="K176" t="s">
-        <v>575</v>
+        <v>517</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -8534,17 +8534,17 @@
         <v>90</v>
       </c>
       <c r="H177" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I177">
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>576</v>
+        <v>518</v>
       </c>
       <c r="K177" t="s">
-        <v>577</v>
+        <v>519</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -8567,17 +8567,17 @@
         <v>90</v>
       </c>
       <c r="H178" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I178">
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>578</v>
+        <v>520</v>
       </c>
       <c r="K178" t="s">
-        <v>579</v>
+        <v>521</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -8600,17 +8600,17 @@
         <v>90</v>
       </c>
       <c r="H179" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I179">
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>580</v>
+        <v>522</v>
       </c>
       <c r="K179" t="s">
-        <v>581</v>
+        <v>523</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -8633,17 +8633,17 @@
         <v>90</v>
       </c>
       <c r="H180" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I180">
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>582</v>
+        <v>524</v>
       </c>
       <c r="K180" t="s">
-        <v>583</v>
+        <v>525</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -8666,17 +8666,17 @@
         <v>89</v>
       </c>
       <c r="H181" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I181">
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>584</v>
+        <v>526</v>
       </c>
       <c r="K181" t="s">
-        <v>585</v>
+        <v>527</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -8699,17 +8699,17 @@
         <v>89</v>
       </c>
       <c r="H182" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I182">
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>586</v>
+        <v>528</v>
       </c>
       <c r="K182" t="s">
-        <v>587</v>
+        <v>529</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
@@ -8732,17 +8732,17 @@
         <v>89</v>
       </c>
       <c r="H183" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I183">
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="K183" t="s">
-        <v>589</v>
+        <v>531</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -8765,17 +8765,17 @@
         <v>89</v>
       </c>
       <c r="H184" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I184">
         <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>590</v>
+        <v>532</v>
       </c>
       <c r="K184" t="s">
-        <v>591</v>
+        <v>533</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
@@ -8798,7 +8798,7 @@
         <v>84</v>
       </c>
       <c r="H185" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I185">
@@ -8808,7 +8808,7 @@
         <v>159</v>
       </c>
       <c r="K185" t="s">
-        <v>432</v>
+        <v>380</v>
       </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
@@ -8831,7 +8831,7 @@
         <v>84</v>
       </c>
       <c r="H186" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I186">
@@ -8841,7 +8841,7 @@
         <v>160</v>
       </c>
       <c r="K186" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
@@ -8864,7 +8864,7 @@
         <v>86</v>
       </c>
       <c r="H187" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I187">
@@ -8874,7 +8874,7 @@
         <v>153</v>
       </c>
       <c r="K187" t="s">
-        <v>426</v>
+        <v>374</v>
       </c>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
@@ -8897,7 +8897,7 @@
         <v>86</v>
       </c>
       <c r="H188" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I188">
@@ -8907,7 +8907,7 @@
         <v>154</v>
       </c>
       <c r="K188" t="s">
-        <v>427</v>
+        <v>375</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
@@ -8930,7 +8930,7 @@
         <v>88</v>
       </c>
       <c r="H189" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I189">
@@ -8940,7 +8940,7 @@
         <v>171</v>
       </c>
       <c r="K189" t="s">
-        <v>444</v>
+        <v>392</v>
       </c>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
@@ -8963,7 +8963,7 @@
         <v>88</v>
       </c>
       <c r="H190" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I190">
@@ -8973,7 +8973,7 @@
         <v>172</v>
       </c>
       <c r="K190" t="s">
-        <v>445</v>
+        <v>393</v>
       </c>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
@@ -8996,7 +8996,7 @@
         <v>87</v>
       </c>
       <c r="H191" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I191">
@@ -9006,7 +9006,7 @@
         <v>165</v>
       </c>
       <c r="K191" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -9029,7 +9029,7 @@
         <v>87</v>
       </c>
       <c r="H192" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I192">
@@ -9039,7 +9039,7 @@
         <v>166</v>
       </c>
       <c r="K192" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
@@ -9062,7 +9062,7 @@
         <v>90</v>
       </c>
       <c r="H193" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I193">
@@ -9072,7 +9072,7 @@
         <v>183</v>
       </c>
       <c r="K193" t="s">
-        <v>456</v>
+        <v>404</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -9095,7 +9095,7 @@
         <v>90</v>
       </c>
       <c r="H194" t="str">
-        <f t="shared" ref="H194:H257" si="3">CONCATENATE(A194, "_", F194, "_", G194)</f>
+        <f t="shared" ref="H194:H236" si="6">CONCATENATE(A194, "_", F194, "_", G194)</f>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I194">
@@ -9105,7 +9105,7 @@
         <v>184</v>
       </c>
       <c r="K194" t="s">
-        <v>457</v>
+        <v>405</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -9128,7 +9128,7 @@
         <v>89</v>
       </c>
       <c r="H195" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I195">
@@ -9138,7 +9138,7 @@
         <v>177</v>
       </c>
       <c r="K195" t="s">
-        <v>450</v>
+        <v>398</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
@@ -9161,7 +9161,7 @@
         <v>89</v>
       </c>
       <c r="H196" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I196">
@@ -9171,7 +9171,7 @@
         <v>178</v>
       </c>
       <c r="K196" t="s">
-        <v>451</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
@@ -9194,7 +9194,7 @@
         <v>84</v>
       </c>
       <c r="H197" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I197">
@@ -9204,7 +9204,7 @@
         <v>161</v>
       </c>
       <c r="K197" t="s">
-        <v>434</v>
+        <v>382</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
@@ -9227,7 +9227,7 @@
         <v>84</v>
       </c>
       <c r="H198" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I198">
@@ -9237,7 +9237,7 @@
         <v>162</v>
       </c>
       <c r="K198" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -9260,7 +9260,7 @@
         <v>86</v>
       </c>
       <c r="H199" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I199">
@@ -9270,7 +9270,7 @@
         <v>155</v>
       </c>
       <c r="K199" t="s">
-        <v>428</v>
+        <v>376</v>
       </c>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -9293,7 +9293,7 @@
         <v>86</v>
       </c>
       <c r="H200" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I200">
@@ -9303,7 +9303,7 @@
         <v>156</v>
       </c>
       <c r="K200" t="s">
-        <v>429</v>
+        <v>377</v>
       </c>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
@@ -9326,7 +9326,7 @@
         <v>88</v>
       </c>
       <c r="H201" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I201">
@@ -9336,7 +9336,7 @@
         <v>173</v>
       </c>
       <c r="K201" t="s">
-        <v>446</v>
+        <v>394</v>
       </c>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
@@ -9359,7 +9359,7 @@
         <v>88</v>
       </c>
       <c r="H202" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I202">
@@ -9369,7 +9369,7 @@
         <v>174</v>
       </c>
       <c r="K202" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
@@ -9392,7 +9392,7 @@
         <v>87</v>
       </c>
       <c r="H203" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I203">
@@ -9402,7 +9402,7 @@
         <v>167</v>
       </c>
       <c r="K203" t="s">
-        <v>440</v>
+        <v>388</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -9425,7 +9425,7 @@
         <v>87</v>
       </c>
       <c r="H204" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I204">
@@ -9435,7 +9435,7 @@
         <v>168</v>
       </c>
       <c r="K204" t="s">
-        <v>441</v>
+        <v>389</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
@@ -9458,7 +9458,7 @@
         <v>90</v>
       </c>
       <c r="H205" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I205">
@@ -9468,7 +9468,7 @@
         <v>185</v>
       </c>
       <c r="K205" t="s">
-        <v>458</v>
+        <v>406</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
@@ -9491,7 +9491,7 @@
         <v>90</v>
       </c>
       <c r="H206" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I206">
@@ -9501,7 +9501,7 @@
         <v>186</v>
       </c>
       <c r="K206" t="s">
-        <v>459</v>
+        <v>407</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -9524,7 +9524,7 @@
         <v>89</v>
       </c>
       <c r="H207" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I207">
@@ -9534,7 +9534,7 @@
         <v>179</v>
       </c>
       <c r="K207" t="s">
-        <v>452</v>
+        <v>400</v>
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
@@ -9557,7 +9557,7 @@
         <v>89</v>
       </c>
       <c r="H208" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I208">
@@ -9567,7 +9567,7 @@
         <v>180</v>
       </c>
       <c r="K208" t="s">
-        <v>453</v>
+        <v>401</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
@@ -9590,7 +9590,7 @@
         <v>84</v>
       </c>
       <c r="H209" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I209">
@@ -9600,7 +9600,7 @@
         <v>222</v>
       </c>
       <c r="K209" t="s">
-        <v>464</v>
+        <v>412</v>
       </c>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
@@ -9623,7 +9623,7 @@
         <v>84</v>
       </c>
       <c r="H210" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I210">
@@ -9633,7 +9633,7 @@
         <v>223</v>
       </c>
       <c r="K210" t="s">
-        <v>465</v>
+        <v>413</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -9656,7 +9656,7 @@
         <v>86</v>
       </c>
       <c r="H211" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I211">
@@ -9666,7 +9666,7 @@
         <v>220</v>
       </c>
       <c r="K211" t="s">
-        <v>462</v>
+        <v>410</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -9689,7 +9689,7 @@
         <v>86</v>
       </c>
       <c r="H212" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I212">
@@ -9699,7 +9699,7 @@
         <v>221</v>
       </c>
       <c r="K212" t="s">
-        <v>463</v>
+        <v>411</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -9722,7 +9722,7 @@
         <v>88</v>
       </c>
       <c r="H213" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I213">
@@ -9732,7 +9732,7 @@
         <v>224</v>
       </c>
       <c r="K213" t="s">
-        <v>466</v>
+        <v>414</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -9755,7 +9755,7 @@
         <v>88</v>
       </c>
       <c r="H214" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I214">
@@ -9765,7 +9765,7 @@
         <v>225</v>
       </c>
       <c r="K214" t="s">
-        <v>467</v>
+        <v>415</v>
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
@@ -9788,7 +9788,7 @@
         <v>87</v>
       </c>
       <c r="H215" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I215">
@@ -9798,7 +9798,7 @@
         <v>226</v>
       </c>
       <c r="K215" t="s">
-        <v>468</v>
+        <v>416</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -9821,7 +9821,7 @@
         <v>87</v>
       </c>
       <c r="H216" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I216">
@@ -9831,7 +9831,7 @@
         <v>227</v>
       </c>
       <c r="K216" t="s">
-        <v>469</v>
+        <v>417</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
@@ -9854,7 +9854,7 @@
         <v>90</v>
       </c>
       <c r="H217" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I217">
@@ -9864,7 +9864,7 @@
         <v>228</v>
       </c>
       <c r="K217" t="s">
-        <v>470</v>
+        <v>418</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
@@ -9887,7 +9887,7 @@
         <v>90</v>
       </c>
       <c r="H218" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I218">
@@ -9897,7 +9897,7 @@
         <v>229</v>
       </c>
       <c r="K218" t="s">
-        <v>471</v>
+        <v>419</v>
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -9920,7 +9920,7 @@
         <v>89</v>
       </c>
       <c r="H219" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I219">
@@ -9930,7 +9930,7 @@
         <v>230</v>
       </c>
       <c r="K219" t="s">
-        <v>472</v>
+        <v>420</v>
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
@@ -9953,7 +9953,7 @@
         <v>89</v>
       </c>
       <c r="H220" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I220">
@@ -9963,7 +9963,7 @@
         <v>231</v>
       </c>
       <c r="K220" t="s">
-        <v>473</v>
+        <v>421</v>
       </c>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
@@ -9986,7 +9986,7 @@
         <v>84</v>
       </c>
       <c r="H221" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I221">
@@ -9996,7 +9996,7 @@
         <v>163</v>
       </c>
       <c r="K221" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -10019,7 +10019,7 @@
         <v>84</v>
       </c>
       <c r="H222" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I222">
@@ -10029,7 +10029,7 @@
         <v>164</v>
       </c>
       <c r="K222" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
@@ -10052,7 +10052,7 @@
         <v>86</v>
       </c>
       <c r="H223" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I223">
@@ -10062,7 +10062,7 @@
         <v>157</v>
       </c>
       <c r="K223" t="s">
-        <v>430</v>
+        <v>378</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -10085,7 +10085,7 @@
         <v>86</v>
       </c>
       <c r="H224" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I224">
@@ -10095,7 +10095,7 @@
         <v>158</v>
       </c>
       <c r="K224" t="s">
-        <v>431</v>
+        <v>379</v>
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
@@ -10118,7 +10118,7 @@
         <v>88</v>
       </c>
       <c r="H225" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I225">
@@ -10128,7 +10128,7 @@
         <v>175</v>
       </c>
       <c r="K225" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
@@ -10151,7 +10151,7 @@
         <v>88</v>
       </c>
       <c r="H226" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I226">
@@ -10161,7 +10161,7 @@
         <v>176</v>
       </c>
       <c r="K226" t="s">
-        <v>449</v>
+        <v>397</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
@@ -10184,7 +10184,7 @@
         <v>87</v>
       </c>
       <c r="H227" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I227">
@@ -10194,7 +10194,7 @@
         <v>169</v>
       </c>
       <c r="K227" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
@@ -10217,7 +10217,7 @@
         <v>87</v>
       </c>
       <c r="H228" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I228">
@@ -10227,7 +10227,7 @@
         <v>170</v>
       </c>
       <c r="K228" t="s">
-        <v>443</v>
+        <v>391</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
@@ -10250,7 +10250,7 @@
         <v>90</v>
       </c>
       <c r="H229" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I229">
@@ -10260,7 +10260,7 @@
         <v>187</v>
       </c>
       <c r="K229" t="s">
-        <v>460</v>
+        <v>408</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
@@ -10283,7 +10283,7 @@
         <v>90</v>
       </c>
       <c r="H230" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I230">
@@ -10293,7 +10293,7 @@
         <v>188</v>
       </c>
       <c r="K230" t="s">
-        <v>461</v>
+        <v>409</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -10316,7 +10316,7 @@
         <v>89</v>
       </c>
       <c r="H231" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I231">
@@ -10326,7 +10326,7 @@
         <v>181</v>
       </c>
       <c r="K231" t="s">
-        <v>454</v>
+        <v>402</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
@@ -10349,7 +10349,7 @@
         <v>89</v>
       </c>
       <c r="H232" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I232">
@@ -10359,7 +10359,7 @@
         <v>182</v>
       </c>
       <c r="K232" t="s">
-        <v>455</v>
+        <v>403</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -10382,17 +10382,17 @@
         <v>84</v>
       </c>
       <c r="H233" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I233">
         <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>592</v>
+        <v>534</v>
       </c>
       <c r="K233" t="s">
-        <v>593</v>
+        <v>535</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -10415,17 +10415,17 @@
         <v>84</v>
       </c>
       <c r="H234" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I234">
         <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>594</v>
+        <v>536</v>
       </c>
       <c r="K234" t="s">
-        <v>595</v>
+        <v>537</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -10448,17 +10448,17 @@
         <v>84</v>
       </c>
       <c r="H235" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I235">
         <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>596</v>
+        <v>538</v>
       </c>
       <c r="K235" t="s">
-        <v>597</v>
+        <v>539</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -10481,17 +10481,17 @@
         <v>84</v>
       </c>
       <c r="H236" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I236">
         <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>598</v>
+        <v>540</v>
       </c>
       <c r="K236" t="s">
-        <v>599</v>
+        <v>541</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -10517,7 +10517,7 @@
         <v>84</v>
       </c>
       <c r="H237" t="str">
-        <f>CONCATENATE(A237, "_", F237, "_", G237)</f>
+        <f t="shared" ref="H237:H264" si="7">CONCATENATE(A237, "_", F237, "_", G237)</f>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I237">
@@ -10527,7 +10527,7 @@
         <v>293</v>
       </c>
       <c r="K237" t="s">
-        <v>398</v>
+        <v>346</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -10553,7 +10553,7 @@
         <v>84</v>
       </c>
       <c r="H238" t="str">
-        <f>CONCATENATE(A238, "_", F238, "_", G238)</f>
+        <f t="shared" si="7"/>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I238">
@@ -10563,7 +10563,7 @@
         <v>294</v>
       </c>
       <c r="K238" t="s">
-        <v>399</v>
+        <v>347</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -10589,7 +10589,7 @@
         <v>84</v>
       </c>
       <c r="H239" t="str">
-        <f>CONCATENATE(A239, "_", F239, "_", G239)</f>
+        <f t="shared" si="7"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I239">
@@ -10599,7 +10599,7 @@
         <v>301</v>
       </c>
       <c r="K239" t="s">
-        <v>406</v>
+        <v>354</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -10625,7 +10625,7 @@
         <v>84</v>
       </c>
       <c r="H240" t="str">
-        <f>CONCATENATE(A240, "_", F240, "_", G240)</f>
+        <f t="shared" si="7"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I240">
@@ -10635,7 +10635,7 @@
         <v>302</v>
       </c>
       <c r="K240" t="s">
-        <v>407</v>
+        <v>355</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -10652,7 +10652,7 @@
         <v>84</v>
       </c>
       <c r="H241" t="str">
-        <f>CONCATENATE(A241, "_", F241, "_", G241)</f>
+        <f t="shared" si="7"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I241">
@@ -10662,7 +10662,7 @@
         <v>112</v>
       </c>
       <c r="K241" t="s">
-        <v>474</v>
+        <v>422</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -10679,7 +10679,7 @@
         <v>84</v>
       </c>
       <c r="H242" t="str">
-        <f>CONCATENATE(A242, "_", F242, "_", G242)</f>
+        <f t="shared" si="7"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I242">
@@ -10689,7 +10689,7 @@
         <v>113</v>
       </c>
       <c r="K242" t="s">
-        <v>475</v>
+        <v>423</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -10706,7 +10706,7 @@
         <v>84</v>
       </c>
       <c r="H243" t="str">
-        <f>CONCATENATE(A243, "_", F243, "_", G243)</f>
+        <f t="shared" si="7"/>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I243">
@@ -10716,7 +10716,7 @@
         <v>233</v>
       </c>
       <c r="K243" t="s">
-        <v>476</v>
+        <v>424</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -10742,7 +10742,7 @@
         <v>84</v>
       </c>
       <c r="H244" t="str">
-        <f>CONCATENATE(A244, "_", F244, "_", G244)</f>
+        <f t="shared" si="7"/>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I244">
@@ -10752,7 +10752,7 @@
         <v>295</v>
       </c>
       <c r="K244" t="s">
-        <v>400</v>
+        <v>348</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
@@ -10778,7 +10778,7 @@
         <v>84</v>
       </c>
       <c r="H245" t="str">
-        <f>CONCATENATE(A245, "_", F245, "_", G245)</f>
+        <f t="shared" si="7"/>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I245">
@@ -10788,7 +10788,7 @@
         <v>296</v>
       </c>
       <c r="K245" t="s">
-        <v>401</v>
+        <v>349</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -10814,7 +10814,7 @@
         <v>84</v>
       </c>
       <c r="H246" t="str">
-        <f>CONCATENATE(A246, "_", F246, "_", G246)</f>
+        <f t="shared" si="7"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I246">
@@ -10824,7 +10824,7 @@
         <v>303</v>
       </c>
       <c r="K246" t="s">
-        <v>408</v>
+        <v>356</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
@@ -10850,7 +10850,7 @@
         <v>84</v>
       </c>
       <c r="H247" t="str">
-        <f>CONCATENATE(A247, "_", F247, "_", G247)</f>
+        <f t="shared" si="7"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I247">
@@ -10860,7 +10860,7 @@
         <v>304</v>
       </c>
       <c r="K247" t="s">
-        <v>409</v>
+        <v>357</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
@@ -10877,7 +10877,7 @@
         <v>84</v>
       </c>
       <c r="H248" t="str">
-        <f>CONCATENATE(A248, "_", F248, "_", G248)</f>
+        <f t="shared" si="7"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I248">
@@ -10887,7 +10887,7 @@
         <v>114</v>
       </c>
       <c r="K248" t="s">
-        <v>477</v>
+        <v>425</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
@@ -10904,7 +10904,7 @@
         <v>84</v>
       </c>
       <c r="H249" t="str">
-        <f>CONCATENATE(A249, "_", F249, "_", G249)</f>
+        <f t="shared" si="7"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I249">
@@ -10914,7 +10914,7 @@
         <v>115</v>
       </c>
       <c r="K249" t="s">
-        <v>478</v>
+        <v>426</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
@@ -10931,7 +10931,7 @@
         <v>84</v>
       </c>
       <c r="H250" t="str">
-        <f>CONCATENATE(A250, "_", F250, "_", G250)</f>
+        <f t="shared" si="7"/>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I250">
@@ -10941,7 +10941,7 @@
         <v>234</v>
       </c>
       <c r="K250" t="s">
-        <v>479</v>
+        <v>427</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -10967,7 +10967,7 @@
         <v>84</v>
       </c>
       <c r="H251" t="str">
-        <f>CONCATENATE(A251, "_", F251, "_", G251)</f>
+        <f t="shared" si="7"/>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I251">
@@ -10977,7 +10977,7 @@
         <v>297</v>
       </c>
       <c r="K251" t="s">
-        <v>402</v>
+        <v>350</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -11003,7 +11003,7 @@
         <v>84</v>
       </c>
       <c r="H252" t="str">
-        <f>CONCATENATE(A252, "_", F252, "_", G252)</f>
+        <f t="shared" si="7"/>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I252">
@@ -11013,7 +11013,7 @@
         <v>298</v>
       </c>
       <c r="K252" t="s">
-        <v>403</v>
+        <v>351</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -11039,7 +11039,7 @@
         <v>84</v>
       </c>
       <c r="H253" t="str">
-        <f>CONCATENATE(A253, "_", F253, "_", G253)</f>
+        <f t="shared" si="7"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I253">
@@ -11049,7 +11049,7 @@
         <v>305</v>
       </c>
       <c r="K253" t="s">
-        <v>410</v>
+        <v>358</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
@@ -11075,7 +11075,7 @@
         <v>84</v>
       </c>
       <c r="H254" t="str">
-        <f>CONCATENATE(A254, "_", F254, "_", G254)</f>
+        <f t="shared" si="7"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I254">
@@ -11085,7 +11085,7 @@
         <v>306</v>
       </c>
       <c r="K254" t="s">
-        <v>411</v>
+        <v>359</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
@@ -11102,7 +11102,7 @@
         <v>84</v>
       </c>
       <c r="H255" t="str">
-        <f>CONCATENATE(A255, "_", F255, "_", G255)</f>
+        <f t="shared" si="7"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I255">
@@ -11112,7 +11112,7 @@
         <v>235</v>
       </c>
       <c r="K255" t="s">
-        <v>480</v>
+        <v>428</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
@@ -11129,7 +11129,7 @@
         <v>84</v>
       </c>
       <c r="H256" t="str">
-        <f>CONCATENATE(A256, "_", F256, "_", G256)</f>
+        <f t="shared" si="7"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I256">
@@ -11139,7 +11139,7 @@
         <v>236</v>
       </c>
       <c r="K256" t="s">
-        <v>481</v>
+        <v>429</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
@@ -11156,7 +11156,7 @@
         <v>84</v>
       </c>
       <c r="H257" t="str">
-        <f>CONCATENATE(A257, "_", F257, "_", G257)</f>
+        <f t="shared" si="7"/>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I257">
@@ -11166,7 +11166,7 @@
         <v>237</v>
       </c>
       <c r="K257" t="s">
-        <v>482</v>
+        <v>430</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
@@ -11192,7 +11192,7 @@
         <v>84</v>
       </c>
       <c r="H258" t="str">
-        <f>CONCATENATE(A258, "_", F258, "_", G258)</f>
+        <f t="shared" si="7"/>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I258">
@@ -11202,7 +11202,7 @@
         <v>299</v>
       </c>
       <c r="K258" t="s">
-        <v>404</v>
+        <v>352</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
@@ -11228,7 +11228,7 @@
         <v>84</v>
       </c>
       <c r="H259" t="str">
-        <f>CONCATENATE(A259, "_", F259, "_", G259)</f>
+        <f t="shared" si="7"/>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I259">
@@ -11238,7 +11238,7 @@
         <v>300</v>
       </c>
       <c r="K259" t="s">
-        <v>405</v>
+        <v>353</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
@@ -11264,7 +11264,7 @@
         <v>84</v>
       </c>
       <c r="H260" t="str">
-        <f>CONCATENATE(A260, "_", F260, "_", G260)</f>
+        <f t="shared" si="7"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I260">
@@ -11274,7 +11274,7 @@
         <v>307</v>
       </c>
       <c r="K260" t="s">
-        <v>412</v>
+        <v>360</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
@@ -11300,7 +11300,7 @@
         <v>84</v>
       </c>
       <c r="H261" t="str">
-        <f>CONCATENATE(A261, "_", F261, "_", G261)</f>
+        <f t="shared" si="7"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I261">
@@ -11310,7 +11310,7 @@
         <v>308</v>
       </c>
       <c r="K261" t="s">
-        <v>413</v>
+        <v>361</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
@@ -11327,7 +11327,7 @@
         <v>84</v>
       </c>
       <c r="H262" t="str">
-        <f>CONCATENATE(A262, "_", F262, "_", G262)</f>
+        <f t="shared" si="7"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I262">
@@ -11337,7 +11337,7 @@
         <v>116</v>
       </c>
       <c r="K262" t="s">
-        <v>483</v>
+        <v>431</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
@@ -11354,7 +11354,7 @@
         <v>84</v>
       </c>
       <c r="H263" t="str">
-        <f>CONCATENATE(A263, "_", F263, "_", G263)</f>
+        <f t="shared" si="7"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I263">
@@ -11364,7 +11364,7 @@
         <v>117</v>
       </c>
       <c r="K263" t="s">
-        <v>484</v>
+        <v>432</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
@@ -11381,7 +11381,7 @@
         <v>84</v>
       </c>
       <c r="H264" t="str">
-        <f>CONCATENATE(A264, "_", F264, "_", G264)</f>
+        <f t="shared" si="7"/>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I264">
@@ -11391,7 +11391,7 @@
         <v>238</v>
       </c>
       <c r="K264" t="s">
-        <v>485</v>
+        <v>433</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
@@ -11417,17 +11417,17 @@
         <v>86</v>
       </c>
       <c r="H265" t="str">
-        <f t="shared" ref="H258:H265" si="4">CONCATENATE(A265, "_", F265, "_", G265)</f>
+        <f t="shared" ref="H265" si="8">CONCATENATE(A265, "_", F265, "_", G265)</f>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I265">
         <v>2</v>
       </c>
       <c r="J265" t="s">
-        <v>600</v>
+        <v>542</v>
       </c>
       <c r="K265" t="s">
-        <v>601</v>
+        <v>543</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -11453,14 +11453,14 @@
         <v>84</v>
       </c>
       <c r="H266" t="str">
-        <f>CONCATENATE(A266, "_", F266, "_", G266)</f>
+        <f t="shared" ref="H266:H272" si="9">CONCATENATE(A266, "_", F266, "_", G266)</f>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I266">
         <v>3</v>
       </c>
       <c r="K266" t="s">
-        <v>602</v>
+        <v>544</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -11486,14 +11486,14 @@
         <v>84</v>
       </c>
       <c r="H267" t="str">
-        <f>CONCATENATE(A267, "_", F267, "_", G267)</f>
+        <f t="shared" si="9"/>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I267">
         <v>3</v>
       </c>
       <c r="K267" t="s">
-        <v>602</v>
+        <v>544</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -11519,14 +11519,14 @@
         <v>84</v>
       </c>
       <c r="H268" t="str">
-        <f>CONCATENATE(A268, "_", F268, "_", G268)</f>
+        <f t="shared" si="9"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I268">
         <v>3</v>
       </c>
       <c r="K268" t="s">
-        <v>602</v>
+        <v>544</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -11552,14 +11552,14 @@
         <v>84</v>
       </c>
       <c r="H269" t="str">
-        <f>CONCATENATE(A269, "_", F269, "_", G269)</f>
+        <f t="shared" si="9"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I269">
         <v>3</v>
       </c>
       <c r="K269" t="s">
-        <v>602</v>
+        <v>544</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -11576,17 +11576,17 @@
         <v>84</v>
       </c>
       <c r="H270" t="str">
-        <f>CONCATENATE(A270, "_", F270, "_", G270)</f>
+        <f t="shared" si="9"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I270">
         <v>3</v>
       </c>
       <c r="J270" t="s">
-        <v>606</v>
+        <v>548</v>
       </c>
       <c r="K270" t="s">
-        <v>603</v>
+        <v>545</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
@@ -11603,17 +11603,17 @@
         <v>84</v>
       </c>
       <c r="H271" t="str">
-        <f>CONCATENATE(A271, "_", F271, "_", G271)</f>
+        <f t="shared" si="9"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I271">
         <v>3</v>
       </c>
       <c r="J271" t="s">
-        <v>607</v>
+        <v>549</v>
       </c>
       <c r="K271" t="s">
-        <v>604</v>
+        <v>546</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -11630,17 +11630,17 @@
         <v>84</v>
       </c>
       <c r="H272" t="str">
-        <f>CONCATENATE(A272, "_", F272, "_", G272)</f>
+        <f t="shared" si="9"/>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I272">
         <v>3</v>
       </c>
       <c r="J272" t="s">
-        <v>608</v>
+        <v>550</v>
       </c>
       <c r="K272" t="s">
-        <v>605</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/data_gsk.xlsx
+++ b/inst/extdata/data_gsk.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7185"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2366" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="657">
   <si>
     <t>Cell</t>
   </si>
@@ -1652,9 +1652,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_CL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bam/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes87_ATAC_P3Lungepitheliacelltypes87_bwa_samse_BR1TR1_edited.bam</t>
   </si>
   <si>
@@ -1664,24 +1661,9 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bam/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes87_ATAC_P3Lungepitheliacelltypes87_bwa_samse_BR3TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes87_ATAC_P3Lungepitheliacelltypes87_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes87_ATAC_P3Lungepitheliacelltypes87_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes87_ATAC_P3Lungepitheliacelltypes87_bwa_samse_BR3TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/F36P_TF_BR1_CTCF_TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/F36P_TF_BR1_CTCF_TR2_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/F36P_TF_BR2_CTCF_TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/F36P_hist_BR1_H3K27ac_TR1_edited.bam</t>
   </si>
   <si>
@@ -1709,9 +1691,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/HEL9217_TF_BR1_CTCF_TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/HEL9217_TF_BR2_CTCF_TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/HEL9217_hist_BR1_H3K27ac_TR1_edited.bam</t>
   </si>
   <si>
@@ -1736,12 +1715,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/K562_TF_BR1_CTCF_TR2_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/K562_TF_BR2_CTCF_TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/K562_TF_BR2_CTCF_TR2_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/K562_hist_BR1_H3K27ac_TR1_edited.bam</t>
   </si>
   <si>
@@ -1802,9 +1775,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/MEG01_TF_BR1_CTCF_TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/MEG01_TF_BR2_CTCF_TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/MEG01_hist_BR1_H3K27ac_TR1_edited.bam</t>
   </si>
   <si>
@@ -1845,6 +1815,180 @@
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/UT7_hist_BR2_H3K4me3_TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/MEG01_CTCF_ChIP-Seq_P1Erythroidcelltypes89_CTCF_P1Erythroidcelltypes89_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/K562_CTCF_ChIP-Seq_P1Erythroidcelltypes89_CTCF_P1Erythroidcelltypes89_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/K562_CTCF_ChIP-Seq_P1Erythroidcelltypes89_CTCF_P1Erythroidcelltypes89_bwa_samse_BR2TR2_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/HEL9217_CTCF_ChIP-Seq_P1Erythroidcelltypes89_CTCF_P1Erythroidcelltypes89_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/F36P_CTCF_ChIP-Seq_P1Erythroidcelltypes89_CTCF_P1Erythroidcelltypes89_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bam/HEP3B_2D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bam/HEP3B_2D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bam/HEP3B_3D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bam/HEP3B_3D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bam/HEPG2_2D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bam/HEPG2_2D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bam/HEPG2_3D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bam/HEPG2_3D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bam/HUH7_2D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bam/HUH7_2D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bam/HUH7_3D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bam/HUH7_3D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bam/PHH_2D_ATAC_ATAC-seq_P4Livercelltypes92_ATAC_P4Livercelltypes92_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bam/PHH_2D_ATAC_ATAC-seq_P4Livercelltypes92_ATAC_P4Livercelltypes92_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bam/PHH_2D_ATAC_ATAC-seq_P4Livercelltypes92_ATAC_P4Livercelltypes92_bwa_samse_BR3TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bam/PHH_3D_ATAC_ATAC-seq_P4Livercelltypes92_ATAC_P4Livercelltypes92_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bam/PHH_3D_ATAC_ATAC-seq_P4Livercelltypes92_ATAC_P4Livercelltypes92_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bam/PHH_3D_ATAC_ATAC-seq_P4Livercelltypes92_ATAC_P4Livercelltypes92_bwa_samse_BR3TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>HEP3B</t>
+  </si>
+  <si>
+    <t>HEPG2</t>
+  </si>
+  <si>
+    <t>HUH7</t>
+  </si>
+  <si>
+    <t>PHH</t>
+  </si>
+  <si>
+    <t>2D</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bam/A549_ATAC_ATAC-seq_P3Lungepitheliacelltypes91_ATAC_P3Lungepitheliacelltypes91_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bam/A549_ATAC_ATAC-seq_P3Lungepitheliacelltypes91_ATAC_P3Lungepitheliacelltypes91_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bam/BEAS2B_ATAC_ATAC-seq_P3Lungepitheliacelltypes91_ATAC_P3Lungepitheliacelltypes91_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bam/BEAS2B_ATAC_ATAC-seq_P3Lungepitheliacelltypes91_ATAC_P3Lungepitheliacelltypes91_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bigwig/A549_ATAC_ATAC-seq_P3Lungepitheliacelltypes91_ATAC_P3Lungepitheliacelltypes91_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bigwig/A549_ATAC_ATAC-seq_P3Lungepitheliacelltypes91_ATAC_P3Lungepitheliacelltypes91_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bigwig/BEAS2B_ATAC_ATAC-seq_P3Lungepitheliacelltypes91_ATAC_P3Lungepitheliacelltypes91_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bigwig/BEAS2B_ATAC_ATAC-seq_P3Lungepitheliacelltypes91_ATAC_P3Lungepitheliacelltypes91_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bigwig/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes87_ATAC_P3Lungepitheliacelltypes87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bigwig/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes87_ATAC_P3Lungepitheliacelltypes87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bigwig/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes87_ATAC_P3Lungepitheliacelltypes87_bwa_samse_BR3TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bigwig/HEP3B_2D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bigwig/HEP3B_2D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bigwig/HEP3B_3D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bigwig/HEP3B_3D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bigwig/HEPG2_2D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bigwig/HEPG2_2D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bigwig/HEPG2_3D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bigwig/HEPG2_3D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bigwig/HUH7_2D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bigwig/HUH7_2D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bigwig/HUH7_3D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bigwig/HUH7_3D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bigwig/PHH_2D_ATAC_ATAC-seq_P4Livercelltypes92_ATAC_P4Livercelltypes92_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bigwig/PHH_2D_ATAC_ATAC-seq_P4Livercelltypes92_ATAC_P4Livercelltypes92_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bigwig/PHH_2D_ATAC_ATAC-seq_P4Livercelltypes92_ATAC_P4Livercelltypes92_bwa_samse_BR3TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bigwig/PHH_3D_ATAC_ATAC-seq_P4Livercelltypes92_ATAC_P4Livercelltypes92_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bigwig/PHH_3D_ATAC_ATAC-seq_P4Livercelltypes92_ATAC_P4Livercelltypes92_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bigwig/PHH_3D_ATAC_ATAC-seq_P4Livercelltypes92_ATAC_P4Livercelltypes92_bwa_samse_BR3TR1_edited.bw</t>
   </si>
 </sst>
 </file>
@@ -2229,11 +2373,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K272"/>
+  <dimension ref="A1:K290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I274" sqref="I274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2391,7 +2535,7 @@
         <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2427,7 +2571,7 @@
         <v>33</v>
       </c>
       <c r="K5" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2463,7 +2607,7 @@
         <v>34</v>
       </c>
       <c r="K6" t="s">
-        <v>553</v>
+        <v>603</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2499,7 +2643,7 @@
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2535,7 +2679,7 @@
         <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2571,7 +2715,7 @@
         <v>29</v>
       </c>
       <c r="K9" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2607,7 +2751,7 @@
         <v>26</v>
       </c>
       <c r="K10" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2643,7 +2787,7 @@
         <v>30</v>
       </c>
       <c r="K11" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2679,7 +2823,7 @@
         <v>27</v>
       </c>
       <c r="K12" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2715,7 +2859,7 @@
         <v>28</v>
       </c>
       <c r="K13" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2751,7 +2895,7 @@
         <v>31</v>
       </c>
       <c r="K14" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2859,7 +3003,7 @@
         <v>41</v>
       </c>
       <c r="K17" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2895,7 +3039,7 @@
         <v>42</v>
       </c>
       <c r="K18" t="s">
-        <v>563</v>
+        <v>602</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2931,7 +3075,7 @@
         <v>35</v>
       </c>
       <c r="K19" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2967,7 +3111,7 @@
         <v>38</v>
       </c>
       <c r="K20" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3003,7 +3147,7 @@
         <v>36</v>
       </c>
       <c r="K21" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3039,7 +3183,7 @@
         <v>39</v>
       </c>
       <c r="K22" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3075,7 +3219,7 @@
         <v>37</v>
       </c>
       <c r="K23" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3111,7 +3255,7 @@
         <v>40</v>
       </c>
       <c r="K24" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3219,7 +3363,7 @@
         <v>51</v>
       </c>
       <c r="K27" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3255,7 +3399,7 @@
         <v>52</v>
       </c>
       <c r="K28" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3291,7 +3435,7 @@
         <v>53</v>
       </c>
       <c r="K29" t="s">
-        <v>572</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3327,7 +3471,7 @@
         <v>54</v>
       </c>
       <c r="K30" t="s">
-        <v>573</v>
+        <v>601</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3363,7 +3507,7 @@
         <v>43</v>
       </c>
       <c r="K31" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3399,7 +3543,7 @@
         <v>44</v>
       </c>
       <c r="K32" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -3435,7 +3579,7 @@
         <v>48</v>
       </c>
       <c r="K33" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -3471,7 +3615,7 @@
         <v>45</v>
       </c>
       <c r="K34" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3507,7 +3651,7 @@
         <v>49</v>
       </c>
       <c r="K35" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -3543,7 +3687,7 @@
         <v>46</v>
       </c>
       <c r="K36" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -3579,7 +3723,7 @@
         <v>47</v>
       </c>
       <c r="K37" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
@@ -3615,7 +3759,7 @@
         <v>50</v>
       </c>
       <c r="K38" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
@@ -3723,7 +3867,7 @@
         <v>63</v>
       </c>
       <c r="K41" t="s">
-        <v>582</v>
+        <v>573</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -3759,7 +3903,7 @@
         <v>64</v>
       </c>
       <c r="K42" t="s">
-        <v>583</v>
+        <v>574</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -3795,7 +3939,7 @@
         <v>65</v>
       </c>
       <c r="K43" t="s">
-        <v>584</v>
+        <v>575</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -3831,7 +3975,7 @@
         <v>55</v>
       </c>
       <c r="K44" t="s">
-        <v>585</v>
+        <v>576</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -3867,7 +4011,7 @@
         <v>56</v>
       </c>
       <c r="K45" t="s">
-        <v>586</v>
+        <v>577</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -3903,7 +4047,7 @@
         <v>60</v>
       </c>
       <c r="K46" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3939,7 +4083,7 @@
         <v>57</v>
       </c>
       <c r="K47" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -3975,7 +4119,7 @@
         <v>61</v>
       </c>
       <c r="K48" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -4011,7 +4155,7 @@
         <v>58</v>
       </c>
       <c r="K49" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -4047,7 +4191,7 @@
         <v>59</v>
       </c>
       <c r="K50" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -4083,7 +4227,7 @@
         <v>62</v>
       </c>
       <c r="K51" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -4191,7 +4335,7 @@
         <v>72</v>
       </c>
       <c r="K54" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -4227,7 +4371,7 @@
         <v>73</v>
       </c>
       <c r="K55" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4263,7 +4407,7 @@
         <v>66</v>
       </c>
       <c r="K56" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -4299,7 +4443,7 @@
         <v>69</v>
       </c>
       <c r="K57" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -4335,7 +4479,7 @@
         <v>67</v>
       </c>
       <c r="K58" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -4371,7 +4515,7 @@
         <v>70</v>
       </c>
       <c r="K59" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -4407,7 +4551,7 @@
         <v>68</v>
       </c>
       <c r="K60" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -4443,7 +4587,7 @@
         <v>71</v>
       </c>
       <c r="K61" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -4551,7 +4695,7 @@
         <v>80</v>
       </c>
       <c r="K64" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4587,7 +4731,7 @@
         <v>81</v>
       </c>
       <c r="K65" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4623,7 +4767,7 @@
         <v>74</v>
       </c>
       <c r="K66" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
@@ -4659,7 +4803,7 @@
         <v>77</v>
       </c>
       <c r="K67" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
@@ -4695,7 +4839,7 @@
         <v>75</v>
       </c>
       <c r="K68" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -4731,7 +4875,7 @@
         <v>78</v>
       </c>
       <c r="K69" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -4767,7 +4911,7 @@
         <v>76</v>
       </c>
       <c r="K70" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
@@ -4803,7 +4947,7 @@
         <v>79</v>
       </c>
       <c r="K71" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -7133,7 +7277,7 @@
         <v>89</v>
       </c>
       <c r="H136" t="str">
-        <f t="shared" ref="H136:H167" si="4">CONCATENATE(A136, "_", F136, "_", G136)</f>
+        <f t="shared" ref="H136:H164" si="4">CONCATENATE(A136, "_", F136, "_", G136)</f>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I136">
@@ -11453,14 +11597,17 @@
         <v>84</v>
       </c>
       <c r="H266" t="str">
-        <f t="shared" ref="H266:H272" si="9">CONCATENATE(A266, "_", F266, "_", G266)</f>
+        <f t="shared" ref="H266:H290" si="9">CONCATENATE(A266, "_", F266, "_", G266)</f>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I266">
         <v>3</v>
       </c>
+      <c r="J266" t="s">
+        <v>632</v>
+      </c>
       <c r="K266" t="s">
-        <v>544</v>
+        <v>628</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -11492,8 +11639,11 @@
       <c r="I267">
         <v>3</v>
       </c>
+      <c r="J267" t="s">
+        <v>633</v>
+      </c>
       <c r="K267" t="s">
-        <v>544</v>
+        <v>629</v>
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
@@ -11525,8 +11675,11 @@
       <c r="I268">
         <v>3</v>
       </c>
+      <c r="J268" t="s">
+        <v>634</v>
+      </c>
       <c r="K268" t="s">
-        <v>544</v>
+        <v>630</v>
       </c>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
@@ -11558,8 +11711,11 @@
       <c r="I269">
         <v>3</v>
       </c>
+      <c r="J269" t="s">
+        <v>635</v>
+      </c>
       <c r="K269" t="s">
-        <v>544</v>
+        <v>631</v>
       </c>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
@@ -11583,10 +11739,10 @@
         <v>3</v>
       </c>
       <c r="J270" t="s">
-        <v>548</v>
+        <v>636</v>
       </c>
       <c r="K270" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
@@ -11610,10 +11766,10 @@
         <v>3</v>
       </c>
       <c r="J271" t="s">
-        <v>549</v>
+        <v>637</v>
       </c>
       <c r="K271" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -11637,10 +11793,496 @@
         <v>3</v>
       </c>
       <c r="J272" t="s">
-        <v>550</v>
+        <v>638</v>
       </c>
       <c r="K272" t="s">
-        <v>547</v>
+        <v>546</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>622</v>
+      </c>
+      <c r="E273" t="s">
+        <v>22</v>
+      </c>
+      <c r="F273" t="s">
+        <v>13</v>
+      </c>
+      <c r="G273" t="s">
+        <v>626</v>
+      </c>
+      <c r="H273" t="str">
+        <f t="shared" si="9"/>
+        <v>HEP3B_BR1_2D</v>
+      </c>
+      <c r="I273">
+        <v>4</v>
+      </c>
+      <c r="J273" t="s">
+        <v>639</v>
+      </c>
+      <c r="K273" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>622</v>
+      </c>
+      <c r="E274" t="s">
+        <v>22</v>
+      </c>
+      <c r="F274" t="s">
+        <v>14</v>
+      </c>
+      <c r="G274" t="s">
+        <v>626</v>
+      </c>
+      <c r="H274" t="str">
+        <f t="shared" si="9"/>
+        <v>HEP3B_BR2_2D</v>
+      </c>
+      <c r="I274">
+        <v>4</v>
+      </c>
+      <c r="J274" t="s">
+        <v>640</v>
+      </c>
+      <c r="K274" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>622</v>
+      </c>
+      <c r="E275" t="s">
+        <v>22</v>
+      </c>
+      <c r="F275" t="s">
+        <v>13</v>
+      </c>
+      <c r="G275" t="s">
+        <v>627</v>
+      </c>
+      <c r="H275" t="str">
+        <f t="shared" si="9"/>
+        <v>HEP3B_BR1_3D</v>
+      </c>
+      <c r="I275">
+        <v>4</v>
+      </c>
+      <c r="J275" t="s">
+        <v>641</v>
+      </c>
+      <c r="K275" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>622</v>
+      </c>
+      <c r="E276" t="s">
+        <v>22</v>
+      </c>
+      <c r="F276" t="s">
+        <v>14</v>
+      </c>
+      <c r="G276" t="s">
+        <v>627</v>
+      </c>
+      <c r="H276" t="str">
+        <f t="shared" si="9"/>
+        <v>HEP3B_BR2_3D</v>
+      </c>
+      <c r="I276">
+        <v>4</v>
+      </c>
+      <c r="J276" t="s">
+        <v>642</v>
+      </c>
+      <c r="K276" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>623</v>
+      </c>
+      <c r="E277" t="s">
+        <v>22</v>
+      </c>
+      <c r="F277" t="s">
+        <v>13</v>
+      </c>
+      <c r="G277" t="s">
+        <v>626</v>
+      </c>
+      <c r="H277" t="str">
+        <f t="shared" si="9"/>
+        <v>HEPG2_BR1_2D</v>
+      </c>
+      <c r="I277">
+        <v>4</v>
+      </c>
+      <c r="J277" t="s">
+        <v>643</v>
+      </c>
+      <c r="K277" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>623</v>
+      </c>
+      <c r="E278" t="s">
+        <v>22</v>
+      </c>
+      <c r="F278" t="s">
+        <v>14</v>
+      </c>
+      <c r="G278" t="s">
+        <v>626</v>
+      </c>
+      <c r="H278" t="str">
+        <f t="shared" si="9"/>
+        <v>HEPG2_BR2_2D</v>
+      </c>
+      <c r="I278">
+        <v>4</v>
+      </c>
+      <c r="J278" t="s">
+        <v>644</v>
+      </c>
+      <c r="K278" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>623</v>
+      </c>
+      <c r="E279" t="s">
+        <v>22</v>
+      </c>
+      <c r="F279" t="s">
+        <v>13</v>
+      </c>
+      <c r="G279" t="s">
+        <v>627</v>
+      </c>
+      <c r="H279" t="str">
+        <f t="shared" si="9"/>
+        <v>HEPG2_BR1_3D</v>
+      </c>
+      <c r="I279">
+        <v>4</v>
+      </c>
+      <c r="J279" t="s">
+        <v>645</v>
+      </c>
+      <c r="K279" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>623</v>
+      </c>
+      <c r="E280" t="s">
+        <v>22</v>
+      </c>
+      <c r="F280" t="s">
+        <v>14</v>
+      </c>
+      <c r="G280" t="s">
+        <v>627</v>
+      </c>
+      <c r="H280" t="str">
+        <f t="shared" si="9"/>
+        <v>HEPG2_BR2_3D</v>
+      </c>
+      <c r="I280">
+        <v>4</v>
+      </c>
+      <c r="J280" t="s">
+        <v>646</v>
+      </c>
+      <c r="K280" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>624</v>
+      </c>
+      <c r="E281" t="s">
+        <v>22</v>
+      </c>
+      <c r="F281" t="s">
+        <v>13</v>
+      </c>
+      <c r="G281" t="s">
+        <v>626</v>
+      </c>
+      <c r="H281" t="str">
+        <f t="shared" si="9"/>
+        <v>HUH7_BR1_2D</v>
+      </c>
+      <c r="I281">
+        <v>4</v>
+      </c>
+      <c r="J281" t="s">
+        <v>647</v>
+      </c>
+      <c r="K281" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>624</v>
+      </c>
+      <c r="E282" t="s">
+        <v>22</v>
+      </c>
+      <c r="F282" t="s">
+        <v>14</v>
+      </c>
+      <c r="G282" t="s">
+        <v>626</v>
+      </c>
+      <c r="H282" t="str">
+        <f t="shared" si="9"/>
+        <v>HUH7_BR2_2D</v>
+      </c>
+      <c r="I282">
+        <v>4</v>
+      </c>
+      <c r="J282" t="s">
+        <v>648</v>
+      </c>
+      <c r="K282" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>624</v>
+      </c>
+      <c r="E283" t="s">
+        <v>22</v>
+      </c>
+      <c r="F283" t="s">
+        <v>13</v>
+      </c>
+      <c r="G283" t="s">
+        <v>627</v>
+      </c>
+      <c r="H283" t="str">
+        <f t="shared" si="9"/>
+        <v>HUH7_BR1_3D</v>
+      </c>
+      <c r="I283">
+        <v>4</v>
+      </c>
+      <c r="J283" t="s">
+        <v>649</v>
+      </c>
+      <c r="K283" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>624</v>
+      </c>
+      <c r="E284" t="s">
+        <v>22</v>
+      </c>
+      <c r="F284" t="s">
+        <v>14</v>
+      </c>
+      <c r="G284" t="s">
+        <v>627</v>
+      </c>
+      <c r="H284" t="str">
+        <f t="shared" si="9"/>
+        <v>HUH7_BR2_3D</v>
+      </c>
+      <c r="I284">
+        <v>4</v>
+      </c>
+      <c r="J284" t="s">
+        <v>650</v>
+      </c>
+      <c r="K284" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>625</v>
+      </c>
+      <c r="E285" t="s">
+        <v>22</v>
+      </c>
+      <c r="F285" t="s">
+        <v>13</v>
+      </c>
+      <c r="G285" t="s">
+        <v>626</v>
+      </c>
+      <c r="H285" t="str">
+        <f t="shared" si="9"/>
+        <v>PHH_BR1_2D</v>
+      </c>
+      <c r="I285">
+        <v>4</v>
+      </c>
+      <c r="J285" t="s">
+        <v>651</v>
+      </c>
+      <c r="K285" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>625</v>
+      </c>
+      <c r="E286" t="s">
+        <v>22</v>
+      </c>
+      <c r="F286" t="s">
+        <v>14</v>
+      </c>
+      <c r="G286" t="s">
+        <v>626</v>
+      </c>
+      <c r="H286" t="str">
+        <f t="shared" si="9"/>
+        <v>PHH_BR2_2D</v>
+      </c>
+      <c r="I286">
+        <v>4</v>
+      </c>
+      <c r="J286" t="s">
+        <v>652</v>
+      </c>
+      <c r="K286" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>625</v>
+      </c>
+      <c r="E287" t="s">
+        <v>22</v>
+      </c>
+      <c r="F287" t="s">
+        <v>239</v>
+      </c>
+      <c r="G287" t="s">
+        <v>626</v>
+      </c>
+      <c r="H287" t="str">
+        <f t="shared" si="9"/>
+        <v>PHH_BR3_2D</v>
+      </c>
+      <c r="I287">
+        <v>4</v>
+      </c>
+      <c r="J287" t="s">
+        <v>653</v>
+      </c>
+      <c r="K287" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>625</v>
+      </c>
+      <c r="E288" t="s">
+        <v>22</v>
+      </c>
+      <c r="F288" t="s">
+        <v>13</v>
+      </c>
+      <c r="G288" t="s">
+        <v>627</v>
+      </c>
+      <c r="H288" t="str">
+        <f t="shared" si="9"/>
+        <v>PHH_BR1_3D</v>
+      </c>
+      <c r="I288">
+        <v>4</v>
+      </c>
+      <c r="J288" t="s">
+        <v>654</v>
+      </c>
+      <c r="K288" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>625</v>
+      </c>
+      <c r="E289" t="s">
+        <v>22</v>
+      </c>
+      <c r="F289" t="s">
+        <v>14</v>
+      </c>
+      <c r="G289" t="s">
+        <v>627</v>
+      </c>
+      <c r="H289" t="str">
+        <f t="shared" si="9"/>
+        <v>PHH_BR2_3D</v>
+      </c>
+      <c r="I289">
+        <v>4</v>
+      </c>
+      <c r="J289" t="s">
+        <v>655</v>
+      </c>
+      <c r="K289" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>625</v>
+      </c>
+      <c r="E290" t="s">
+        <v>22</v>
+      </c>
+      <c r="F290" t="s">
+        <v>239</v>
+      </c>
+      <c r="G290" t="s">
+        <v>627</v>
+      </c>
+      <c r="H290" t="str">
+        <f t="shared" si="9"/>
+        <v>PHH_BR3_3D</v>
+      </c>
+      <c r="I290">
+        <v>4</v>
+      </c>
+      <c r="J290" t="s">
+        <v>656</v>
+      </c>
+      <c r="K290" t="s">
+        <v>621</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/data_gsk.xlsx
+++ b/inst/extdata/data_gsk.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="677">
   <si>
     <t>Cell</t>
   </si>
@@ -1989,6 +1989,66 @@
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bigwig/PHH_3D_ATAC_ATAC-seq_P4Livercelltypes92_ATAC_P4Livercelltypes92_bwa_samse_BR3TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_5/bigwig/HUT78_ATAC_ATAC-Seq_P5T-Cells90_ATAC_P5T-Cells90_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_5/bigwig/HUT78_ATAC_ATAC-Seq_P5T-Cells90_ATAC_P5T-Cells90_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_5/bigwig/HUT78_B_ATAC_ATAC-Seq_P5T-Cells90_ATAC_P5T-Cells90_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_5/bigwig/HUT78_B_ATAC_ATAC-Seq_P5T-Cells90_ATAC_P5T-Cells90_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_5/bigwig/JURKAT_ATAC_ATAC-Seq_P5T-Cells90_ATAC_P5T-Cells90_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_5/bigwig/JURKAT_ATAC_ATAC-Seq_P5T-Cells90_ATAC_P5T-Cells90_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_5/bigwig/JURKAT_B_ATAC_ATAC-Seq_P5T-Cells90_ATAC_P5T-Cells90_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_5/bigwig/JURKAT_B_ATAC_ATAC-Seq_P5T-Cells90_ATAC_P5T-Cells90_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_5/bam/HUT78_ATAC_ATAC-Seq_P5T-Cells90_ATAC_P5T-Cells90_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_5/bam/HUT78_ATAC_ATAC-Seq_P5T-Cells90_ATAC_P5T-Cells90_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_5/bam/HUT78_B_ATAC_ATAC-Seq_P5T-Cells90_ATAC_P5T-Cells90_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_5/bam/HUT78_B_ATAC_ATAC-Seq_P5T-Cells90_ATAC_P5T-Cells90_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_5/bam/JURKAT_ATAC_ATAC-Seq_P5T-Cells90_ATAC_P5T-Cells90_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_5/bam/JURKAT_ATAC_ATAC-Seq_P5T-Cells90_ATAC_P5T-Cells90_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_5/bam/JURKAT_B_ATAC_ATAC-Seq_P5T-Cells90_ATAC_P5T-Cells90_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_5/bam/JURKAT_B_ATAC_ATAC-Seq_P5T-Cells90_ATAC_P5T-Cells90_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>HUT78</t>
+  </si>
+  <si>
+    <t>HU78-B</t>
+  </si>
+  <si>
+    <t>Jurkat</t>
+  </si>
+  <si>
+    <t>Jurkat-B</t>
   </si>
 </sst>
 </file>
@@ -2373,11 +2433,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K290"/>
+  <dimension ref="A1:K370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I274" sqref="I274"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12283,6 +12343,1734 @@
       </c>
       <c r="K290" t="s">
         <v>621</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>622</v>
+      </c>
+      <c r="E291" t="s">
+        <v>8</v>
+      </c>
+      <c r="F291" t="s">
+        <v>13</v>
+      </c>
+      <c r="G291" t="s">
+        <v>626</v>
+      </c>
+      <c r="H291" t="str">
+        <f t="shared" ref="H291:H308" si="10">CONCATENATE(A291, "_", F291, "_", G291)</f>
+        <v>HEP3B_BR1_2D</v>
+      </c>
+      <c r="I291">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>622</v>
+      </c>
+      <c r="E292" t="s">
+        <v>8</v>
+      </c>
+      <c r="F292" t="s">
+        <v>14</v>
+      </c>
+      <c r="G292" t="s">
+        <v>626</v>
+      </c>
+      <c r="H292" t="str">
+        <f t="shared" si="10"/>
+        <v>HEP3B_BR2_2D</v>
+      </c>
+      <c r="I292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>622</v>
+      </c>
+      <c r="E293" t="s">
+        <v>8</v>
+      </c>
+      <c r="F293" t="s">
+        <v>13</v>
+      </c>
+      <c r="G293" t="s">
+        <v>627</v>
+      </c>
+      <c r="H293" t="str">
+        <f t="shared" si="10"/>
+        <v>HEP3B_BR1_3D</v>
+      </c>
+      <c r="I293">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>622</v>
+      </c>
+      <c r="E294" t="s">
+        <v>8</v>
+      </c>
+      <c r="F294" t="s">
+        <v>14</v>
+      </c>
+      <c r="G294" t="s">
+        <v>627</v>
+      </c>
+      <c r="H294" t="str">
+        <f t="shared" si="10"/>
+        <v>HEP3B_BR2_3D</v>
+      </c>
+      <c r="I294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>623</v>
+      </c>
+      <c r="E295" t="s">
+        <v>8</v>
+      </c>
+      <c r="F295" t="s">
+        <v>13</v>
+      </c>
+      <c r="G295" t="s">
+        <v>626</v>
+      </c>
+      <c r="H295" t="str">
+        <f t="shared" si="10"/>
+        <v>HEPG2_BR1_2D</v>
+      </c>
+      <c r="I295">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>623</v>
+      </c>
+      <c r="E296" t="s">
+        <v>8</v>
+      </c>
+      <c r="F296" t="s">
+        <v>14</v>
+      </c>
+      <c r="G296" t="s">
+        <v>626</v>
+      </c>
+      <c r="H296" t="str">
+        <f t="shared" si="10"/>
+        <v>HEPG2_BR2_2D</v>
+      </c>
+      <c r="I296">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>623</v>
+      </c>
+      <c r="E297" t="s">
+        <v>8</v>
+      </c>
+      <c r="F297" t="s">
+        <v>13</v>
+      </c>
+      <c r="G297" t="s">
+        <v>627</v>
+      </c>
+      <c r="H297" t="str">
+        <f t="shared" si="10"/>
+        <v>HEPG2_BR1_3D</v>
+      </c>
+      <c r="I297">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>623</v>
+      </c>
+      <c r="E298" t="s">
+        <v>8</v>
+      </c>
+      <c r="F298" t="s">
+        <v>14</v>
+      </c>
+      <c r="G298" t="s">
+        <v>627</v>
+      </c>
+      <c r="H298" t="str">
+        <f t="shared" si="10"/>
+        <v>HEPG2_BR2_3D</v>
+      </c>
+      <c r="I298">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>624</v>
+      </c>
+      <c r="E299" t="s">
+        <v>8</v>
+      </c>
+      <c r="F299" t="s">
+        <v>13</v>
+      </c>
+      <c r="G299" t="s">
+        <v>626</v>
+      </c>
+      <c r="H299" t="str">
+        <f t="shared" si="10"/>
+        <v>HUH7_BR1_2D</v>
+      </c>
+      <c r="I299">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>624</v>
+      </c>
+      <c r="E300" t="s">
+        <v>8</v>
+      </c>
+      <c r="F300" t="s">
+        <v>14</v>
+      </c>
+      <c r="G300" t="s">
+        <v>626</v>
+      </c>
+      <c r="H300" t="str">
+        <f t="shared" si="10"/>
+        <v>HUH7_BR2_2D</v>
+      </c>
+      <c r="I300">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>624</v>
+      </c>
+      <c r="E301" t="s">
+        <v>8</v>
+      </c>
+      <c r="F301" t="s">
+        <v>13</v>
+      </c>
+      <c r="G301" t="s">
+        <v>627</v>
+      </c>
+      <c r="H301" t="str">
+        <f t="shared" si="10"/>
+        <v>HUH7_BR1_3D</v>
+      </c>
+      <c r="I301">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>624</v>
+      </c>
+      <c r="E302" t="s">
+        <v>8</v>
+      </c>
+      <c r="F302" t="s">
+        <v>14</v>
+      </c>
+      <c r="G302" t="s">
+        <v>627</v>
+      </c>
+      <c r="H302" t="str">
+        <f t="shared" si="10"/>
+        <v>HUH7_BR2_3D</v>
+      </c>
+      <c r="I302">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>625</v>
+      </c>
+      <c r="E303" t="s">
+        <v>8</v>
+      </c>
+      <c r="F303" t="s">
+        <v>13</v>
+      </c>
+      <c r="G303" t="s">
+        <v>626</v>
+      </c>
+      <c r="H303" t="str">
+        <f t="shared" si="10"/>
+        <v>PHH_BR1_2D</v>
+      </c>
+      <c r="I303">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>625</v>
+      </c>
+      <c r="E304" t="s">
+        <v>8</v>
+      </c>
+      <c r="F304" t="s">
+        <v>14</v>
+      </c>
+      <c r="G304" t="s">
+        <v>626</v>
+      </c>
+      <c r="H304" t="str">
+        <f t="shared" si="10"/>
+        <v>PHH_BR2_2D</v>
+      </c>
+      <c r="I304">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>625</v>
+      </c>
+      <c r="E305" t="s">
+        <v>8</v>
+      </c>
+      <c r="F305" t="s">
+        <v>239</v>
+      </c>
+      <c r="G305" t="s">
+        <v>626</v>
+      </c>
+      <c r="H305" t="str">
+        <f t="shared" si="10"/>
+        <v>PHH_BR3_2D</v>
+      </c>
+      <c r="I305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>625</v>
+      </c>
+      <c r="E306" t="s">
+        <v>8</v>
+      </c>
+      <c r="F306" t="s">
+        <v>13</v>
+      </c>
+      <c r="G306" t="s">
+        <v>627</v>
+      </c>
+      <c r="H306" t="str">
+        <f t="shared" si="10"/>
+        <v>PHH_BR1_3D</v>
+      </c>
+      <c r="I306">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>625</v>
+      </c>
+      <c r="E307" t="s">
+        <v>8</v>
+      </c>
+      <c r="F307" t="s">
+        <v>14</v>
+      </c>
+      <c r="G307" t="s">
+        <v>627</v>
+      </c>
+      <c r="H307" t="str">
+        <f t="shared" si="10"/>
+        <v>PHH_BR2_3D</v>
+      </c>
+      <c r="I307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>625</v>
+      </c>
+      <c r="E308" t="s">
+        <v>8</v>
+      </c>
+      <c r="F308" t="s">
+        <v>239</v>
+      </c>
+      <c r="G308" t="s">
+        <v>627</v>
+      </c>
+      <c r="H308" t="str">
+        <f t="shared" si="10"/>
+        <v>PHH_BR3_3D</v>
+      </c>
+      <c r="I308">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>622</v>
+      </c>
+      <c r="E309" t="s">
+        <v>11</v>
+      </c>
+      <c r="F309" t="s">
+        <v>13</v>
+      </c>
+      <c r="G309" t="s">
+        <v>626</v>
+      </c>
+      <c r="H309" t="str">
+        <f t="shared" ref="H309:H326" si="11">CONCATENATE(A309, "_", F309, "_", G309)</f>
+        <v>HEP3B_BR1_2D</v>
+      </c>
+      <c r="I309">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>622</v>
+      </c>
+      <c r="E310" t="s">
+        <v>11</v>
+      </c>
+      <c r="F310" t="s">
+        <v>14</v>
+      </c>
+      <c r="G310" t="s">
+        <v>626</v>
+      </c>
+      <c r="H310" t="str">
+        <f t="shared" si="11"/>
+        <v>HEP3B_BR2_2D</v>
+      </c>
+      <c r="I310">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>622</v>
+      </c>
+      <c r="E311" t="s">
+        <v>11</v>
+      </c>
+      <c r="F311" t="s">
+        <v>13</v>
+      </c>
+      <c r="G311" t="s">
+        <v>627</v>
+      </c>
+      <c r="H311" t="str">
+        <f t="shared" si="11"/>
+        <v>HEP3B_BR1_3D</v>
+      </c>
+      <c r="I311">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>622</v>
+      </c>
+      <c r="E312" t="s">
+        <v>11</v>
+      </c>
+      <c r="F312" t="s">
+        <v>14</v>
+      </c>
+      <c r="G312" t="s">
+        <v>627</v>
+      </c>
+      <c r="H312" t="str">
+        <f t="shared" si="11"/>
+        <v>HEP3B_BR2_3D</v>
+      </c>
+      <c r="I312">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>623</v>
+      </c>
+      <c r="E313" t="s">
+        <v>11</v>
+      </c>
+      <c r="F313" t="s">
+        <v>13</v>
+      </c>
+      <c r="G313" t="s">
+        <v>626</v>
+      </c>
+      <c r="H313" t="str">
+        <f t="shared" si="11"/>
+        <v>HEPG2_BR1_2D</v>
+      </c>
+      <c r="I313">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>623</v>
+      </c>
+      <c r="E314" t="s">
+        <v>11</v>
+      </c>
+      <c r="F314" t="s">
+        <v>14</v>
+      </c>
+      <c r="G314" t="s">
+        <v>626</v>
+      </c>
+      <c r="H314" t="str">
+        <f t="shared" si="11"/>
+        <v>HEPG2_BR2_2D</v>
+      </c>
+      <c r="I314">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>623</v>
+      </c>
+      <c r="E315" t="s">
+        <v>11</v>
+      </c>
+      <c r="F315" t="s">
+        <v>13</v>
+      </c>
+      <c r="G315" t="s">
+        <v>627</v>
+      </c>
+      <c r="H315" t="str">
+        <f t="shared" si="11"/>
+        <v>HEPG2_BR1_3D</v>
+      </c>
+      <c r="I315">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>623</v>
+      </c>
+      <c r="E316" t="s">
+        <v>11</v>
+      </c>
+      <c r="F316" t="s">
+        <v>14</v>
+      </c>
+      <c r="G316" t="s">
+        <v>627</v>
+      </c>
+      <c r="H316" t="str">
+        <f t="shared" si="11"/>
+        <v>HEPG2_BR2_3D</v>
+      </c>
+      <c r="I316">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>624</v>
+      </c>
+      <c r="E317" t="s">
+        <v>11</v>
+      </c>
+      <c r="F317" t="s">
+        <v>13</v>
+      </c>
+      <c r="G317" t="s">
+        <v>626</v>
+      </c>
+      <c r="H317" t="str">
+        <f t="shared" si="11"/>
+        <v>HUH7_BR1_2D</v>
+      </c>
+      <c r="I317">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>624</v>
+      </c>
+      <c r="E318" t="s">
+        <v>11</v>
+      </c>
+      <c r="F318" t="s">
+        <v>14</v>
+      </c>
+      <c r="G318" t="s">
+        <v>626</v>
+      </c>
+      <c r="H318" t="str">
+        <f t="shared" si="11"/>
+        <v>HUH7_BR2_2D</v>
+      </c>
+      <c r="I318">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>624</v>
+      </c>
+      <c r="E319" t="s">
+        <v>11</v>
+      </c>
+      <c r="F319" t="s">
+        <v>13</v>
+      </c>
+      <c r="G319" t="s">
+        <v>627</v>
+      </c>
+      <c r="H319" t="str">
+        <f t="shared" si="11"/>
+        <v>HUH7_BR1_3D</v>
+      </c>
+      <c r="I319">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>624</v>
+      </c>
+      <c r="E320" t="s">
+        <v>11</v>
+      </c>
+      <c r="F320" t="s">
+        <v>14</v>
+      </c>
+      <c r="G320" t="s">
+        <v>627</v>
+      </c>
+      <c r="H320" t="str">
+        <f t="shared" si="11"/>
+        <v>HUH7_BR2_3D</v>
+      </c>
+      <c r="I320">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>625</v>
+      </c>
+      <c r="E321" t="s">
+        <v>11</v>
+      </c>
+      <c r="F321" t="s">
+        <v>13</v>
+      </c>
+      <c r="G321" t="s">
+        <v>626</v>
+      </c>
+      <c r="H321" t="str">
+        <f t="shared" si="11"/>
+        <v>PHH_BR1_2D</v>
+      </c>
+      <c r="I321">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>625</v>
+      </c>
+      <c r="E322" t="s">
+        <v>11</v>
+      </c>
+      <c r="F322" t="s">
+        <v>14</v>
+      </c>
+      <c r="G322" t="s">
+        <v>626</v>
+      </c>
+      <c r="H322" t="str">
+        <f t="shared" si="11"/>
+        <v>PHH_BR2_2D</v>
+      </c>
+      <c r="I322">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>625</v>
+      </c>
+      <c r="E323" t="s">
+        <v>11</v>
+      </c>
+      <c r="F323" t="s">
+        <v>239</v>
+      </c>
+      <c r="G323" t="s">
+        <v>626</v>
+      </c>
+      <c r="H323" t="str">
+        <f t="shared" si="11"/>
+        <v>PHH_BR3_2D</v>
+      </c>
+      <c r="I323">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>625</v>
+      </c>
+      <c r="E324" t="s">
+        <v>11</v>
+      </c>
+      <c r="F324" t="s">
+        <v>13</v>
+      </c>
+      <c r="G324" t="s">
+        <v>627</v>
+      </c>
+      <c r="H324" t="str">
+        <f t="shared" si="11"/>
+        <v>PHH_BR1_3D</v>
+      </c>
+      <c r="I324">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>625</v>
+      </c>
+      <c r="E325" t="s">
+        <v>11</v>
+      </c>
+      <c r="F325" t="s">
+        <v>14</v>
+      </c>
+      <c r="G325" t="s">
+        <v>627</v>
+      </c>
+      <c r="H325" t="str">
+        <f t="shared" si="11"/>
+        <v>PHH_BR2_3D</v>
+      </c>
+      <c r="I325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>625</v>
+      </c>
+      <c r="E326" t="s">
+        <v>11</v>
+      </c>
+      <c r="F326" t="s">
+        <v>239</v>
+      </c>
+      <c r="G326" t="s">
+        <v>627</v>
+      </c>
+      <c r="H326" t="str">
+        <f t="shared" si="11"/>
+        <v>PHH_BR3_3D</v>
+      </c>
+      <c r="I326">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>622</v>
+      </c>
+      <c r="E327" t="s">
+        <v>10</v>
+      </c>
+      <c r="F327" t="s">
+        <v>13</v>
+      </c>
+      <c r="G327" t="s">
+        <v>626</v>
+      </c>
+      <c r="H327" t="str">
+        <f t="shared" ref="H327:H344" si="12">CONCATENATE(A327, "_", F327, "_", G327)</f>
+        <v>HEP3B_BR1_2D</v>
+      </c>
+      <c r="I327">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>622</v>
+      </c>
+      <c r="E328" t="s">
+        <v>10</v>
+      </c>
+      <c r="F328" t="s">
+        <v>14</v>
+      </c>
+      <c r="G328" t="s">
+        <v>626</v>
+      </c>
+      <c r="H328" t="str">
+        <f t="shared" si="12"/>
+        <v>HEP3B_BR2_2D</v>
+      </c>
+      <c r="I328">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>622</v>
+      </c>
+      <c r="E329" t="s">
+        <v>10</v>
+      </c>
+      <c r="F329" t="s">
+        <v>13</v>
+      </c>
+      <c r="G329" t="s">
+        <v>627</v>
+      </c>
+      <c r="H329" t="str">
+        <f t="shared" si="12"/>
+        <v>HEP3B_BR1_3D</v>
+      </c>
+      <c r="I329">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>622</v>
+      </c>
+      <c r="E330" t="s">
+        <v>10</v>
+      </c>
+      <c r="F330" t="s">
+        <v>14</v>
+      </c>
+      <c r="G330" t="s">
+        <v>627</v>
+      </c>
+      <c r="H330" t="str">
+        <f t="shared" si="12"/>
+        <v>HEP3B_BR2_3D</v>
+      </c>
+      <c r="I330">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>623</v>
+      </c>
+      <c r="E331" t="s">
+        <v>10</v>
+      </c>
+      <c r="F331" t="s">
+        <v>13</v>
+      </c>
+      <c r="G331" t="s">
+        <v>626</v>
+      </c>
+      <c r="H331" t="str">
+        <f t="shared" si="12"/>
+        <v>HEPG2_BR1_2D</v>
+      </c>
+      <c r="I331">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>623</v>
+      </c>
+      <c r="E332" t="s">
+        <v>10</v>
+      </c>
+      <c r="F332" t="s">
+        <v>14</v>
+      </c>
+      <c r="G332" t="s">
+        <v>626</v>
+      </c>
+      <c r="H332" t="str">
+        <f t="shared" si="12"/>
+        <v>HEPG2_BR2_2D</v>
+      </c>
+      <c r="I332">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>623</v>
+      </c>
+      <c r="E333" t="s">
+        <v>10</v>
+      </c>
+      <c r="F333" t="s">
+        <v>13</v>
+      </c>
+      <c r="G333" t="s">
+        <v>627</v>
+      </c>
+      <c r="H333" t="str">
+        <f t="shared" si="12"/>
+        <v>HEPG2_BR1_3D</v>
+      </c>
+      <c r="I333">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>623</v>
+      </c>
+      <c r="E334" t="s">
+        <v>10</v>
+      </c>
+      <c r="F334" t="s">
+        <v>14</v>
+      </c>
+      <c r="G334" t="s">
+        <v>627</v>
+      </c>
+      <c r="H334" t="str">
+        <f t="shared" si="12"/>
+        <v>HEPG2_BR2_3D</v>
+      </c>
+      <c r="I334">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>624</v>
+      </c>
+      <c r="E335" t="s">
+        <v>10</v>
+      </c>
+      <c r="F335" t="s">
+        <v>13</v>
+      </c>
+      <c r="G335" t="s">
+        <v>626</v>
+      </c>
+      <c r="H335" t="str">
+        <f t="shared" si="12"/>
+        <v>HUH7_BR1_2D</v>
+      </c>
+      <c r="I335">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>624</v>
+      </c>
+      <c r="E336" t="s">
+        <v>10</v>
+      </c>
+      <c r="F336" t="s">
+        <v>14</v>
+      </c>
+      <c r="G336" t="s">
+        <v>626</v>
+      </c>
+      <c r="H336" t="str">
+        <f t="shared" si="12"/>
+        <v>HUH7_BR2_2D</v>
+      </c>
+      <c r="I336">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>624</v>
+      </c>
+      <c r="E337" t="s">
+        <v>10</v>
+      </c>
+      <c r="F337" t="s">
+        <v>13</v>
+      </c>
+      <c r="G337" t="s">
+        <v>627</v>
+      </c>
+      <c r="H337" t="str">
+        <f t="shared" si="12"/>
+        <v>HUH7_BR1_3D</v>
+      </c>
+      <c r="I337">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>624</v>
+      </c>
+      <c r="E338" t="s">
+        <v>10</v>
+      </c>
+      <c r="F338" t="s">
+        <v>14</v>
+      </c>
+      <c r="G338" t="s">
+        <v>627</v>
+      </c>
+      <c r="H338" t="str">
+        <f t="shared" si="12"/>
+        <v>HUH7_BR2_3D</v>
+      </c>
+      <c r="I338">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>625</v>
+      </c>
+      <c r="E339" t="s">
+        <v>10</v>
+      </c>
+      <c r="F339" t="s">
+        <v>13</v>
+      </c>
+      <c r="G339" t="s">
+        <v>626</v>
+      </c>
+      <c r="H339" t="str">
+        <f t="shared" si="12"/>
+        <v>PHH_BR1_2D</v>
+      </c>
+      <c r="I339">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>625</v>
+      </c>
+      <c r="E340" t="s">
+        <v>10</v>
+      </c>
+      <c r="F340" t="s">
+        <v>14</v>
+      </c>
+      <c r="G340" t="s">
+        <v>626</v>
+      </c>
+      <c r="H340" t="str">
+        <f t="shared" si="12"/>
+        <v>PHH_BR2_2D</v>
+      </c>
+      <c r="I340">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>625</v>
+      </c>
+      <c r="E341" t="s">
+        <v>10</v>
+      </c>
+      <c r="F341" t="s">
+        <v>239</v>
+      </c>
+      <c r="G341" t="s">
+        <v>626</v>
+      </c>
+      <c r="H341" t="str">
+        <f t="shared" si="12"/>
+        <v>PHH_BR3_2D</v>
+      </c>
+      <c r="I341">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>625</v>
+      </c>
+      <c r="E342" t="s">
+        <v>10</v>
+      </c>
+      <c r="F342" t="s">
+        <v>13</v>
+      </c>
+      <c r="G342" t="s">
+        <v>627</v>
+      </c>
+      <c r="H342" t="str">
+        <f t="shared" si="12"/>
+        <v>PHH_BR1_3D</v>
+      </c>
+      <c r="I342">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>625</v>
+      </c>
+      <c r="E343" t="s">
+        <v>10</v>
+      </c>
+      <c r="F343" t="s">
+        <v>14</v>
+      </c>
+      <c r="G343" t="s">
+        <v>627</v>
+      </c>
+      <c r="H343" t="str">
+        <f t="shared" si="12"/>
+        <v>PHH_BR2_3D</v>
+      </c>
+      <c r="I343">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>625</v>
+      </c>
+      <c r="E344" t="s">
+        <v>10</v>
+      </c>
+      <c r="F344" t="s">
+        <v>239</v>
+      </c>
+      <c r="G344" t="s">
+        <v>627</v>
+      </c>
+      <c r="H344" t="str">
+        <f t="shared" si="12"/>
+        <v>PHH_BR3_3D</v>
+      </c>
+      <c r="I344">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>622</v>
+      </c>
+      <c r="E345" t="s">
+        <v>9</v>
+      </c>
+      <c r="F345" t="s">
+        <v>13</v>
+      </c>
+      <c r="G345" t="s">
+        <v>626</v>
+      </c>
+      <c r="H345" t="str">
+        <f t="shared" ref="H345:H370" si="13">CONCATENATE(A345, "_", F345, "_", G345)</f>
+        <v>HEP3B_BR1_2D</v>
+      </c>
+      <c r="I345">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>622</v>
+      </c>
+      <c r="E346" t="s">
+        <v>9</v>
+      </c>
+      <c r="F346" t="s">
+        <v>14</v>
+      </c>
+      <c r="G346" t="s">
+        <v>626</v>
+      </c>
+      <c r="H346" t="str">
+        <f t="shared" si="13"/>
+        <v>HEP3B_BR2_2D</v>
+      </c>
+      <c r="I346">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>622</v>
+      </c>
+      <c r="E347" t="s">
+        <v>9</v>
+      </c>
+      <c r="F347" t="s">
+        <v>13</v>
+      </c>
+      <c r="G347" t="s">
+        <v>627</v>
+      </c>
+      <c r="H347" t="str">
+        <f t="shared" si="13"/>
+        <v>HEP3B_BR1_3D</v>
+      </c>
+      <c r="I347">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>622</v>
+      </c>
+      <c r="E348" t="s">
+        <v>9</v>
+      </c>
+      <c r="F348" t="s">
+        <v>14</v>
+      </c>
+      <c r="G348" t="s">
+        <v>627</v>
+      </c>
+      <c r="H348" t="str">
+        <f t="shared" si="13"/>
+        <v>HEP3B_BR2_3D</v>
+      </c>
+      <c r="I348">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>623</v>
+      </c>
+      <c r="E349" t="s">
+        <v>9</v>
+      </c>
+      <c r="F349" t="s">
+        <v>13</v>
+      </c>
+      <c r="G349" t="s">
+        <v>626</v>
+      </c>
+      <c r="H349" t="str">
+        <f t="shared" si="13"/>
+        <v>HEPG2_BR1_2D</v>
+      </c>
+      <c r="I349">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>623</v>
+      </c>
+      <c r="E350" t="s">
+        <v>9</v>
+      </c>
+      <c r="F350" t="s">
+        <v>14</v>
+      </c>
+      <c r="G350" t="s">
+        <v>626</v>
+      </c>
+      <c r="H350" t="str">
+        <f t="shared" si="13"/>
+        <v>HEPG2_BR2_2D</v>
+      </c>
+      <c r="I350">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>623</v>
+      </c>
+      <c r="E351" t="s">
+        <v>9</v>
+      </c>
+      <c r="F351" t="s">
+        <v>13</v>
+      </c>
+      <c r="G351" t="s">
+        <v>627</v>
+      </c>
+      <c r="H351" t="str">
+        <f t="shared" si="13"/>
+        <v>HEPG2_BR1_3D</v>
+      </c>
+      <c r="I351">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>623</v>
+      </c>
+      <c r="E352" t="s">
+        <v>9</v>
+      </c>
+      <c r="F352" t="s">
+        <v>14</v>
+      </c>
+      <c r="G352" t="s">
+        <v>627</v>
+      </c>
+      <c r="H352" t="str">
+        <f t="shared" si="13"/>
+        <v>HEPG2_BR2_3D</v>
+      </c>
+      <c r="I352">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>624</v>
+      </c>
+      <c r="E353" t="s">
+        <v>9</v>
+      </c>
+      <c r="F353" t="s">
+        <v>13</v>
+      </c>
+      <c r="G353" t="s">
+        <v>626</v>
+      </c>
+      <c r="H353" t="str">
+        <f t="shared" si="13"/>
+        <v>HUH7_BR1_2D</v>
+      </c>
+      <c r="I353">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>624</v>
+      </c>
+      <c r="E354" t="s">
+        <v>9</v>
+      </c>
+      <c r="F354" t="s">
+        <v>14</v>
+      </c>
+      <c r="G354" t="s">
+        <v>626</v>
+      </c>
+      <c r="H354" t="str">
+        <f t="shared" si="13"/>
+        <v>HUH7_BR2_2D</v>
+      </c>
+      <c r="I354">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>624</v>
+      </c>
+      <c r="E355" t="s">
+        <v>9</v>
+      </c>
+      <c r="F355" t="s">
+        <v>13</v>
+      </c>
+      <c r="G355" t="s">
+        <v>627</v>
+      </c>
+      <c r="H355" t="str">
+        <f t="shared" si="13"/>
+        <v>HUH7_BR1_3D</v>
+      </c>
+      <c r="I355">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>624</v>
+      </c>
+      <c r="E356" t="s">
+        <v>9</v>
+      </c>
+      <c r="F356" t="s">
+        <v>14</v>
+      </c>
+      <c r="G356" t="s">
+        <v>627</v>
+      </c>
+      <c r="H356" t="str">
+        <f t="shared" si="13"/>
+        <v>HUH7_BR2_3D</v>
+      </c>
+      <c r="I356">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>625</v>
+      </c>
+      <c r="E357" t="s">
+        <v>9</v>
+      </c>
+      <c r="F357" t="s">
+        <v>13</v>
+      </c>
+      <c r="G357" t="s">
+        <v>626</v>
+      </c>
+      <c r="H357" t="str">
+        <f t="shared" si="13"/>
+        <v>PHH_BR1_2D</v>
+      </c>
+      <c r="I357">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>625</v>
+      </c>
+      <c r="E358" t="s">
+        <v>9</v>
+      </c>
+      <c r="F358" t="s">
+        <v>14</v>
+      </c>
+      <c r="G358" t="s">
+        <v>626</v>
+      </c>
+      <c r="H358" t="str">
+        <f t="shared" si="13"/>
+        <v>PHH_BR2_2D</v>
+      </c>
+      <c r="I358">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>625</v>
+      </c>
+      <c r="E359" t="s">
+        <v>9</v>
+      </c>
+      <c r="F359" t="s">
+        <v>239</v>
+      </c>
+      <c r="G359" t="s">
+        <v>626</v>
+      </c>
+      <c r="H359" t="str">
+        <f t="shared" si="13"/>
+        <v>PHH_BR3_2D</v>
+      </c>
+      <c r="I359">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>625</v>
+      </c>
+      <c r="E360" t="s">
+        <v>9</v>
+      </c>
+      <c r="F360" t="s">
+        <v>13</v>
+      </c>
+      <c r="G360" t="s">
+        <v>627</v>
+      </c>
+      <c r="H360" t="str">
+        <f t="shared" si="13"/>
+        <v>PHH_BR1_3D</v>
+      </c>
+      <c r="I360">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>625</v>
+      </c>
+      <c r="E361" t="s">
+        <v>9</v>
+      </c>
+      <c r="F361" t="s">
+        <v>14</v>
+      </c>
+      <c r="G361" t="s">
+        <v>627</v>
+      </c>
+      <c r="H361" t="str">
+        <f t="shared" si="13"/>
+        <v>PHH_BR2_3D</v>
+      </c>
+      <c r="I361">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>625</v>
+      </c>
+      <c r="E362" t="s">
+        <v>9</v>
+      </c>
+      <c r="F362" t="s">
+        <v>239</v>
+      </c>
+      <c r="G362" t="s">
+        <v>627</v>
+      </c>
+      <c r="H362" t="str">
+        <f t="shared" si="13"/>
+        <v>PHH_BR3_3D</v>
+      </c>
+      <c r="I362">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>673</v>
+      </c>
+      <c r="E363" t="s">
+        <v>22</v>
+      </c>
+      <c r="F363" t="s">
+        <v>13</v>
+      </c>
+      <c r="G363" t="s">
+        <v>84</v>
+      </c>
+      <c r="H363" t="str">
+        <f t="shared" si="13"/>
+        <v>HUT78_BR1_Baseline</v>
+      </c>
+      <c r="I363">
+        <v>5</v>
+      </c>
+      <c r="J363" t="s">
+        <v>657</v>
+      </c>
+      <c r="K363" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>673</v>
+      </c>
+      <c r="E364" t="s">
+        <v>22</v>
+      </c>
+      <c r="F364" t="s">
+        <v>14</v>
+      </c>
+      <c r="G364" t="s">
+        <v>84</v>
+      </c>
+      <c r="H364" t="str">
+        <f t="shared" si="13"/>
+        <v>HUT78_BR2_Baseline</v>
+      </c>
+      <c r="I364">
+        <v>5</v>
+      </c>
+      <c r="J364" t="s">
+        <v>658</v>
+      </c>
+      <c r="K364" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>674</v>
+      </c>
+      <c r="E365" t="s">
+        <v>22</v>
+      </c>
+      <c r="F365" t="s">
+        <v>13</v>
+      </c>
+      <c r="G365" t="s">
+        <v>84</v>
+      </c>
+      <c r="H365" t="str">
+        <f t="shared" si="13"/>
+        <v>HU78-B_BR1_Baseline</v>
+      </c>
+      <c r="I365">
+        <v>5</v>
+      </c>
+      <c r="J365" t="s">
+        <v>659</v>
+      </c>
+      <c r="K365" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>674</v>
+      </c>
+      <c r="E366" t="s">
+        <v>22</v>
+      </c>
+      <c r="F366" t="s">
+        <v>14</v>
+      </c>
+      <c r="G366" t="s">
+        <v>84</v>
+      </c>
+      <c r="H366" t="str">
+        <f t="shared" si="13"/>
+        <v>HU78-B_BR2_Baseline</v>
+      </c>
+      <c r="I366">
+        <v>5</v>
+      </c>
+      <c r="J366" t="s">
+        <v>660</v>
+      </c>
+      <c r="K366" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>675</v>
+      </c>
+      <c r="E367" t="s">
+        <v>22</v>
+      </c>
+      <c r="F367" t="s">
+        <v>13</v>
+      </c>
+      <c r="G367" t="s">
+        <v>84</v>
+      </c>
+      <c r="H367" t="str">
+        <f t="shared" si="13"/>
+        <v>Jurkat_BR1_Baseline</v>
+      </c>
+      <c r="I367">
+        <v>5</v>
+      </c>
+      <c r="J367" t="s">
+        <v>661</v>
+      </c>
+      <c r="K367" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>675</v>
+      </c>
+      <c r="E368" t="s">
+        <v>22</v>
+      </c>
+      <c r="F368" t="s">
+        <v>14</v>
+      </c>
+      <c r="G368" t="s">
+        <v>84</v>
+      </c>
+      <c r="H368" t="str">
+        <f t="shared" si="13"/>
+        <v>Jurkat_BR2_Baseline</v>
+      </c>
+      <c r="I368">
+        <v>5</v>
+      </c>
+      <c r="J368" t="s">
+        <v>662</v>
+      </c>
+      <c r="K368" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>676</v>
+      </c>
+      <c r="E369" t="s">
+        <v>22</v>
+      </c>
+      <c r="F369" t="s">
+        <v>13</v>
+      </c>
+      <c r="G369" t="s">
+        <v>84</v>
+      </c>
+      <c r="H369" t="str">
+        <f t="shared" si="13"/>
+        <v>Jurkat-B_BR1_Baseline</v>
+      </c>
+      <c r="I369">
+        <v>5</v>
+      </c>
+      <c r="J369" t="s">
+        <v>663</v>
+      </c>
+      <c r="K369" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>676</v>
+      </c>
+      <c r="E370" t="s">
+        <v>22</v>
+      </c>
+      <c r="F370" t="s">
+        <v>14</v>
+      </c>
+      <c r="G370" t="s">
+        <v>84</v>
+      </c>
+      <c r="H370" t="str">
+        <f t="shared" si="13"/>
+        <v>Jurkat-B_BR2_Baseline</v>
+      </c>
+      <c r="I370">
+        <v>5</v>
+      </c>
+      <c r="J370" t="s">
+        <v>664</v>
+      </c>
+      <c r="K370" t="s">
+        <v>672</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/data_gsk.xlsx
+++ b/inst/extdata/data_gsk.xlsx
@@ -11,14 +11,14 @@
     <sheet name="other_cell_lines" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$K$308</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$K$388</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2580" uniqueCount="704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="864">
   <si>
     <t>Cell</t>
   </si>
@@ -2130,6 +2130,486 @@
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/KU812_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/HUT78_B_CTCF_ChIP-Seq_P5T-Cells91_CTCF_P5T-Cells91_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/HUT78_B_CTCF_ChIP-Seq_P5T-Cells91_CTCF_P5T-Cells91_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/HUT78_B_H3K27ac_ChIP-Seq_P5T-Cells91_H3K27ac_P5T-Cells91_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/HUT78_B_H3K27ac_ChIP-Seq_P5T-Cells91_H3K27ac_P5T-Cells91_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/HUT78_B_H3K27me3_ChIP-Seq_P5T-Cells91_H3K27me3_P5T-Cells91_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/HUT78_B_H3K27me3_ChIP-Seq_P5T-Cells91_H3K27me3_P5T-Cells91_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/HUT78_B_H3K4me3_ChIP-Seq_P5T-Cells91_H3K4me3_P5T-Cells91_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/HUT78_B_H3K4me3_ChIP-Seq_P5T-Cells91_H3K4me3_P5T-Cells91_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/HUT78_CTCF_ChIP-Seq_P5T-Cells91_CTCF_P5T-Cells91_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/HUT78_CTCF_ChIP-Seq_P5T-Cells91_CTCF_P5T-Cells91_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/HUT78_H3K27ac_ChIP-Seq_P5T-Cells91_H3K27ac_P5T-Cells91_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/HUT78_H3K27ac_ChIP-Seq_P5T-Cells91_H3K27ac_P5T-Cells91_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/HUT78_H3K27me3_ChIP-Seq_P5T-Cells91_H3K27me3_P5T-Cells91_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/HUT78_H3K27me3_ChIP-Seq_P5T-Cells91_H3K27me3_P5T-Cells91_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/HUT78_H3K4me3_ChIP-Seq_P5T-Cells91_H3K4me3_P5T-Cells91_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/HUT78_H3K4me3_ChIP-Seq_P5T-Cells91_H3K4me3_P5T-Cells91_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/JURKAT_B_CTCF_ChIP-Seq_P5T-cells93_CTCF_P5T-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/JURKAT_B_CTCF_ChIP-Seq_P5T-cells93_CTCF_P5T-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/JURKAT_B_H3K27ac_ChIP-Seq_P5T-Cells92_H3K27ac_P5T-Cells92_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/JURKAT_B_H3K27ac_ChIP-Seq_P5T-Cells92_H3K27ac_P5T-Cells92_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/JURKAT_B_H3K27me3_ChIP-Seq_P5T-Cells92_H3K27me3_P5T-Cells92_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/JURKAT_B_H3K27me3_ChIP-Seq_P5T-Cells92_H3K27me3_P5T-Cells92_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/JURKAT_B_H3K4me3_ChIP-Seq_P5T-Cells92_H3K4me3_P5T-Cells92_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/JURKAT_B_H3K4me3_ChIP-Seq_P5T-Cells92_H3K4me3_P5T-Cells92_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/JURKAT_CTCF_ChIP-Seq_P5T-cells93_CTCF_P5T-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/JURKAT_CTCF_ChIP-Seq_P5T-cells93_CTCF_P5T-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/JURKAT_H3K27ac_ChIP-Seq_P5T-Cells92_H3K27ac_P5T-Cells92_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/JURKAT_H3K27ac_ChIP-Seq_P5T-Cells92_H3K27ac_P5T-Cells92_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/JURKAT_H3K27me3_ChIP-Seq_P5T-Cells92_H3K27me3_P5T-Cells92_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/JURKAT_H3K27me3_ChIP-Seq_P5T-Cells92_H3K27me3_P5T-Cells92_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/JURKAT_H3K4me3_ChIP-Seq_P5T-Cells92_H3K4me3_P5T-Cells92_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bigwig/JURKAT_H3K4me3_ChIP-Seq_P5T-Cells92_H3K4me3_P5T-Cells92_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/HUT78_B_CTCF_ChIP-Seq_P5T-Cells91_CTCF_P5T-Cells91_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/HUT78_B_CTCF_ChIP-Seq_P5T-Cells91_CTCF_P5T-Cells91_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/HUT78_B_H3K27ac_ChIP-Seq_P5T-Cells91_H3K27ac_P5T-Cells91_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/HUT78_B_H3K27ac_ChIP-Seq_P5T-Cells91_H3K27ac_P5T-Cells91_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/HUT78_B_H3K27me3_ChIP-Seq_P5T-Cells91_H3K27me3_P5T-Cells91_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/HUT78_B_H3K27me3_ChIP-Seq_P5T-Cells91_H3K27me3_P5T-Cells91_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/HUT78_B_H3K4me3_ChIP-Seq_P5T-Cells91_H3K4me3_P5T-Cells91_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/HUT78_B_H3K4me3_ChIP-Seq_P5T-Cells91_H3K4me3_P5T-Cells91_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/HUT78_CTCF_ChIP-Seq_P5T-Cells91_CTCF_P5T-Cells91_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/HUT78_CTCF_ChIP-Seq_P5T-Cells91_CTCF_P5T-Cells91_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/HUT78_H3K27ac_ChIP-Seq_P5T-Cells91_H3K27ac_P5T-Cells91_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/HUT78_H3K27ac_ChIP-Seq_P5T-Cells91_H3K27ac_P5T-Cells91_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/HUT78_H3K27me3_ChIP-Seq_P5T-Cells91_H3K27me3_P5T-Cells91_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/HUT78_H3K27me3_ChIP-Seq_P5T-Cells91_H3K27me3_P5T-Cells91_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/HUT78_H3K4me3_ChIP-Seq_P5T-Cells91_H3K4me3_P5T-Cells91_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/HUT78_H3K4me3_ChIP-Seq_P5T-Cells91_H3K4me3_P5T-Cells91_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/JURKAT_B_CTCF_ChIP-Seq_P5T-cells93_CTCF_P5T-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/JURKAT_B_CTCF_ChIP-Seq_P5T-cells93_CTCF_P5T-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/JURKAT_B_H3K27ac_ChIP-Seq_P5T-Cells92_H3K27ac_P5T-Cells92_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/JURKAT_B_H3K27ac_ChIP-Seq_P5T-Cells92_H3K27ac_P5T-Cells92_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/JURKAT_B_H3K27me3_ChIP-Seq_P5T-Cells92_H3K27me3_P5T-Cells92_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/JURKAT_B_H3K27me3_ChIP-Seq_P5T-Cells92_H3K27me3_P5T-Cells92_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/JURKAT_B_H3K4me3_ChIP-Seq_P5T-Cells92_H3K4me3_P5T-Cells92_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/JURKAT_B_H3K4me3_ChIP-Seq_P5T-Cells92_H3K4me3_P5T-Cells92_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/JURKAT_CTCF_ChIP-Seq_P5T-cells93_CTCF_P5T-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/JURKAT_CTCF_ChIP-Seq_P5T-cells93_CTCF_P5T-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/JURKAT_H3K27ac_ChIP-Seq_P5T-Cells92_H3K27ac_P5T-Cells92_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/JURKAT_H3K27ac_ChIP-Seq_P5T-Cells92_H3K27ac_P5T-Cells92_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/JURKAT_H3K27me3_ChIP-Seq_P5T-Cells92_H3K27me3_P5T-Cells92_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/JURKAT_H3K27me3_ChIP-Seq_P5T-Cells92_H3K27me3_P5T-Cells92_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/JURKAT_H3K4me3_ChIP-Seq_P5T-Cells92_H3K4me3_P5T-Cells92_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_5/bam/JURKAT_H3K4me3_ChIP-Seq_P5T-Cells92_H3K4me3_P5T-Cells92_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/ARH77_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/ARH77_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/ARH77_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/ARH77_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/ARH77_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/ARH77_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/ARH77_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/ARH77_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Daudi_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Daudi_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Daudi_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Daudi_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Daudi_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Daudi_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Daudi_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Daudi_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Namalwa_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Namalwa_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Namalwa_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Namalwa_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Namalwa_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Namalwa_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Namalwa_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Namalwa_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Raji_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Raji_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Raji_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Raji_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Raji_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Raji_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Raji_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Raji_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/RAMOS_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/RAMOS_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/RAMOS_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/RAMOS_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/RAMOS_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/RAMOS_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/RAMOS_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/RAMOS_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Toledo_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Toledo_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Toledo_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Toledo_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Toledo_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Toledo_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Toledo_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bigwig/Toledo_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/ARH77_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/ARH77_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/ARH77_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/ARH77_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/ARH77_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/ARH77_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/ARH77_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/ARH77_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Daudi_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Daudi_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Daudi_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Daudi_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Daudi_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Daudi_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Daudi_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Daudi_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Namalwa_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Namalwa_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Namalwa_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Namalwa_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Namalwa_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Namalwa_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Namalwa_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Namalwa_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Raji_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Raji_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Raji_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Raji_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Raji_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Raji_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Raji_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Raji_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/RAMOS_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/RAMOS_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/RAMOS_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/RAMOS_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/RAMOS_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/RAMOS_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/RAMOS_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/RAMOS_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Toledo_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Toledo_CTCF_ChIP-Seq_P6B-cells93_CTCF_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Toledo_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Toledo_H3K27ac_ChIP-Seq_P6B-cells93_H3K27ac_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Toledo_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Toledo_H3K27me3_ChIP-Seq_P6B-cells93_H3K27me3_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Toledo_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_6/bam/Toledo_H3K4me3_ChIP-Seq_P6B-cells93_H3K4me3_P6B-cells93_bwa_samse_BR2TR1_edited.bam</t>
   </si>
 </sst>
 </file>
@@ -2514,11 +2994,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K308"/>
+  <dimension ref="A1:K388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H381" sqref="H381"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2594,7 +3074,7 @@
         <v>26</v>
       </c>
       <c r="H2" t="str">
-        <f>CONCATENATE(A2, "_", F2, "_", G2)</f>
+        <f t="shared" ref="H2:H65" si="0">CONCATENATE(A2, "_", F2, "_", G2)</f>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I2">
@@ -2630,7 +3110,7 @@
         <v>26</v>
       </c>
       <c r="H3" t="str">
-        <f>CONCATENATE(A3, "_", F3, "_", G3)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR2_Baseline</v>
       </c>
       <c r="I3">
@@ -2666,7 +3146,7 @@
         <v>26</v>
       </c>
       <c r="H4" t="str">
-        <f>CONCATENATE(A4, "_", F4, "_", G4)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR1_Baseline</v>
       </c>
       <c r="I4">
@@ -2702,7 +3182,7 @@
         <v>26</v>
       </c>
       <c r="H5" t="str">
-        <f>CONCATENATE(A5, "_", F5, "_", G5)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR2_Baseline</v>
       </c>
       <c r="I5">
@@ -2738,7 +3218,7 @@
         <v>26</v>
       </c>
       <c r="H6" t="str">
-        <f>CONCATENATE(A6, "_", F6, "_", G6)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I6">
@@ -2774,7 +3254,7 @@
         <v>26</v>
       </c>
       <c r="H7" t="str">
-        <f>CONCATENATE(A7, "_", F7, "_", G7)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I7">
@@ -2810,7 +3290,7 @@
         <v>26</v>
       </c>
       <c r="H8" t="str">
-        <f>CONCATENATE(A8, "_", F8, "_", G8)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I8">
@@ -2846,7 +3326,7 @@
         <v>26</v>
       </c>
       <c r="H9" t="str">
-        <f>CONCATENATE(A9, "_", F9, "_", G9)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR2_Baseline</v>
       </c>
       <c r="I9">
@@ -2882,7 +3362,7 @@
         <v>26</v>
       </c>
       <c r="H10" t="str">
-        <f>CONCATENATE(A10, "_", F10, "_", G10)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR1_Baseline</v>
       </c>
       <c r="I10">
@@ -2918,7 +3398,7 @@
         <v>26</v>
       </c>
       <c r="H11" t="str">
-        <f>CONCATENATE(A11, "_", F11, "_", G11)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR2_Baseline</v>
       </c>
       <c r="I11">
@@ -2954,7 +3434,7 @@
         <v>26</v>
       </c>
       <c r="H12" t="str">
-        <f>CONCATENATE(A12, "_", F12, "_", G12)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="I12">
@@ -2990,7 +3470,7 @@
         <v>26</v>
       </c>
       <c r="H13" t="str">
-        <f>CONCATENATE(A13, "_", F13, "_", G13)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="I13">
@@ -3026,7 +3506,7 @@
         <v>26</v>
       </c>
       <c r="H14" t="str">
-        <f>CONCATENATE(A14, "_", F14, "_", G14)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I14">
@@ -3062,7 +3542,7 @@
         <v>26</v>
       </c>
       <c r="H15" t="str">
-        <f>CONCATENATE(A15, "_", F15, "_", G15)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR2_Baseline</v>
       </c>
       <c r="I15">
@@ -3098,7 +3578,7 @@
         <v>26</v>
       </c>
       <c r="H16" t="str">
-        <f>CONCATENATE(A16, "_", F16, "_", G16)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR1_Baseline</v>
       </c>
       <c r="I16">
@@ -3134,7 +3614,7 @@
         <v>26</v>
       </c>
       <c r="H17" t="str">
-        <f>CONCATENATE(A17, "_", F17, "_", G17)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR2_Baseline</v>
       </c>
       <c r="I17">
@@ -3170,7 +3650,7 @@
         <v>26</v>
       </c>
       <c r="H18" t="str">
-        <f>CONCATENATE(A18, "_", F18, "_", G18)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I18">
@@ -3206,7 +3686,7 @@
         <v>26</v>
       </c>
       <c r="H19" t="str">
-        <f>CONCATENATE(A19, "_", F19, "_", G19)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I19">
@@ -3242,7 +3722,7 @@
         <v>26</v>
       </c>
       <c r="H20" t="str">
-        <f>CONCATENATE(A20, "_", F20, "_", G20)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I20">
@@ -3278,7 +3758,7 @@
         <v>26</v>
       </c>
       <c r="H21" t="str">
-        <f>CONCATENATE(A21, "_", F21, "_", G21)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I21">
@@ -3314,7 +3794,7 @@
         <v>26</v>
       </c>
       <c r="H22" t="str">
-        <f>CONCATENATE(A22, "_", F22, "_", G22)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I22">
@@ -3350,7 +3830,7 @@
         <v>26</v>
       </c>
       <c r="H23" t="str">
-        <f>CONCATENATE(A23, "_", F23, "_", G23)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR2_Baseline</v>
       </c>
       <c r="I23">
@@ -3386,7 +3866,7 @@
         <v>26</v>
       </c>
       <c r="H24" t="str">
-        <f>CONCATENATE(A24, "_", F24, "_", G24)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR1_Baseline</v>
       </c>
       <c r="I24">
@@ -3422,7 +3902,7 @@
         <v>26</v>
       </c>
       <c r="H25" t="str">
-        <f>CONCATENATE(A25, "_", F25, "_", G25)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR2_Baseline</v>
       </c>
       <c r="I25">
@@ -3458,7 +3938,7 @@
         <v>26</v>
       </c>
       <c r="H26" t="str">
-        <f>CONCATENATE(A26, "_", F26, "_", G26)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="I26">
@@ -3494,7 +3974,7 @@
         <v>26</v>
       </c>
       <c r="H27" t="str">
-        <f>CONCATENATE(A27, "_", F27, "_", G27)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="I27">
@@ -3530,7 +4010,7 @@
         <v>26</v>
       </c>
       <c r="H28" t="str">
-        <f>CONCATENATE(A28, "_", F28, "_", G28)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I28">
@@ -3566,7 +4046,7 @@
         <v>26</v>
       </c>
       <c r="H29" t="str">
-        <f>CONCATENATE(A29, "_", F29, "_", G29)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I29">
@@ -3602,7 +4082,7 @@
         <v>26</v>
       </c>
       <c r="H30" t="str">
-        <f>CONCATENATE(A30, "_", F30, "_", G30)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR2_Baseline</v>
       </c>
       <c r="I30">
@@ -3638,7 +4118,7 @@
         <v>26</v>
       </c>
       <c r="H31" t="str">
-        <f>CONCATENATE(A31, "_", F31, "_", G31)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR1_Baseline</v>
       </c>
       <c r="I31">
@@ -3674,7 +4154,7 @@
         <v>26</v>
       </c>
       <c r="H32" t="str">
-        <f>CONCATENATE(A32, "_", F32, "_", G32)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR2_Baseline</v>
       </c>
       <c r="I32">
@@ -3710,7 +4190,7 @@
         <v>26</v>
       </c>
       <c r="H33" t="str">
-        <f>CONCATENATE(A33, "_", F33, "_", G33)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I33">
@@ -3746,7 +4226,7 @@
         <v>26</v>
       </c>
       <c r="H34" t="str">
-        <f>CONCATENATE(A34, "_", F34, "_", G34)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I34">
@@ -3782,7 +4262,7 @@
         <v>26</v>
       </c>
       <c r="H35" t="str">
-        <f>CONCATENATE(A35, "_", F35, "_", G35)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I35">
@@ -3818,7 +4298,7 @@
         <v>26</v>
       </c>
       <c r="H36" t="str">
-        <f>CONCATENATE(A36, "_", F36, "_", G36)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I36">
@@ -3854,7 +4334,7 @@
         <v>26</v>
       </c>
       <c r="H37" t="str">
-        <f>CONCATENATE(A37, "_", F37, "_", G37)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I37">
@@ -3890,7 +4370,7 @@
         <v>26</v>
       </c>
       <c r="H38" t="str">
-        <f>CONCATENATE(A38, "_", F38, "_", G38)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR2_Baseline</v>
       </c>
       <c r="I38">
@@ -3926,7 +4406,7 @@
         <v>26</v>
       </c>
       <c r="H39" t="str">
-        <f>CONCATENATE(A39, "_", F39, "_", G39)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR1_Baseline</v>
       </c>
       <c r="I39">
@@ -3962,7 +4442,7 @@
         <v>26</v>
       </c>
       <c r="H40" t="str">
-        <f>CONCATENATE(A40, "_", F40, "_", G40)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR2_Baseline</v>
       </c>
       <c r="I40">
@@ -3998,7 +4478,7 @@
         <v>26</v>
       </c>
       <c r="H41" t="str">
-        <f>CONCATENATE(A41, "_", F41, "_", G41)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="I41">
@@ -4034,7 +4514,7 @@
         <v>26</v>
       </c>
       <c r="H42" t="str">
-        <f>CONCATENATE(A42, "_", F42, "_", G42)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="I42">
@@ -4070,7 +4550,7 @@
         <v>26</v>
       </c>
       <c r="H43" t="str">
-        <f>CONCATENATE(A43, "_", F43, "_", G43)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I43">
@@ -4106,7 +4586,7 @@
         <v>26</v>
       </c>
       <c r="H44" t="str">
-        <f>CONCATENATE(A44, "_", F44, "_", G44)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR2_Baseline</v>
       </c>
       <c r="I44">
@@ -4142,7 +4622,7 @@
         <v>26</v>
       </c>
       <c r="H45" t="str">
-        <f>CONCATENATE(A45, "_", F45, "_", G45)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR1_Baseline</v>
       </c>
       <c r="I45">
@@ -4178,7 +4658,7 @@
         <v>26</v>
       </c>
       <c r="H46" t="str">
-        <f>CONCATENATE(A46, "_", F46, "_", G46)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR2_Baseline</v>
       </c>
       <c r="I46">
@@ -4214,7 +4694,7 @@
         <v>26</v>
       </c>
       <c r="H47" t="str">
-        <f>CONCATENATE(A47, "_", F47, "_", G47)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I47">
@@ -4250,7 +4730,7 @@
         <v>26</v>
       </c>
       <c r="H48" t="str">
-        <f>CONCATENATE(A48, "_", F48, "_", G48)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I48">
@@ -4286,7 +4766,7 @@
         <v>26</v>
       </c>
       <c r="H49" t="str">
-        <f>CONCATENATE(A49, "_", F49, "_", G49)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I49">
@@ -4322,7 +4802,7 @@
         <v>26</v>
       </c>
       <c r="H50" t="str">
-        <f>CONCATENATE(A50, "_", F50, "_", G50)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR2_Baseline</v>
       </c>
       <c r="I50">
@@ -4358,7 +4838,7 @@
         <v>26</v>
       </c>
       <c r="H51" t="str">
-        <f>CONCATENATE(A51, "_", F51, "_", G51)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR1_Baseline</v>
       </c>
       <c r="I51">
@@ -4394,7 +4874,7 @@
         <v>26</v>
       </c>
       <c r="H52" t="str">
-        <f>CONCATENATE(A52, "_", F52, "_", G52)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR2_Baseline</v>
       </c>
       <c r="I52">
@@ -4430,7 +4910,7 @@
         <v>26</v>
       </c>
       <c r="H53" t="str">
-        <f>CONCATENATE(A53, "_", F53, "_", G53)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="I53">
@@ -4466,7 +4946,7 @@
         <v>26</v>
       </c>
       <c r="H54" t="str">
-        <f>CONCATENATE(A54, "_", F54, "_", G54)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="I54">
@@ -4502,7 +4982,7 @@
         <v>26</v>
       </c>
       <c r="H55" t="str">
-        <f>CONCATENATE(A55, "_", F55, "_", G55)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I55">
@@ -4538,7 +5018,7 @@
         <v>26</v>
       </c>
       <c r="H56" t="str">
-        <f>CONCATENATE(A56, "_", F56, "_", G56)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I56">
@@ -4574,7 +5054,7 @@
         <v>26</v>
       </c>
       <c r="H57" t="str">
-        <f>CONCATENATE(A57, "_", F57, "_", G57)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR2_Baseline</v>
       </c>
       <c r="I57">
@@ -4610,7 +5090,7 @@
         <v>26</v>
       </c>
       <c r="H58" t="str">
-        <f>CONCATENATE(A58, "_", F58, "_", G58)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR1_Baseline</v>
       </c>
       <c r="I58">
@@ -4646,7 +5126,7 @@
         <v>26</v>
       </c>
       <c r="H59" t="str">
-        <f>CONCATENATE(A59, "_", F59, "_", G59)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR2_Baseline</v>
       </c>
       <c r="I59">
@@ -4682,7 +5162,7 @@
         <v>26</v>
       </c>
       <c r="H60" t="str">
-        <f>CONCATENATE(A60, "_", F60, "_", G60)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I60">
@@ -4718,7 +5198,7 @@
         <v>26</v>
       </c>
       <c r="H61" t="str">
-        <f>CONCATENATE(A61, "_", F61, "_", G61)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I61">
@@ -4754,7 +5234,7 @@
         <v>26</v>
       </c>
       <c r="H62" t="str">
-        <f>CONCATENATE(A62, "_", F62, "_", G62)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I62">
@@ -4790,7 +5270,7 @@
         <v>26</v>
       </c>
       <c r="H63" t="str">
-        <f>CONCATENATE(A63, "_", F63, "_", G63)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I63">
@@ -4826,7 +5306,7 @@
         <v>26</v>
       </c>
       <c r="H64" t="str">
-        <f>CONCATENATE(A64, "_", F64, "_", G64)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I64">
@@ -4862,7 +5342,7 @@
         <v>26</v>
       </c>
       <c r="H65" t="str">
-        <f>CONCATENATE(A65, "_", F65, "_", G65)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR2_Baseline</v>
       </c>
       <c r="I65">
@@ -4898,7 +5378,7 @@
         <v>26</v>
       </c>
       <c r="H66" t="str">
-        <f>CONCATENATE(A66, "_", F66, "_", G66)</f>
+        <f t="shared" ref="H66:H129" si="1">CONCATENATE(A66, "_", F66, "_", G66)</f>
         <v>MEG01_BR1_Baseline</v>
       </c>
       <c r="I66">
@@ -4934,7 +5414,7 @@
         <v>26</v>
       </c>
       <c r="H67" t="str">
-        <f>CONCATENATE(A67, "_", F67, "_", G67)</f>
+        <f t="shared" si="1"/>
         <v>MEG01_BR2_Baseline</v>
       </c>
       <c r="I67">
@@ -4970,7 +5450,7 @@
         <v>26</v>
       </c>
       <c r="H68" t="str">
-        <f>CONCATENATE(A68, "_", F68, "_", G68)</f>
+        <f t="shared" si="1"/>
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="I68">
@@ -5006,7 +5486,7 @@
         <v>26</v>
       </c>
       <c r="H69" t="str">
-        <f>CONCATENATE(A69, "_", F69, "_", G69)</f>
+        <f t="shared" si="1"/>
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="I69">
@@ -5042,7 +5522,7 @@
         <v>26</v>
       </c>
       <c r="H70" t="str">
-        <f>CONCATENATE(A70, "_", F70, "_", G70)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I70">
@@ -5078,7 +5558,7 @@
         <v>26</v>
       </c>
       <c r="H71" t="str">
-        <f>CONCATENATE(A71, "_", F71, "_", G71)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I71">
@@ -5114,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="H72" t="str">
-        <f>CONCATENATE(A72, "_", F72, "_", G72)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I72">
@@ -5150,7 +5630,7 @@
         <v>28</v>
       </c>
       <c r="H73" t="str">
-        <f>CONCATENATE(A73, "_", F73, "_", G73)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I73">
@@ -5186,7 +5666,7 @@
         <v>30</v>
       </c>
       <c r="H74" t="str">
-        <f>CONCATENATE(A74, "_", F74, "_", G74)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I74">
@@ -5222,7 +5702,7 @@
         <v>30</v>
       </c>
       <c r="H75" t="str">
-        <f>CONCATENATE(A75, "_", F75, "_", G75)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I75">
@@ -5258,7 +5738,7 @@
         <v>29</v>
       </c>
       <c r="H76" t="str">
-        <f>CONCATENATE(A76, "_", F76, "_", G76)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I76">
@@ -5294,7 +5774,7 @@
         <v>29</v>
       </c>
       <c r="H77" t="str">
-        <f>CONCATENATE(A77, "_", F77, "_", G77)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I77">
@@ -5330,7 +5810,7 @@
         <v>32</v>
       </c>
       <c r="H78" t="str">
-        <f>CONCATENATE(A78, "_", F78, "_", G78)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I78">
@@ -5366,7 +5846,7 @@
         <v>31</v>
       </c>
       <c r="H79" t="str">
-        <f>CONCATENATE(A79, "_", F79, "_", G79)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I79">
@@ -5399,7 +5879,7 @@
         <v>26</v>
       </c>
       <c r="H80" t="str">
-        <f>CONCATENATE(A80, "_", F80, "_", G80)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I80">
@@ -5432,7 +5912,7 @@
         <v>26</v>
       </c>
       <c r="H81" t="str">
-        <f>CONCATENATE(A81, "_", F81, "_", G81)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I81">
@@ -5465,7 +5945,7 @@
         <v>28</v>
       </c>
       <c r="H82" t="str">
-        <f>CONCATENATE(A82, "_", F82, "_", G82)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I82">
@@ -5498,7 +5978,7 @@
         <v>28</v>
       </c>
       <c r="H83" t="str">
-        <f>CONCATENATE(A83, "_", F83, "_", G83)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I83">
@@ -5531,7 +6011,7 @@
         <v>30</v>
       </c>
       <c r="H84" t="str">
-        <f>CONCATENATE(A84, "_", F84, "_", G84)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I84">
@@ -5564,7 +6044,7 @@
         <v>30</v>
       </c>
       <c r="H85" t="str">
-        <f>CONCATENATE(A85, "_", F85, "_", G85)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I85">
@@ -5597,7 +6077,7 @@
         <v>29</v>
       </c>
       <c r="H86" t="str">
-        <f>CONCATENATE(A86, "_", F86, "_", G86)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I86">
@@ -5630,7 +6110,7 @@
         <v>29</v>
       </c>
       <c r="H87" t="str">
-        <f>CONCATENATE(A87, "_", F87, "_", G87)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I87">
@@ -5663,7 +6143,7 @@
         <v>32</v>
       </c>
       <c r="H88" t="str">
-        <f>CONCATENATE(A88, "_", F88, "_", G88)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I88">
@@ -5696,7 +6176,7 @@
         <v>32</v>
       </c>
       <c r="H89" t="str">
-        <f>CONCATENATE(A89, "_", F89, "_", G89)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I89">
@@ -5729,7 +6209,7 @@
         <v>31</v>
       </c>
       <c r="H90" t="str">
-        <f>CONCATENATE(A90, "_", F90, "_", G90)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I90">
@@ -5762,7 +6242,7 @@
         <v>31</v>
       </c>
       <c r="H91" t="str">
-        <f>CONCATENATE(A91, "_", F91, "_", G91)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I91">
@@ -5798,7 +6278,7 @@
         <v>28</v>
       </c>
       <c r="H92" t="str">
-        <f>CONCATENATE(A92, "_", F92, "_", G92)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I92">
@@ -5834,7 +6314,7 @@
         <v>28</v>
       </c>
       <c r="H93" t="str">
-        <f>CONCATENATE(A93, "_", F93, "_", G93)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I93">
@@ -5870,7 +6350,7 @@
         <v>28</v>
       </c>
       <c r="H94" t="str">
-        <f>CONCATENATE(A94, "_", F94, "_", G94)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I94">
@@ -5906,7 +6386,7 @@
         <v>28</v>
       </c>
       <c r="H95" t="str">
-        <f>CONCATENATE(A95, "_", F95, "_", G95)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I95">
@@ -5942,7 +6422,7 @@
         <v>30</v>
       </c>
       <c r="H96" t="str">
-        <f>CONCATENATE(A96, "_", F96, "_", G96)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I96">
@@ -5978,7 +6458,7 @@
         <v>30</v>
       </c>
       <c r="H97" t="str">
-        <f>CONCATENATE(A97, "_", F97, "_", G97)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I97">
@@ -6014,7 +6494,7 @@
         <v>30</v>
       </c>
       <c r="H98" t="str">
-        <f>CONCATENATE(A98, "_", F98, "_", G98)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I98">
@@ -6050,7 +6530,7 @@
         <v>30</v>
       </c>
       <c r="H99" t="str">
-        <f>CONCATENATE(A99, "_", F99, "_", G99)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I99">
@@ -6086,7 +6566,7 @@
         <v>29</v>
       </c>
       <c r="H100" t="str">
-        <f>CONCATENATE(A100, "_", F100, "_", G100)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I100">
@@ -6122,7 +6602,7 @@
         <v>29</v>
       </c>
       <c r="H101" t="str">
-        <f>CONCATENATE(A101, "_", F101, "_", G101)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I101">
@@ -6158,7 +6638,7 @@
         <v>29</v>
       </c>
       <c r="H102" t="str">
-        <f>CONCATENATE(A102, "_", F102, "_", G102)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I102">
@@ -6194,7 +6674,7 @@
         <v>29</v>
       </c>
       <c r="H103" t="str">
-        <f>CONCATENATE(A103, "_", F103, "_", G103)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I103">
@@ -6230,7 +6710,7 @@
         <v>32</v>
       </c>
       <c r="H104" t="str">
-        <f>CONCATENATE(A104, "_", F104, "_", G104)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I104">
@@ -6266,7 +6746,7 @@
         <v>32</v>
       </c>
       <c r="H105" t="str">
-        <f>CONCATENATE(A105, "_", F105, "_", G105)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I105">
@@ -6302,7 +6782,7 @@
         <v>32</v>
       </c>
       <c r="H106" t="str">
-        <f>CONCATENATE(A106, "_", F106, "_", G106)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I106">
@@ -6338,7 +6818,7 @@
         <v>32</v>
       </c>
       <c r="H107" t="str">
-        <f>CONCATENATE(A107, "_", F107, "_", G107)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I107">
@@ -6374,7 +6854,7 @@
         <v>31</v>
       </c>
       <c r="H108" t="str">
-        <f>CONCATENATE(A108, "_", F108, "_", G108)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I108">
@@ -6410,7 +6890,7 @@
         <v>31</v>
       </c>
       <c r="H109" t="str">
-        <f>CONCATENATE(A109, "_", F109, "_", G109)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I109">
@@ -6446,7 +6926,7 @@
         <v>31</v>
       </c>
       <c r="H110" t="str">
-        <f>CONCATENATE(A110, "_", F110, "_", G110)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I110">
@@ -6482,7 +6962,7 @@
         <v>31</v>
       </c>
       <c r="H111" t="str">
-        <f>CONCATENATE(A111, "_", F111, "_", G111)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I111">
@@ -6515,7 +6995,7 @@
         <v>28</v>
       </c>
       <c r="H112" t="str">
-        <f>CONCATENATE(A112, "_", F112, "_", G112)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I112">
@@ -6548,7 +7028,7 @@
         <v>28</v>
       </c>
       <c r="H113" t="str">
-        <f>CONCATENATE(A113, "_", F113, "_", G113)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I113">
@@ -6581,7 +7061,7 @@
         <v>28</v>
       </c>
       <c r="H114" t="str">
-        <f>CONCATENATE(A114, "_", F114, "_", G114)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I114">
@@ -6614,7 +7094,7 @@
         <v>28</v>
       </c>
       <c r="H115" t="str">
-        <f>CONCATENATE(A115, "_", F115, "_", G115)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I115">
@@ -6647,7 +7127,7 @@
         <v>30</v>
       </c>
       <c r="H116" t="str">
-        <f>CONCATENATE(A116, "_", F116, "_", G116)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I116">
@@ -6680,7 +7160,7 @@
         <v>30</v>
       </c>
       <c r="H117" t="str">
-        <f>CONCATENATE(A117, "_", F117, "_", G117)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I117">
@@ -6713,7 +7193,7 @@
         <v>30</v>
       </c>
       <c r="H118" t="str">
-        <f>CONCATENATE(A118, "_", F118, "_", G118)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I118">
@@ -6746,7 +7226,7 @@
         <v>30</v>
       </c>
       <c r="H119" t="str">
-        <f>CONCATENATE(A119, "_", F119, "_", G119)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I119">
@@ -6779,7 +7259,7 @@
         <v>29</v>
       </c>
       <c r="H120" t="str">
-        <f>CONCATENATE(A120, "_", F120, "_", G120)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I120">
@@ -6812,7 +7292,7 @@
         <v>29</v>
       </c>
       <c r="H121" t="str">
-        <f>CONCATENATE(A121, "_", F121, "_", G121)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I121">
@@ -6845,7 +7325,7 @@
         <v>29</v>
       </c>
       <c r="H122" t="str">
-        <f>CONCATENATE(A122, "_", F122, "_", G122)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I122">
@@ -6878,7 +7358,7 @@
         <v>29</v>
       </c>
       <c r="H123" t="str">
-        <f>CONCATENATE(A123, "_", F123, "_", G123)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I123">
@@ -6911,7 +7391,7 @@
         <v>32</v>
       </c>
       <c r="H124" t="str">
-        <f>CONCATENATE(A124, "_", F124, "_", G124)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I124">
@@ -6944,7 +7424,7 @@
         <v>32</v>
       </c>
       <c r="H125" t="str">
-        <f>CONCATENATE(A125, "_", F125, "_", G125)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I125">
@@ -6977,7 +7457,7 @@
         <v>32</v>
       </c>
       <c r="H126" t="str">
-        <f>CONCATENATE(A126, "_", F126, "_", G126)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I126">
@@ -7010,7 +7490,7 @@
         <v>32</v>
       </c>
       <c r="H127" t="str">
-        <f>CONCATENATE(A127, "_", F127, "_", G127)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I127">
@@ -7043,7 +7523,7 @@
         <v>31</v>
       </c>
       <c r="H128" t="str">
-        <f>CONCATENATE(A128, "_", F128, "_", G128)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I128">
@@ -7076,7 +7556,7 @@
         <v>31</v>
       </c>
       <c r="H129" t="str">
-        <f>CONCATENATE(A129, "_", F129, "_", G129)</f>
+        <f t="shared" si="1"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I129">
@@ -7109,7 +7589,7 @@
         <v>31</v>
       </c>
       <c r="H130" t="str">
-        <f>CONCATENATE(A130, "_", F130, "_", G130)</f>
+        <f t="shared" ref="H130:H193" si="2">CONCATENATE(A130, "_", F130, "_", G130)</f>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I130">
@@ -7142,7 +7622,7 @@
         <v>31</v>
       </c>
       <c r="H131" t="str">
-        <f>CONCATENATE(A131, "_", F131, "_", G131)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I131">
@@ -7178,7 +7658,7 @@
         <v>26</v>
       </c>
       <c r="H132" t="str">
-        <f>CONCATENATE(A132, "_", F132, "_", G132)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I132">
@@ -7214,7 +7694,7 @@
         <v>26</v>
       </c>
       <c r="H133" t="str">
-        <f>CONCATENATE(A133, "_", F133, "_", G133)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I133">
@@ -7250,7 +7730,7 @@
         <v>28</v>
       </c>
       <c r="H134" t="str">
-        <f>CONCATENATE(A134, "_", F134, "_", G134)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I134">
@@ -7286,7 +7766,7 @@
         <v>28</v>
       </c>
       <c r="H135" t="str">
-        <f>CONCATENATE(A135, "_", F135, "_", G135)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I135">
@@ -7322,7 +7802,7 @@
         <v>30</v>
       </c>
       <c r="H136" t="str">
-        <f>CONCATENATE(A136, "_", F136, "_", G136)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I136">
@@ -7358,7 +7838,7 @@
         <v>30</v>
       </c>
       <c r="H137" t="str">
-        <f>CONCATENATE(A137, "_", F137, "_", G137)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I137">
@@ -7394,7 +7874,7 @@
         <v>29</v>
       </c>
       <c r="H138" t="str">
-        <f>CONCATENATE(A138, "_", F138, "_", G138)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I138">
@@ -7430,7 +7910,7 @@
         <v>29</v>
       </c>
       <c r="H139" t="str">
-        <f>CONCATENATE(A139, "_", F139, "_", G139)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I139">
@@ -7466,7 +7946,7 @@
         <v>32</v>
       </c>
       <c r="H140" t="str">
-        <f>CONCATENATE(A140, "_", F140, "_", G140)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I140">
@@ -7502,7 +7982,7 @@
         <v>32</v>
       </c>
       <c r="H141" t="str">
-        <f>CONCATENATE(A141, "_", F141, "_", G141)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I141">
@@ -7538,7 +8018,7 @@
         <v>31</v>
       </c>
       <c r="H142" t="str">
-        <f>CONCATENATE(A142, "_", F142, "_", G142)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I142">
@@ -7574,7 +8054,7 @@
         <v>31</v>
       </c>
       <c r="H143" t="str">
-        <f>CONCATENATE(A143, "_", F143, "_", G143)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I143">
@@ -7607,7 +8087,7 @@
         <v>26</v>
       </c>
       <c r="H144" t="str">
-        <f>CONCATENATE(A144, "_", F144, "_", G144)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I144">
@@ -7640,7 +8120,7 @@
         <v>26</v>
       </c>
       <c r="H145" t="str">
-        <f>CONCATENATE(A145, "_", F145, "_", G145)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I145">
@@ -7673,7 +8153,7 @@
         <v>28</v>
       </c>
       <c r="H146" t="str">
-        <f>CONCATENATE(A146, "_", F146, "_", G146)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I146">
@@ -7706,7 +8186,7 @@
         <v>28</v>
       </c>
       <c r="H147" t="str">
-        <f>CONCATENATE(A147, "_", F147, "_", G147)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I147">
@@ -7739,7 +8219,7 @@
         <v>30</v>
       </c>
       <c r="H148" t="str">
-        <f>CONCATENATE(A148, "_", F148, "_", G148)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I148">
@@ -7772,7 +8252,7 @@
         <v>30</v>
       </c>
       <c r="H149" t="str">
-        <f>CONCATENATE(A149, "_", F149, "_", G149)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I149">
@@ -7805,7 +8285,7 @@
         <v>29</v>
       </c>
       <c r="H150" t="str">
-        <f>CONCATENATE(A150, "_", F150, "_", G150)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I150">
@@ -7838,7 +8318,7 @@
         <v>29</v>
       </c>
       <c r="H151" t="str">
-        <f>CONCATENATE(A151, "_", F151, "_", G151)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I151">
@@ -7871,7 +8351,7 @@
         <v>32</v>
       </c>
       <c r="H152" t="str">
-        <f>CONCATENATE(A152, "_", F152, "_", G152)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I152">
@@ -7904,7 +8384,7 @@
         <v>32</v>
       </c>
       <c r="H153" t="str">
-        <f>CONCATENATE(A153, "_", F153, "_", G153)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I153">
@@ -7937,7 +8417,7 @@
         <v>31</v>
       </c>
       <c r="H154" t="str">
-        <f>CONCATENATE(A154, "_", F154, "_", G154)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I154">
@@ -7970,7 +8450,7 @@
         <v>31</v>
       </c>
       <c r="H155" t="str">
-        <f>CONCATENATE(A155, "_", F155, "_", G155)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I155">
@@ -8006,7 +8486,7 @@
         <v>26</v>
       </c>
       <c r="H156" t="str">
-        <f>CONCATENATE(A156, "_", F156, "_", G156)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I156">
@@ -8042,7 +8522,7 @@
         <v>26</v>
       </c>
       <c r="H157" t="str">
-        <f>CONCATENATE(A157, "_", F157, "_", G157)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I157">
@@ -8078,7 +8558,7 @@
         <v>28</v>
       </c>
       <c r="H158" t="str">
-        <f>CONCATENATE(A158, "_", F158, "_", G158)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I158">
@@ -8114,7 +8594,7 @@
         <v>30</v>
       </c>
       <c r="H159" t="str">
-        <f>CONCATENATE(A159, "_", F159, "_", G159)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I159">
@@ -8150,7 +8630,7 @@
         <v>30</v>
       </c>
       <c r="H160" t="str">
-        <f>CONCATENATE(A160, "_", F160, "_", G160)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I160">
@@ -8186,7 +8666,7 @@
         <v>29</v>
       </c>
       <c r="H161" t="str">
-        <f>CONCATENATE(A161, "_", F161, "_", G161)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I161">
@@ -8222,7 +8702,7 @@
         <v>29</v>
       </c>
       <c r="H162" t="str">
-        <f>CONCATENATE(A162, "_", F162, "_", G162)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I162">
@@ -8258,7 +8738,7 @@
         <v>32</v>
       </c>
       <c r="H163" t="str">
-        <f>CONCATENATE(A163, "_", F163, "_", G163)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I163">
@@ -8294,7 +8774,7 @@
         <v>32</v>
       </c>
       <c r="H164" t="str">
-        <f>CONCATENATE(A164, "_", F164, "_", G164)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I164">
@@ -8330,7 +8810,7 @@
         <v>31</v>
       </c>
       <c r="H165" t="str">
-        <f>CONCATENATE(A165, "_", F165, "_", G165)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I165">
@@ -8366,7 +8846,7 @@
         <v>31</v>
       </c>
       <c r="H166" t="str">
-        <f>CONCATENATE(A166, "_", F166, "_", G166)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I166">
@@ -8402,7 +8882,7 @@
         <v>28</v>
       </c>
       <c r="H167" t="str">
-        <f>CONCATENATE(A167, "_", F167, "_", G167)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I167">
@@ -8435,7 +8915,7 @@
         <v>26</v>
       </c>
       <c r="H168" t="str">
-        <f>CONCATENATE(A168, "_", F168, "_", G168)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I168">
@@ -8468,7 +8948,7 @@
         <v>26</v>
       </c>
       <c r="H169" t="str">
-        <f>CONCATENATE(A169, "_", F169, "_", G169)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I169">
@@ -8501,7 +8981,7 @@
         <v>28</v>
       </c>
       <c r="H170" t="str">
-        <f>CONCATENATE(A170, "_", F170, "_", G170)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I170">
@@ -8534,7 +9014,7 @@
         <v>28</v>
       </c>
       <c r="H171" t="str">
-        <f>CONCATENATE(A171, "_", F171, "_", G171)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I171">
@@ -8567,7 +9047,7 @@
         <v>30</v>
       </c>
       <c r="H172" t="str">
-        <f>CONCATENATE(A172, "_", F172, "_", G172)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I172">
@@ -8600,7 +9080,7 @@
         <v>30</v>
       </c>
       <c r="H173" t="str">
-        <f>CONCATENATE(A173, "_", F173, "_", G173)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I173">
@@ -8633,7 +9113,7 @@
         <v>29</v>
       </c>
       <c r="H174" t="str">
-        <f>CONCATENATE(A174, "_", F174, "_", G174)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I174">
@@ -8666,7 +9146,7 @@
         <v>29</v>
       </c>
       <c r="H175" t="str">
-        <f>CONCATENATE(A175, "_", F175, "_", G175)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I175">
@@ -8699,7 +9179,7 @@
         <v>32</v>
       </c>
       <c r="H176" t="str">
-        <f>CONCATENATE(A176, "_", F176, "_", G176)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I176">
@@ -8732,7 +9212,7 @@
         <v>32</v>
       </c>
       <c r="H177" t="str">
-        <f>CONCATENATE(A177, "_", F177, "_", G177)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I177">
@@ -8765,7 +9245,7 @@
         <v>31</v>
       </c>
       <c r="H178" t="str">
-        <f>CONCATENATE(A178, "_", F178, "_", G178)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I178">
@@ -8798,7 +9278,7 @@
         <v>31</v>
       </c>
       <c r="H179" t="str">
-        <f>CONCATENATE(A179, "_", F179, "_", G179)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I179">
@@ -8834,7 +9314,7 @@
         <v>26</v>
       </c>
       <c r="H180" t="str">
-        <f>CONCATENATE(A180, "_", F180, "_", G180)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I180">
@@ -8870,7 +9350,7 @@
         <v>26</v>
       </c>
       <c r="H181" t="str">
-        <f>CONCATENATE(A181, "_", F181, "_", G181)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I181">
@@ -8906,7 +9386,7 @@
         <v>28</v>
       </c>
       <c r="H182" t="str">
-        <f>CONCATENATE(A182, "_", F182, "_", G182)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I182">
@@ -8942,7 +9422,7 @@
         <v>28</v>
       </c>
       <c r="H183" t="str">
-        <f>CONCATENATE(A183, "_", F183, "_", G183)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I183">
@@ -8978,7 +9458,7 @@
         <v>30</v>
       </c>
       <c r="H184" t="str">
-        <f>CONCATENATE(A184, "_", F184, "_", G184)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I184">
@@ -9014,7 +9494,7 @@
         <v>30</v>
       </c>
       <c r="H185" t="str">
-        <f>CONCATENATE(A185, "_", F185, "_", G185)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I185">
@@ -9050,7 +9530,7 @@
         <v>29</v>
       </c>
       <c r="H186" t="str">
-        <f>CONCATENATE(A186, "_", F186, "_", G186)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I186">
@@ -9086,7 +9566,7 @@
         <v>29</v>
       </c>
       <c r="H187" t="str">
-        <f>CONCATENATE(A187, "_", F187, "_", G187)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I187">
@@ -9122,7 +9602,7 @@
         <v>32</v>
       </c>
       <c r="H188" t="str">
-        <f>CONCATENATE(A188, "_", F188, "_", G188)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I188">
@@ -9158,7 +9638,7 @@
         <v>32</v>
       </c>
       <c r="H189" t="str">
-        <f>CONCATENATE(A189, "_", F189, "_", G189)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I189">
@@ -9194,7 +9674,7 @@
         <v>31</v>
       </c>
       <c r="H190" t="str">
-        <f>CONCATENATE(A190, "_", F190, "_", G190)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I190">
@@ -9230,7 +9710,7 @@
         <v>31</v>
       </c>
       <c r="H191" t="str">
-        <f>CONCATENATE(A191, "_", F191, "_", G191)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I191">
@@ -9263,7 +9743,7 @@
         <v>26</v>
       </c>
       <c r="H192" t="str">
-        <f>CONCATENATE(A192, "_", F192, "_", G192)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I192">
@@ -9296,7 +9776,7 @@
         <v>26</v>
       </c>
       <c r="H193" t="str">
-        <f>CONCATENATE(A193, "_", F193, "_", G193)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I193">
@@ -9329,7 +9809,7 @@
         <v>28</v>
       </c>
       <c r="H194" t="str">
-        <f>CONCATENATE(A194, "_", F194, "_", G194)</f>
+        <f t="shared" ref="H194:H257" si="3">CONCATENATE(A194, "_", F194, "_", G194)</f>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I194">
@@ -9362,7 +9842,7 @@
         <v>28</v>
       </c>
       <c r="H195" t="str">
-        <f>CONCATENATE(A195, "_", F195, "_", G195)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I195">
@@ -9395,7 +9875,7 @@
         <v>30</v>
       </c>
       <c r="H196" t="str">
-        <f>CONCATENATE(A196, "_", F196, "_", G196)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I196">
@@ -9428,7 +9908,7 @@
         <v>30</v>
       </c>
       <c r="H197" t="str">
-        <f>CONCATENATE(A197, "_", F197, "_", G197)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I197">
@@ -9461,7 +9941,7 @@
         <v>29</v>
       </c>
       <c r="H198" t="str">
-        <f>CONCATENATE(A198, "_", F198, "_", G198)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I198">
@@ -9494,7 +9974,7 @@
         <v>29</v>
       </c>
       <c r="H199" t="str">
-        <f>CONCATENATE(A199, "_", F199, "_", G199)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I199">
@@ -9527,7 +10007,7 @@
         <v>32</v>
       </c>
       <c r="H200" t="str">
-        <f>CONCATENATE(A200, "_", F200, "_", G200)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I200">
@@ -9560,7 +10040,7 @@
         <v>32</v>
       </c>
       <c r="H201" t="str">
-        <f>CONCATENATE(A201, "_", F201, "_", G201)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I201">
@@ -9593,7 +10073,7 @@
         <v>31</v>
       </c>
       <c r="H202" t="str">
-        <f>CONCATENATE(A202, "_", F202, "_", G202)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I202">
@@ -9626,7 +10106,7 @@
         <v>31</v>
       </c>
       <c r="H203" t="str">
-        <f>CONCATENATE(A203, "_", F203, "_", G203)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I203">
@@ -9662,7 +10142,7 @@
         <v>26</v>
       </c>
       <c r="H204" t="str">
-        <f>CONCATENATE(A204, "_", F204, "_", G204)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I204">
@@ -9698,7 +10178,7 @@
         <v>26</v>
       </c>
       <c r="H205" t="str">
-        <f>CONCATENATE(A205, "_", F205, "_", G205)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I205">
@@ -9734,7 +10214,7 @@
         <v>28</v>
       </c>
       <c r="H206" t="str">
-        <f>CONCATENATE(A206, "_", F206, "_", G206)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I206">
@@ -9770,7 +10250,7 @@
         <v>28</v>
       </c>
       <c r="H207" t="str">
-        <f>CONCATENATE(A207, "_", F207, "_", G207)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I207">
@@ -9806,7 +10286,7 @@
         <v>30</v>
       </c>
       <c r="H208" t="str">
-        <f>CONCATENATE(A208, "_", F208, "_", G208)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I208">
@@ -9842,7 +10322,7 @@
         <v>30</v>
       </c>
       <c r="H209" t="str">
-        <f>CONCATENATE(A209, "_", F209, "_", G209)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I209">
@@ -9878,7 +10358,7 @@
         <v>29</v>
       </c>
       <c r="H210" t="str">
-        <f>CONCATENATE(A210, "_", F210, "_", G210)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I210">
@@ -9914,7 +10394,7 @@
         <v>29</v>
       </c>
       <c r="H211" t="str">
-        <f>CONCATENATE(A211, "_", F211, "_", G211)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I211">
@@ -9950,7 +10430,7 @@
         <v>32</v>
       </c>
       <c r="H212" t="str">
-        <f>CONCATENATE(A212, "_", F212, "_", G212)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I212">
@@ -9986,7 +10466,7 @@
         <v>32</v>
       </c>
       <c r="H213" t="str">
-        <f>CONCATENATE(A213, "_", F213, "_", G213)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I213">
@@ -10022,7 +10502,7 @@
         <v>31</v>
       </c>
       <c r="H214" t="str">
-        <f>CONCATENATE(A214, "_", F214, "_", G214)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I214">
@@ -10058,7 +10538,7 @@
         <v>31</v>
       </c>
       <c r="H215" t="str">
-        <f>CONCATENATE(A215, "_", F215, "_", G215)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I215">
@@ -10091,7 +10571,7 @@
         <v>26</v>
       </c>
       <c r="H216" t="str">
-        <f>CONCATENATE(A216, "_", F216, "_", G216)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I216">
@@ -10124,7 +10604,7 @@
         <v>26</v>
       </c>
       <c r="H217" t="str">
-        <f>CONCATENATE(A217, "_", F217, "_", G217)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I217">
@@ -10157,7 +10637,7 @@
         <v>28</v>
       </c>
       <c r="H218" t="str">
-        <f>CONCATENATE(A218, "_", F218, "_", G218)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I218">
@@ -10190,7 +10670,7 @@
         <v>28</v>
       </c>
       <c r="H219" t="str">
-        <f>CONCATENATE(A219, "_", F219, "_", G219)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I219">
@@ -10223,7 +10703,7 @@
         <v>30</v>
       </c>
       <c r="H220" t="str">
-        <f>CONCATENATE(A220, "_", F220, "_", G220)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I220">
@@ -10256,7 +10736,7 @@
         <v>30</v>
       </c>
       <c r="H221" t="str">
-        <f>CONCATENATE(A221, "_", F221, "_", G221)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I221">
@@ -10289,7 +10769,7 @@
         <v>29</v>
       </c>
       <c r="H222" t="str">
-        <f>CONCATENATE(A222, "_", F222, "_", G222)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I222">
@@ -10322,7 +10802,7 @@
         <v>29</v>
       </c>
       <c r="H223" t="str">
-        <f>CONCATENATE(A223, "_", F223, "_", G223)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I223">
@@ -10355,7 +10835,7 @@
         <v>32</v>
       </c>
       <c r="H224" t="str">
-        <f>CONCATENATE(A224, "_", F224, "_", G224)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I224">
@@ -10388,7 +10868,7 @@
         <v>32</v>
       </c>
       <c r="H225" t="str">
-        <f>CONCATENATE(A225, "_", F225, "_", G225)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I225">
@@ -10421,7 +10901,7 @@
         <v>31</v>
       </c>
       <c r="H226" t="str">
-        <f>CONCATENATE(A226, "_", F226, "_", G226)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I226">
@@ -10454,7 +10934,7 @@
         <v>31</v>
       </c>
       <c r="H227" t="str">
-        <f>CONCATENATE(A227, "_", F227, "_", G227)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I227">
@@ -10490,7 +10970,7 @@
         <v>26</v>
       </c>
       <c r="H228" t="str">
-        <f>CONCATENATE(A228, "_", F228, "_", G228)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I228">
@@ -10526,7 +11006,7 @@
         <v>26</v>
       </c>
       <c r="H229" t="str">
-        <f>CONCATENATE(A229, "_", F229, "_", G229)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I229">
@@ -10562,7 +11042,7 @@
         <v>26</v>
       </c>
       <c r="H230" t="str">
-        <f>CONCATENATE(A230, "_", F230, "_", G230)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I230">
@@ -10598,7 +11078,7 @@
         <v>26</v>
       </c>
       <c r="H231" t="str">
-        <f>CONCATENATE(A231, "_", F231, "_", G231)</f>
+        <f t="shared" si="3"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I231">
@@ -10631,7 +11111,7 @@
         <v>26</v>
       </c>
       <c r="H232" t="str">
-        <f>CONCATENATE(A232, "_", F232, "_", G232)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I232">
@@ -10664,7 +11144,7 @@
         <v>26</v>
       </c>
       <c r="H233" t="str">
-        <f>CONCATENATE(A233, "_", F233, "_", G233)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I233">
@@ -10697,7 +11177,7 @@
         <v>26</v>
       </c>
       <c r="H234" t="str">
-        <f>CONCATENATE(A234, "_", F234, "_", G234)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I234">
@@ -10730,7 +11210,7 @@
         <v>26</v>
       </c>
       <c r="H235" t="str">
-        <f>CONCATENATE(A235, "_", F235, "_", G235)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I235">
@@ -10766,7 +11246,7 @@
         <v>26</v>
       </c>
       <c r="H236" t="str">
-        <f>CONCATENATE(A236, "_", F236, "_", G236)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I236">
@@ -10802,7 +11282,7 @@
         <v>26</v>
       </c>
       <c r="H237" t="str">
-        <f>CONCATENATE(A237, "_", F237, "_", G237)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I237">
@@ -10838,7 +11318,7 @@
         <v>26</v>
       </c>
       <c r="H238" t="str">
-        <f>CONCATENATE(A238, "_", F238, "_", G238)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I238">
@@ -10874,7 +11354,7 @@
         <v>26</v>
       </c>
       <c r="H239" t="str">
-        <f>CONCATENATE(A239, "_", F239, "_", G239)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I239">
@@ -10901,7 +11381,7 @@
         <v>26</v>
       </c>
       <c r="H240" t="str">
-        <f>CONCATENATE(A240, "_", F240, "_", G240)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I240">
@@ -10928,7 +11408,7 @@
         <v>26</v>
       </c>
       <c r="H241" t="str">
-        <f>CONCATENATE(A241, "_", F241, "_", G241)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I241">
@@ -10955,7 +11435,7 @@
         <v>26</v>
       </c>
       <c r="H242" t="str">
-        <f>CONCATENATE(A242, "_", F242, "_", G242)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I242">
@@ -10991,7 +11471,7 @@
         <v>26</v>
       </c>
       <c r="H243" t="str">
-        <f>CONCATENATE(A243, "_", F243, "_", G243)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I243">
@@ -11027,7 +11507,7 @@
         <v>26</v>
       </c>
       <c r="H244" t="str">
-        <f>CONCATENATE(A244, "_", F244, "_", G244)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I244">
@@ -11063,7 +11543,7 @@
         <v>26</v>
       </c>
       <c r="H245" t="str">
-        <f>CONCATENATE(A245, "_", F245, "_", G245)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I245">
@@ -11099,7 +11579,7 @@
         <v>26</v>
       </c>
       <c r="H246" t="str">
-        <f>CONCATENATE(A246, "_", F246, "_", G246)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I246">
@@ -11126,7 +11606,7 @@
         <v>26</v>
       </c>
       <c r="H247" t="str">
-        <f>CONCATENATE(A247, "_", F247, "_", G247)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I247">
@@ -11153,7 +11633,7 @@
         <v>26</v>
       </c>
       <c r="H248" t="str">
-        <f>CONCATENATE(A248, "_", F248, "_", G248)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I248">
@@ -11180,7 +11660,7 @@
         <v>26</v>
       </c>
       <c r="H249" t="str">
-        <f>CONCATENATE(A249, "_", F249, "_", G249)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I249">
@@ -11216,7 +11696,7 @@
         <v>26</v>
       </c>
       <c r="H250" t="str">
-        <f>CONCATENATE(A250, "_", F250, "_", G250)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I250">
@@ -11252,7 +11732,7 @@
         <v>26</v>
       </c>
       <c r="H251" t="str">
-        <f>CONCATENATE(A251, "_", F251, "_", G251)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I251">
@@ -11288,7 +11768,7 @@
         <v>26</v>
       </c>
       <c r="H252" t="str">
-        <f>CONCATENATE(A252, "_", F252, "_", G252)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I252">
@@ -11324,7 +11804,7 @@
         <v>26</v>
       </c>
       <c r="H253" t="str">
-        <f>CONCATENATE(A253, "_", F253, "_", G253)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I253">
@@ -11351,7 +11831,7 @@
         <v>26</v>
       </c>
       <c r="H254" t="str">
-        <f>CONCATENATE(A254, "_", F254, "_", G254)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I254">
@@ -11378,7 +11858,7 @@
         <v>26</v>
       </c>
       <c r="H255" t="str">
-        <f>CONCATENATE(A255, "_", F255, "_", G255)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I255">
@@ -11405,7 +11885,7 @@
         <v>26</v>
       </c>
       <c r="H256" t="str">
-        <f>CONCATENATE(A256, "_", F256, "_", G256)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I256">
@@ -11441,7 +11921,7 @@
         <v>26</v>
       </c>
       <c r="H257" t="str">
-        <f>CONCATENATE(A257, "_", F257, "_", G257)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I257">
@@ -11477,7 +11957,7 @@
         <v>26</v>
       </c>
       <c r="H258" t="str">
-        <f>CONCATENATE(A258, "_", F258, "_", G258)</f>
+        <f t="shared" ref="H258:H321" si="4">CONCATENATE(A258, "_", F258, "_", G258)</f>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I258">
@@ -11513,7 +11993,7 @@
         <v>26</v>
       </c>
       <c r="H259" t="str">
-        <f>CONCATENATE(A259, "_", F259, "_", G259)</f>
+        <f t="shared" si="4"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I259">
@@ -11549,7 +12029,7 @@
         <v>26</v>
       </c>
       <c r="H260" t="str">
-        <f>CONCATENATE(A260, "_", F260, "_", G260)</f>
+        <f t="shared" si="4"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I260">
@@ -11576,7 +12056,7 @@
         <v>26</v>
       </c>
       <c r="H261" t="str">
-        <f>CONCATENATE(A261, "_", F261, "_", G261)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I261">
@@ -11603,7 +12083,7 @@
         <v>26</v>
       </c>
       <c r="H262" t="str">
-        <f>CONCATENATE(A262, "_", F262, "_", G262)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I262">
@@ -11630,7 +12110,7 @@
         <v>26</v>
       </c>
       <c r="H263" t="str">
-        <f>CONCATENATE(A263, "_", F263, "_", G263)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I263">
@@ -11666,7 +12146,7 @@
         <v>26</v>
       </c>
       <c r="H264" t="str">
-        <f>CONCATENATE(A264, "_", F264, "_", G264)</f>
+        <f t="shared" si="4"/>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I264">
@@ -11702,7 +12182,7 @@
         <v>26</v>
       </c>
       <c r="H265" t="str">
-        <f>CONCATENATE(A265, "_", F265, "_", G265)</f>
+        <f t="shared" si="4"/>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I265">
@@ -11738,7 +12218,7 @@
         <v>26</v>
       </c>
       <c r="H266" t="str">
-        <f>CONCATENATE(A266, "_", F266, "_", G266)</f>
+        <f t="shared" si="4"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I266">
@@ -11774,7 +12254,7 @@
         <v>26</v>
       </c>
       <c r="H267" t="str">
-        <f>CONCATENATE(A267, "_", F267, "_", G267)</f>
+        <f t="shared" si="4"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I267">
@@ -11801,7 +12281,7 @@
         <v>26</v>
       </c>
       <c r="H268" t="str">
-        <f>CONCATENATE(A268, "_", F268, "_", G268)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I268">
@@ -11828,7 +12308,7 @@
         <v>26</v>
       </c>
       <c r="H269" t="str">
-        <f>CONCATENATE(A269, "_", F269, "_", G269)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I269">
@@ -11855,7 +12335,7 @@
         <v>26</v>
       </c>
       <c r="H270" t="str">
-        <f>CONCATENATE(A270, "_", F270, "_", G270)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I270">
@@ -11882,7 +12362,7 @@
         <v>541</v>
       </c>
       <c r="H271" t="str">
-        <f>CONCATENATE(A271, "_", F271, "_", G271)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR1_2D</v>
       </c>
       <c r="I271">
@@ -11909,7 +12389,7 @@
         <v>541</v>
       </c>
       <c r="H272" t="str">
-        <f>CONCATENATE(A272, "_", F272, "_", G272)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR2_2D</v>
       </c>
       <c r="I272">
@@ -11936,7 +12416,7 @@
         <v>542</v>
       </c>
       <c r="H273" t="str">
-        <f>CONCATENATE(A273, "_", F273, "_", G273)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR1_3D</v>
       </c>
       <c r="I273">
@@ -11963,7 +12443,7 @@
         <v>542</v>
       </c>
       <c r="H274" t="str">
-        <f>CONCATENATE(A274, "_", F274, "_", G274)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR2_3D</v>
       </c>
       <c r="I274">
@@ -11990,7 +12470,7 @@
         <v>541</v>
       </c>
       <c r="H275" t="str">
-        <f>CONCATENATE(A275, "_", F275, "_", G275)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR1_2D</v>
       </c>
       <c r="I275">
@@ -12017,7 +12497,7 @@
         <v>541</v>
       </c>
       <c r="H276" t="str">
-        <f>CONCATENATE(A276, "_", F276, "_", G276)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR2_2D</v>
       </c>
       <c r="I276">
@@ -12044,7 +12524,7 @@
         <v>542</v>
       </c>
       <c r="H277" t="str">
-        <f>CONCATENATE(A277, "_", F277, "_", G277)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR1_3D</v>
       </c>
       <c r="I277">
@@ -12071,7 +12551,7 @@
         <v>542</v>
       </c>
       <c r="H278" t="str">
-        <f>CONCATENATE(A278, "_", F278, "_", G278)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR2_3D</v>
       </c>
       <c r="I278">
@@ -12098,7 +12578,7 @@
         <v>541</v>
       </c>
       <c r="H279" t="str">
-        <f>CONCATENATE(A279, "_", F279, "_", G279)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR1_2D</v>
       </c>
       <c r="I279">
@@ -12125,7 +12605,7 @@
         <v>541</v>
       </c>
       <c r="H280" t="str">
-        <f>CONCATENATE(A280, "_", F280, "_", G280)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR2_2D</v>
       </c>
       <c r="I280">
@@ -12152,7 +12632,7 @@
         <v>542</v>
       </c>
       <c r="H281" t="str">
-        <f>CONCATENATE(A281, "_", F281, "_", G281)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR1_3D</v>
       </c>
       <c r="I281">
@@ -12179,7 +12659,7 @@
         <v>542</v>
       </c>
       <c r="H282" t="str">
-        <f>CONCATENATE(A282, "_", F282, "_", G282)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR2_3D</v>
       </c>
       <c r="I282">
@@ -12206,7 +12686,7 @@
         <v>541</v>
       </c>
       <c r="H283" t="str">
-        <f>CONCATENATE(A283, "_", F283, "_", G283)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR1_2D</v>
       </c>
       <c r="I283">
@@ -12233,7 +12713,7 @@
         <v>541</v>
       </c>
       <c r="H284" t="str">
-        <f>CONCATENATE(A284, "_", F284, "_", G284)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR2_2D</v>
       </c>
       <c r="I284">
@@ -12260,7 +12740,7 @@
         <v>541</v>
       </c>
       <c r="H285" t="str">
-        <f>CONCATENATE(A285, "_", F285, "_", G285)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR3_2D</v>
       </c>
       <c r="I285">
@@ -12287,7 +12767,7 @@
         <v>542</v>
       </c>
       <c r="H286" t="str">
-        <f>CONCATENATE(A286, "_", F286, "_", G286)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR1_3D</v>
       </c>
       <c r="I286">
@@ -12314,7 +12794,7 @@
         <v>542</v>
       </c>
       <c r="H287" t="str">
-        <f>CONCATENATE(A287, "_", F287, "_", G287)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR2_3D</v>
       </c>
       <c r="I287">
@@ -12341,7 +12821,7 @@
         <v>542</v>
       </c>
       <c r="H288" t="str">
-        <f>CONCATENATE(A288, "_", F288, "_", G288)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR3_3D</v>
       </c>
       <c r="I288">
@@ -12368,7 +12848,7 @@
         <v>26</v>
       </c>
       <c r="H289" t="str">
-        <f>CONCATENATE(A289, "_", F289, "_", G289)</f>
+        <f t="shared" si="4"/>
         <v>HU78-B_BR1_Baseline</v>
       </c>
       <c r="I289">
@@ -12395,7 +12875,7 @@
         <v>26</v>
       </c>
       <c r="H290" t="str">
-        <f>CONCATENATE(A290, "_", F290, "_", G290)</f>
+        <f t="shared" si="4"/>
         <v>HU78-B_BR2_Baseline</v>
       </c>
       <c r="I290">
@@ -12422,7 +12902,7 @@
         <v>26</v>
       </c>
       <c r="H291" t="str">
-        <f>CONCATENATE(A291, "_", F291, "_", G291)</f>
+        <f t="shared" si="4"/>
         <v>HUT78_BR1_Baseline</v>
       </c>
       <c r="I291">
@@ -12449,7 +12929,7 @@
         <v>26</v>
       </c>
       <c r="H292" t="str">
-        <f>CONCATENATE(A292, "_", F292, "_", G292)</f>
+        <f t="shared" si="4"/>
         <v>HUT78_BR2_Baseline</v>
       </c>
       <c r="I292">
@@ -12476,7 +12956,7 @@
         <v>26</v>
       </c>
       <c r="H293" t="str">
-        <f>CONCATENATE(A293, "_", F293, "_", G293)</f>
+        <f t="shared" si="4"/>
         <v>Jurkat_BR1_Baseline</v>
       </c>
       <c r="I293">
@@ -12503,7 +12983,7 @@
         <v>26</v>
       </c>
       <c r="H294" t="str">
-        <f>CONCATENATE(A294, "_", F294, "_", G294)</f>
+        <f t="shared" si="4"/>
         <v>Jurkat_BR2_Baseline</v>
       </c>
       <c r="I294">
@@ -12530,7 +13010,7 @@
         <v>26</v>
       </c>
       <c r="H295" t="str">
-        <f>CONCATENATE(A295, "_", F295, "_", G295)</f>
+        <f t="shared" si="4"/>
         <v>Jurkat-B_BR1_Baseline</v>
       </c>
       <c r="I295">
@@ -12557,7 +13037,7 @@
         <v>26</v>
       </c>
       <c r="H296" t="str">
-        <f>CONCATENATE(A296, "_", F296, "_", G296)</f>
+        <f t="shared" si="4"/>
         <v>Jurkat-B_BR2_Baseline</v>
       </c>
       <c r="I296">
@@ -12584,7 +13064,7 @@
         <v>26</v>
       </c>
       <c r="H297" t="str">
-        <f>CONCATENATE(A297, "_", F297, "_", G297)</f>
+        <f t="shared" si="4"/>
         <v>ARH77_BR1_Baseline</v>
       </c>
       <c r="I297">
@@ -12611,7 +13091,7 @@
         <v>26</v>
       </c>
       <c r="H298" t="str">
-        <f>CONCATENATE(A298, "_", F298, "_", G298)</f>
+        <f t="shared" si="4"/>
         <v>ARH77_BR2_Baseline</v>
       </c>
       <c r="I298">
@@ -12638,7 +13118,7 @@
         <v>26</v>
       </c>
       <c r="H299" t="str">
-        <f>CONCATENATE(A299, "_", F299, "_", G299)</f>
+        <f t="shared" si="4"/>
         <v>Daudi_BR1_Baseline</v>
       </c>
       <c r="I299">
@@ -12665,7 +13145,7 @@
         <v>26</v>
       </c>
       <c r="H300" t="str">
-        <f>CONCATENATE(A300, "_", F300, "_", G300)</f>
+        <f t="shared" si="4"/>
         <v>Daudi_BR2_Baseline</v>
       </c>
       <c r="I300">
@@ -12692,7 +13172,7 @@
         <v>26</v>
       </c>
       <c r="H301" t="str">
-        <f>CONCATENATE(A301, "_", F301, "_", G301)</f>
+        <f t="shared" si="4"/>
         <v>Namalwa_BR1_Baseline</v>
       </c>
       <c r="I301">
@@ -12719,7 +13199,7 @@
         <v>26</v>
       </c>
       <c r="H302" t="str">
-        <f>CONCATENATE(A302, "_", F302, "_", G302)</f>
+        <f t="shared" si="4"/>
         <v>Namalwa_BR2_Baseline</v>
       </c>
       <c r="I302">
@@ -12746,7 +13226,7 @@
         <v>26</v>
       </c>
       <c r="H303" t="str">
-        <f>CONCATENATE(A303, "_", F303, "_", G303)</f>
+        <f t="shared" si="4"/>
         <v>Raji_BR1_Baseline</v>
       </c>
       <c r="I303">
@@ -12773,7 +13253,7 @@
         <v>26</v>
       </c>
       <c r="H304" t="str">
-        <f>CONCATENATE(A304, "_", F304, "_", G304)</f>
+        <f t="shared" si="4"/>
         <v>Raji_BR2_Baseline</v>
       </c>
       <c r="I304">
@@ -12800,7 +13280,7 @@
         <v>26</v>
       </c>
       <c r="H305" t="str">
-        <f>CONCATENATE(A305, "_", F305, "_", G305)</f>
+        <f t="shared" si="4"/>
         <v>Ramos_BR1_Baseline</v>
       </c>
       <c r="I305">
@@ -12827,7 +13307,7 @@
         <v>26</v>
       </c>
       <c r="H306" t="str">
-        <f>CONCATENATE(A306, "_", F306, "_", G306)</f>
+        <f t="shared" si="4"/>
         <v>Ramos_BR2_Baseline</v>
       </c>
       <c r="I306">
@@ -12854,7 +13334,7 @@
         <v>26</v>
       </c>
       <c r="H307" t="str">
-        <f>CONCATENATE(A307, "_", F307, "_", G307)</f>
+        <f t="shared" si="4"/>
         <v>Toledo_BR1_Baseline</v>
       </c>
       <c r="I307">
@@ -12881,7 +13361,7 @@
         <v>26</v>
       </c>
       <c r="H308" t="str">
-        <f>CONCATENATE(A308, "_", F308, "_", G308)</f>
+        <f t="shared" si="4"/>
         <v>Toledo_BR2_Baseline</v>
       </c>
       <c r="I308">
@@ -12894,8 +13374,2168 @@
         <v>661</v>
       </c>
     </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>589</v>
+      </c>
+      <c r="E309" t="s">
+        <v>11</v>
+      </c>
+      <c r="F309" t="s">
+        <v>13</v>
+      </c>
+      <c r="G309" t="s">
+        <v>26</v>
+      </c>
+      <c r="H309" t="str">
+        <f t="shared" si="4"/>
+        <v>HU78-B_BR1_Baseline</v>
+      </c>
+      <c r="I309">
+        <v>5</v>
+      </c>
+      <c r="J309" t="s">
+        <v>704</v>
+      </c>
+      <c r="K309" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>589</v>
+      </c>
+      <c r="E310" t="s">
+        <v>11</v>
+      </c>
+      <c r="F310" t="s">
+        <v>14</v>
+      </c>
+      <c r="G310" t="s">
+        <v>26</v>
+      </c>
+      <c r="H310" t="str">
+        <f t="shared" si="4"/>
+        <v>HU78-B_BR2_Baseline</v>
+      </c>
+      <c r="I310">
+        <v>5</v>
+      </c>
+      <c r="J310" t="s">
+        <v>705</v>
+      </c>
+      <c r="K310" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>589</v>
+      </c>
+      <c r="E311" t="s">
+        <v>8</v>
+      </c>
+      <c r="F311" t="s">
+        <v>13</v>
+      </c>
+      <c r="G311" t="s">
+        <v>26</v>
+      </c>
+      <c r="H311" t="str">
+        <f t="shared" si="4"/>
+        <v>HU78-B_BR1_Baseline</v>
+      </c>
+      <c r="I311">
+        <v>5</v>
+      </c>
+      <c r="J311" t="s">
+        <v>706</v>
+      </c>
+      <c r="K311" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>589</v>
+      </c>
+      <c r="E312" t="s">
+        <v>8</v>
+      </c>
+      <c r="F312" t="s">
+        <v>14</v>
+      </c>
+      <c r="G312" t="s">
+        <v>26</v>
+      </c>
+      <c r="H312" t="str">
+        <f t="shared" si="4"/>
+        <v>HU78-B_BR2_Baseline</v>
+      </c>
+      <c r="I312">
+        <v>5</v>
+      </c>
+      <c r="J312" t="s">
+        <v>707</v>
+      </c>
+      <c r="K312" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>589</v>
+      </c>
+      <c r="E313" t="s">
+        <v>9</v>
+      </c>
+      <c r="F313" t="s">
+        <v>13</v>
+      </c>
+      <c r="G313" t="s">
+        <v>26</v>
+      </c>
+      <c r="H313" t="str">
+        <f t="shared" si="4"/>
+        <v>HU78-B_BR1_Baseline</v>
+      </c>
+      <c r="I313">
+        <v>5</v>
+      </c>
+      <c r="J313" t="s">
+        <v>708</v>
+      </c>
+      <c r="K313" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>589</v>
+      </c>
+      <c r="E314" t="s">
+        <v>9</v>
+      </c>
+      <c r="F314" t="s">
+        <v>14</v>
+      </c>
+      <c r="G314" t="s">
+        <v>26</v>
+      </c>
+      <c r="H314" t="str">
+        <f t="shared" si="4"/>
+        <v>HU78-B_BR2_Baseline</v>
+      </c>
+      <c r="I314">
+        <v>5</v>
+      </c>
+      <c r="J314" t="s">
+        <v>709</v>
+      </c>
+      <c r="K314" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>589</v>
+      </c>
+      <c r="E315" t="s">
+        <v>10</v>
+      </c>
+      <c r="F315" t="s">
+        <v>13</v>
+      </c>
+      <c r="G315" t="s">
+        <v>26</v>
+      </c>
+      <c r="H315" t="str">
+        <f t="shared" si="4"/>
+        <v>HU78-B_BR1_Baseline</v>
+      </c>
+      <c r="I315">
+        <v>5</v>
+      </c>
+      <c r="J315" t="s">
+        <v>710</v>
+      </c>
+      <c r="K315" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>589</v>
+      </c>
+      <c r="E316" t="s">
+        <v>10</v>
+      </c>
+      <c r="F316" t="s">
+        <v>14</v>
+      </c>
+      <c r="G316" t="s">
+        <v>26</v>
+      </c>
+      <c r="H316" t="str">
+        <f t="shared" si="4"/>
+        <v>HU78-B_BR2_Baseline</v>
+      </c>
+      <c r="I316">
+        <v>5</v>
+      </c>
+      <c r="J316" t="s">
+        <v>711</v>
+      </c>
+      <c r="K316" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>588</v>
+      </c>
+      <c r="E317" t="s">
+        <v>11</v>
+      </c>
+      <c r="F317" t="s">
+        <v>13</v>
+      </c>
+      <c r="G317" t="s">
+        <v>26</v>
+      </c>
+      <c r="H317" t="str">
+        <f t="shared" si="4"/>
+        <v>HUT78_BR1_Baseline</v>
+      </c>
+      <c r="I317">
+        <v>5</v>
+      </c>
+      <c r="J317" t="s">
+        <v>712</v>
+      </c>
+      <c r="K317" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>588</v>
+      </c>
+      <c r="E318" t="s">
+        <v>11</v>
+      </c>
+      <c r="F318" t="s">
+        <v>14</v>
+      </c>
+      <c r="G318" t="s">
+        <v>26</v>
+      </c>
+      <c r="H318" t="str">
+        <f t="shared" si="4"/>
+        <v>HUT78_BR2_Baseline</v>
+      </c>
+      <c r="I318">
+        <v>5</v>
+      </c>
+      <c r="J318" t="s">
+        <v>713</v>
+      </c>
+      <c r="K318" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>588</v>
+      </c>
+      <c r="E319" t="s">
+        <v>8</v>
+      </c>
+      <c r="F319" t="s">
+        <v>13</v>
+      </c>
+      <c r="G319" t="s">
+        <v>26</v>
+      </c>
+      <c r="H319" t="str">
+        <f t="shared" si="4"/>
+        <v>HUT78_BR1_Baseline</v>
+      </c>
+      <c r="I319">
+        <v>5</v>
+      </c>
+      <c r="J319" t="s">
+        <v>714</v>
+      </c>
+      <c r="K319" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>588</v>
+      </c>
+      <c r="E320" t="s">
+        <v>8</v>
+      </c>
+      <c r="F320" t="s">
+        <v>14</v>
+      </c>
+      <c r="G320" t="s">
+        <v>26</v>
+      </c>
+      <c r="H320" t="str">
+        <f t="shared" si="4"/>
+        <v>HUT78_BR2_Baseline</v>
+      </c>
+      <c r="I320">
+        <v>5</v>
+      </c>
+      <c r="J320" t="s">
+        <v>715</v>
+      </c>
+      <c r="K320" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>588</v>
+      </c>
+      <c r="E321" t="s">
+        <v>9</v>
+      </c>
+      <c r="F321" t="s">
+        <v>13</v>
+      </c>
+      <c r="G321" t="s">
+        <v>26</v>
+      </c>
+      <c r="H321" t="str">
+        <f t="shared" si="4"/>
+        <v>HUT78_BR1_Baseline</v>
+      </c>
+      <c r="I321">
+        <v>5</v>
+      </c>
+      <c r="J321" t="s">
+        <v>716</v>
+      </c>
+      <c r="K321" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>588</v>
+      </c>
+      <c r="E322" t="s">
+        <v>9</v>
+      </c>
+      <c r="F322" t="s">
+        <v>14</v>
+      </c>
+      <c r="G322" t="s">
+        <v>26</v>
+      </c>
+      <c r="H322" t="str">
+        <f t="shared" ref="H322:H385" si="5">CONCATENATE(A322, "_", F322, "_", G322)</f>
+        <v>HUT78_BR2_Baseline</v>
+      </c>
+      <c r="I322">
+        <v>5</v>
+      </c>
+      <c r="J322" t="s">
+        <v>717</v>
+      </c>
+      <c r="K322" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>588</v>
+      </c>
+      <c r="E323" t="s">
+        <v>10</v>
+      </c>
+      <c r="F323" t="s">
+        <v>13</v>
+      </c>
+      <c r="G323" t="s">
+        <v>26</v>
+      </c>
+      <c r="H323" t="str">
+        <f t="shared" si="5"/>
+        <v>HUT78_BR1_Baseline</v>
+      </c>
+      <c r="I323">
+        <v>5</v>
+      </c>
+      <c r="J323" t="s">
+        <v>718</v>
+      </c>
+      <c r="K323" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>588</v>
+      </c>
+      <c r="E324" t="s">
+        <v>10</v>
+      </c>
+      <c r="F324" t="s">
+        <v>14</v>
+      </c>
+      <c r="G324" t="s">
+        <v>26</v>
+      </c>
+      <c r="H324" t="str">
+        <f t="shared" si="5"/>
+        <v>HUT78_BR2_Baseline</v>
+      </c>
+      <c r="I324">
+        <v>5</v>
+      </c>
+      <c r="J324" t="s">
+        <v>719</v>
+      </c>
+      <c r="K324" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>590</v>
+      </c>
+      <c r="E325" t="s">
+        <v>11</v>
+      </c>
+      <c r="F325" t="s">
+        <v>13</v>
+      </c>
+      <c r="G325" t="s">
+        <v>26</v>
+      </c>
+      <c r="H325" t="str">
+        <f t="shared" si="5"/>
+        <v>Jurkat_BR1_Baseline</v>
+      </c>
+      <c r="I325">
+        <v>5</v>
+      </c>
+      <c r="J325" t="s">
+        <v>720</v>
+      </c>
+      <c r="K325" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>590</v>
+      </c>
+      <c r="E326" t="s">
+        <v>11</v>
+      </c>
+      <c r="F326" t="s">
+        <v>14</v>
+      </c>
+      <c r="G326" t="s">
+        <v>26</v>
+      </c>
+      <c r="H326" t="str">
+        <f t="shared" si="5"/>
+        <v>Jurkat_BR2_Baseline</v>
+      </c>
+      <c r="I326">
+        <v>5</v>
+      </c>
+      <c r="J326" t="s">
+        <v>721</v>
+      </c>
+      <c r="K326" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>590</v>
+      </c>
+      <c r="E327" t="s">
+        <v>8</v>
+      </c>
+      <c r="F327" t="s">
+        <v>13</v>
+      </c>
+      <c r="G327" t="s">
+        <v>26</v>
+      </c>
+      <c r="H327" t="str">
+        <f t="shared" si="5"/>
+        <v>Jurkat_BR1_Baseline</v>
+      </c>
+      <c r="I327">
+        <v>5</v>
+      </c>
+      <c r="J327" t="s">
+        <v>722</v>
+      </c>
+      <c r="K327" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>590</v>
+      </c>
+      <c r="E328" t="s">
+        <v>8</v>
+      </c>
+      <c r="F328" t="s">
+        <v>14</v>
+      </c>
+      <c r="G328" t="s">
+        <v>26</v>
+      </c>
+      <c r="H328" t="str">
+        <f t="shared" si="5"/>
+        <v>Jurkat_BR2_Baseline</v>
+      </c>
+      <c r="I328">
+        <v>5</v>
+      </c>
+      <c r="J328" t="s">
+        <v>723</v>
+      </c>
+      <c r="K328" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>590</v>
+      </c>
+      <c r="E329" t="s">
+        <v>9</v>
+      </c>
+      <c r="F329" t="s">
+        <v>13</v>
+      </c>
+      <c r="G329" t="s">
+        <v>26</v>
+      </c>
+      <c r="H329" t="str">
+        <f t="shared" si="5"/>
+        <v>Jurkat_BR1_Baseline</v>
+      </c>
+      <c r="I329">
+        <v>5</v>
+      </c>
+      <c r="J329" t="s">
+        <v>724</v>
+      </c>
+      <c r="K329" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>590</v>
+      </c>
+      <c r="E330" t="s">
+        <v>9</v>
+      </c>
+      <c r="F330" t="s">
+        <v>14</v>
+      </c>
+      <c r="G330" t="s">
+        <v>26</v>
+      </c>
+      <c r="H330" t="str">
+        <f t="shared" si="5"/>
+        <v>Jurkat_BR2_Baseline</v>
+      </c>
+      <c r="I330">
+        <v>5</v>
+      </c>
+      <c r="J330" t="s">
+        <v>725</v>
+      </c>
+      <c r="K330" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>590</v>
+      </c>
+      <c r="E331" t="s">
+        <v>10</v>
+      </c>
+      <c r="F331" t="s">
+        <v>13</v>
+      </c>
+      <c r="G331" t="s">
+        <v>26</v>
+      </c>
+      <c r="H331" t="str">
+        <f t="shared" si="5"/>
+        <v>Jurkat_BR1_Baseline</v>
+      </c>
+      <c r="I331">
+        <v>5</v>
+      </c>
+      <c r="J331" t="s">
+        <v>726</v>
+      </c>
+      <c r="K331" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>590</v>
+      </c>
+      <c r="E332" t="s">
+        <v>10</v>
+      </c>
+      <c r="F332" t="s">
+        <v>14</v>
+      </c>
+      <c r="G332" t="s">
+        <v>26</v>
+      </c>
+      <c r="H332" t="str">
+        <f t="shared" si="5"/>
+        <v>Jurkat_BR2_Baseline</v>
+      </c>
+      <c r="I332">
+        <v>5</v>
+      </c>
+      <c r="J332" t="s">
+        <v>727</v>
+      </c>
+      <c r="K332" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>591</v>
+      </c>
+      <c r="E333" t="s">
+        <v>11</v>
+      </c>
+      <c r="F333" t="s">
+        <v>13</v>
+      </c>
+      <c r="G333" t="s">
+        <v>26</v>
+      </c>
+      <c r="H333" t="str">
+        <f t="shared" si="5"/>
+        <v>Jurkat-B_BR1_Baseline</v>
+      </c>
+      <c r="I333">
+        <v>5</v>
+      </c>
+      <c r="J333" t="s">
+        <v>728</v>
+      </c>
+      <c r="K333" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>591</v>
+      </c>
+      <c r="E334" t="s">
+        <v>11</v>
+      </c>
+      <c r="F334" t="s">
+        <v>14</v>
+      </c>
+      <c r="G334" t="s">
+        <v>26</v>
+      </c>
+      <c r="H334" t="str">
+        <f t="shared" si="5"/>
+        <v>Jurkat-B_BR2_Baseline</v>
+      </c>
+      <c r="I334">
+        <v>5</v>
+      </c>
+      <c r="J334" t="s">
+        <v>729</v>
+      </c>
+      <c r="K334" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>591</v>
+      </c>
+      <c r="E335" t="s">
+        <v>8</v>
+      </c>
+      <c r="F335" t="s">
+        <v>13</v>
+      </c>
+      <c r="G335" t="s">
+        <v>26</v>
+      </c>
+      <c r="H335" t="str">
+        <f t="shared" si="5"/>
+        <v>Jurkat-B_BR1_Baseline</v>
+      </c>
+      <c r="I335">
+        <v>5</v>
+      </c>
+      <c r="J335" t="s">
+        <v>730</v>
+      </c>
+      <c r="K335" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>591</v>
+      </c>
+      <c r="E336" t="s">
+        <v>8</v>
+      </c>
+      <c r="F336" t="s">
+        <v>14</v>
+      </c>
+      <c r="G336" t="s">
+        <v>26</v>
+      </c>
+      <c r="H336" t="str">
+        <f t="shared" si="5"/>
+        <v>Jurkat-B_BR2_Baseline</v>
+      </c>
+      <c r="I336">
+        <v>5</v>
+      </c>
+      <c r="J336" t="s">
+        <v>731</v>
+      </c>
+      <c r="K336" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>591</v>
+      </c>
+      <c r="E337" t="s">
+        <v>9</v>
+      </c>
+      <c r="F337" t="s">
+        <v>13</v>
+      </c>
+      <c r="G337" t="s">
+        <v>26</v>
+      </c>
+      <c r="H337" t="str">
+        <f t="shared" si="5"/>
+        <v>Jurkat-B_BR1_Baseline</v>
+      </c>
+      <c r="I337">
+        <v>5</v>
+      </c>
+      <c r="J337" t="s">
+        <v>732</v>
+      </c>
+      <c r="K337" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>591</v>
+      </c>
+      <c r="E338" t="s">
+        <v>9</v>
+      </c>
+      <c r="F338" t="s">
+        <v>14</v>
+      </c>
+      <c r="G338" t="s">
+        <v>26</v>
+      </c>
+      <c r="H338" t="str">
+        <f t="shared" si="5"/>
+        <v>Jurkat-B_BR2_Baseline</v>
+      </c>
+      <c r="I338">
+        <v>5</v>
+      </c>
+      <c r="J338" t="s">
+        <v>733</v>
+      </c>
+      <c r="K338" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>591</v>
+      </c>
+      <c r="E339" t="s">
+        <v>10</v>
+      </c>
+      <c r="F339" t="s">
+        <v>13</v>
+      </c>
+      <c r="G339" t="s">
+        <v>26</v>
+      </c>
+      <c r="H339" t="str">
+        <f t="shared" si="5"/>
+        <v>Jurkat-B_BR1_Baseline</v>
+      </c>
+      <c r="I339">
+        <v>5</v>
+      </c>
+      <c r="J339" t="s">
+        <v>734</v>
+      </c>
+      <c r="K339" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>591</v>
+      </c>
+      <c r="E340" t="s">
+        <v>10</v>
+      </c>
+      <c r="F340" t="s">
+        <v>14</v>
+      </c>
+      <c r="G340" t="s">
+        <v>26</v>
+      </c>
+      <c r="H340" t="str">
+        <f t="shared" si="5"/>
+        <v>Jurkat-B_BR2_Baseline</v>
+      </c>
+      <c r="I340">
+        <v>5</v>
+      </c>
+      <c r="J340" t="s">
+        <v>735</v>
+      </c>
+      <c r="K340" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>674</v>
+      </c>
+      <c r="E341" t="s">
+        <v>11</v>
+      </c>
+      <c r="F341" t="s">
+        <v>13</v>
+      </c>
+      <c r="G341" t="s">
+        <v>26</v>
+      </c>
+      <c r="H341" t="str">
+        <f t="shared" si="5"/>
+        <v>ARH77_BR1_Baseline</v>
+      </c>
+      <c r="I341">
+        <v>6</v>
+      </c>
+      <c r="J341" t="s">
+        <v>768</v>
+      </c>
+      <c r="K341" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>674</v>
+      </c>
+      <c r="E342" t="s">
+        <v>11</v>
+      </c>
+      <c r="F342" t="s">
+        <v>14</v>
+      </c>
+      <c r="G342" t="s">
+        <v>26</v>
+      </c>
+      <c r="H342" t="str">
+        <f t="shared" si="5"/>
+        <v>ARH77_BR2_Baseline</v>
+      </c>
+      <c r="I342">
+        <v>6</v>
+      </c>
+      <c r="J342" t="s">
+        <v>769</v>
+      </c>
+      <c r="K342" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>674</v>
+      </c>
+      <c r="E343" t="s">
+        <v>8</v>
+      </c>
+      <c r="F343" t="s">
+        <v>13</v>
+      </c>
+      <c r="G343" t="s">
+        <v>26</v>
+      </c>
+      <c r="H343" t="str">
+        <f t="shared" si="5"/>
+        <v>ARH77_BR1_Baseline</v>
+      </c>
+      <c r="I343">
+        <v>6</v>
+      </c>
+      <c r="J343" t="s">
+        <v>770</v>
+      </c>
+      <c r="K343" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>674</v>
+      </c>
+      <c r="E344" t="s">
+        <v>8</v>
+      </c>
+      <c r="F344" t="s">
+        <v>14</v>
+      </c>
+      <c r="G344" t="s">
+        <v>26</v>
+      </c>
+      <c r="H344" t="str">
+        <f t="shared" si="5"/>
+        <v>ARH77_BR2_Baseline</v>
+      </c>
+      <c r="I344">
+        <v>6</v>
+      </c>
+      <c r="J344" t="s">
+        <v>771</v>
+      </c>
+      <c r="K344" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>674</v>
+      </c>
+      <c r="E345" t="s">
+        <v>9</v>
+      </c>
+      <c r="F345" t="s">
+        <v>13</v>
+      </c>
+      <c r="G345" t="s">
+        <v>26</v>
+      </c>
+      <c r="H345" t="str">
+        <f t="shared" si="5"/>
+        <v>ARH77_BR1_Baseline</v>
+      </c>
+      <c r="I345">
+        <v>6</v>
+      </c>
+      <c r="J345" t="s">
+        <v>772</v>
+      </c>
+      <c r="K345" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>674</v>
+      </c>
+      <c r="E346" t="s">
+        <v>9</v>
+      </c>
+      <c r="F346" t="s">
+        <v>14</v>
+      </c>
+      <c r="G346" t="s">
+        <v>26</v>
+      </c>
+      <c r="H346" t="str">
+        <f t="shared" si="5"/>
+        <v>ARH77_BR2_Baseline</v>
+      </c>
+      <c r="I346">
+        <v>6</v>
+      </c>
+      <c r="J346" t="s">
+        <v>773</v>
+      </c>
+      <c r="K346" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>674</v>
+      </c>
+      <c r="E347" t="s">
+        <v>10</v>
+      </c>
+      <c r="F347" t="s">
+        <v>13</v>
+      </c>
+      <c r="G347" t="s">
+        <v>26</v>
+      </c>
+      <c r="H347" t="str">
+        <f t="shared" si="5"/>
+        <v>ARH77_BR1_Baseline</v>
+      </c>
+      <c r="I347">
+        <v>6</v>
+      </c>
+      <c r="J347" t="s">
+        <v>774</v>
+      </c>
+      <c r="K347" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>674</v>
+      </c>
+      <c r="E348" t="s">
+        <v>10</v>
+      </c>
+      <c r="F348" t="s">
+        <v>14</v>
+      </c>
+      <c r="G348" t="s">
+        <v>26</v>
+      </c>
+      <c r="H348" t="str">
+        <f t="shared" si="5"/>
+        <v>ARH77_BR2_Baseline</v>
+      </c>
+      <c r="I348">
+        <v>6</v>
+      </c>
+      <c r="J348" t="s">
+        <v>775</v>
+      </c>
+      <c r="K348" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>675</v>
+      </c>
+      <c r="E349" t="s">
+        <v>11</v>
+      </c>
+      <c r="F349" t="s">
+        <v>13</v>
+      </c>
+      <c r="G349" t="s">
+        <v>26</v>
+      </c>
+      <c r="H349" t="str">
+        <f t="shared" si="5"/>
+        <v>Daudi_BR1_Baseline</v>
+      </c>
+      <c r="I349">
+        <v>6</v>
+      </c>
+      <c r="J349" t="s">
+        <v>776</v>
+      </c>
+      <c r="K349" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>675</v>
+      </c>
+      <c r="E350" t="s">
+        <v>11</v>
+      </c>
+      <c r="F350" t="s">
+        <v>14</v>
+      </c>
+      <c r="G350" t="s">
+        <v>26</v>
+      </c>
+      <c r="H350" t="str">
+        <f t="shared" si="5"/>
+        <v>Daudi_BR2_Baseline</v>
+      </c>
+      <c r="I350">
+        <v>6</v>
+      </c>
+      <c r="J350" t="s">
+        <v>777</v>
+      </c>
+      <c r="K350" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>675</v>
+      </c>
+      <c r="E351" t="s">
+        <v>8</v>
+      </c>
+      <c r="F351" t="s">
+        <v>13</v>
+      </c>
+      <c r="G351" t="s">
+        <v>26</v>
+      </c>
+      <c r="H351" t="str">
+        <f t="shared" si="5"/>
+        <v>Daudi_BR1_Baseline</v>
+      </c>
+      <c r="I351">
+        <v>6</v>
+      </c>
+      <c r="J351" t="s">
+        <v>778</v>
+      </c>
+      <c r="K351" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>675</v>
+      </c>
+      <c r="E352" t="s">
+        <v>8</v>
+      </c>
+      <c r="F352" t="s">
+        <v>14</v>
+      </c>
+      <c r="G352" t="s">
+        <v>26</v>
+      </c>
+      <c r="H352" t="str">
+        <f t="shared" si="5"/>
+        <v>Daudi_BR2_Baseline</v>
+      </c>
+      <c r="I352">
+        <v>6</v>
+      </c>
+      <c r="J352" t="s">
+        <v>779</v>
+      </c>
+      <c r="K352" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>675</v>
+      </c>
+      <c r="E353" t="s">
+        <v>9</v>
+      </c>
+      <c r="F353" t="s">
+        <v>13</v>
+      </c>
+      <c r="G353" t="s">
+        <v>26</v>
+      </c>
+      <c r="H353" t="str">
+        <f t="shared" si="5"/>
+        <v>Daudi_BR1_Baseline</v>
+      </c>
+      <c r="I353">
+        <v>6</v>
+      </c>
+      <c r="J353" t="s">
+        <v>780</v>
+      </c>
+      <c r="K353" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>675</v>
+      </c>
+      <c r="E354" t="s">
+        <v>9</v>
+      </c>
+      <c r="F354" t="s">
+        <v>14</v>
+      </c>
+      <c r="G354" t="s">
+        <v>26</v>
+      </c>
+      <c r="H354" t="str">
+        <f t="shared" si="5"/>
+        <v>Daudi_BR2_Baseline</v>
+      </c>
+      <c r="I354">
+        <v>6</v>
+      </c>
+      <c r="J354" t="s">
+        <v>781</v>
+      </c>
+      <c r="K354" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>675</v>
+      </c>
+      <c r="E355" t="s">
+        <v>10</v>
+      </c>
+      <c r="F355" t="s">
+        <v>13</v>
+      </c>
+      <c r="G355" t="s">
+        <v>26</v>
+      </c>
+      <c r="H355" t="str">
+        <f t="shared" si="5"/>
+        <v>Daudi_BR1_Baseline</v>
+      </c>
+      <c r="I355">
+        <v>6</v>
+      </c>
+      <c r="J355" t="s">
+        <v>782</v>
+      </c>
+      <c r="K355" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>675</v>
+      </c>
+      <c r="E356" t="s">
+        <v>10</v>
+      </c>
+      <c r="F356" t="s">
+        <v>14</v>
+      </c>
+      <c r="G356" t="s">
+        <v>26</v>
+      </c>
+      <c r="H356" t="str">
+        <f t="shared" si="5"/>
+        <v>Daudi_BR2_Baseline</v>
+      </c>
+      <c r="I356">
+        <v>6</v>
+      </c>
+      <c r="J356" t="s">
+        <v>783</v>
+      </c>
+      <c r="K356" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>676</v>
+      </c>
+      <c r="E357" t="s">
+        <v>11</v>
+      </c>
+      <c r="F357" t="s">
+        <v>13</v>
+      </c>
+      <c r="G357" t="s">
+        <v>26</v>
+      </c>
+      <c r="H357" t="str">
+        <f t="shared" si="5"/>
+        <v>Namalwa_BR1_Baseline</v>
+      </c>
+      <c r="I357">
+        <v>6</v>
+      </c>
+      <c r="J357" t="s">
+        <v>784</v>
+      </c>
+      <c r="K357" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>676</v>
+      </c>
+      <c r="E358" t="s">
+        <v>11</v>
+      </c>
+      <c r="F358" t="s">
+        <v>14</v>
+      </c>
+      <c r="G358" t="s">
+        <v>26</v>
+      </c>
+      <c r="H358" t="str">
+        <f t="shared" si="5"/>
+        <v>Namalwa_BR2_Baseline</v>
+      </c>
+      <c r="I358">
+        <v>6</v>
+      </c>
+      <c r="J358" t="s">
+        <v>785</v>
+      </c>
+      <c r="K358" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>676</v>
+      </c>
+      <c r="E359" t="s">
+        <v>8</v>
+      </c>
+      <c r="F359" t="s">
+        <v>13</v>
+      </c>
+      <c r="G359" t="s">
+        <v>26</v>
+      </c>
+      <c r="H359" t="str">
+        <f t="shared" si="5"/>
+        <v>Namalwa_BR1_Baseline</v>
+      </c>
+      <c r="I359">
+        <v>6</v>
+      </c>
+      <c r="J359" t="s">
+        <v>786</v>
+      </c>
+      <c r="K359" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>676</v>
+      </c>
+      <c r="E360" t="s">
+        <v>8</v>
+      </c>
+      <c r="F360" t="s">
+        <v>14</v>
+      </c>
+      <c r="G360" t="s">
+        <v>26</v>
+      </c>
+      <c r="H360" t="str">
+        <f t="shared" si="5"/>
+        <v>Namalwa_BR2_Baseline</v>
+      </c>
+      <c r="I360">
+        <v>6</v>
+      </c>
+      <c r="J360" t="s">
+        <v>787</v>
+      </c>
+      <c r="K360" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>676</v>
+      </c>
+      <c r="E361" t="s">
+        <v>9</v>
+      </c>
+      <c r="F361" t="s">
+        <v>13</v>
+      </c>
+      <c r="G361" t="s">
+        <v>26</v>
+      </c>
+      <c r="H361" t="str">
+        <f t="shared" si="5"/>
+        <v>Namalwa_BR1_Baseline</v>
+      </c>
+      <c r="I361">
+        <v>6</v>
+      </c>
+      <c r="J361" t="s">
+        <v>788</v>
+      </c>
+      <c r="K361" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>676</v>
+      </c>
+      <c r="E362" t="s">
+        <v>9</v>
+      </c>
+      <c r="F362" t="s">
+        <v>14</v>
+      </c>
+      <c r="G362" t="s">
+        <v>26</v>
+      </c>
+      <c r="H362" t="str">
+        <f t="shared" si="5"/>
+        <v>Namalwa_BR2_Baseline</v>
+      </c>
+      <c r="I362">
+        <v>6</v>
+      </c>
+      <c r="J362" t="s">
+        <v>789</v>
+      </c>
+      <c r="K362" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>676</v>
+      </c>
+      <c r="E363" t="s">
+        <v>10</v>
+      </c>
+      <c r="F363" t="s">
+        <v>13</v>
+      </c>
+      <c r="G363" t="s">
+        <v>26</v>
+      </c>
+      <c r="H363" t="str">
+        <f t="shared" si="5"/>
+        <v>Namalwa_BR1_Baseline</v>
+      </c>
+      <c r="I363">
+        <v>6</v>
+      </c>
+      <c r="J363" t="s">
+        <v>790</v>
+      </c>
+      <c r="K363" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>676</v>
+      </c>
+      <c r="E364" t="s">
+        <v>10</v>
+      </c>
+      <c r="F364" t="s">
+        <v>14</v>
+      </c>
+      <c r="G364" t="s">
+        <v>26</v>
+      </c>
+      <c r="H364" t="str">
+        <f t="shared" si="5"/>
+        <v>Namalwa_BR2_Baseline</v>
+      </c>
+      <c r="I364">
+        <v>6</v>
+      </c>
+      <c r="J364" t="s">
+        <v>791</v>
+      </c>
+      <c r="K364" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>677</v>
+      </c>
+      <c r="E365" t="s">
+        <v>11</v>
+      </c>
+      <c r="F365" t="s">
+        <v>13</v>
+      </c>
+      <c r="G365" t="s">
+        <v>26</v>
+      </c>
+      <c r="H365" t="str">
+        <f t="shared" si="5"/>
+        <v>Raji_BR1_Baseline</v>
+      </c>
+      <c r="I365">
+        <v>6</v>
+      </c>
+      <c r="J365" t="s">
+        <v>792</v>
+      </c>
+      <c r="K365" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>677</v>
+      </c>
+      <c r="E366" t="s">
+        <v>11</v>
+      </c>
+      <c r="F366" t="s">
+        <v>14</v>
+      </c>
+      <c r="G366" t="s">
+        <v>26</v>
+      </c>
+      <c r="H366" t="str">
+        <f t="shared" si="5"/>
+        <v>Raji_BR2_Baseline</v>
+      </c>
+      <c r="I366">
+        <v>6</v>
+      </c>
+      <c r="J366" t="s">
+        <v>793</v>
+      </c>
+      <c r="K366" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>677</v>
+      </c>
+      <c r="E367" t="s">
+        <v>8</v>
+      </c>
+      <c r="F367" t="s">
+        <v>13</v>
+      </c>
+      <c r="G367" t="s">
+        <v>26</v>
+      </c>
+      <c r="H367" t="str">
+        <f t="shared" si="5"/>
+        <v>Raji_BR1_Baseline</v>
+      </c>
+      <c r="I367">
+        <v>6</v>
+      </c>
+      <c r="J367" t="s">
+        <v>794</v>
+      </c>
+      <c r="K367" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>677</v>
+      </c>
+      <c r="E368" t="s">
+        <v>8</v>
+      </c>
+      <c r="F368" t="s">
+        <v>14</v>
+      </c>
+      <c r="G368" t="s">
+        <v>26</v>
+      </c>
+      <c r="H368" t="str">
+        <f t="shared" si="5"/>
+        <v>Raji_BR2_Baseline</v>
+      </c>
+      <c r="I368">
+        <v>6</v>
+      </c>
+      <c r="J368" t="s">
+        <v>795</v>
+      </c>
+      <c r="K368" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>677</v>
+      </c>
+      <c r="E369" t="s">
+        <v>9</v>
+      </c>
+      <c r="F369" t="s">
+        <v>13</v>
+      </c>
+      <c r="G369" t="s">
+        <v>26</v>
+      </c>
+      <c r="H369" t="str">
+        <f t="shared" si="5"/>
+        <v>Raji_BR1_Baseline</v>
+      </c>
+      <c r="I369">
+        <v>6</v>
+      </c>
+      <c r="J369" t="s">
+        <v>796</v>
+      </c>
+      <c r="K369" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>677</v>
+      </c>
+      <c r="E370" t="s">
+        <v>9</v>
+      </c>
+      <c r="F370" t="s">
+        <v>14</v>
+      </c>
+      <c r="G370" t="s">
+        <v>26</v>
+      </c>
+      <c r="H370" t="str">
+        <f t="shared" si="5"/>
+        <v>Raji_BR2_Baseline</v>
+      </c>
+      <c r="I370">
+        <v>6</v>
+      </c>
+      <c r="J370" t="s">
+        <v>797</v>
+      </c>
+      <c r="K370" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>677</v>
+      </c>
+      <c r="E371" t="s">
+        <v>10</v>
+      </c>
+      <c r="F371" t="s">
+        <v>13</v>
+      </c>
+      <c r="G371" t="s">
+        <v>26</v>
+      </c>
+      <c r="H371" t="str">
+        <f t="shared" si="5"/>
+        <v>Raji_BR1_Baseline</v>
+      </c>
+      <c r="I371">
+        <v>6</v>
+      </c>
+      <c r="J371" t="s">
+        <v>798</v>
+      </c>
+      <c r="K371" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>677</v>
+      </c>
+      <c r="E372" t="s">
+        <v>10</v>
+      </c>
+      <c r="F372" t="s">
+        <v>14</v>
+      </c>
+      <c r="G372" t="s">
+        <v>26</v>
+      </c>
+      <c r="H372" t="str">
+        <f t="shared" si="5"/>
+        <v>Raji_BR2_Baseline</v>
+      </c>
+      <c r="I372">
+        <v>6</v>
+      </c>
+      <c r="J372" t="s">
+        <v>799</v>
+      </c>
+      <c r="K372" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>679</v>
+      </c>
+      <c r="E373" t="s">
+        <v>11</v>
+      </c>
+      <c r="F373" t="s">
+        <v>13</v>
+      </c>
+      <c r="G373" t="s">
+        <v>26</v>
+      </c>
+      <c r="H373" t="str">
+        <f t="shared" si="5"/>
+        <v>Ramos_BR1_Baseline</v>
+      </c>
+      <c r="I373">
+        <v>6</v>
+      </c>
+      <c r="J373" t="s">
+        <v>800</v>
+      </c>
+      <c r="K373" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>679</v>
+      </c>
+      <c r="E374" t="s">
+        <v>11</v>
+      </c>
+      <c r="F374" t="s">
+        <v>14</v>
+      </c>
+      <c r="G374" t="s">
+        <v>26</v>
+      </c>
+      <c r="H374" t="str">
+        <f t="shared" si="5"/>
+        <v>Ramos_BR2_Baseline</v>
+      </c>
+      <c r="I374">
+        <v>6</v>
+      </c>
+      <c r="J374" t="s">
+        <v>801</v>
+      </c>
+      <c r="K374" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>679</v>
+      </c>
+      <c r="E375" t="s">
+        <v>8</v>
+      </c>
+      <c r="F375" t="s">
+        <v>13</v>
+      </c>
+      <c r="G375" t="s">
+        <v>26</v>
+      </c>
+      <c r="H375" t="str">
+        <f t="shared" si="5"/>
+        <v>Ramos_BR1_Baseline</v>
+      </c>
+      <c r="I375">
+        <v>6</v>
+      </c>
+      <c r="J375" t="s">
+        <v>802</v>
+      </c>
+      <c r="K375" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>679</v>
+      </c>
+      <c r="E376" t="s">
+        <v>8</v>
+      </c>
+      <c r="F376" t="s">
+        <v>14</v>
+      </c>
+      <c r="G376" t="s">
+        <v>26</v>
+      </c>
+      <c r="H376" t="str">
+        <f t="shared" si="5"/>
+        <v>Ramos_BR2_Baseline</v>
+      </c>
+      <c r="I376">
+        <v>6</v>
+      </c>
+      <c r="J376" t="s">
+        <v>803</v>
+      </c>
+      <c r="K376" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>679</v>
+      </c>
+      <c r="E377" t="s">
+        <v>9</v>
+      </c>
+      <c r="F377" t="s">
+        <v>13</v>
+      </c>
+      <c r="G377" t="s">
+        <v>26</v>
+      </c>
+      <c r="H377" t="str">
+        <f t="shared" si="5"/>
+        <v>Ramos_BR1_Baseline</v>
+      </c>
+      <c r="I377">
+        <v>6</v>
+      </c>
+      <c r="J377" t="s">
+        <v>804</v>
+      </c>
+      <c r="K377" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>679</v>
+      </c>
+      <c r="E378" t="s">
+        <v>9</v>
+      </c>
+      <c r="F378" t="s">
+        <v>14</v>
+      </c>
+      <c r="G378" t="s">
+        <v>26</v>
+      </c>
+      <c r="H378" t="str">
+        <f t="shared" si="5"/>
+        <v>Ramos_BR2_Baseline</v>
+      </c>
+      <c r="I378">
+        <v>6</v>
+      </c>
+      <c r="J378" t="s">
+        <v>805</v>
+      </c>
+      <c r="K378" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>679</v>
+      </c>
+      <c r="E379" t="s">
+        <v>10</v>
+      </c>
+      <c r="F379" t="s">
+        <v>13</v>
+      </c>
+      <c r="G379" t="s">
+        <v>26</v>
+      </c>
+      <c r="H379" t="str">
+        <f t="shared" si="5"/>
+        <v>Ramos_BR1_Baseline</v>
+      </c>
+      <c r="I379">
+        <v>6</v>
+      </c>
+      <c r="J379" t="s">
+        <v>806</v>
+      </c>
+      <c r="K379" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>679</v>
+      </c>
+      <c r="E380" t="s">
+        <v>10</v>
+      </c>
+      <c r="F380" t="s">
+        <v>14</v>
+      </c>
+      <c r="G380" t="s">
+        <v>26</v>
+      </c>
+      <c r="H380" t="str">
+        <f t="shared" si="5"/>
+        <v>Ramos_BR2_Baseline</v>
+      </c>
+      <c r="I380">
+        <v>6</v>
+      </c>
+      <c r="J380" t="s">
+        <v>807</v>
+      </c>
+      <c r="K380" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>678</v>
+      </c>
+      <c r="E381" t="s">
+        <v>11</v>
+      </c>
+      <c r="F381" t="s">
+        <v>13</v>
+      </c>
+      <c r="G381" t="s">
+        <v>26</v>
+      </c>
+      <c r="H381" t="str">
+        <f t="shared" si="5"/>
+        <v>Toledo_BR1_Baseline</v>
+      </c>
+      <c r="I381">
+        <v>6</v>
+      </c>
+      <c r="J381" t="s">
+        <v>808</v>
+      </c>
+      <c r="K381" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>678</v>
+      </c>
+      <c r="E382" t="s">
+        <v>11</v>
+      </c>
+      <c r="F382" t="s">
+        <v>14</v>
+      </c>
+      <c r="G382" t="s">
+        <v>26</v>
+      </c>
+      <c r="H382" t="str">
+        <f t="shared" si="5"/>
+        <v>Toledo_BR2_Baseline</v>
+      </c>
+      <c r="I382">
+        <v>6</v>
+      </c>
+      <c r="J382" t="s">
+        <v>809</v>
+      </c>
+      <c r="K382" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>678</v>
+      </c>
+      <c r="E383" t="s">
+        <v>8</v>
+      </c>
+      <c r="F383" t="s">
+        <v>13</v>
+      </c>
+      <c r="G383" t="s">
+        <v>26</v>
+      </c>
+      <c r="H383" t="str">
+        <f t="shared" si="5"/>
+        <v>Toledo_BR1_Baseline</v>
+      </c>
+      <c r="I383">
+        <v>6</v>
+      </c>
+      <c r="J383" t="s">
+        <v>810</v>
+      </c>
+      <c r="K383" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>678</v>
+      </c>
+      <c r="E384" t="s">
+        <v>8</v>
+      </c>
+      <c r="F384" t="s">
+        <v>14</v>
+      </c>
+      <c r="G384" t="s">
+        <v>26</v>
+      </c>
+      <c r="H384" t="str">
+        <f t="shared" si="5"/>
+        <v>Toledo_BR2_Baseline</v>
+      </c>
+      <c r="I384">
+        <v>6</v>
+      </c>
+      <c r="J384" t="s">
+        <v>811</v>
+      </c>
+      <c r="K384" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>678</v>
+      </c>
+      <c r="E385" t="s">
+        <v>9</v>
+      </c>
+      <c r="F385" t="s">
+        <v>13</v>
+      </c>
+      <c r="G385" t="s">
+        <v>26</v>
+      </c>
+      <c r="H385" t="str">
+        <f t="shared" si="5"/>
+        <v>Toledo_BR1_Baseline</v>
+      </c>
+      <c r="I385">
+        <v>6</v>
+      </c>
+      <c r="J385" t="s">
+        <v>812</v>
+      </c>
+      <c r="K385" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>678</v>
+      </c>
+      <c r="E386" t="s">
+        <v>9</v>
+      </c>
+      <c r="F386" t="s">
+        <v>14</v>
+      </c>
+      <c r="G386" t="s">
+        <v>26</v>
+      </c>
+      <c r="H386" t="str">
+        <f t="shared" ref="H386:H388" si="6">CONCATENATE(A386, "_", F386, "_", G386)</f>
+        <v>Toledo_BR2_Baseline</v>
+      </c>
+      <c r="I386">
+        <v>6</v>
+      </c>
+      <c r="J386" t="s">
+        <v>813</v>
+      </c>
+      <c r="K386" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>678</v>
+      </c>
+      <c r="E387" t="s">
+        <v>10</v>
+      </c>
+      <c r="F387" t="s">
+        <v>13</v>
+      </c>
+      <c r="G387" t="s">
+        <v>26</v>
+      </c>
+      <c r="H387" t="str">
+        <f t="shared" si="6"/>
+        <v>Toledo_BR1_Baseline</v>
+      </c>
+      <c r="I387">
+        <v>6</v>
+      </c>
+      <c r="J387" t="s">
+        <v>814</v>
+      </c>
+      <c r="K387" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>678</v>
+      </c>
+      <c r="E388" t="s">
+        <v>10</v>
+      </c>
+      <c r="F388" t="s">
+        <v>14</v>
+      </c>
+      <c r="G388" t="s">
+        <v>26</v>
+      </c>
+      <c r="H388" t="str">
+        <f t="shared" si="6"/>
+        <v>Toledo_BR2_Baseline</v>
+      </c>
+      <c r="I388">
+        <v>6</v>
+      </c>
+      <c r="J388" t="s">
+        <v>815</v>
+      </c>
+      <c r="K388" t="s">
+        <v>863</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K308">
+  <autoFilter ref="A1:K388">
     <sortState ref="A2:K308">
       <sortCondition ref="I1:I308"/>
     </sortState>

--- a/inst/extdata/data_gsk.xlsx
+++ b/inst/extdata/data_gsk.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7185"/>
@@ -2060,66 +2060,6 @@
     <t>Ramos</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/F36P_ATAC_ATAC-seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/F36P_ATAC_ATAC-seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/F36P_ATAC_ATAC-seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/F36P_ATAC_ATAC-seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/HEL9217_ATAC_ATAC-seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/HEL9217_ATAC_ATAC-seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/HEL9217_ATAC_ATAC-seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/HEL9217_ATAC_ATAC-seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/K562_ATAC_ATAC-seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/K562_ATAC_ATAC-seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/K562_ATAC_ATAC-seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/K562_ATAC_ATAC-seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/Meg01_ATAC_ATAC-seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/Meg01_ATAC_ATAC-seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/Meg01_ATAC_ATAC-seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/Meg01_ATAC_ATAC-seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/UT7_ATAC_ATAC-seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/UT7_ATAC_ATAC-seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/UT7_ATAC_ATAC-seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/UT7_ATAC_ATAC-seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/KU812_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bw</t>
   </si>
   <si>
@@ -3036,6 +2976,66 @@
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_4/bam/PHH_3D_H3K4me3_ChIPmentation_P4Livercelltypes92_H3K4me3_P4Livercelltypes92_bwa_samse_BR3TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/F36P_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/F36P_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/F36P_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/F36P_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/HEL9217_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/HEL9217_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/HEL9217_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/HEL9217_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/K562_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/K562_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/K562_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/K562_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/Meg01_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/Meg01_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/Meg01_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/Meg01_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/UT7_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/UT7_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/UT7_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/UT7_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bam</t>
   </si>
 </sst>
 </file>
@@ -3420,11 +3420,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J275" sqref="J275"/>
+      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3500,17 +3501,17 @@
         <v>26</v>
       </c>
       <c r="H2" t="str">
-        <f>CONCATENATE(A2, "_", F2, "_", G2)</f>
+        <f t="shared" ref="H2:H65" si="0">CONCATENATE(A2, "_", F2, "_", G2)</f>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>680</v>
+        <v>986</v>
       </c>
       <c r="K2" t="s">
-        <v>681</v>
+        <v>987</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3536,20 +3537,20 @@
         <v>26</v>
       </c>
       <c r="H3" t="str">
-        <f>CONCATENATE(A3, "_", F3, "_", G3)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR2_Baseline</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>682</v>
+        <v>988</v>
       </c>
       <c r="K3" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3572,7 +3573,7 @@
         <v>26</v>
       </c>
       <c r="H4" t="str">
-        <f>CONCATENATE(A4, "_", F4, "_", G4)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I4">
@@ -3585,7 +3586,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>26</v>
       </c>
       <c r="H5" t="str">
-        <f>CONCATENATE(A5, "_", F5, "_", G5)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR2_Baseline</v>
       </c>
       <c r="I5">
@@ -3621,7 +3622,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -3644,7 +3645,7 @@
         <v>26</v>
       </c>
       <c r="H6" t="str">
-        <f>CONCATENATE(A6, "_", F6, "_", G6)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I6">
@@ -3657,7 +3658,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -3680,7 +3681,7 @@
         <v>26</v>
       </c>
       <c r="H7" t="str">
-        <f>CONCATENATE(A7, "_", F7, "_", G7)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I7">
@@ -3693,7 +3694,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -3716,7 +3717,7 @@
         <v>26</v>
       </c>
       <c r="H8" t="str">
-        <f>CONCATENATE(A8, "_", F8, "_", G8)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR2_Baseline</v>
       </c>
       <c r="I8">
@@ -3729,7 +3730,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -3752,7 +3753,7 @@
         <v>26</v>
       </c>
       <c r="H9" t="str">
-        <f>CONCATENATE(A9, "_", F9, "_", G9)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I9">
@@ -3765,7 +3766,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -3788,7 +3789,7 @@
         <v>26</v>
       </c>
       <c r="H10" t="str">
-        <f>CONCATENATE(A10, "_", F10, "_", G10)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR2_Baseline</v>
       </c>
       <c r="I10">
@@ -3801,7 +3802,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -3824,7 +3825,7 @@
         <v>26</v>
       </c>
       <c r="H11" t="str">
-        <f>CONCATENATE(A11, "_", F11, "_", G11)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I11">
@@ -3837,7 +3838,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3860,7 +3861,7 @@
         <v>26</v>
       </c>
       <c r="H12" t="str">
-        <f>CONCATENATE(A12, "_", F12, "_", G12)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I12">
@@ -3873,7 +3874,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -3896,7 +3897,7 @@
         <v>26</v>
       </c>
       <c r="H13" t="str">
-        <f>CONCATENATE(A13, "_", F13, "_", G13)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR2_Baseline</v>
       </c>
       <c r="I13">
@@ -3932,17 +3933,17 @@
         <v>26</v>
       </c>
       <c r="H14" t="str">
-        <f>CONCATENATE(A14, "_", F14, "_", G14)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR1_Baseline</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>684</v>
+        <v>990</v>
       </c>
       <c r="K14" t="s">
-        <v>685</v>
+        <v>991</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3968,20 +3969,20 @@
         <v>26</v>
       </c>
       <c r="H15" t="str">
-        <f>CONCATENATE(A15, "_", F15, "_", G15)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR2_Baseline</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>686</v>
+        <v>992</v>
       </c>
       <c r="K15" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -4004,7 +4005,7 @@
         <v>26</v>
       </c>
       <c r="H16" t="str">
-        <f>CONCATENATE(A16, "_", F16, "_", G16)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR1_Baseline</v>
       </c>
       <c r="I16">
@@ -4017,7 +4018,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -4040,7 +4041,7 @@
         <v>26</v>
       </c>
       <c r="H17" t="str">
-        <f>CONCATENATE(A17, "_", F17, "_", G17)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR2_Baseline</v>
       </c>
       <c r="I17">
@@ -4053,7 +4054,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -4076,7 +4077,7 @@
         <v>26</v>
       </c>
       <c r="H18" t="str">
-        <f>CONCATENATE(A18, "_", F18, "_", G18)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR1_Baseline</v>
       </c>
       <c r="I18">
@@ -4089,7 +4090,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -4112,7 +4113,7 @@
         <v>26</v>
       </c>
       <c r="H19" t="str">
-        <f>CONCATENATE(A19, "_", F19, "_", G19)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR2_Baseline</v>
       </c>
       <c r="I19">
@@ -4125,7 +4126,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -4148,7 +4149,7 @@
         <v>26</v>
       </c>
       <c r="H20" t="str">
-        <f>CONCATENATE(A20, "_", F20, "_", G20)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR1_Baseline</v>
       </c>
       <c r="I20">
@@ -4161,7 +4162,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -4184,7 +4185,7 @@
         <v>26</v>
       </c>
       <c r="H21" t="str">
-        <f>CONCATENATE(A21, "_", F21, "_", G21)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR2_Baseline</v>
       </c>
       <c r="I21">
@@ -4197,7 +4198,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -4220,7 +4221,7 @@
         <v>26</v>
       </c>
       <c r="H22" t="str">
-        <f>CONCATENATE(A22, "_", F22, "_", G22)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR1_Baseline</v>
       </c>
       <c r="I22">
@@ -4233,7 +4234,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -4256,7 +4257,7 @@
         <v>26</v>
       </c>
       <c r="H23" t="str">
-        <f>CONCATENATE(A23, "_", F23, "_", G23)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR2_Baseline</v>
       </c>
       <c r="I23">
@@ -4292,17 +4293,17 @@
         <v>26</v>
       </c>
       <c r="H24" t="str">
-        <f>CONCATENATE(A24, "_", F24, "_", G24)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>688</v>
+        <v>994</v>
       </c>
       <c r="K24" t="s">
-        <v>689</v>
+        <v>995</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -4328,20 +4329,20 @@
         <v>26</v>
       </c>
       <c r="H25" t="str">
-        <f>CONCATENATE(A25, "_", F25, "_", G25)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>690</v>
+        <v>996</v>
       </c>
       <c r="K25" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -4364,7 +4365,7 @@
         <v>26</v>
       </c>
       <c r="H26" t="str">
-        <f>CONCATENATE(A26, "_", F26, "_", G26)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I26">
@@ -4377,7 +4378,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -4400,7 +4401,7 @@
         <v>26</v>
       </c>
       <c r="H27" t="str">
-        <f>CONCATENATE(A27, "_", F27, "_", G27)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I27">
@@ -4413,7 +4414,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -4436,7 +4437,7 @@
         <v>26</v>
       </c>
       <c r="H28" t="str">
-        <f>CONCATENATE(A28, "_", F28, "_", G28)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I28">
@@ -4449,7 +4450,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -4472,7 +4473,7 @@
         <v>26</v>
       </c>
       <c r="H29" t="str">
-        <f>CONCATENATE(A29, "_", F29, "_", G29)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I29">
@@ -4485,7 +4486,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -4508,7 +4509,7 @@
         <v>26</v>
       </c>
       <c r="H30" t="str">
-        <f>CONCATENATE(A30, "_", F30, "_", G30)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I30">
@@ -4521,7 +4522,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -4544,7 +4545,7 @@
         <v>26</v>
       </c>
       <c r="H31" t="str">
-        <f>CONCATENATE(A31, "_", F31, "_", G31)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I31">
@@ -4557,7 +4558,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -4580,7 +4581,7 @@
         <v>26</v>
       </c>
       <c r="H32" t="str">
-        <f>CONCATENATE(A32, "_", F32, "_", G32)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I32">
@@ -4593,7 +4594,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -4616,7 +4617,7 @@
         <v>26</v>
       </c>
       <c r="H33" t="str">
-        <f>CONCATENATE(A33, "_", F33, "_", G33)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I33">
@@ -4629,7 +4630,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -4652,7 +4653,7 @@
         <v>26</v>
       </c>
       <c r="H34" t="str">
-        <f>CONCATENATE(A34, "_", F34, "_", G34)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I34">
@@ -4665,7 +4666,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -4688,7 +4689,7 @@
         <v>26</v>
       </c>
       <c r="H35" t="str">
-        <f>CONCATENATE(A35, "_", F35, "_", G35)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I35">
@@ -4701,7 +4702,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -4724,7 +4725,7 @@
         <v>26</v>
       </c>
       <c r="H36" t="str">
-        <f>CONCATENATE(A36, "_", F36, "_", G36)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I36">
@@ -4737,7 +4738,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -4760,7 +4761,7 @@
         <v>26</v>
       </c>
       <c r="H37" t="str">
-        <f>CONCATENATE(A37, "_", F37, "_", G37)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I37">
@@ -4773,7 +4774,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -4796,20 +4797,20 @@
         <v>26</v>
       </c>
       <c r="H38" t="str">
-        <f>CONCATENATE(A38, "_", F38, "_", G38)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="K38" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -4832,20 +4833,20 @@
         <v>26</v>
       </c>
       <c r="H39" t="str">
-        <f>CONCATENATE(A39, "_", F39, "_", G39)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR2_Baseline</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="K39" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -4868,7 +4869,7 @@
         <v>26</v>
       </c>
       <c r="H40" t="str">
-        <f>CONCATENATE(A40, "_", F40, "_", G40)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I40">
@@ -4881,7 +4882,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -4904,7 +4905,7 @@
         <v>26</v>
       </c>
       <c r="H41" t="str">
-        <f>CONCATENATE(A41, "_", F41, "_", G41)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR2_Baseline</v>
       </c>
       <c r="I41">
@@ -4917,7 +4918,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -4940,7 +4941,7 @@
         <v>26</v>
       </c>
       <c r="H42" t="str">
-        <f>CONCATENATE(A42, "_", F42, "_", G42)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I42">
@@ -4953,7 +4954,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>26</v>
       </c>
       <c r="H43" t="str">
-        <f>CONCATENATE(A43, "_", F43, "_", G43)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I43">
@@ -4989,7 +4990,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -5012,7 +5013,7 @@
         <v>26</v>
       </c>
       <c r="H44" t="str">
-        <f>CONCATENATE(A44, "_", F44, "_", G44)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR2_Baseline</v>
       </c>
       <c r="I44">
@@ -5025,7 +5026,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -5048,7 +5049,7 @@
         <v>26</v>
       </c>
       <c r="H45" t="str">
-        <f>CONCATENATE(A45, "_", F45, "_", G45)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I45">
@@ -5061,7 +5062,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -5084,7 +5085,7 @@
         <v>26</v>
       </c>
       <c r="H46" t="str">
-        <f>CONCATENATE(A46, "_", F46, "_", G46)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR2_Baseline</v>
       </c>
       <c r="I46">
@@ -5097,7 +5098,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -5120,7 +5121,7 @@
         <v>26</v>
       </c>
       <c r="H47" t="str">
-        <f>CONCATENATE(A47, "_", F47, "_", G47)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I47">
@@ -5133,7 +5134,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -5156,7 +5157,7 @@
         <v>26</v>
       </c>
       <c r="H48" t="str">
-        <f>CONCATENATE(A48, "_", F48, "_", G48)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I48">
@@ -5169,7 +5170,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -5192,7 +5193,7 @@
         <v>26</v>
       </c>
       <c r="H49" t="str">
-        <f>CONCATENATE(A49, "_", F49, "_", G49)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR2_Baseline</v>
       </c>
       <c r="I49">
@@ -5228,17 +5229,17 @@
         <v>26</v>
       </c>
       <c r="H50" t="str">
-        <f>CONCATENATE(A50, "_", F50, "_", G50)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR1_Baseline</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>692</v>
+        <v>998</v>
       </c>
       <c r="K50" t="s">
-        <v>693</v>
+        <v>999</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -5264,20 +5265,20 @@
         <v>26</v>
       </c>
       <c r="H51" t="str">
-        <f>CONCATENATE(A51, "_", F51, "_", G51)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR2_Baseline</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>694</v>
+        <v>1000</v>
       </c>
       <c r="K51" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -5300,7 +5301,7 @@
         <v>26</v>
       </c>
       <c r="H52" t="str">
-        <f>CONCATENATE(A52, "_", F52, "_", G52)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR1_Baseline</v>
       </c>
       <c r="I52">
@@ -5313,7 +5314,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -5336,7 +5337,7 @@
         <v>26</v>
       </c>
       <c r="H53" t="str">
-        <f>CONCATENATE(A53, "_", F53, "_", G53)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR2_Baseline</v>
       </c>
       <c r="I53">
@@ -5349,7 +5350,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -5372,7 +5373,7 @@
         <v>26</v>
       </c>
       <c r="H54" t="str">
-        <f>CONCATENATE(A54, "_", F54, "_", G54)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR1_Baseline</v>
       </c>
       <c r="I54">
@@ -5385,7 +5386,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -5408,7 +5409,7 @@
         <v>26</v>
       </c>
       <c r="H55" t="str">
-        <f>CONCATENATE(A55, "_", F55, "_", G55)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR2_Baseline</v>
       </c>
       <c r="I55">
@@ -5421,7 +5422,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -5444,7 +5445,7 @@
         <v>26</v>
       </c>
       <c r="H56" t="str">
-        <f>CONCATENATE(A56, "_", F56, "_", G56)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR1_Baseline</v>
       </c>
       <c r="I56">
@@ -5457,7 +5458,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -5480,7 +5481,7 @@
         <v>26</v>
       </c>
       <c r="H57" t="str">
-        <f>CONCATENATE(A57, "_", F57, "_", G57)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR2_Baseline</v>
       </c>
       <c r="I57">
@@ -5493,7 +5494,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -5516,7 +5517,7 @@
         <v>26</v>
       </c>
       <c r="H58" t="str">
-        <f>CONCATENATE(A58, "_", F58, "_", G58)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR1_Baseline</v>
       </c>
       <c r="I58">
@@ -5529,7 +5530,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -5552,7 +5553,7 @@
         <v>26</v>
       </c>
       <c r="H59" t="str">
-        <f>CONCATENATE(A59, "_", F59, "_", G59)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR2_Baseline</v>
       </c>
       <c r="I59">
@@ -5588,17 +5589,17 @@
         <v>26</v>
       </c>
       <c r="H60" t="str">
-        <f>CONCATENATE(A60, "_", F60, "_", G60)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>696</v>
+        <v>1002</v>
       </c>
       <c r="K60" t="s">
-        <v>697</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -5624,20 +5625,20 @@
         <v>26</v>
       </c>
       <c r="H61" t="str">
-        <f>CONCATENATE(A61, "_", F61, "_", G61)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>698</v>
+        <v>1004</v>
       </c>
       <c r="K61" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -5660,7 +5661,7 @@
         <v>26</v>
       </c>
       <c r="H62" t="str">
-        <f>CONCATENATE(A62, "_", F62, "_", G62)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="I62">
@@ -5673,7 +5674,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -5696,7 +5697,7 @@
         <v>26</v>
       </c>
       <c r="H63" t="str">
-        <f>CONCATENATE(A63, "_", F63, "_", G63)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="I63">
@@ -5709,7 +5710,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -5732,7 +5733,7 @@
         <v>26</v>
       </c>
       <c r="H64" t="str">
-        <f>CONCATENATE(A64, "_", F64, "_", G64)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="I64">
@@ -5745,7 +5746,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -5768,7 +5769,7 @@
         <v>26</v>
       </c>
       <c r="H65" t="str">
-        <f>CONCATENATE(A65, "_", F65, "_", G65)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="I65">
@@ -5781,7 +5782,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -5804,7 +5805,7 @@
         <v>26</v>
       </c>
       <c r="H66" t="str">
-        <f>CONCATENATE(A66, "_", F66, "_", G66)</f>
+        <f t="shared" ref="H66:H129" si="1">CONCATENATE(A66, "_", F66, "_", G66)</f>
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="I66">
@@ -5817,7 +5818,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -5840,7 +5841,7 @@
         <v>26</v>
       </c>
       <c r="H67" t="str">
-        <f>CONCATENATE(A67, "_", F67, "_", G67)</f>
+        <f t="shared" si="1"/>
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="I67">
@@ -5853,7 +5854,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -5876,7 +5877,7 @@
         <v>26</v>
       </c>
       <c r="H68" t="str">
-        <f>CONCATENATE(A68, "_", F68, "_", G68)</f>
+        <f t="shared" si="1"/>
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="I68">
@@ -5889,7 +5890,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -5912,7 +5913,7 @@
         <v>26</v>
       </c>
       <c r="H69" t="str">
-        <f>CONCATENATE(A69, "_", F69, "_", G69)</f>
+        <f t="shared" si="1"/>
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="I69">
@@ -5925,7 +5926,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -5948,7 +5949,7 @@
         <v>26</v>
       </c>
       <c r="H70" t="str">
-        <f>CONCATENATE(A70, "_", F70, "_", G70)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I70">
@@ -5961,7 +5962,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -5984,7 +5985,7 @@
         <v>26</v>
       </c>
       <c r="H71" t="str">
-        <f>CONCATENATE(A71, "_", F71, "_", G71)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I71">
@@ -5997,7 +5998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -6020,7 +6021,7 @@
         <v>28</v>
       </c>
       <c r="H72" t="str">
-        <f>CONCATENATE(A72, "_", F72, "_", G72)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I72">
@@ -6033,7 +6034,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -6056,7 +6057,7 @@
         <v>28</v>
       </c>
       <c r="H73" t="str">
-        <f>CONCATENATE(A73, "_", F73, "_", G73)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I73">
@@ -6069,7 +6070,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -6092,7 +6093,7 @@
         <v>30</v>
       </c>
       <c r="H74" t="str">
-        <f>CONCATENATE(A74, "_", F74, "_", G74)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I74">
@@ -6105,7 +6106,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -6128,7 +6129,7 @@
         <v>30</v>
       </c>
       <c r="H75" t="str">
-        <f>CONCATENATE(A75, "_", F75, "_", G75)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I75">
@@ -6141,7 +6142,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -6164,7 +6165,7 @@
         <v>29</v>
       </c>
       <c r="H76" t="str">
-        <f>CONCATENATE(A76, "_", F76, "_", G76)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I76">
@@ -6177,7 +6178,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -6200,7 +6201,7 @@
         <v>29</v>
       </c>
       <c r="H77" t="str">
-        <f>CONCATENATE(A77, "_", F77, "_", G77)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I77">
@@ -6213,7 +6214,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -6236,7 +6237,7 @@
         <v>32</v>
       </c>
       <c r="H78" t="str">
-        <f>CONCATENATE(A78, "_", F78, "_", G78)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I78">
@@ -6249,7 +6250,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -6272,7 +6273,7 @@
         <v>31</v>
       </c>
       <c r="H79" t="str">
-        <f>CONCATENATE(A79, "_", F79, "_", G79)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I79">
@@ -6285,7 +6286,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -6308,7 +6309,7 @@
         <v>28</v>
       </c>
       <c r="H80" t="str">
-        <f>CONCATENATE(A80, "_", F80, "_", G80)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I80">
@@ -6321,7 +6322,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -6344,7 +6345,7 @@
         <v>28</v>
       </c>
       <c r="H81" t="str">
-        <f>CONCATENATE(A81, "_", F81, "_", G81)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I81">
@@ -6357,7 +6358,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -6380,7 +6381,7 @@
         <v>28</v>
       </c>
       <c r="H82" t="str">
-        <f>CONCATENATE(A82, "_", F82, "_", G82)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I82">
@@ -6393,7 +6394,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -6416,7 +6417,7 @@
         <v>28</v>
       </c>
       <c r="H83" t="str">
-        <f>CONCATENATE(A83, "_", F83, "_", G83)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I83">
@@ -6429,7 +6430,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -6452,7 +6453,7 @@
         <v>30</v>
       </c>
       <c r="H84" t="str">
-        <f>CONCATENATE(A84, "_", F84, "_", G84)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I84">
@@ -6465,7 +6466,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -6488,7 +6489,7 @@
         <v>30</v>
       </c>
       <c r="H85" t="str">
-        <f>CONCATENATE(A85, "_", F85, "_", G85)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I85">
@@ -6501,7 +6502,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -6524,7 +6525,7 @@
         <v>30</v>
       </c>
       <c r="H86" t="str">
-        <f>CONCATENATE(A86, "_", F86, "_", G86)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I86">
@@ -6537,7 +6538,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -6560,7 +6561,7 @@
         <v>30</v>
       </c>
       <c r="H87" t="str">
-        <f>CONCATENATE(A87, "_", F87, "_", G87)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I87">
@@ -6573,7 +6574,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -6596,7 +6597,7 @@
         <v>29</v>
       </c>
       <c r="H88" t="str">
-        <f>CONCATENATE(A88, "_", F88, "_", G88)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I88">
@@ -6609,7 +6610,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -6632,7 +6633,7 @@
         <v>29</v>
       </c>
       <c r="H89" t="str">
-        <f>CONCATENATE(A89, "_", F89, "_", G89)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I89">
@@ -6645,7 +6646,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -6668,7 +6669,7 @@
         <v>29</v>
       </c>
       <c r="H90" t="str">
-        <f>CONCATENATE(A90, "_", F90, "_", G90)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I90">
@@ -6681,7 +6682,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -6704,7 +6705,7 @@
         <v>29</v>
       </c>
       <c r="H91" t="str">
-        <f>CONCATENATE(A91, "_", F91, "_", G91)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I91">
@@ -6717,7 +6718,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -6740,7 +6741,7 @@
         <v>32</v>
       </c>
       <c r="H92" t="str">
-        <f>CONCATENATE(A92, "_", F92, "_", G92)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I92">
@@ -6753,7 +6754,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -6776,7 +6777,7 @@
         <v>32</v>
       </c>
       <c r="H93" t="str">
-        <f>CONCATENATE(A93, "_", F93, "_", G93)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I93">
@@ -6789,7 +6790,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -6812,7 +6813,7 @@
         <v>32</v>
       </c>
       <c r="H94" t="str">
-        <f>CONCATENATE(A94, "_", F94, "_", G94)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I94">
@@ -6825,7 +6826,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -6848,7 +6849,7 @@
         <v>32</v>
       </c>
       <c r="H95" t="str">
-        <f>CONCATENATE(A95, "_", F95, "_", G95)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I95">
@@ -6861,7 +6862,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -6884,7 +6885,7 @@
         <v>31</v>
       </c>
       <c r="H96" t="str">
-        <f>CONCATENATE(A96, "_", F96, "_", G96)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I96">
@@ -6897,7 +6898,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -6920,7 +6921,7 @@
         <v>31</v>
       </c>
       <c r="H97" t="str">
-        <f>CONCATENATE(A97, "_", F97, "_", G97)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I97">
@@ -6933,7 +6934,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -6956,7 +6957,7 @@
         <v>31</v>
       </c>
       <c r="H98" t="str">
-        <f>CONCATENATE(A98, "_", F98, "_", G98)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I98">
@@ -6969,7 +6970,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -6992,7 +6993,7 @@
         <v>31</v>
       </c>
       <c r="H99" t="str">
-        <f>CONCATENATE(A99, "_", F99, "_", G99)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I99">
@@ -7005,7 +7006,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -7028,7 +7029,7 @@
         <v>26</v>
       </c>
       <c r="H100" t="str">
-        <f>CONCATENATE(A100, "_", F100, "_", G100)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I100">
@@ -7041,7 +7042,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -7064,7 +7065,7 @@
         <v>26</v>
       </c>
       <c r="H101" t="str">
-        <f>CONCATENATE(A101, "_", F101, "_", G101)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I101">
@@ -7077,7 +7078,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -7100,7 +7101,7 @@
         <v>28</v>
       </c>
       <c r="H102" t="str">
-        <f>CONCATENATE(A102, "_", F102, "_", G102)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I102">
@@ -7113,7 +7114,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -7136,7 +7137,7 @@
         <v>28</v>
       </c>
       <c r="H103" t="str">
-        <f>CONCATENATE(A103, "_", F103, "_", G103)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I103">
@@ -7149,7 +7150,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -7172,7 +7173,7 @@
         <v>30</v>
       </c>
       <c r="H104" t="str">
-        <f>CONCATENATE(A104, "_", F104, "_", G104)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I104">
@@ -7185,7 +7186,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -7208,7 +7209,7 @@
         <v>30</v>
       </c>
       <c r="H105" t="str">
-        <f>CONCATENATE(A105, "_", F105, "_", G105)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I105">
@@ -7221,7 +7222,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -7244,7 +7245,7 @@
         <v>29</v>
       </c>
       <c r="H106" t="str">
-        <f>CONCATENATE(A106, "_", F106, "_", G106)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I106">
@@ -7257,7 +7258,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -7280,7 +7281,7 @@
         <v>29</v>
       </c>
       <c r="H107" t="str">
-        <f>CONCATENATE(A107, "_", F107, "_", G107)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I107">
@@ -7293,7 +7294,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -7316,7 +7317,7 @@
         <v>32</v>
       </c>
       <c r="H108" t="str">
-        <f>CONCATENATE(A108, "_", F108, "_", G108)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I108">
@@ -7329,7 +7330,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -7352,7 +7353,7 @@
         <v>32</v>
       </c>
       <c r="H109" t="str">
-        <f>CONCATENATE(A109, "_", F109, "_", G109)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I109">
@@ -7365,7 +7366,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -7388,7 +7389,7 @@
         <v>31</v>
       </c>
       <c r="H110" t="str">
-        <f>CONCATENATE(A110, "_", F110, "_", G110)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I110">
@@ -7401,7 +7402,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -7424,7 +7425,7 @@
         <v>31</v>
       </c>
       <c r="H111" t="str">
-        <f>CONCATENATE(A111, "_", F111, "_", G111)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I111">
@@ -7437,7 +7438,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>20</v>
       </c>
@@ -7460,7 +7461,7 @@
         <v>26</v>
       </c>
       <c r="H112" t="str">
-        <f>CONCATENATE(A112, "_", F112, "_", G112)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I112">
@@ -7473,7 +7474,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>20</v>
       </c>
@@ -7496,7 +7497,7 @@
         <v>26</v>
       </c>
       <c r="H113" t="str">
-        <f>CONCATENATE(A113, "_", F113, "_", G113)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I113">
@@ -7509,7 +7510,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -7532,7 +7533,7 @@
         <v>28</v>
       </c>
       <c r="H114" t="str">
-        <f>CONCATENATE(A114, "_", F114, "_", G114)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I114">
@@ -7545,7 +7546,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -7568,7 +7569,7 @@
         <v>30</v>
       </c>
       <c r="H115" t="str">
-        <f>CONCATENATE(A115, "_", F115, "_", G115)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I115">
@@ -7581,7 +7582,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -7604,7 +7605,7 @@
         <v>30</v>
       </c>
       <c r="H116" t="str">
-        <f>CONCATENATE(A116, "_", F116, "_", G116)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I116">
@@ -7617,7 +7618,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -7640,7 +7641,7 @@
         <v>29</v>
       </c>
       <c r="H117" t="str">
-        <f>CONCATENATE(A117, "_", F117, "_", G117)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I117">
@@ -7653,7 +7654,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -7676,7 +7677,7 @@
         <v>29</v>
       </c>
       <c r="H118" t="str">
-        <f>CONCATENATE(A118, "_", F118, "_", G118)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I118">
@@ -7689,7 +7690,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -7712,7 +7713,7 @@
         <v>32</v>
       </c>
       <c r="H119" t="str">
-        <f>CONCATENATE(A119, "_", F119, "_", G119)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I119">
@@ -7725,7 +7726,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -7748,7 +7749,7 @@
         <v>32</v>
       </c>
       <c r="H120" t="str">
-        <f>CONCATENATE(A120, "_", F120, "_", G120)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I120">
@@ -7761,7 +7762,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -7784,7 +7785,7 @@
         <v>31</v>
       </c>
       <c r="H121" t="str">
-        <f>CONCATENATE(A121, "_", F121, "_", G121)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I121">
@@ -7797,7 +7798,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -7820,7 +7821,7 @@
         <v>31</v>
       </c>
       <c r="H122" t="str">
-        <f>CONCATENATE(A122, "_", F122, "_", G122)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I122">
@@ -7833,7 +7834,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -7856,7 +7857,7 @@
         <v>28</v>
       </c>
       <c r="H123" t="str">
-        <f>CONCATENATE(A123, "_", F123, "_", G123)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I123">
@@ -7869,7 +7870,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -7892,7 +7893,7 @@
         <v>26</v>
       </c>
       <c r="H124" t="str">
-        <f>CONCATENATE(A124, "_", F124, "_", G124)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I124">
@@ -7905,7 +7906,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -7928,7 +7929,7 @@
         <v>26</v>
       </c>
       <c r="H125" t="str">
-        <f>CONCATENATE(A125, "_", F125, "_", G125)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I125">
@@ -7941,7 +7942,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -7964,7 +7965,7 @@
         <v>28</v>
       </c>
       <c r="H126" t="str">
-        <f>CONCATENATE(A126, "_", F126, "_", G126)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I126">
@@ -7977,7 +7978,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -8000,7 +8001,7 @@
         <v>28</v>
       </c>
       <c r="H127" t="str">
-        <f>CONCATENATE(A127, "_", F127, "_", G127)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I127">
@@ -8013,7 +8014,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>20</v>
       </c>
@@ -8036,7 +8037,7 @@
         <v>30</v>
       </c>
       <c r="H128" t="str">
-        <f>CONCATENATE(A128, "_", F128, "_", G128)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I128">
@@ -8049,7 +8050,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>20</v>
       </c>
@@ -8072,7 +8073,7 @@
         <v>30</v>
       </c>
       <c r="H129" t="str">
-        <f>CONCATENATE(A129, "_", F129, "_", G129)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I129">
@@ -8085,7 +8086,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -8108,7 +8109,7 @@
         <v>29</v>
       </c>
       <c r="H130" t="str">
-        <f>CONCATENATE(A130, "_", F130, "_", G130)</f>
+        <f t="shared" ref="H130:H193" si="2">CONCATENATE(A130, "_", F130, "_", G130)</f>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I130">
@@ -8121,7 +8122,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>20</v>
       </c>
@@ -8144,7 +8145,7 @@
         <v>29</v>
       </c>
       <c r="H131" t="str">
-        <f>CONCATENATE(A131, "_", F131, "_", G131)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I131">
@@ -8157,7 +8158,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>20</v>
       </c>
@@ -8180,7 +8181,7 @@
         <v>32</v>
       </c>
       <c r="H132" t="str">
-        <f>CONCATENATE(A132, "_", F132, "_", G132)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I132">
@@ -8193,7 +8194,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>20</v>
       </c>
@@ -8216,7 +8217,7 @@
         <v>32</v>
       </c>
       <c r="H133" t="str">
-        <f>CONCATENATE(A133, "_", F133, "_", G133)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I133">
@@ -8229,7 +8230,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -8252,7 +8253,7 @@
         <v>31</v>
       </c>
       <c r="H134" t="str">
-        <f>CONCATENATE(A134, "_", F134, "_", G134)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I134">
@@ -8265,7 +8266,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>20</v>
       </c>
@@ -8288,7 +8289,7 @@
         <v>31</v>
       </c>
       <c r="H135" t="str">
-        <f>CONCATENATE(A135, "_", F135, "_", G135)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I135">
@@ -8301,7 +8302,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>20</v>
       </c>
@@ -8324,7 +8325,7 @@
         <v>26</v>
       </c>
       <c r="H136" t="str">
-        <f>CONCATENATE(A136, "_", F136, "_", G136)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I136">
@@ -8337,7 +8338,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -8360,7 +8361,7 @@
         <v>26</v>
       </c>
       <c r="H137" t="str">
-        <f>CONCATENATE(A137, "_", F137, "_", G137)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I137">
@@ -8373,7 +8374,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>20</v>
       </c>
@@ -8396,7 +8397,7 @@
         <v>28</v>
       </c>
       <c r="H138" t="str">
-        <f>CONCATENATE(A138, "_", F138, "_", G138)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I138">
@@ -8409,7 +8410,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -8432,7 +8433,7 @@
         <v>28</v>
       </c>
       <c r="H139" t="str">
-        <f>CONCATENATE(A139, "_", F139, "_", G139)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I139">
@@ -8445,7 +8446,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>20</v>
       </c>
@@ -8468,7 +8469,7 @@
         <v>30</v>
       </c>
       <c r="H140" t="str">
-        <f>CONCATENATE(A140, "_", F140, "_", G140)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I140">
@@ -8481,7 +8482,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -8504,7 +8505,7 @@
         <v>30</v>
       </c>
       <c r="H141" t="str">
-        <f>CONCATENATE(A141, "_", F141, "_", G141)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I141">
@@ -8517,7 +8518,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>20</v>
       </c>
@@ -8540,7 +8541,7 @@
         <v>29</v>
       </c>
       <c r="H142" t="str">
-        <f>CONCATENATE(A142, "_", F142, "_", G142)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I142">
@@ -8553,7 +8554,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>20</v>
       </c>
@@ -8576,7 +8577,7 @@
         <v>29</v>
       </c>
       <c r="H143" t="str">
-        <f>CONCATENATE(A143, "_", F143, "_", G143)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I143">
@@ -8589,7 +8590,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>20</v>
       </c>
@@ -8612,7 +8613,7 @@
         <v>32</v>
       </c>
       <c r="H144" t="str">
-        <f>CONCATENATE(A144, "_", F144, "_", G144)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I144">
@@ -8625,7 +8626,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -8648,7 +8649,7 @@
         <v>32</v>
       </c>
       <c r="H145" t="str">
-        <f>CONCATENATE(A145, "_", F145, "_", G145)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I145">
@@ -8661,7 +8662,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -8684,7 +8685,7 @@
         <v>31</v>
       </c>
       <c r="H146" t="str">
-        <f>CONCATENATE(A146, "_", F146, "_", G146)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I146">
@@ -8697,7 +8698,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>20</v>
       </c>
@@ -8720,7 +8721,7 @@
         <v>31</v>
       </c>
       <c r="H147" t="str">
-        <f>CONCATENATE(A147, "_", F147, "_", G147)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I147">
@@ -8733,7 +8734,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>20</v>
       </c>
@@ -8756,7 +8757,7 @@
         <v>26</v>
       </c>
       <c r="H148" t="str">
-        <f>CONCATENATE(A148, "_", F148, "_", G148)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I148">
@@ -8769,7 +8770,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>20</v>
       </c>
@@ -8792,7 +8793,7 @@
         <v>26</v>
       </c>
       <c r="H149" t="str">
-        <f>CONCATENATE(A149, "_", F149, "_", G149)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I149">
@@ -8805,7 +8806,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -8828,7 +8829,7 @@
         <v>26</v>
       </c>
       <c r="H150" t="str">
-        <f>CONCATENATE(A150, "_", F150, "_", G150)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I150">
@@ -8841,7 +8842,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>20</v>
       </c>
@@ -8864,7 +8865,7 @@
         <v>26</v>
       </c>
       <c r="H151" t="str">
-        <f>CONCATENATE(A151, "_", F151, "_", G151)</f>
+        <f t="shared" si="2"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I151">
@@ -8877,7 +8878,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>21</v>
       </c>
@@ -8897,7 +8898,7 @@
         <v>26</v>
       </c>
       <c r="H152" t="str">
-        <f>CONCATENATE(A152, "_", F152, "_", G152)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I152">
@@ -8910,7 +8911,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>21</v>
       </c>
@@ -8930,7 +8931,7 @@
         <v>26</v>
       </c>
       <c r="H153" t="str">
-        <f>CONCATENATE(A153, "_", F153, "_", G153)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I153">
@@ -8943,7 +8944,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>21</v>
       </c>
@@ -8963,7 +8964,7 @@
         <v>28</v>
       </c>
       <c r="H154" t="str">
-        <f>CONCATENATE(A154, "_", F154, "_", G154)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I154">
@@ -8976,7 +8977,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>21</v>
       </c>
@@ -8996,7 +8997,7 @@
         <v>28</v>
       </c>
       <c r="H155" t="str">
-        <f>CONCATENATE(A155, "_", F155, "_", G155)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I155">
@@ -9009,7 +9010,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>21</v>
       </c>
@@ -9029,7 +9030,7 @@
         <v>30</v>
       </c>
       <c r="H156" t="str">
-        <f>CONCATENATE(A156, "_", F156, "_", G156)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I156">
@@ -9042,7 +9043,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>21</v>
       </c>
@@ -9062,7 +9063,7 @@
         <v>30</v>
       </c>
       <c r="H157" t="str">
-        <f>CONCATENATE(A157, "_", F157, "_", G157)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I157">
@@ -9075,7 +9076,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>21</v>
       </c>
@@ -9095,7 +9096,7 @@
         <v>29</v>
       </c>
       <c r="H158" t="str">
-        <f>CONCATENATE(A158, "_", F158, "_", G158)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I158">
@@ -9108,7 +9109,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>21</v>
       </c>
@@ -9128,7 +9129,7 @@
         <v>29</v>
       </c>
       <c r="H159" t="str">
-        <f>CONCATENATE(A159, "_", F159, "_", G159)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I159">
@@ -9141,7 +9142,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>21</v>
       </c>
@@ -9161,7 +9162,7 @@
         <v>32</v>
       </c>
       <c r="H160" t="str">
-        <f>CONCATENATE(A160, "_", F160, "_", G160)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I160">
@@ -9174,7 +9175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>21</v>
       </c>
@@ -9194,7 +9195,7 @@
         <v>32</v>
       </c>
       <c r="H161" t="str">
-        <f>CONCATENATE(A161, "_", F161, "_", G161)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I161">
@@ -9207,7 +9208,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>21</v>
       </c>
@@ -9227,7 +9228,7 @@
         <v>31</v>
       </c>
       <c r="H162" t="str">
-        <f>CONCATENATE(A162, "_", F162, "_", G162)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I162">
@@ -9240,7 +9241,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>21</v>
       </c>
@@ -9260,7 +9261,7 @@
         <v>31</v>
       </c>
       <c r="H163" t="str">
-        <f>CONCATENATE(A163, "_", F163, "_", G163)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I163">
@@ -9273,7 +9274,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>21</v>
       </c>
@@ -9293,7 +9294,7 @@
         <v>28</v>
       </c>
       <c r="H164" t="str">
-        <f>CONCATENATE(A164, "_", F164, "_", G164)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I164">
@@ -9306,7 +9307,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>21</v>
       </c>
@@ -9326,7 +9327,7 @@
         <v>28</v>
       </c>
       <c r="H165" t="str">
-        <f>CONCATENATE(A165, "_", F165, "_", G165)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I165">
@@ -9339,7 +9340,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -9359,7 +9360,7 @@
         <v>28</v>
       </c>
       <c r="H166" t="str">
-        <f>CONCATENATE(A166, "_", F166, "_", G166)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I166">
@@ -9372,7 +9373,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>21</v>
       </c>
@@ -9392,7 +9393,7 @@
         <v>28</v>
       </c>
       <c r="H167" t="str">
-        <f>CONCATENATE(A167, "_", F167, "_", G167)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I167">
@@ -9405,7 +9406,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>21</v>
       </c>
@@ -9425,7 +9426,7 @@
         <v>30</v>
       </c>
       <c r="H168" t="str">
-        <f>CONCATENATE(A168, "_", F168, "_", G168)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I168">
@@ -9438,7 +9439,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>21</v>
       </c>
@@ -9458,7 +9459,7 @@
         <v>30</v>
       </c>
       <c r="H169" t="str">
-        <f>CONCATENATE(A169, "_", F169, "_", G169)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I169">
@@ -9471,7 +9472,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>21</v>
       </c>
@@ -9491,7 +9492,7 @@
         <v>30</v>
       </c>
       <c r="H170" t="str">
-        <f>CONCATENATE(A170, "_", F170, "_", G170)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I170">
@@ -9504,7 +9505,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>21</v>
       </c>
@@ -9524,7 +9525,7 @@
         <v>30</v>
       </c>
       <c r="H171" t="str">
-        <f>CONCATENATE(A171, "_", F171, "_", G171)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I171">
@@ -9537,7 +9538,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>21</v>
       </c>
@@ -9557,7 +9558,7 @@
         <v>29</v>
       </c>
       <c r="H172" t="str">
-        <f>CONCATENATE(A172, "_", F172, "_", G172)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I172">
@@ -9570,7 +9571,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>21</v>
       </c>
@@ -9590,7 +9591,7 @@
         <v>29</v>
       </c>
       <c r="H173" t="str">
-        <f>CONCATENATE(A173, "_", F173, "_", G173)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I173">
@@ -9603,7 +9604,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>21</v>
       </c>
@@ -9623,7 +9624,7 @@
         <v>29</v>
       </c>
       <c r="H174" t="str">
-        <f>CONCATENATE(A174, "_", F174, "_", G174)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I174">
@@ -9636,7 +9637,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>21</v>
       </c>
@@ -9656,7 +9657,7 @@
         <v>29</v>
       </c>
       <c r="H175" t="str">
-        <f>CONCATENATE(A175, "_", F175, "_", G175)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I175">
@@ -9669,7 +9670,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>21</v>
       </c>
@@ -9689,7 +9690,7 @@
         <v>32</v>
       </c>
       <c r="H176" t="str">
-        <f>CONCATENATE(A176, "_", F176, "_", G176)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I176">
@@ -9702,7 +9703,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>21</v>
       </c>
@@ -9722,7 +9723,7 @@
         <v>32</v>
       </c>
       <c r="H177" t="str">
-        <f>CONCATENATE(A177, "_", F177, "_", G177)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I177">
@@ -9735,7 +9736,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>21</v>
       </c>
@@ -9755,7 +9756,7 @@
         <v>32</v>
       </c>
       <c r="H178" t="str">
-        <f>CONCATENATE(A178, "_", F178, "_", G178)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I178">
@@ -9768,7 +9769,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>21</v>
       </c>
@@ -9788,7 +9789,7 @@
         <v>32</v>
       </c>
       <c r="H179" t="str">
-        <f>CONCATENATE(A179, "_", F179, "_", G179)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I179">
@@ -9801,7 +9802,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>21</v>
       </c>
@@ -9821,7 +9822,7 @@
         <v>31</v>
       </c>
       <c r="H180" t="str">
-        <f>CONCATENATE(A180, "_", F180, "_", G180)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I180">
@@ -9834,7 +9835,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>21</v>
       </c>
@@ -9854,7 +9855,7 @@
         <v>31</v>
       </c>
       <c r="H181" t="str">
-        <f>CONCATENATE(A181, "_", F181, "_", G181)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I181">
@@ -9867,7 +9868,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>21</v>
       </c>
@@ -9887,7 +9888,7 @@
         <v>31</v>
       </c>
       <c r="H182" t="str">
-        <f>CONCATENATE(A182, "_", F182, "_", G182)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I182">
@@ -9900,7 +9901,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>21</v>
       </c>
@@ -9920,7 +9921,7 @@
         <v>31</v>
       </c>
       <c r="H183" t="str">
-        <f>CONCATENATE(A183, "_", F183, "_", G183)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I183">
@@ -9933,7 +9934,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>21</v>
       </c>
@@ -9953,7 +9954,7 @@
         <v>26</v>
       </c>
       <c r="H184" t="str">
-        <f>CONCATENATE(A184, "_", F184, "_", G184)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I184">
@@ -9966,7 +9967,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -9986,7 +9987,7 @@
         <v>26</v>
       </c>
       <c r="H185" t="str">
-        <f>CONCATENATE(A185, "_", F185, "_", G185)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I185">
@@ -9999,7 +10000,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>21</v>
       </c>
@@ -10019,7 +10020,7 @@
         <v>28</v>
       </c>
       <c r="H186" t="str">
-        <f>CONCATENATE(A186, "_", F186, "_", G186)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I186">
@@ -10032,7 +10033,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>21</v>
       </c>
@@ -10052,7 +10053,7 @@
         <v>28</v>
       </c>
       <c r="H187" t="str">
-        <f>CONCATENATE(A187, "_", F187, "_", G187)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I187">
@@ -10065,7 +10066,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>21</v>
       </c>
@@ -10085,7 +10086,7 @@
         <v>30</v>
       </c>
       <c r="H188" t="str">
-        <f>CONCATENATE(A188, "_", F188, "_", G188)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I188">
@@ -10098,7 +10099,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -10118,7 +10119,7 @@
         <v>30</v>
       </c>
       <c r="H189" t="str">
-        <f>CONCATENATE(A189, "_", F189, "_", G189)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I189">
@@ -10131,7 +10132,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -10151,7 +10152,7 @@
         <v>29</v>
       </c>
       <c r="H190" t="str">
-        <f>CONCATENATE(A190, "_", F190, "_", G190)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I190">
@@ -10164,7 +10165,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -10184,7 +10185,7 @@
         <v>29</v>
       </c>
       <c r="H191" t="str">
-        <f>CONCATENATE(A191, "_", F191, "_", G191)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I191">
@@ -10197,7 +10198,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -10217,7 +10218,7 @@
         <v>32</v>
       </c>
       <c r="H192" t="str">
-        <f>CONCATENATE(A192, "_", F192, "_", G192)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I192">
@@ -10230,7 +10231,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -10250,7 +10251,7 @@
         <v>32</v>
       </c>
       <c r="H193" t="str">
-        <f>CONCATENATE(A193, "_", F193, "_", G193)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I193">
@@ -10263,7 +10264,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -10283,7 +10284,7 @@
         <v>31</v>
       </c>
       <c r="H194" t="str">
-        <f>CONCATENATE(A194, "_", F194, "_", G194)</f>
+        <f t="shared" ref="H194:H257" si="3">CONCATENATE(A194, "_", F194, "_", G194)</f>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I194">
@@ -10296,7 +10297,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -10316,7 +10317,7 @@
         <v>31</v>
       </c>
       <c r="H195" t="str">
-        <f>CONCATENATE(A195, "_", F195, "_", G195)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I195">
@@ -10329,7 +10330,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>21</v>
       </c>
@@ -10349,7 +10350,7 @@
         <v>26</v>
       </c>
       <c r="H196" t="str">
-        <f>CONCATENATE(A196, "_", F196, "_", G196)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I196">
@@ -10362,7 +10363,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>21</v>
       </c>
@@ -10382,7 +10383,7 @@
         <v>26</v>
       </c>
       <c r="H197" t="str">
-        <f>CONCATENATE(A197, "_", F197, "_", G197)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I197">
@@ -10395,7 +10396,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -10415,7 +10416,7 @@
         <v>28</v>
       </c>
       <c r="H198" t="str">
-        <f>CONCATENATE(A198, "_", F198, "_", G198)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I198">
@@ -10428,7 +10429,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>21</v>
       </c>
@@ -10448,7 +10449,7 @@
         <v>28</v>
       </c>
       <c r="H199" t="str">
-        <f>CONCATENATE(A199, "_", F199, "_", G199)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I199">
@@ -10461,7 +10462,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>21</v>
       </c>
@@ -10481,7 +10482,7 @@
         <v>30</v>
       </c>
       <c r="H200" t="str">
-        <f>CONCATENATE(A200, "_", F200, "_", G200)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I200">
@@ -10494,7 +10495,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>21</v>
       </c>
@@ -10514,7 +10515,7 @@
         <v>30</v>
       </c>
       <c r="H201" t="str">
-        <f>CONCATENATE(A201, "_", F201, "_", G201)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I201">
@@ -10527,7 +10528,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>21</v>
       </c>
@@ -10547,7 +10548,7 @@
         <v>29</v>
       </c>
       <c r="H202" t="str">
-        <f>CONCATENATE(A202, "_", F202, "_", G202)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I202">
@@ -10560,7 +10561,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>21</v>
       </c>
@@ -10580,7 +10581,7 @@
         <v>29</v>
       </c>
       <c r="H203" t="str">
-        <f>CONCATENATE(A203, "_", F203, "_", G203)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I203">
@@ -10593,7 +10594,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>21</v>
       </c>
@@ -10613,7 +10614,7 @@
         <v>32</v>
       </c>
       <c r="H204" t="str">
-        <f>CONCATENATE(A204, "_", F204, "_", G204)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I204">
@@ -10626,7 +10627,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>21</v>
       </c>
@@ -10646,7 +10647,7 @@
         <v>32</v>
       </c>
       <c r="H205" t="str">
-        <f>CONCATENATE(A205, "_", F205, "_", G205)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I205">
@@ -10659,7 +10660,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>21</v>
       </c>
@@ -10679,7 +10680,7 @@
         <v>31</v>
       </c>
       <c r="H206" t="str">
-        <f>CONCATENATE(A206, "_", F206, "_", G206)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I206">
@@ -10692,7 +10693,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>21</v>
       </c>
@@ -10712,7 +10713,7 @@
         <v>31</v>
       </c>
       <c r="H207" t="str">
-        <f>CONCATENATE(A207, "_", F207, "_", G207)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I207">
@@ -10725,7 +10726,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>21</v>
       </c>
@@ -10745,7 +10746,7 @@
         <v>26</v>
       </c>
       <c r="H208" t="str">
-        <f>CONCATENATE(A208, "_", F208, "_", G208)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I208">
@@ -10758,7 +10759,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>21</v>
       </c>
@@ -10778,7 +10779,7 @@
         <v>26</v>
       </c>
       <c r="H209" t="str">
-        <f>CONCATENATE(A209, "_", F209, "_", G209)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I209">
@@ -10791,7 +10792,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>21</v>
       </c>
@@ -10811,7 +10812,7 @@
         <v>28</v>
       </c>
       <c r="H210" t="str">
-        <f>CONCATENATE(A210, "_", F210, "_", G210)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I210">
@@ -10824,7 +10825,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>21</v>
       </c>
@@ -10844,7 +10845,7 @@
         <v>28</v>
       </c>
       <c r="H211" t="str">
-        <f>CONCATENATE(A211, "_", F211, "_", G211)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I211">
@@ -10857,7 +10858,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>21</v>
       </c>
@@ -10877,7 +10878,7 @@
         <v>30</v>
       </c>
       <c r="H212" t="str">
-        <f>CONCATENATE(A212, "_", F212, "_", G212)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I212">
@@ -10890,7 +10891,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>21</v>
       </c>
@@ -10910,7 +10911,7 @@
         <v>30</v>
       </c>
       <c r="H213" t="str">
-        <f>CONCATENATE(A213, "_", F213, "_", G213)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I213">
@@ -10923,7 +10924,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>21</v>
       </c>
@@ -10943,7 +10944,7 @@
         <v>29</v>
       </c>
       <c r="H214" t="str">
-        <f>CONCATENATE(A214, "_", F214, "_", G214)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I214">
@@ -10956,7 +10957,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>21</v>
       </c>
@@ -10976,7 +10977,7 @@
         <v>29</v>
       </c>
       <c r="H215" t="str">
-        <f>CONCATENATE(A215, "_", F215, "_", G215)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I215">
@@ -10989,7 +10990,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>21</v>
       </c>
@@ -11009,7 +11010,7 @@
         <v>32</v>
       </c>
       <c r="H216" t="str">
-        <f>CONCATENATE(A216, "_", F216, "_", G216)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I216">
@@ -11022,7 +11023,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>21</v>
       </c>
@@ -11042,7 +11043,7 @@
         <v>32</v>
       </c>
       <c r="H217" t="str">
-        <f>CONCATENATE(A217, "_", F217, "_", G217)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I217">
@@ -11055,7 +11056,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>21</v>
       </c>
@@ -11075,7 +11076,7 @@
         <v>31</v>
       </c>
       <c r="H218" t="str">
-        <f>CONCATENATE(A218, "_", F218, "_", G218)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I218">
@@ -11088,7 +11089,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>21</v>
       </c>
@@ -11108,7 +11109,7 @@
         <v>31</v>
       </c>
       <c r="H219" t="str">
-        <f>CONCATENATE(A219, "_", F219, "_", G219)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I219">
@@ -11121,7 +11122,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>21</v>
       </c>
@@ -11141,7 +11142,7 @@
         <v>26</v>
       </c>
       <c r="H220" t="str">
-        <f>CONCATENATE(A220, "_", F220, "_", G220)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I220">
@@ -11154,7 +11155,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>21</v>
       </c>
@@ -11174,7 +11175,7 @@
         <v>26</v>
       </c>
       <c r="H221" t="str">
-        <f>CONCATENATE(A221, "_", F221, "_", G221)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I221">
@@ -11187,7 +11188,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>21</v>
       </c>
@@ -11207,7 +11208,7 @@
         <v>28</v>
       </c>
       <c r="H222" t="str">
-        <f>CONCATENATE(A222, "_", F222, "_", G222)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I222">
@@ -11220,7 +11221,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>21</v>
       </c>
@@ -11240,7 +11241,7 @@
         <v>28</v>
       </c>
       <c r="H223" t="str">
-        <f>CONCATENATE(A223, "_", F223, "_", G223)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I223">
@@ -11253,7 +11254,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>21</v>
       </c>
@@ -11273,7 +11274,7 @@
         <v>30</v>
       </c>
       <c r="H224" t="str">
-        <f>CONCATENATE(A224, "_", F224, "_", G224)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I224">
@@ -11286,7 +11287,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>21</v>
       </c>
@@ -11306,7 +11307,7 @@
         <v>30</v>
       </c>
       <c r="H225" t="str">
-        <f>CONCATENATE(A225, "_", F225, "_", G225)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I225">
@@ -11319,7 +11320,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>21</v>
       </c>
@@ -11339,7 +11340,7 @@
         <v>29</v>
       </c>
       <c r="H226" t="str">
-        <f>CONCATENATE(A226, "_", F226, "_", G226)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I226">
@@ -11352,7 +11353,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>21</v>
       </c>
@@ -11372,7 +11373,7 @@
         <v>29</v>
       </c>
       <c r="H227" t="str">
-        <f>CONCATENATE(A227, "_", F227, "_", G227)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I227">
@@ -11385,7 +11386,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>21</v>
       </c>
@@ -11405,7 +11406,7 @@
         <v>32</v>
       </c>
       <c r="H228" t="str">
-        <f>CONCATENATE(A228, "_", F228, "_", G228)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I228">
@@ -11418,7 +11419,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>21</v>
       </c>
@@ -11438,7 +11439,7 @@
         <v>32</v>
       </c>
       <c r="H229" t="str">
-        <f>CONCATENATE(A229, "_", F229, "_", G229)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I229">
@@ -11451,7 +11452,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>21</v>
       </c>
@@ -11471,7 +11472,7 @@
         <v>31</v>
       </c>
       <c r="H230" t="str">
-        <f>CONCATENATE(A230, "_", F230, "_", G230)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I230">
@@ -11484,7 +11485,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>21</v>
       </c>
@@ -11504,7 +11505,7 @@
         <v>31</v>
       </c>
       <c r="H231" t="str">
-        <f>CONCATENATE(A231, "_", F231, "_", G231)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I231">
@@ -11517,7 +11518,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>21</v>
       </c>
@@ -11537,7 +11538,7 @@
         <v>26</v>
       </c>
       <c r="H232" t="str">
-        <f>CONCATENATE(A232, "_", F232, "_", G232)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I232">
@@ -11550,7 +11551,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>21</v>
       </c>
@@ -11570,7 +11571,7 @@
         <v>26</v>
       </c>
       <c r="H233" t="str">
-        <f>CONCATENATE(A233, "_", F233, "_", G233)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I233">
@@ -11583,7 +11584,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>21</v>
       </c>
@@ -11603,7 +11604,7 @@
         <v>26</v>
       </c>
       <c r="H234" t="str">
-        <f>CONCATENATE(A234, "_", F234, "_", G234)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I234">
@@ -11616,7 +11617,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>21</v>
       </c>
@@ -11636,7 +11637,7 @@
         <v>26</v>
       </c>
       <c r="H235" t="str">
-        <f>CONCATENATE(A235, "_", F235, "_", G235)</f>
+        <f t="shared" si="3"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I235">
@@ -11649,7 +11650,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>17</v>
       </c>
@@ -11672,7 +11673,7 @@
         <v>26</v>
       </c>
       <c r="H236" t="str">
-        <f>CONCATENATE(A236, "_", F236, "_", G236)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I236">
@@ -11685,7 +11686,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -11708,7 +11709,7 @@
         <v>26</v>
       </c>
       <c r="H237" t="str">
-        <f>CONCATENATE(A237, "_", F237, "_", G237)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I237">
@@ -11721,7 +11722,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -11744,7 +11745,7 @@
         <v>26</v>
       </c>
       <c r="H238" t="str">
-        <f>CONCATENATE(A238, "_", F238, "_", G238)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I238">
@@ -11757,7 +11758,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>17</v>
       </c>
@@ -11780,7 +11781,7 @@
         <v>26</v>
       </c>
       <c r="H239" t="str">
-        <f>CONCATENATE(A239, "_", F239, "_", G239)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I239">
@@ -11793,7 +11794,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>17</v>
       </c>
@@ -11816,7 +11817,7 @@
         <v>26</v>
       </c>
       <c r="H240" t="str">
-        <f>CONCATENATE(A240, "_", F240, "_", G240)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I240">
@@ -11829,7 +11830,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>17</v>
       </c>
@@ -11852,7 +11853,7 @@
         <v>26</v>
       </c>
       <c r="H241" t="str">
-        <f>CONCATENATE(A241, "_", F241, "_", G241)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I241">
@@ -11865,7 +11866,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>17</v>
       </c>
@@ -11888,7 +11889,7 @@
         <v>26</v>
       </c>
       <c r="H242" t="str">
-        <f>CONCATENATE(A242, "_", F242, "_", G242)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I242">
@@ -11901,7 +11902,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>17</v>
       </c>
@@ -11924,7 +11925,7 @@
         <v>26</v>
       </c>
       <c r="H243" t="str">
-        <f>CONCATENATE(A243, "_", F243, "_", G243)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I243">
@@ -11937,7 +11938,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>17</v>
       </c>
@@ -11960,7 +11961,7 @@
         <v>26</v>
       </c>
       <c r="H244" t="str">
-        <f>CONCATENATE(A244, "_", F244, "_", G244)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I244">
@@ -11973,7 +11974,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -11996,7 +11997,7 @@
         <v>26</v>
       </c>
       <c r="H245" t="str">
-        <f>CONCATENATE(A245, "_", F245, "_", G245)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I245">
@@ -12009,7 +12010,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>18</v>
       </c>
@@ -12032,7 +12033,7 @@
         <v>26</v>
       </c>
       <c r="H246" t="str">
-        <f>CONCATENATE(A246, "_", F246, "_", G246)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I246">
@@ -12045,7 +12046,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>18</v>
       </c>
@@ -12068,7 +12069,7 @@
         <v>26</v>
       </c>
       <c r="H247" t="str">
-        <f>CONCATENATE(A247, "_", F247, "_", G247)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I247">
@@ -12081,7 +12082,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>18</v>
       </c>
@@ -12104,7 +12105,7 @@
         <v>26</v>
       </c>
       <c r="H248" t="str">
-        <f>CONCATENATE(A248, "_", F248, "_", G248)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I248">
@@ -12117,7 +12118,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>18</v>
       </c>
@@ -12140,7 +12141,7 @@
         <v>26</v>
       </c>
       <c r="H249" t="str">
-        <f>CONCATENATE(A249, "_", F249, "_", G249)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I249">
@@ -12153,7 +12154,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>18</v>
       </c>
@@ -12176,7 +12177,7 @@
         <v>26</v>
       </c>
       <c r="H250" t="str">
-        <f>CONCATENATE(A250, "_", F250, "_", G250)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I250">
@@ -12189,7 +12190,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>18</v>
       </c>
@@ -12212,7 +12213,7 @@
         <v>26</v>
       </c>
       <c r="H251" t="str">
-        <f>CONCATENATE(A251, "_", F251, "_", G251)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I251">
@@ -12225,7 +12226,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>18</v>
       </c>
@@ -12248,7 +12249,7 @@
         <v>26</v>
       </c>
       <c r="H252" t="str">
-        <f>CONCATENATE(A252, "_", F252, "_", G252)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I252">
@@ -12261,7 +12262,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>18</v>
       </c>
@@ -12284,7 +12285,7 @@
         <v>26</v>
       </c>
       <c r="H253" t="str">
-        <f>CONCATENATE(A253, "_", F253, "_", G253)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I253">
@@ -12297,7 +12298,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>18</v>
       </c>
@@ -12320,7 +12321,7 @@
         <v>26</v>
       </c>
       <c r="H254" t="str">
-        <f>CONCATENATE(A254, "_", F254, "_", G254)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I254">
@@ -12333,7 +12334,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>18</v>
       </c>
@@ -12356,7 +12357,7 @@
         <v>26</v>
       </c>
       <c r="H255" t="str">
-        <f>CONCATENATE(A255, "_", F255, "_", G255)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I255">
@@ -12369,7 +12370,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>27</v>
       </c>
@@ -12383,7 +12384,7 @@
         <v>26</v>
       </c>
       <c r="H256" t="str">
-        <f>CONCATENATE(A256, "_", F256, "_", G256)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I256">
@@ -12396,7 +12397,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>27</v>
       </c>
@@ -12410,7 +12411,7 @@
         <v>26</v>
       </c>
       <c r="H257" t="str">
-        <f>CONCATENATE(A257, "_", F257, "_", G257)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I257">
@@ -12423,7 +12424,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>27</v>
       </c>
@@ -12437,7 +12438,7 @@
         <v>26</v>
       </c>
       <c r="H258" t="str">
-        <f>CONCATENATE(A258, "_", F258, "_", G258)</f>
+        <f t="shared" ref="H258:H321" si="4">CONCATENATE(A258, "_", F258, "_", G258)</f>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I258">
@@ -12450,7 +12451,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>27</v>
       </c>
@@ -12464,7 +12465,7 @@
         <v>26</v>
       </c>
       <c r="H259" t="str">
-        <f>CONCATENATE(A259, "_", F259, "_", G259)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I259">
@@ -12477,7 +12478,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>27</v>
       </c>
@@ -12491,7 +12492,7 @@
         <v>26</v>
       </c>
       <c r="H260" t="str">
-        <f>CONCATENATE(A260, "_", F260, "_", G260)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I260">
@@ -12504,7 +12505,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>27</v>
       </c>
@@ -12518,7 +12519,7 @@
         <v>26</v>
       </c>
       <c r="H261" t="str">
-        <f>CONCATENATE(A261, "_", F261, "_", G261)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I261">
@@ -12531,7 +12532,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>27</v>
       </c>
@@ -12545,7 +12546,7 @@
         <v>26</v>
       </c>
       <c r="H262" t="str">
-        <f>CONCATENATE(A262, "_", F262, "_", G262)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I262">
@@ -12558,7 +12559,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>27</v>
       </c>
@@ -12572,7 +12573,7 @@
         <v>26</v>
       </c>
       <c r="H263" t="str">
-        <f>CONCATENATE(A263, "_", F263, "_", G263)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I263">
@@ -12585,7 +12586,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>27</v>
       </c>
@@ -12599,7 +12600,7 @@
         <v>26</v>
       </c>
       <c r="H264" t="str">
-        <f>CONCATENATE(A264, "_", F264, "_", G264)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I264">
@@ -12612,7 +12613,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>27</v>
       </c>
@@ -12626,7 +12627,7 @@
         <v>26</v>
       </c>
       <c r="H265" t="str">
-        <f>CONCATENATE(A265, "_", F265, "_", G265)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I265">
@@ -12639,7 +12640,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>27</v>
       </c>
@@ -12653,7 +12654,7 @@
         <v>26</v>
       </c>
       <c r="H266" t="str">
-        <f>CONCATENATE(A266, "_", F266, "_", G266)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I266">
@@ -12666,7 +12667,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>27</v>
       </c>
@@ -12680,7 +12681,7 @@
         <v>26</v>
       </c>
       <c r="H267" t="str">
-        <f>CONCATENATE(A267, "_", F267, "_", G267)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I267">
@@ -12693,7 +12694,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>27</v>
       </c>
@@ -12707,7 +12708,7 @@
         <v>26</v>
       </c>
       <c r="H268" t="str">
-        <f>CONCATENATE(A268, "_", F268, "_", G268)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I268">
@@ -12720,7 +12721,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>27</v>
       </c>
@@ -12734,7 +12735,7 @@
         <v>26</v>
       </c>
       <c r="H269" t="str">
-        <f>CONCATENATE(A269, "_", F269, "_", G269)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I269">
@@ -12747,7 +12748,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>27</v>
       </c>
@@ -12761,7 +12762,7 @@
         <v>26</v>
       </c>
       <c r="H270" t="str">
-        <f>CONCATENATE(A270, "_", F270, "_", G270)</f>
+        <f t="shared" si="4"/>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I270">
@@ -12774,7 +12775,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>537</v>
       </c>
@@ -12788,7 +12789,7 @@
         <v>541</v>
       </c>
       <c r="H271" t="str">
-        <f>CONCATENATE(A271, "_", F271, "_", G271)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR1_2D</v>
       </c>
       <c r="I271">
@@ -12801,7 +12802,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>537</v>
       </c>
@@ -12815,7 +12816,7 @@
         <v>541</v>
       </c>
       <c r="H272" t="str">
-        <f>CONCATENATE(A272, "_", F272, "_", G272)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR2_2D</v>
       </c>
       <c r="I272">
@@ -12828,7 +12829,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>537</v>
       </c>
@@ -12842,7 +12843,7 @@
         <v>542</v>
       </c>
       <c r="H273" t="str">
-        <f>CONCATENATE(A273, "_", F273, "_", G273)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR1_3D</v>
       </c>
       <c r="I273">
@@ -12855,7 +12856,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>537</v>
       </c>
@@ -12869,7 +12870,7 @@
         <v>542</v>
       </c>
       <c r="H274" t="str">
-        <f>CONCATENATE(A274, "_", F274, "_", G274)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR2_3D</v>
       </c>
       <c r="I274">
@@ -12882,7 +12883,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>537</v>
       </c>
@@ -12896,20 +12897,20 @@
         <v>541</v>
       </c>
       <c r="H275" t="str">
-        <f>CONCATENATE(A275, "_", F275, "_", G275)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR1_2D</v>
       </c>
       <c r="I275">
         <v>4</v>
       </c>
       <c r="J275" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
       <c r="K275" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>537</v>
       </c>
@@ -12923,20 +12924,20 @@
         <v>541</v>
       </c>
       <c r="H276" t="str">
-        <f>CONCATENATE(A276, "_", F276, "_", G276)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR2_2D</v>
       </c>
       <c r="I276">
         <v>4</v>
       </c>
       <c r="J276" t="s">
-        <v>865</v>
+        <v>845</v>
       </c>
       <c r="K276" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>537</v>
       </c>
@@ -12950,20 +12951,20 @@
         <v>542</v>
       </c>
       <c r="H277" t="str">
-        <f>CONCATENATE(A277, "_", F277, "_", G277)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR1_3D</v>
       </c>
       <c r="I277">
         <v>4</v>
       </c>
       <c r="J277" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
       <c r="K277" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>537</v>
       </c>
@@ -12977,20 +12978,20 @@
         <v>542</v>
       </c>
       <c r="H278" t="str">
-        <f>CONCATENATE(A278, "_", F278, "_", G278)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR2_3D</v>
       </c>
       <c r="I278">
         <v>4</v>
       </c>
       <c r="J278" t="s">
-        <v>873</v>
+        <v>853</v>
       </c>
       <c r="K278" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>537</v>
       </c>
@@ -13004,20 +13005,20 @@
         <v>541</v>
       </c>
       <c r="H279" t="str">
-        <f>CONCATENATE(A279, "_", F279, "_", G279)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR1_2D</v>
       </c>
       <c r="I279">
         <v>4</v>
       </c>
       <c r="J279" t="s">
-        <v>866</v>
+        <v>846</v>
       </c>
       <c r="K279" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>537</v>
       </c>
@@ -13031,20 +13032,20 @@
         <v>541</v>
       </c>
       <c r="H280" t="str">
-        <f>CONCATENATE(A280, "_", F280, "_", G280)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR2_2D</v>
       </c>
       <c r="I280">
         <v>4</v>
       </c>
       <c r="J280" t="s">
-        <v>867</v>
+        <v>847</v>
       </c>
       <c r="K280" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>537</v>
       </c>
@@ -13058,20 +13059,20 @@
         <v>542</v>
       </c>
       <c r="H281" t="str">
-        <f>CONCATENATE(A281, "_", F281, "_", G281)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR1_3D</v>
       </c>
       <c r="I281">
         <v>4</v>
       </c>
       <c r="J281" t="s">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="K281" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>537</v>
       </c>
@@ -13085,20 +13086,20 @@
         <v>542</v>
       </c>
       <c r="H282" t="str">
-        <f>CONCATENATE(A282, "_", F282, "_", G282)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR2_3D</v>
       </c>
       <c r="I282">
         <v>4</v>
       </c>
       <c r="J282" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
       <c r="K282" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>537</v>
       </c>
@@ -13112,20 +13113,20 @@
         <v>541</v>
       </c>
       <c r="H283" t="str">
-        <f>CONCATENATE(A283, "_", F283, "_", G283)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR1_2D</v>
       </c>
       <c r="I283">
         <v>4</v>
       </c>
       <c r="J283" t="s">
-        <v>868</v>
+        <v>848</v>
       </c>
       <c r="K283" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>537</v>
       </c>
@@ -13139,20 +13140,20 @@
         <v>541</v>
       </c>
       <c r="H284" t="str">
-        <f>CONCATENATE(A284, "_", F284, "_", G284)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR2_2D</v>
       </c>
       <c r="I284">
         <v>4</v>
       </c>
       <c r="J284" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="K284" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>537</v>
       </c>
@@ -13166,20 +13167,20 @@
         <v>542</v>
       </c>
       <c r="H285" t="str">
-        <f>CONCATENATE(A285, "_", F285, "_", G285)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR1_3D</v>
       </c>
       <c r="I285">
         <v>4</v>
       </c>
       <c r="J285" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
       <c r="K285" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>537</v>
       </c>
@@ -13193,20 +13194,20 @@
         <v>542</v>
       </c>
       <c r="H286" t="str">
-        <f>CONCATENATE(A286, "_", F286, "_", G286)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR2_3D</v>
       </c>
       <c r="I286">
         <v>4</v>
       </c>
       <c r="J286" t="s">
-        <v>877</v>
+        <v>857</v>
       </c>
       <c r="K286" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>537</v>
       </c>
@@ -13220,20 +13221,20 @@
         <v>541</v>
       </c>
       <c r="H287" t="str">
-        <f>CONCATENATE(A287, "_", F287, "_", G287)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR1_2D</v>
       </c>
       <c r="I287">
         <v>4</v>
       </c>
       <c r="J287" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="K287" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>537</v>
       </c>
@@ -13247,20 +13248,20 @@
         <v>541</v>
       </c>
       <c r="H288" t="str">
-        <f>CONCATENATE(A288, "_", F288, "_", G288)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR2_2D</v>
       </c>
       <c r="I288">
         <v>4</v>
       </c>
       <c r="J288" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
       <c r="K288" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>537</v>
       </c>
@@ -13274,20 +13275,20 @@
         <v>542</v>
       </c>
       <c r="H289" t="str">
-        <f>CONCATENATE(A289, "_", F289, "_", G289)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR1_3D</v>
       </c>
       <c r="I289">
         <v>4</v>
       </c>
       <c r="J289" t="s">
-        <v>878</v>
+        <v>858</v>
       </c>
       <c r="K289" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>537</v>
       </c>
@@ -13301,20 +13302,20 @@
         <v>542</v>
       </c>
       <c r="H290" t="str">
-        <f>CONCATENATE(A290, "_", F290, "_", G290)</f>
+        <f t="shared" si="4"/>
         <v>HEP3B_BR2_3D</v>
       </c>
       <c r="I290">
         <v>4</v>
       </c>
       <c r="J290" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="K290" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>538</v>
       </c>
@@ -13328,7 +13329,7 @@
         <v>541</v>
       </c>
       <c r="H291" t="str">
-        <f>CONCATENATE(A291, "_", F291, "_", G291)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR1_2D</v>
       </c>
       <c r="I291">
@@ -13341,7 +13342,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>538</v>
       </c>
@@ -13355,7 +13356,7 @@
         <v>541</v>
       </c>
       <c r="H292" t="str">
-        <f>CONCATENATE(A292, "_", F292, "_", G292)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR2_2D</v>
       </c>
       <c r="I292">
@@ -13368,7 +13369,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>538</v>
       </c>
@@ -13382,7 +13383,7 @@
         <v>542</v>
       </c>
       <c r="H293" t="str">
-        <f>CONCATENATE(A293, "_", F293, "_", G293)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR1_3D</v>
       </c>
       <c r="I293">
@@ -13395,7 +13396,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>538</v>
       </c>
@@ -13409,7 +13410,7 @@
         <v>542</v>
       </c>
       <c r="H294" t="str">
-        <f>CONCATENATE(A294, "_", F294, "_", G294)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR2_3D</v>
       </c>
       <c r="I294">
@@ -13422,7 +13423,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>538</v>
       </c>
@@ -13436,20 +13437,20 @@
         <v>541</v>
       </c>
       <c r="H295" t="str">
-        <f>CONCATENATE(A295, "_", F295, "_", G295)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR1_2D</v>
       </c>
       <c r="I295">
         <v>4</v>
       </c>
       <c r="J295" t="s">
-        <v>880</v>
+        <v>860</v>
       </c>
       <c r="K295" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>538</v>
       </c>
@@ -13463,20 +13464,20 @@
         <v>541</v>
       </c>
       <c r="H296" t="str">
-        <f>CONCATENATE(A296, "_", F296, "_", G296)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR2_2D</v>
       </c>
       <c r="I296">
         <v>4</v>
       </c>
       <c r="J296" t="s">
-        <v>881</v>
+        <v>861</v>
       </c>
       <c r="K296" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>538</v>
       </c>
@@ -13490,20 +13491,20 @@
         <v>542</v>
       </c>
       <c r="H297" t="str">
-        <f>CONCATENATE(A297, "_", F297, "_", G297)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR1_3D</v>
       </c>
       <c r="I297">
         <v>4</v>
       </c>
       <c r="J297" t="s">
-        <v>889</v>
+        <v>869</v>
       </c>
       <c r="K297" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>538</v>
       </c>
@@ -13517,20 +13518,20 @@
         <v>542</v>
       </c>
       <c r="H298" t="str">
-        <f>CONCATENATE(A298, "_", F298, "_", G298)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR2_3D</v>
       </c>
       <c r="I298">
         <v>4</v>
       </c>
       <c r="J298" t="s">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="K298" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>538</v>
       </c>
@@ -13544,20 +13545,20 @@
         <v>541</v>
       </c>
       <c r="H299" t="str">
-        <f>CONCATENATE(A299, "_", F299, "_", G299)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR1_2D</v>
       </c>
       <c r="I299">
         <v>4</v>
       </c>
       <c r="J299" t="s">
-        <v>882</v>
+        <v>862</v>
       </c>
       <c r="K299" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>538</v>
       </c>
@@ -13571,20 +13572,20 @@
         <v>541</v>
       </c>
       <c r="H300" t="str">
-        <f>CONCATENATE(A300, "_", F300, "_", G300)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR2_2D</v>
       </c>
       <c r="I300">
         <v>4</v>
       </c>
       <c r="J300" t="s">
-        <v>883</v>
+        <v>863</v>
       </c>
       <c r="K300" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>538</v>
       </c>
@@ -13598,20 +13599,20 @@
         <v>542</v>
       </c>
       <c r="H301" t="str">
-        <f>CONCATENATE(A301, "_", F301, "_", G301)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR1_3D</v>
       </c>
       <c r="I301">
         <v>4</v>
       </c>
       <c r="J301" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="K301" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>538</v>
       </c>
@@ -13625,20 +13626,20 @@
         <v>542</v>
       </c>
       <c r="H302" t="str">
-        <f>CONCATENATE(A302, "_", F302, "_", G302)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR2_3D</v>
       </c>
       <c r="I302">
         <v>4</v>
       </c>
       <c r="J302" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
       <c r="K302" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>538</v>
       </c>
@@ -13652,20 +13653,20 @@
         <v>541</v>
       </c>
       <c r="H303" t="str">
-        <f>CONCATENATE(A303, "_", F303, "_", G303)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR1_2D</v>
       </c>
       <c r="I303">
         <v>4</v>
       </c>
       <c r="J303" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
       <c r="K303" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>538</v>
       </c>
@@ -13679,20 +13680,20 @@
         <v>541</v>
       </c>
       <c r="H304" t="str">
-        <f>CONCATENATE(A304, "_", F304, "_", G304)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR2_2D</v>
       </c>
       <c r="I304">
         <v>4</v>
       </c>
       <c r="J304" t="s">
-        <v>885</v>
+        <v>865</v>
       </c>
       <c r="K304" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>538</v>
       </c>
@@ -13706,20 +13707,20 @@
         <v>542</v>
       </c>
       <c r="H305" t="str">
-        <f>CONCATENATE(A305, "_", F305, "_", G305)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR1_3D</v>
       </c>
       <c r="I305">
         <v>4</v>
       </c>
       <c r="J305" t="s">
-        <v>893</v>
+        <v>873</v>
       </c>
       <c r="K305" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>538</v>
       </c>
@@ -13733,20 +13734,20 @@
         <v>542</v>
       </c>
       <c r="H306" t="str">
-        <f>CONCATENATE(A306, "_", F306, "_", G306)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR2_3D</v>
       </c>
       <c r="I306">
         <v>4</v>
       </c>
       <c r="J306" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
       <c r="K306" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>538</v>
       </c>
@@ -13760,20 +13761,20 @@
         <v>541</v>
       </c>
       <c r="H307" t="str">
-        <f>CONCATENATE(A307, "_", F307, "_", G307)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR1_2D</v>
       </c>
       <c r="I307">
         <v>4</v>
       </c>
       <c r="J307" t="s">
-        <v>886</v>
+        <v>866</v>
       </c>
       <c r="K307" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>538</v>
       </c>
@@ -13787,20 +13788,20 @@
         <v>541</v>
       </c>
       <c r="H308" t="str">
-        <f>CONCATENATE(A308, "_", F308, "_", G308)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR2_2D</v>
       </c>
       <c r="I308">
         <v>4</v>
       </c>
       <c r="J308" t="s">
-        <v>887</v>
+        <v>867</v>
       </c>
       <c r="K308" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>538</v>
       </c>
@@ -13814,20 +13815,20 @@
         <v>541</v>
       </c>
       <c r="H309" t="str">
-        <f>CONCATENATE(A309, "_", F309, "_", G309)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR3_2D</v>
       </c>
       <c r="I309">
         <v>4</v>
       </c>
       <c r="J309" t="s">
-        <v>888</v>
+        <v>868</v>
       </c>
       <c r="K309" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>538</v>
       </c>
@@ -13841,20 +13842,20 @@
         <v>542</v>
       </c>
       <c r="H310" t="str">
-        <f>CONCATENATE(A310, "_", F310, "_", G310)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR1_3D</v>
       </c>
       <c r="I310">
         <v>4</v>
       </c>
       <c r="J310" t="s">
-        <v>895</v>
+        <v>875</v>
       </c>
       <c r="K310" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>538</v>
       </c>
@@ -13868,20 +13869,20 @@
         <v>542</v>
       </c>
       <c r="H311" t="str">
-        <f>CONCATENATE(A311, "_", F311, "_", G311)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR2_3D</v>
       </c>
       <c r="I311">
         <v>4</v>
       </c>
       <c r="J311" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
       <c r="K311" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>539</v>
       </c>
@@ -13895,7 +13896,7 @@
         <v>541</v>
       </c>
       <c r="H312" t="str">
-        <f>CONCATENATE(A312, "_", F312, "_", G312)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR1_2D</v>
       </c>
       <c r="I312">
@@ -13908,7 +13909,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>539</v>
       </c>
@@ -13922,7 +13923,7 @@
         <v>541</v>
       </c>
       <c r="H313" t="str">
-        <f>CONCATENATE(A313, "_", F313, "_", G313)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR2_2D</v>
       </c>
       <c r="I313">
@@ -13935,7 +13936,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>539</v>
       </c>
@@ -13949,7 +13950,7 @@
         <v>542</v>
       </c>
       <c r="H314" t="str">
-        <f>CONCATENATE(A314, "_", F314, "_", G314)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR1_3D</v>
       </c>
       <c r="I314">
@@ -13962,7 +13963,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>539</v>
       </c>
@@ -13976,7 +13977,7 @@
         <v>542</v>
       </c>
       <c r="H315" t="str">
-        <f>CONCATENATE(A315, "_", F315, "_", G315)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR2_3D</v>
       </c>
       <c r="I315">
@@ -13989,7 +13990,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>539</v>
       </c>
@@ -14003,20 +14004,20 @@
         <v>542</v>
       </c>
       <c r="H316" t="str">
-        <f>CONCATENATE(A316, "_", F316, "_", G316)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR1_3D</v>
       </c>
       <c r="I316">
         <v>4</v>
       </c>
       <c r="J316" t="s">
-        <v>909</v>
+        <v>889</v>
       </c>
       <c r="K316" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>539</v>
       </c>
@@ -14030,20 +14031,20 @@
         <v>542</v>
       </c>
       <c r="H317" t="str">
-        <f>CONCATENATE(A317, "_", F317, "_", G317)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR2_3D</v>
       </c>
       <c r="I317">
         <v>4</v>
       </c>
       <c r="J317" t="s">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="K317" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>539</v>
       </c>
@@ -14057,20 +14058,20 @@
         <v>541</v>
       </c>
       <c r="H318" t="str">
-        <f>CONCATENATE(A318, "_", F318, "_", G318)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR1_2D</v>
       </c>
       <c r="I318">
         <v>4</v>
       </c>
       <c r="J318" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
       <c r="K318" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>539</v>
       </c>
@@ -14084,20 +14085,20 @@
         <v>541</v>
       </c>
       <c r="H319" t="str">
-        <f>CONCATENATE(A319, "_", F319, "_", G319)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR2_2D</v>
       </c>
       <c r="I319">
         <v>4</v>
       </c>
       <c r="J319" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
       <c r="K319" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>539</v>
       </c>
@@ -14111,20 +14112,20 @@
         <v>541</v>
       </c>
       <c r="H320" t="str">
-        <f>CONCATENATE(A320, "_", F320, "_", G320)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR1_2D</v>
       </c>
       <c r="I320">
         <v>4</v>
       </c>
       <c r="J320" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
       <c r="K320" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>539</v>
       </c>
@@ -14138,20 +14139,20 @@
         <v>541</v>
       </c>
       <c r="H321" t="str">
-        <f>CONCATENATE(A321, "_", F321, "_", G321)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR2_2D</v>
       </c>
       <c r="I321">
         <v>4</v>
       </c>
       <c r="J321" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="K321" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>539</v>
       </c>
@@ -14165,20 +14166,20 @@
         <v>542</v>
       </c>
       <c r="H322" t="str">
-        <f>CONCATENATE(A322, "_", F322, "_", G322)</f>
+        <f t="shared" ref="H322:H385" si="5">CONCATENATE(A322, "_", F322, "_", G322)</f>
         <v>HUH7_BR1_3D</v>
       </c>
       <c r="I322">
         <v>4</v>
       </c>
       <c r="J322" t="s">
-        <v>911</v>
+        <v>891</v>
       </c>
       <c r="K322" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>539</v>
       </c>
@@ -14192,20 +14193,20 @@
         <v>542</v>
       </c>
       <c r="H323" t="str">
-        <f>CONCATENATE(A323, "_", F323, "_", G323)</f>
+        <f t="shared" si="5"/>
         <v>HUH7_BR2_3D</v>
       </c>
       <c r="I323">
         <v>4</v>
       </c>
       <c r="J323" t="s">
-        <v>912</v>
+        <v>892</v>
       </c>
       <c r="K323" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>539</v>
       </c>
@@ -14219,20 +14220,20 @@
         <v>541</v>
       </c>
       <c r="H324" t="str">
-        <f>CONCATENATE(A324, "_", F324, "_", G324)</f>
+        <f t="shared" si="5"/>
         <v>HUH7_BR1_2D</v>
       </c>
       <c r="I324">
         <v>4</v>
       </c>
       <c r="J324" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
       <c r="K324" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>539</v>
       </c>
@@ -14246,20 +14247,20 @@
         <v>541</v>
       </c>
       <c r="H325" t="str">
-        <f>CONCATENATE(A325, "_", F325, "_", G325)</f>
+        <f t="shared" si="5"/>
         <v>HUH7_BR2_2D</v>
       </c>
       <c r="I325">
         <v>4</v>
       </c>
       <c r="J325" t="s">
-        <v>902</v>
+        <v>882</v>
       </c>
       <c r="K325" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>539</v>
       </c>
@@ -14273,20 +14274,20 @@
         <v>541</v>
       </c>
       <c r="H326" t="str">
-        <f>CONCATENATE(A326, "_", F326, "_", G326)</f>
+        <f t="shared" si="5"/>
         <v>HUH7_BR1_2D</v>
       </c>
       <c r="I326">
         <v>4</v>
       </c>
       <c r="J326" t="s">
-        <v>903</v>
+        <v>883</v>
       </c>
       <c r="K326" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>539</v>
       </c>
@@ -14300,20 +14301,20 @@
         <v>541</v>
       </c>
       <c r="H327" t="str">
-        <f>CONCATENATE(A327, "_", F327, "_", G327)</f>
+        <f t="shared" si="5"/>
         <v>HUH7_BR2_2D</v>
       </c>
       <c r="I327">
         <v>4</v>
       </c>
       <c r="J327" t="s">
-        <v>904</v>
+        <v>884</v>
       </c>
       <c r="K327" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>539</v>
       </c>
@@ -14327,20 +14328,20 @@
         <v>542</v>
       </c>
       <c r="H328" t="str">
-        <f>CONCATENATE(A328, "_", F328, "_", G328)</f>
+        <f t="shared" si="5"/>
         <v>HUH7_BR1_3D</v>
       </c>
       <c r="I328">
         <v>4</v>
       </c>
       <c r="J328" t="s">
-        <v>913</v>
+        <v>893</v>
       </c>
       <c r="K328" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>539</v>
       </c>
@@ -14354,20 +14355,20 @@
         <v>542</v>
       </c>
       <c r="H329" t="str">
-        <f>CONCATENATE(A329, "_", F329, "_", G329)</f>
+        <f t="shared" si="5"/>
         <v>HUH7_BR2_3D</v>
       </c>
       <c r="I329">
         <v>4</v>
       </c>
       <c r="J329" t="s">
-        <v>914</v>
+        <v>894</v>
       </c>
       <c r="K329" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>539</v>
       </c>
@@ -14381,20 +14382,20 @@
         <v>541</v>
       </c>
       <c r="H330" t="str">
-        <f>CONCATENATE(A330, "_", F330, "_", G330)</f>
+        <f t="shared" si="5"/>
         <v>HUH7_BR1_2D</v>
       </c>
       <c r="I330">
         <v>4</v>
       </c>
       <c r="J330" t="s">
-        <v>905</v>
+        <v>885</v>
       </c>
       <c r="K330" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>539</v>
       </c>
@@ -14408,20 +14409,20 @@
         <v>541</v>
       </c>
       <c r="H331" t="str">
-        <f>CONCATENATE(A331, "_", F331, "_", G331)</f>
+        <f t="shared" si="5"/>
         <v>HUH7_BR2_2D</v>
       </c>
       <c r="I331">
         <v>4</v>
       </c>
       <c r="J331" t="s">
-        <v>906</v>
+        <v>886</v>
       </c>
       <c r="K331" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>539</v>
       </c>
@@ -14435,20 +14436,20 @@
         <v>541</v>
       </c>
       <c r="H332" t="str">
-        <f>CONCATENATE(A332, "_", F332, "_", G332)</f>
+        <f t="shared" si="5"/>
         <v>HUH7_BR1_2D</v>
       </c>
       <c r="I332">
         <v>4</v>
       </c>
       <c r="J332" t="s">
-        <v>907</v>
+        <v>887</v>
       </c>
       <c r="K332" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>539</v>
       </c>
@@ -14462,20 +14463,20 @@
         <v>541</v>
       </c>
       <c r="H333" t="str">
-        <f>CONCATENATE(A333, "_", F333, "_", G333)</f>
+        <f t="shared" si="5"/>
         <v>HUH7_BR2_2D</v>
       </c>
       <c r="I333">
         <v>4</v>
       </c>
       <c r="J333" t="s">
-        <v>908</v>
+        <v>888</v>
       </c>
       <c r="K333" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>539</v>
       </c>
@@ -14489,20 +14490,20 @@
         <v>542</v>
       </c>
       <c r="H334" t="str">
-        <f>CONCATENATE(A334, "_", F334, "_", G334)</f>
+        <f t="shared" si="5"/>
         <v>HUH7_BR1_3D</v>
       </c>
       <c r="I334">
         <v>4</v>
       </c>
       <c r="J334" t="s">
-        <v>915</v>
+        <v>895</v>
       </c>
       <c r="K334" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>539</v>
       </c>
@@ -14516,20 +14517,20 @@
         <v>542</v>
       </c>
       <c r="H335" t="str">
-        <f>CONCATENATE(A335, "_", F335, "_", G335)</f>
+        <f t="shared" si="5"/>
         <v>HUH7_BR2_3D</v>
       </c>
       <c r="I335">
         <v>4</v>
       </c>
       <c r="J335" t="s">
-        <v>916</v>
+        <v>896</v>
       </c>
       <c r="K335" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>540</v>
       </c>
@@ -14543,7 +14544,7 @@
         <v>541</v>
       </c>
       <c r="H336" t="str">
-        <f>CONCATENATE(A336, "_", F336, "_", G336)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR1_2D</v>
       </c>
       <c r="I336">
@@ -14556,7 +14557,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>540</v>
       </c>
@@ -14570,7 +14571,7 @@
         <v>541</v>
       </c>
       <c r="H337" t="str">
-        <f>CONCATENATE(A337, "_", F337, "_", G337)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR2_2D</v>
       </c>
       <c r="I337">
@@ -14583,7 +14584,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>540</v>
       </c>
@@ -14597,7 +14598,7 @@
         <v>541</v>
       </c>
       <c r="H338" t="str">
-        <f>CONCATENATE(A338, "_", F338, "_", G338)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR3_2D</v>
       </c>
       <c r="I338">
@@ -14610,7 +14611,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>540</v>
       </c>
@@ -14624,7 +14625,7 @@
         <v>542</v>
       </c>
       <c r="H339" t="str">
-        <f>CONCATENATE(A339, "_", F339, "_", G339)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR1_3D</v>
       </c>
       <c r="I339">
@@ -14637,7 +14638,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>540</v>
       </c>
@@ -14651,7 +14652,7 @@
         <v>542</v>
       </c>
       <c r="H340" t="str">
-        <f>CONCATENATE(A340, "_", F340, "_", G340)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR2_3D</v>
       </c>
       <c r="I340">
@@ -14664,7 +14665,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>540</v>
       </c>
@@ -14678,7 +14679,7 @@
         <v>542</v>
       </c>
       <c r="H341" t="str">
-        <f>CONCATENATE(A341, "_", F341, "_", G341)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR3_3D</v>
       </c>
       <c r="I341">
@@ -14691,7 +14692,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>540</v>
       </c>
@@ -14705,20 +14706,20 @@
         <v>541</v>
       </c>
       <c r="H342" t="str">
-        <f>CONCATENATE(A342, "_", F342, "_", G342)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR1_2D</v>
       </c>
       <c r="I342">
         <v>4</v>
       </c>
       <c r="J342" t="s">
-        <v>917</v>
+        <v>897</v>
       </c>
       <c r="K342" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>540</v>
       </c>
@@ -14732,20 +14733,20 @@
         <v>541</v>
       </c>
       <c r="H343" t="str">
-        <f>CONCATENATE(A343, "_", F343, "_", G343)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR2_2D</v>
       </c>
       <c r="I343">
         <v>4</v>
       </c>
       <c r="J343" t="s">
-        <v>918</v>
+        <v>898</v>
       </c>
       <c r="K343" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>540</v>
       </c>
@@ -14759,20 +14760,20 @@
         <v>541</v>
       </c>
       <c r="H344" t="str">
-        <f>CONCATENATE(A344, "_", F344, "_", G344)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR3_2D</v>
       </c>
       <c r="I344">
         <v>4</v>
       </c>
       <c r="J344" t="s">
-        <v>919</v>
+        <v>899</v>
       </c>
       <c r="K344" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>540</v>
       </c>
@@ -14786,20 +14787,20 @@
         <v>542</v>
       </c>
       <c r="H345" t="str">
-        <f>CONCATENATE(A345, "_", F345, "_", G345)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR1_3D</v>
       </c>
       <c r="I345">
         <v>4</v>
       </c>
       <c r="J345" t="s">
-        <v>926</v>
+        <v>906</v>
       </c>
       <c r="K345" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>540</v>
       </c>
@@ -14813,20 +14814,20 @@
         <v>542</v>
       </c>
       <c r="H346" t="str">
-        <f>CONCATENATE(A346, "_", F346, "_", G346)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR2_3D</v>
       </c>
       <c r="I346">
         <v>4</v>
       </c>
       <c r="J346" t="s">
-        <v>927</v>
+        <v>907</v>
       </c>
       <c r="K346" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>540</v>
       </c>
@@ -14840,20 +14841,20 @@
         <v>542</v>
       </c>
       <c r="H347" t="str">
-        <f>CONCATENATE(A347, "_", F347, "_", G347)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR3_3D</v>
       </c>
       <c r="I347">
         <v>4</v>
       </c>
       <c r="J347" t="s">
-        <v>928</v>
+        <v>908</v>
       </c>
       <c r="K347" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>540</v>
       </c>
@@ -14867,20 +14868,20 @@
         <v>541</v>
       </c>
       <c r="H348" t="str">
-        <f>CONCATENATE(A348, "_", F348, "_", G348)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR1_2D</v>
       </c>
       <c r="I348">
         <v>4</v>
       </c>
       <c r="J348" t="s">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="K348" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>540</v>
       </c>
@@ -14894,20 +14895,20 @@
         <v>541</v>
       </c>
       <c r="H349" t="str">
-        <f>CONCATENATE(A349, "_", F349, "_", G349)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR2_2D</v>
       </c>
       <c r="I349">
         <v>4</v>
       </c>
       <c r="J349" t="s">
-        <v>921</v>
+        <v>901</v>
       </c>
       <c r="K349" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>540</v>
       </c>
@@ -14921,20 +14922,20 @@
         <v>541</v>
       </c>
       <c r="H350" t="str">
-        <f>CONCATENATE(A350, "_", F350, "_", G350)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR3_2D</v>
       </c>
       <c r="I350">
         <v>4</v>
       </c>
       <c r="J350" t="s">
-        <v>922</v>
+        <v>902</v>
       </c>
       <c r="K350" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>540</v>
       </c>
@@ -14948,20 +14949,20 @@
         <v>542</v>
       </c>
       <c r="H351" t="str">
-        <f>CONCATENATE(A351, "_", F351, "_", G351)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR1_3D</v>
       </c>
       <c r="I351">
         <v>4</v>
       </c>
       <c r="J351" t="s">
-        <v>929</v>
+        <v>909</v>
       </c>
       <c r="K351" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>540</v>
       </c>
@@ -14975,20 +14976,20 @@
         <v>542</v>
       </c>
       <c r="H352" t="str">
-        <f>CONCATENATE(A352, "_", F352, "_", G352)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR2_3D</v>
       </c>
       <c r="I352">
         <v>4</v>
       </c>
       <c r="J352" t="s">
-        <v>930</v>
+        <v>910</v>
       </c>
       <c r="K352" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>540</v>
       </c>
@@ -15002,20 +15003,20 @@
         <v>542</v>
       </c>
       <c r="H353" t="str">
-        <f>CONCATENATE(A353, "_", F353, "_", G353)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR3_3D</v>
       </c>
       <c r="I353">
         <v>4</v>
       </c>
       <c r="J353" t="s">
-        <v>931</v>
+        <v>911</v>
       </c>
       <c r="K353" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>540</v>
       </c>
@@ -15029,20 +15030,20 @@
         <v>541</v>
       </c>
       <c r="H354" t="str">
-        <f>CONCATENATE(A354, "_", F354, "_", G354)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR1_2D</v>
       </c>
       <c r="I354">
         <v>4</v>
       </c>
       <c r="J354" t="s">
-        <v>923</v>
+        <v>903</v>
       </c>
       <c r="K354" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>540</v>
       </c>
@@ -15056,20 +15057,20 @@
         <v>541</v>
       </c>
       <c r="H355" t="str">
-        <f>CONCATENATE(A355, "_", F355, "_", G355)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR2_2D</v>
       </c>
       <c r="I355">
         <v>4</v>
       </c>
       <c r="J355" t="s">
-        <v>924</v>
+        <v>904</v>
       </c>
       <c r="K355" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>540</v>
       </c>
@@ -15083,20 +15084,20 @@
         <v>541</v>
       </c>
       <c r="H356" t="str">
-        <f>CONCATENATE(A356, "_", F356, "_", G356)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR3_2D</v>
       </c>
       <c r="I356">
         <v>4</v>
       </c>
       <c r="J356" t="s">
-        <v>925</v>
+        <v>905</v>
       </c>
       <c r="K356" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>540</v>
       </c>
@@ -15110,20 +15111,20 @@
         <v>542</v>
       </c>
       <c r="H357" t="str">
-        <f>CONCATENATE(A357, "_", F357, "_", G357)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR1_3D</v>
       </c>
       <c r="I357">
         <v>4</v>
       </c>
       <c r="J357" t="s">
-        <v>932</v>
+        <v>912</v>
       </c>
       <c r="K357" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>540</v>
       </c>
@@ -15137,20 +15138,20 @@
         <v>542</v>
       </c>
       <c r="H358" t="str">
-        <f>CONCATENATE(A358, "_", F358, "_", G358)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR2_3D</v>
       </c>
       <c r="I358">
         <v>4</v>
       </c>
       <c r="J358" t="s">
-        <v>933</v>
+        <v>913</v>
       </c>
       <c r="K358" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>540</v>
       </c>
@@ -15164,20 +15165,20 @@
         <v>542</v>
       </c>
       <c r="H359" t="str">
-        <f>CONCATENATE(A359, "_", F359, "_", G359)</f>
+        <f t="shared" si="5"/>
         <v>PHH_BR3_3D</v>
       </c>
       <c r="I359">
         <v>4</v>
       </c>
       <c r="J359" t="s">
-        <v>934</v>
+        <v>914</v>
       </c>
       <c r="K359" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>589</v>
       </c>
@@ -15191,7 +15192,7 @@
         <v>26</v>
       </c>
       <c r="H360" t="str">
-        <f>CONCATENATE(A360, "_", F360, "_", G360)</f>
+        <f t="shared" si="5"/>
         <v>HU78-B_BR1_Baseline</v>
       </c>
       <c r="I360">
@@ -15204,7 +15205,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>589</v>
       </c>
@@ -15218,7 +15219,7 @@
         <v>26</v>
       </c>
       <c r="H361" t="str">
-        <f>CONCATENATE(A361, "_", F361, "_", G361)</f>
+        <f t="shared" si="5"/>
         <v>HU78-B_BR2_Baseline</v>
       </c>
       <c r="I361">
@@ -15231,7 +15232,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>589</v>
       </c>
@@ -15245,20 +15246,20 @@
         <v>26</v>
       </c>
       <c r="H362" t="str">
-        <f>CONCATENATE(A362, "_", F362, "_", G362)</f>
+        <f t="shared" si="5"/>
         <v>HU78-B_BR1_Baseline</v>
       </c>
       <c r="I362">
         <v>5</v>
       </c>
       <c r="J362" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="K362" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>589</v>
       </c>
@@ -15272,20 +15273,20 @@
         <v>26</v>
       </c>
       <c r="H363" t="str">
-        <f>CONCATENATE(A363, "_", F363, "_", G363)</f>
+        <f t="shared" si="5"/>
         <v>HU78-B_BR2_Baseline</v>
       </c>
       <c r="I363">
         <v>5</v>
       </c>
       <c r="J363" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="K363" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>589</v>
       </c>
@@ -15299,20 +15300,20 @@
         <v>26</v>
       </c>
       <c r="H364" t="str">
-        <f>CONCATENATE(A364, "_", F364, "_", G364)</f>
+        <f t="shared" si="5"/>
         <v>HU78-B_BR1_Baseline</v>
       </c>
       <c r="I364">
         <v>5</v>
       </c>
       <c r="J364" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="K364" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>589</v>
       </c>
@@ -15326,20 +15327,20 @@
         <v>26</v>
       </c>
       <c r="H365" t="str">
-        <f>CONCATENATE(A365, "_", F365, "_", G365)</f>
+        <f t="shared" si="5"/>
         <v>HU78-B_BR2_Baseline</v>
       </c>
       <c r="I365">
         <v>5</v>
       </c>
       <c r="J365" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="K365" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>589</v>
       </c>
@@ -15353,20 +15354,20 @@
         <v>26</v>
       </c>
       <c r="H366" t="str">
-        <f>CONCATENATE(A366, "_", F366, "_", G366)</f>
+        <f t="shared" si="5"/>
         <v>HU78-B_BR1_Baseline</v>
       </c>
       <c r="I366">
         <v>5</v>
       </c>
       <c r="J366" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="K366" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>589</v>
       </c>
@@ -15380,20 +15381,20 @@
         <v>26</v>
       </c>
       <c r="H367" t="str">
-        <f>CONCATENATE(A367, "_", F367, "_", G367)</f>
+        <f t="shared" si="5"/>
         <v>HU78-B_BR2_Baseline</v>
       </c>
       <c r="I367">
         <v>5</v>
       </c>
       <c r="J367" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="K367" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>589</v>
       </c>
@@ -15407,20 +15408,20 @@
         <v>26</v>
       </c>
       <c r="H368" t="str">
-        <f>CONCATENATE(A368, "_", F368, "_", G368)</f>
+        <f t="shared" si="5"/>
         <v>HU78-B_BR1_Baseline</v>
       </c>
       <c r="I368">
         <v>5</v>
       </c>
       <c r="J368" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="K368" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>589</v>
       </c>
@@ -15434,20 +15435,20 @@
         <v>26</v>
       </c>
       <c r="H369" t="str">
-        <f>CONCATENATE(A369, "_", F369, "_", G369)</f>
+        <f t="shared" si="5"/>
         <v>HU78-B_BR2_Baseline</v>
       </c>
       <c r="I369">
         <v>5</v>
       </c>
       <c r="J369" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="K369" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>588</v>
       </c>
@@ -15461,7 +15462,7 @@
         <v>26</v>
       </c>
       <c r="H370" t="str">
-        <f>CONCATENATE(A370, "_", F370, "_", G370)</f>
+        <f t="shared" si="5"/>
         <v>HUT78_BR1_Baseline</v>
       </c>
       <c r="I370">
@@ -15474,7 +15475,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>588</v>
       </c>
@@ -15488,7 +15489,7 @@
         <v>26</v>
       </c>
       <c r="H371" t="str">
-        <f>CONCATENATE(A371, "_", F371, "_", G371)</f>
+        <f t="shared" si="5"/>
         <v>HUT78_BR2_Baseline</v>
       </c>
       <c r="I371">
@@ -15501,7 +15502,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>588</v>
       </c>
@@ -15515,20 +15516,20 @@
         <v>26</v>
       </c>
       <c r="H372" t="str">
-        <f>CONCATENATE(A372, "_", F372, "_", G372)</f>
+        <f t="shared" si="5"/>
         <v>HUT78_BR1_Baseline</v>
       </c>
       <c r="I372">
         <v>5</v>
       </c>
       <c r="J372" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="K372" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>588</v>
       </c>
@@ -15542,20 +15543,20 @@
         <v>26</v>
       </c>
       <c r="H373" t="str">
-        <f>CONCATENATE(A373, "_", F373, "_", G373)</f>
+        <f t="shared" si="5"/>
         <v>HUT78_BR2_Baseline</v>
       </c>
       <c r="I373">
         <v>5</v>
       </c>
       <c r="J373" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="K373" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>588</v>
       </c>
@@ -15569,20 +15570,20 @@
         <v>26</v>
       </c>
       <c r="H374" t="str">
-        <f>CONCATENATE(A374, "_", F374, "_", G374)</f>
+        <f t="shared" si="5"/>
         <v>HUT78_BR1_Baseline</v>
       </c>
       <c r="I374">
         <v>5</v>
       </c>
       <c r="J374" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="K374" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>588</v>
       </c>
@@ -15596,20 +15597,20 @@
         <v>26</v>
       </c>
       <c r="H375" t="str">
-        <f>CONCATENATE(A375, "_", F375, "_", G375)</f>
+        <f t="shared" si="5"/>
         <v>HUT78_BR2_Baseline</v>
       </c>
       <c r="I375">
         <v>5</v>
       </c>
       <c r="J375" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="K375" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>588</v>
       </c>
@@ -15623,20 +15624,20 @@
         <v>26</v>
       </c>
       <c r="H376" t="str">
-        <f>CONCATENATE(A376, "_", F376, "_", G376)</f>
+        <f t="shared" si="5"/>
         <v>HUT78_BR1_Baseline</v>
       </c>
       <c r="I376">
         <v>5</v>
       </c>
       <c r="J376" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="K376" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>588</v>
       </c>
@@ -15650,20 +15651,20 @@
         <v>26</v>
       </c>
       <c r="H377" t="str">
-        <f>CONCATENATE(A377, "_", F377, "_", G377)</f>
+        <f t="shared" si="5"/>
         <v>HUT78_BR2_Baseline</v>
       </c>
       <c r="I377">
         <v>5</v>
       </c>
       <c r="J377" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="K377" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>588</v>
       </c>
@@ -15677,20 +15678,20 @@
         <v>26</v>
       </c>
       <c r="H378" t="str">
-        <f>CONCATENATE(A378, "_", F378, "_", G378)</f>
+        <f t="shared" si="5"/>
         <v>HUT78_BR1_Baseline</v>
       </c>
       <c r="I378">
         <v>5</v>
       </c>
       <c r="J378" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="K378" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>588</v>
       </c>
@@ -15704,20 +15705,20 @@
         <v>26</v>
       </c>
       <c r="H379" t="str">
-        <f>CONCATENATE(A379, "_", F379, "_", G379)</f>
+        <f t="shared" si="5"/>
         <v>HUT78_BR2_Baseline</v>
       </c>
       <c r="I379">
         <v>5</v>
       </c>
       <c r="J379" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="K379" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>590</v>
       </c>
@@ -15731,7 +15732,7 @@
         <v>26</v>
       </c>
       <c r="H380" t="str">
-        <f>CONCATENATE(A380, "_", F380, "_", G380)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat_BR1_Baseline</v>
       </c>
       <c r="I380">
@@ -15744,7 +15745,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>590</v>
       </c>
@@ -15758,7 +15759,7 @@
         <v>26</v>
       </c>
       <c r="H381" t="str">
-        <f>CONCATENATE(A381, "_", F381, "_", G381)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat_BR2_Baseline</v>
       </c>
       <c r="I381">
@@ -15771,7 +15772,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>590</v>
       </c>
@@ -15785,20 +15786,20 @@
         <v>26</v>
       </c>
       <c r="H382" t="str">
-        <f>CONCATENATE(A382, "_", F382, "_", G382)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat_BR1_Baseline</v>
       </c>
       <c r="I382">
         <v>5</v>
       </c>
       <c r="J382" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
       <c r="K382" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>590</v>
       </c>
@@ -15812,20 +15813,20 @@
         <v>26</v>
       </c>
       <c r="H383" t="str">
-        <f>CONCATENATE(A383, "_", F383, "_", G383)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat_BR2_Baseline</v>
       </c>
       <c r="I383">
         <v>5</v>
       </c>
       <c r="J383" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="K383" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>590</v>
       </c>
@@ -15839,20 +15840,20 @@
         <v>26</v>
       </c>
       <c r="H384" t="str">
-        <f>CONCATENATE(A384, "_", F384, "_", G384)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat_BR1_Baseline</v>
       </c>
       <c r="I384">
         <v>5</v>
       </c>
       <c r="J384" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="K384" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>590</v>
       </c>
@@ -15866,20 +15867,20 @@
         <v>26</v>
       </c>
       <c r="H385" t="str">
-        <f>CONCATENATE(A385, "_", F385, "_", G385)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat_BR2_Baseline</v>
       </c>
       <c r="I385">
         <v>5</v>
       </c>
       <c r="J385" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="K385" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>590</v>
       </c>
@@ -15893,20 +15894,20 @@
         <v>26</v>
       </c>
       <c r="H386" t="str">
-        <f>CONCATENATE(A386, "_", F386, "_", G386)</f>
+        <f t="shared" ref="H386:H449" si="6">CONCATENATE(A386, "_", F386, "_", G386)</f>
         <v>Jurkat_BR1_Baseline</v>
       </c>
       <c r="I386">
         <v>5</v>
       </c>
       <c r="J386" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
       <c r="K386" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>590</v>
       </c>
@@ -15920,20 +15921,20 @@
         <v>26</v>
       </c>
       <c r="H387" t="str">
-        <f>CONCATENATE(A387, "_", F387, "_", G387)</f>
+        <f t="shared" si="6"/>
         <v>Jurkat_BR2_Baseline</v>
       </c>
       <c r="I387">
         <v>5</v>
       </c>
       <c r="J387" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="K387" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>590</v>
       </c>
@@ -15947,20 +15948,20 @@
         <v>26</v>
       </c>
       <c r="H388" t="str">
-        <f>CONCATENATE(A388, "_", F388, "_", G388)</f>
+        <f t="shared" si="6"/>
         <v>Jurkat_BR1_Baseline</v>
       </c>
       <c r="I388">
         <v>5</v>
       </c>
       <c r="J388" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="K388" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>590</v>
       </c>
@@ -15974,20 +15975,20 @@
         <v>26</v>
       </c>
       <c r="H389" t="str">
-        <f>CONCATENATE(A389, "_", F389, "_", G389)</f>
+        <f t="shared" si="6"/>
         <v>Jurkat_BR2_Baseline</v>
       </c>
       <c r="I389">
         <v>5</v>
       </c>
       <c r="J389" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="K389" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>591</v>
       </c>
@@ -16001,7 +16002,7 @@
         <v>26</v>
       </c>
       <c r="H390" t="str">
-        <f>CONCATENATE(A390, "_", F390, "_", G390)</f>
+        <f t="shared" si="6"/>
         <v>Jurkat-B_BR1_Baseline</v>
       </c>
       <c r="I390">
@@ -16014,7 +16015,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>591</v>
       </c>
@@ -16028,7 +16029,7 @@
         <v>26</v>
       </c>
       <c r="H391" t="str">
-        <f>CONCATENATE(A391, "_", F391, "_", G391)</f>
+        <f t="shared" si="6"/>
         <v>Jurkat-B_BR2_Baseline</v>
       </c>
       <c r="I391">
@@ -16041,7 +16042,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>591</v>
       </c>
@@ -16055,20 +16056,20 @@
         <v>26</v>
       </c>
       <c r="H392" t="str">
-        <f>CONCATENATE(A392, "_", F392, "_", G392)</f>
+        <f t="shared" si="6"/>
         <v>Jurkat-B_BR1_Baseline</v>
       </c>
       <c r="I392">
         <v>5</v>
       </c>
       <c r="J392" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
       <c r="K392" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>591</v>
       </c>
@@ -16082,20 +16083,20 @@
         <v>26</v>
       </c>
       <c r="H393" t="str">
-        <f>CONCATENATE(A393, "_", F393, "_", G393)</f>
+        <f t="shared" si="6"/>
         <v>Jurkat-B_BR2_Baseline</v>
       </c>
       <c r="I393">
         <v>5</v>
       </c>
       <c r="J393" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="K393" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>591</v>
       </c>
@@ -16109,20 +16110,20 @@
         <v>26</v>
       </c>
       <c r="H394" t="str">
-        <f>CONCATENATE(A394, "_", F394, "_", G394)</f>
+        <f t="shared" si="6"/>
         <v>Jurkat-B_BR1_Baseline</v>
       </c>
       <c r="I394">
         <v>5</v>
       </c>
       <c r="J394" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="K394" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>591</v>
       </c>
@@ -16136,20 +16137,20 @@
         <v>26</v>
       </c>
       <c r="H395" t="str">
-        <f>CONCATENATE(A395, "_", F395, "_", G395)</f>
+        <f t="shared" si="6"/>
         <v>Jurkat-B_BR2_Baseline</v>
       </c>
       <c r="I395">
         <v>5</v>
       </c>
       <c r="J395" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="K395" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>591</v>
       </c>
@@ -16163,20 +16164,20 @@
         <v>26</v>
       </c>
       <c r="H396" t="str">
-        <f>CONCATENATE(A396, "_", F396, "_", G396)</f>
+        <f t="shared" si="6"/>
         <v>Jurkat-B_BR1_Baseline</v>
       </c>
       <c r="I396">
         <v>5</v>
       </c>
       <c r="J396" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="K396" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>591</v>
       </c>
@@ -16190,20 +16191,20 @@
         <v>26</v>
       </c>
       <c r="H397" t="str">
-        <f>CONCATENATE(A397, "_", F397, "_", G397)</f>
+        <f t="shared" si="6"/>
         <v>Jurkat-B_BR2_Baseline</v>
       </c>
       <c r="I397">
         <v>5</v>
       </c>
       <c r="J397" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="K397" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>591</v>
       </c>
@@ -16217,20 +16218,20 @@
         <v>26</v>
       </c>
       <c r="H398" t="str">
-        <f>CONCATENATE(A398, "_", F398, "_", G398)</f>
+        <f t="shared" si="6"/>
         <v>Jurkat-B_BR1_Baseline</v>
       </c>
       <c r="I398">
         <v>5</v>
       </c>
       <c r="J398" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
       <c r="K398" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>591</v>
       </c>
@@ -16244,20 +16245,20 @@
         <v>26</v>
       </c>
       <c r="H399" t="str">
-        <f>CONCATENATE(A399, "_", F399, "_", G399)</f>
+        <f t="shared" si="6"/>
         <v>Jurkat-B_BR2_Baseline</v>
       </c>
       <c r="I399">
         <v>5</v>
       </c>
       <c r="J399" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="K399" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>674</v>
       </c>
@@ -16271,7 +16272,7 @@
         <v>26</v>
       </c>
       <c r="H400" t="str">
-        <f>CONCATENATE(A400, "_", F400, "_", G400)</f>
+        <f t="shared" si="6"/>
         <v>ARH77_BR1_Baseline</v>
       </c>
       <c r="I400">
@@ -16284,7 +16285,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>674</v>
       </c>
@@ -16298,7 +16299,7 @@
         <v>26</v>
       </c>
       <c r="H401" t="str">
-        <f>CONCATENATE(A401, "_", F401, "_", G401)</f>
+        <f t="shared" si="6"/>
         <v>ARH77_BR2_Baseline</v>
       </c>
       <c r="I401">
@@ -16311,7 +16312,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>674</v>
       </c>
@@ -16325,20 +16326,20 @@
         <v>26</v>
       </c>
       <c r="H402" t="str">
-        <f>CONCATENATE(A402, "_", F402, "_", G402)</f>
+        <f t="shared" si="6"/>
         <v>ARH77_BR1_Baseline</v>
       </c>
       <c r="I402">
         <v>6</v>
       </c>
       <c r="J402" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
       <c r="K402" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>674</v>
       </c>
@@ -16352,20 +16353,20 @@
         <v>26</v>
       </c>
       <c r="H403" t="str">
-        <f>CONCATENATE(A403, "_", F403, "_", G403)</f>
+        <f t="shared" si="6"/>
         <v>ARH77_BR2_Baseline</v>
       </c>
       <c r="I403">
         <v>6</v>
       </c>
       <c r="J403" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="K403" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>674</v>
       </c>
@@ -16379,20 +16380,20 @@
         <v>26</v>
       </c>
       <c r="H404" t="str">
-        <f>CONCATENATE(A404, "_", F404, "_", G404)</f>
+        <f t="shared" si="6"/>
         <v>ARH77_BR1_Baseline</v>
       </c>
       <c r="I404">
         <v>6</v>
       </c>
       <c r="J404" t="s">
-        <v>770</v>
+        <v>750</v>
       </c>
       <c r="K404" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>674</v>
       </c>
@@ -16406,20 +16407,20 @@
         <v>26</v>
       </c>
       <c r="H405" t="str">
-        <f>CONCATENATE(A405, "_", F405, "_", G405)</f>
+        <f t="shared" si="6"/>
         <v>ARH77_BR2_Baseline</v>
       </c>
       <c r="I405">
         <v>6</v>
       </c>
       <c r="J405" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="K405" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>674</v>
       </c>
@@ -16433,20 +16434,20 @@
         <v>26</v>
       </c>
       <c r="H406" t="str">
-        <f>CONCATENATE(A406, "_", F406, "_", G406)</f>
+        <f t="shared" si="6"/>
         <v>ARH77_BR1_Baseline</v>
       </c>
       <c r="I406">
         <v>6</v>
       </c>
       <c r="J406" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="K406" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>674</v>
       </c>
@@ -16460,20 +16461,20 @@
         <v>26</v>
       </c>
       <c r="H407" t="str">
-        <f>CONCATENATE(A407, "_", F407, "_", G407)</f>
+        <f t="shared" si="6"/>
         <v>ARH77_BR2_Baseline</v>
       </c>
       <c r="I407">
         <v>6</v>
       </c>
       <c r="J407" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
       <c r="K407" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>674</v>
       </c>
@@ -16487,20 +16488,20 @@
         <v>26</v>
       </c>
       <c r="H408" t="str">
-        <f>CONCATENATE(A408, "_", F408, "_", G408)</f>
+        <f t="shared" si="6"/>
         <v>ARH77_BR1_Baseline</v>
       </c>
       <c r="I408">
         <v>6</v>
       </c>
       <c r="J408" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="K408" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>674</v>
       </c>
@@ -16514,20 +16515,20 @@
         <v>26</v>
       </c>
       <c r="H409" t="str">
-        <f>CONCATENATE(A409, "_", F409, "_", G409)</f>
+        <f t="shared" si="6"/>
         <v>ARH77_BR2_Baseline</v>
       </c>
       <c r="I409">
         <v>6</v>
       </c>
       <c r="J409" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="K409" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>675</v>
       </c>
@@ -16541,7 +16542,7 @@
         <v>26</v>
       </c>
       <c r="H410" t="str">
-        <f>CONCATENATE(A410, "_", F410, "_", G410)</f>
+        <f t="shared" si="6"/>
         <v>Daudi_BR1_Baseline</v>
       </c>
       <c r="I410">
@@ -16554,7 +16555,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>675</v>
       </c>
@@ -16568,7 +16569,7 @@
         <v>26</v>
       </c>
       <c r="H411" t="str">
-        <f>CONCATENATE(A411, "_", F411, "_", G411)</f>
+        <f t="shared" si="6"/>
         <v>Daudi_BR2_Baseline</v>
       </c>
       <c r="I411">
@@ -16581,7 +16582,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>675</v>
       </c>
@@ -16595,20 +16596,20 @@
         <v>26</v>
       </c>
       <c r="H412" t="str">
-        <f>CONCATENATE(A412, "_", F412, "_", G412)</f>
+        <f t="shared" si="6"/>
         <v>Daudi_BR1_Baseline</v>
       </c>
       <c r="I412">
         <v>6</v>
       </c>
       <c r="J412" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="K412" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>675</v>
       </c>
@@ -16622,20 +16623,20 @@
         <v>26</v>
       </c>
       <c r="H413" t="str">
-        <f>CONCATENATE(A413, "_", F413, "_", G413)</f>
+        <f t="shared" si="6"/>
         <v>Daudi_BR2_Baseline</v>
       </c>
       <c r="I413">
         <v>6</v>
       </c>
       <c r="J413" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="K413" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>675</v>
       </c>
@@ -16649,20 +16650,20 @@
         <v>26</v>
       </c>
       <c r="H414" t="str">
-        <f>CONCATENATE(A414, "_", F414, "_", G414)</f>
+        <f t="shared" si="6"/>
         <v>Daudi_BR1_Baseline</v>
       </c>
       <c r="I414">
         <v>6</v>
       </c>
       <c r="J414" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="K414" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>675</v>
       </c>
@@ -16676,20 +16677,20 @@
         <v>26</v>
       </c>
       <c r="H415" t="str">
-        <f>CONCATENATE(A415, "_", F415, "_", G415)</f>
+        <f t="shared" si="6"/>
         <v>Daudi_BR2_Baseline</v>
       </c>
       <c r="I415">
         <v>6</v>
       </c>
       <c r="J415" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
       <c r="K415" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>675</v>
       </c>
@@ -16703,20 +16704,20 @@
         <v>26</v>
       </c>
       <c r="H416" t="str">
-        <f>CONCATENATE(A416, "_", F416, "_", G416)</f>
+        <f t="shared" si="6"/>
         <v>Daudi_BR1_Baseline</v>
       </c>
       <c r="I416">
         <v>6</v>
       </c>
       <c r="J416" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="K416" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>675</v>
       </c>
@@ -16730,20 +16731,20 @@
         <v>26</v>
       </c>
       <c r="H417" t="str">
-        <f>CONCATENATE(A417, "_", F417, "_", G417)</f>
+        <f t="shared" si="6"/>
         <v>Daudi_BR2_Baseline</v>
       </c>
       <c r="I417">
         <v>6</v>
       </c>
       <c r="J417" t="s">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="K417" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>675</v>
       </c>
@@ -16757,20 +16758,20 @@
         <v>26</v>
       </c>
       <c r="H418" t="str">
-        <f>CONCATENATE(A418, "_", F418, "_", G418)</f>
+        <f t="shared" si="6"/>
         <v>Daudi_BR1_Baseline</v>
       </c>
       <c r="I418">
         <v>6</v>
       </c>
       <c r="J418" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="K418" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>675</v>
       </c>
@@ -16784,20 +16785,20 @@
         <v>26</v>
       </c>
       <c r="H419" t="str">
-        <f>CONCATENATE(A419, "_", F419, "_", G419)</f>
+        <f t="shared" si="6"/>
         <v>Daudi_BR2_Baseline</v>
       </c>
       <c r="I419">
         <v>6</v>
       </c>
       <c r="J419" t="s">
-        <v>783</v>
+        <v>763</v>
       </c>
       <c r="K419" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>676</v>
       </c>
@@ -16811,7 +16812,7 @@
         <v>26</v>
       </c>
       <c r="H420" t="str">
-        <f>CONCATENATE(A420, "_", F420, "_", G420)</f>
+        <f t="shared" si="6"/>
         <v>Namalwa_BR1_Baseline</v>
       </c>
       <c r="I420">
@@ -16824,7 +16825,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>676</v>
       </c>
@@ -16838,7 +16839,7 @@
         <v>26</v>
       </c>
       <c r="H421" t="str">
-        <f>CONCATENATE(A421, "_", F421, "_", G421)</f>
+        <f t="shared" si="6"/>
         <v>Namalwa_BR2_Baseline</v>
       </c>
       <c r="I421">
@@ -16851,7 +16852,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>676</v>
       </c>
@@ -16865,20 +16866,20 @@
         <v>26</v>
       </c>
       <c r="H422" t="str">
-        <f>CONCATENATE(A422, "_", F422, "_", G422)</f>
+        <f t="shared" si="6"/>
         <v>Namalwa_BR1_Baseline</v>
       </c>
       <c r="I422">
         <v>6</v>
       </c>
       <c r="J422" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="K422" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>676</v>
       </c>
@@ -16892,20 +16893,20 @@
         <v>26</v>
       </c>
       <c r="H423" t="str">
-        <f>CONCATENATE(A423, "_", F423, "_", G423)</f>
+        <f t="shared" si="6"/>
         <v>Namalwa_BR2_Baseline</v>
       </c>
       <c r="I423">
         <v>6</v>
       </c>
       <c r="J423" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
       <c r="K423" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>676</v>
       </c>
@@ -16919,20 +16920,20 @@
         <v>26</v>
       </c>
       <c r="H424" t="str">
-        <f>CONCATENATE(A424, "_", F424, "_", G424)</f>
+        <f t="shared" si="6"/>
         <v>Namalwa_BR1_Baseline</v>
       </c>
       <c r="I424">
         <v>6</v>
       </c>
       <c r="J424" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="K424" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>676</v>
       </c>
@@ -16946,20 +16947,20 @@
         <v>26</v>
       </c>
       <c r="H425" t="str">
-        <f>CONCATENATE(A425, "_", F425, "_", G425)</f>
+        <f t="shared" si="6"/>
         <v>Namalwa_BR2_Baseline</v>
       </c>
       <c r="I425">
         <v>6</v>
       </c>
       <c r="J425" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="K425" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>676</v>
       </c>
@@ -16973,20 +16974,20 @@
         <v>26</v>
       </c>
       <c r="H426" t="str">
-        <f>CONCATENATE(A426, "_", F426, "_", G426)</f>
+        <f t="shared" si="6"/>
         <v>Namalwa_BR1_Baseline</v>
       </c>
       <c r="I426">
         <v>6</v>
       </c>
       <c r="J426" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="K426" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>676</v>
       </c>
@@ -17000,20 +17001,20 @@
         <v>26</v>
       </c>
       <c r="H427" t="str">
-        <f>CONCATENATE(A427, "_", F427, "_", G427)</f>
+        <f t="shared" si="6"/>
         <v>Namalwa_BR2_Baseline</v>
       </c>
       <c r="I427">
         <v>6</v>
       </c>
       <c r="J427" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="K427" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>676</v>
       </c>
@@ -17027,20 +17028,20 @@
         <v>26</v>
       </c>
       <c r="H428" t="str">
-        <f>CONCATENATE(A428, "_", F428, "_", G428)</f>
+        <f t="shared" si="6"/>
         <v>Namalwa_BR1_Baseline</v>
       </c>
       <c r="I428">
         <v>6</v>
       </c>
       <c r="J428" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="K428" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>676</v>
       </c>
@@ -17054,20 +17055,20 @@
         <v>26</v>
       </c>
       <c r="H429" t="str">
-        <f>CONCATENATE(A429, "_", F429, "_", G429)</f>
+        <f t="shared" si="6"/>
         <v>Namalwa_BR2_Baseline</v>
       </c>
       <c r="I429">
         <v>6</v>
       </c>
       <c r="J429" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
       <c r="K429" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>677</v>
       </c>
@@ -17081,7 +17082,7 @@
         <v>26</v>
       </c>
       <c r="H430" t="str">
-        <f>CONCATENATE(A430, "_", F430, "_", G430)</f>
+        <f t="shared" si="6"/>
         <v>Raji_BR1_Baseline</v>
       </c>
       <c r="I430">
@@ -17094,7 +17095,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>677</v>
       </c>
@@ -17108,7 +17109,7 @@
         <v>26</v>
       </c>
       <c r="H431" t="str">
-        <f>CONCATENATE(A431, "_", F431, "_", G431)</f>
+        <f t="shared" si="6"/>
         <v>Raji_BR2_Baseline</v>
       </c>
       <c r="I431">
@@ -17121,7 +17122,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>677</v>
       </c>
@@ -17135,20 +17136,20 @@
         <v>26</v>
       </c>
       <c r="H432" t="str">
-        <f>CONCATENATE(A432, "_", F432, "_", G432)</f>
+        <f t="shared" si="6"/>
         <v>Raji_BR1_Baseline</v>
       </c>
       <c r="I432">
         <v>6</v>
       </c>
       <c r="J432" t="s">
-        <v>792</v>
+        <v>772</v>
       </c>
       <c r="K432" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>677</v>
       </c>
@@ -17162,20 +17163,20 @@
         <v>26</v>
       </c>
       <c r="H433" t="str">
-        <f>CONCATENATE(A433, "_", F433, "_", G433)</f>
+        <f t="shared" si="6"/>
         <v>Raji_BR2_Baseline</v>
       </c>
       <c r="I433">
         <v>6</v>
       </c>
       <c r="J433" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="K433" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>677</v>
       </c>
@@ -17189,20 +17190,20 @@
         <v>26</v>
       </c>
       <c r="H434" t="str">
-        <f>CONCATENATE(A434, "_", F434, "_", G434)</f>
+        <f t="shared" si="6"/>
         <v>Raji_BR1_Baseline</v>
       </c>
       <c r="I434">
         <v>6</v>
       </c>
       <c r="J434" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="K434" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>677</v>
       </c>
@@ -17216,20 +17217,20 @@
         <v>26</v>
       </c>
       <c r="H435" t="str">
-        <f>CONCATENATE(A435, "_", F435, "_", G435)</f>
+        <f t="shared" si="6"/>
         <v>Raji_BR2_Baseline</v>
       </c>
       <c r="I435">
         <v>6</v>
       </c>
       <c r="J435" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="K435" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>677</v>
       </c>
@@ -17243,20 +17244,20 @@
         <v>26</v>
       </c>
       <c r="H436" t="str">
-        <f>CONCATENATE(A436, "_", F436, "_", G436)</f>
+        <f t="shared" si="6"/>
         <v>Raji_BR1_Baseline</v>
       </c>
       <c r="I436">
         <v>6</v>
       </c>
       <c r="J436" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="K436" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>677</v>
       </c>
@@ -17270,20 +17271,20 @@
         <v>26</v>
       </c>
       <c r="H437" t="str">
-        <f>CONCATENATE(A437, "_", F437, "_", G437)</f>
+        <f t="shared" si="6"/>
         <v>Raji_BR2_Baseline</v>
       </c>
       <c r="I437">
         <v>6</v>
       </c>
       <c r="J437" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="K437" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>677</v>
       </c>
@@ -17297,20 +17298,20 @@
         <v>26</v>
       </c>
       <c r="H438" t="str">
-        <f>CONCATENATE(A438, "_", F438, "_", G438)</f>
+        <f t="shared" si="6"/>
         <v>Raji_BR1_Baseline</v>
       </c>
       <c r="I438">
         <v>6</v>
       </c>
       <c r="J438" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="K438" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="439" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>677</v>
       </c>
@@ -17324,20 +17325,20 @@
         <v>26</v>
       </c>
       <c r="H439" t="str">
-        <f>CONCATENATE(A439, "_", F439, "_", G439)</f>
+        <f t="shared" si="6"/>
         <v>Raji_BR2_Baseline</v>
       </c>
       <c r="I439">
         <v>6</v>
       </c>
       <c r="J439" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="K439" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>679</v>
       </c>
@@ -17351,7 +17352,7 @@
         <v>26</v>
       </c>
       <c r="H440" t="str">
-        <f>CONCATENATE(A440, "_", F440, "_", G440)</f>
+        <f t="shared" si="6"/>
         <v>Ramos_BR1_Baseline</v>
       </c>
       <c r="I440">
@@ -17364,7 +17365,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>679</v>
       </c>
@@ -17378,7 +17379,7 @@
         <v>26</v>
       </c>
       <c r="H441" t="str">
-        <f>CONCATENATE(A441, "_", F441, "_", G441)</f>
+        <f t="shared" si="6"/>
         <v>Ramos_BR2_Baseline</v>
       </c>
       <c r="I441">
@@ -17391,7 +17392,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>679</v>
       </c>
@@ -17405,20 +17406,20 @@
         <v>26</v>
       </c>
       <c r="H442" t="str">
-        <f>CONCATENATE(A442, "_", F442, "_", G442)</f>
+        <f t="shared" si="6"/>
         <v>Ramos_BR1_Baseline</v>
       </c>
       <c r="I442">
         <v>6</v>
       </c>
       <c r="J442" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="K442" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>679</v>
       </c>
@@ -17432,20 +17433,20 @@
         <v>26</v>
       </c>
       <c r="H443" t="str">
-        <f>CONCATENATE(A443, "_", F443, "_", G443)</f>
+        <f t="shared" si="6"/>
         <v>Ramos_BR2_Baseline</v>
       </c>
       <c r="I443">
         <v>6</v>
       </c>
       <c r="J443" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="K443" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>679</v>
       </c>
@@ -17459,20 +17460,20 @@
         <v>26</v>
       </c>
       <c r="H444" t="str">
-        <f>CONCATENATE(A444, "_", F444, "_", G444)</f>
+        <f t="shared" si="6"/>
         <v>Ramos_BR1_Baseline</v>
       </c>
       <c r="I444">
         <v>6</v>
       </c>
       <c r="J444" t="s">
-        <v>802</v>
+        <v>782</v>
       </c>
       <c r="K444" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>679</v>
       </c>
@@ -17486,20 +17487,20 @@
         <v>26</v>
       </c>
       <c r="H445" t="str">
-        <f>CONCATENATE(A445, "_", F445, "_", G445)</f>
+        <f t="shared" si="6"/>
         <v>Ramos_BR2_Baseline</v>
       </c>
       <c r="I445">
         <v>6</v>
       </c>
       <c r="J445" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="K445" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>679</v>
       </c>
@@ -17513,20 +17514,20 @@
         <v>26</v>
       </c>
       <c r="H446" t="str">
-        <f>CONCATENATE(A446, "_", F446, "_", G446)</f>
+        <f t="shared" si="6"/>
         <v>Ramos_BR1_Baseline</v>
       </c>
       <c r="I446">
         <v>6</v>
       </c>
       <c r="J446" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="K446" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>679</v>
       </c>
@@ -17540,20 +17541,20 @@
         <v>26</v>
       </c>
       <c r="H447" t="str">
-        <f>CONCATENATE(A447, "_", F447, "_", G447)</f>
+        <f t="shared" si="6"/>
         <v>Ramos_BR2_Baseline</v>
       </c>
       <c r="I447">
         <v>6</v>
       </c>
       <c r="J447" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="K447" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>679</v>
       </c>
@@ -17567,20 +17568,20 @@
         <v>26</v>
       </c>
       <c r="H448" t="str">
-        <f>CONCATENATE(A448, "_", F448, "_", G448)</f>
+        <f t="shared" si="6"/>
         <v>Ramos_BR1_Baseline</v>
       </c>
       <c r="I448">
         <v>6</v>
       </c>
       <c r="J448" t="s">
-        <v>806</v>
+        <v>786</v>
       </c>
       <c r="K448" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>679</v>
       </c>
@@ -17594,20 +17595,20 @@
         <v>26</v>
       </c>
       <c r="H449" t="str">
-        <f>CONCATENATE(A449, "_", F449, "_", G449)</f>
+        <f t="shared" si="6"/>
         <v>Ramos_BR2_Baseline</v>
       </c>
       <c r="I449">
         <v>6</v>
       </c>
       <c r="J449" t="s">
-        <v>807</v>
+        <v>787</v>
       </c>
       <c r="K449" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>678</v>
       </c>
@@ -17621,7 +17622,7 @@
         <v>26</v>
       </c>
       <c r="H450" t="str">
-        <f>CONCATENATE(A450, "_", F450, "_", G450)</f>
+        <f t="shared" ref="H450:H513" si="7">CONCATENATE(A450, "_", F450, "_", G450)</f>
         <v>Toledo_BR1_Baseline</v>
       </c>
       <c r="I450">
@@ -17634,7 +17635,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>678</v>
       </c>
@@ -17648,7 +17649,7 @@
         <v>26</v>
       </c>
       <c r="H451" t="str">
-        <f>CONCATENATE(A451, "_", F451, "_", G451)</f>
+        <f t="shared" si="7"/>
         <v>Toledo_BR2_Baseline</v>
       </c>
       <c r="I451">
@@ -17661,7 +17662,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>678</v>
       </c>
@@ -17675,20 +17676,20 @@
         <v>26</v>
       </c>
       <c r="H452" t="str">
-        <f>CONCATENATE(A452, "_", F452, "_", G452)</f>
+        <f t="shared" si="7"/>
         <v>Toledo_BR1_Baseline</v>
       </c>
       <c r="I452">
         <v>6</v>
       </c>
       <c r="J452" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
       <c r="K452" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>678</v>
       </c>
@@ -17702,20 +17703,20 @@
         <v>26</v>
       </c>
       <c r="H453" t="str">
-        <f>CONCATENATE(A453, "_", F453, "_", G453)</f>
+        <f t="shared" si="7"/>
         <v>Toledo_BR2_Baseline</v>
       </c>
       <c r="I453">
         <v>6</v>
       </c>
       <c r="J453" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="K453" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>678</v>
       </c>
@@ -17729,20 +17730,20 @@
         <v>26</v>
       </c>
       <c r="H454" t="str">
-        <f>CONCATENATE(A454, "_", F454, "_", G454)</f>
+        <f t="shared" si="7"/>
         <v>Toledo_BR1_Baseline</v>
       </c>
       <c r="I454">
         <v>6</v>
       </c>
       <c r="J454" t="s">
-        <v>810</v>
+        <v>790</v>
       </c>
       <c r="K454" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>678</v>
       </c>
@@ -17756,20 +17757,20 @@
         <v>26</v>
       </c>
       <c r="H455" t="str">
-        <f>CONCATENATE(A455, "_", F455, "_", G455)</f>
+        <f t="shared" si="7"/>
         <v>Toledo_BR2_Baseline</v>
       </c>
       <c r="I455">
         <v>6</v>
       </c>
       <c r="J455" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="K455" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>678</v>
       </c>
@@ -17783,20 +17784,20 @@
         <v>26</v>
       </c>
       <c r="H456" t="str">
-        <f>CONCATENATE(A456, "_", F456, "_", G456)</f>
+        <f t="shared" si="7"/>
         <v>Toledo_BR1_Baseline</v>
       </c>
       <c r="I456">
         <v>6</v>
       </c>
       <c r="J456" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
       <c r="K456" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>678</v>
       </c>
@@ -17810,20 +17811,20 @@
         <v>26</v>
       </c>
       <c r="H457" t="str">
-        <f>CONCATENATE(A457, "_", F457, "_", G457)</f>
+        <f t="shared" si="7"/>
         <v>Toledo_BR2_Baseline</v>
       </c>
       <c r="I457">
         <v>6</v>
       </c>
       <c r="J457" t="s">
-        <v>813</v>
+        <v>793</v>
       </c>
       <c r="K457" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>678</v>
       </c>
@@ -17837,20 +17838,20 @@
         <v>26</v>
       </c>
       <c r="H458" t="str">
-        <f>CONCATENATE(A458, "_", F458, "_", G458)</f>
+        <f t="shared" si="7"/>
         <v>Toledo_BR1_Baseline</v>
       </c>
       <c r="I458">
         <v>6</v>
       </c>
       <c r="J458" t="s">
-        <v>814</v>
+        <v>794</v>
       </c>
       <c r="K458" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>678</v>
       </c>
@@ -17864,21 +17865,40 @@
         <v>26</v>
       </c>
       <c r="H459" t="str">
-        <f>CONCATENATE(A459, "_", F459, "_", G459)</f>
+        <f t="shared" si="7"/>
         <v>Toledo_BR2_Baseline</v>
       </c>
       <c r="I459">
         <v>6</v>
       </c>
       <c r="J459" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="K459" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K459">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="F36P"/>
+        <filter val="HEL9217"/>
+        <filter val="K562"/>
+        <filter val="MEG01"/>
+        <filter val="UT7"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="ATAC"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="1"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:K459">
       <sortCondition ref="I1:I459"/>
     </sortState>

--- a/inst/extdata/data_gsk.xlsx
+++ b/inst/extdata/data_gsk.xlsx
@@ -3014,18 +3014,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/K562_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/Meg01_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/Meg01_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/Meg01_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/Meg01_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/UT7_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bw</t>
   </si>
   <si>
@@ -3036,6 +3024,18 @@
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/UT7_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/MEG01_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/MEG01_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bigwig/MEG01_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/MEG01_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bam</t>
   </si>
 </sst>
 </file>
@@ -3425,7 +3425,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I51" sqref="I51"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5236,10 +5236,10 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="K50" t="s">
-        <v>999</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -5272,10 +5272,10 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="K51" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5596,10 +5596,10 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="K60" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -5632,10 +5632,10 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="K61" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">

--- a/inst/extdata/data_gsk.xlsx
+++ b/inst/extdata/data_gsk.xlsx
@@ -695,12 +695,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VD3_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage87_ATAC_P2MonocyteMacrophage87_bwa_samse_BR2TR1_edited.bw</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/A549_CTCF_ChIP-Seq_P3Lungepitheliacelltypes89_CTCF_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/A549_CTCF_ChIP-Seq_P3Lungepitheliacelltypes89_CTCF_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/A549_H3K27ac_ChIP-Seq_P3Lungepitheliacelltypes89_H3K27ac_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bw</t>
   </si>
   <si>
@@ -830,12 +824,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_PL_H3K4me3_ChIP-Seq_P2MonocyteMacrophage89_H3K4me3_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bam/A549_CTCF_ChIP-Seq_P3Lungepitheliacelltypes89_CTCF_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bam/A549_CTCF_ChIP-Seq_P3Lungepitheliacelltypes89_CTCF_P3Lungepitheliacelltypes89_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bam/A549_H3K27ac_ChIP-Seq_P3Lungepitheliacelltypes89_H3K27ac_P3Lungepitheliacelltypes89_bwa_samse_BR1TR1_edited.bam</t>
   </si>
   <si>
@@ -1406,15 +1394,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_2/bam/THP1_CL_H3K27ac_ChIP-Seq_P2MonocyteMacrophage89_H3K27ac_P2MonocyteMacrophage89_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bam/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes87_ATAC_P3Lungepitheliacelltypes87_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bam/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes87_ATAC_P3Lungepitheliacelltypes87_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bam/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes87_ATAC_P3Lungepitheliacelltypes87_bwa_samse_BR3TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/F36P_TF_BR1_CTCF_TR2_edited.bam</t>
   </si>
   <si>
@@ -1673,15 +1652,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bigwig/BEAS2B_ATAC_ATAC-seq_P3Lungepitheliacelltypes91_ATAC_P3Lungepitheliacelltypes91_bwa_samse_BR2TR1_edited.bw</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bigwig/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes87_ATAC_P3Lungepitheliacelltypes87_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bigwig/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes87_ATAC_P3Lungepitheliacelltypes87_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bigwig/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes87_ATAC_P3Lungepitheliacelltypes87_bwa_samse_BR3TR1_edited.bw</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_4/bigwig/HEP3B_2D_ATAC_ATAC-seq_P4Livercelltypes87_ATAC_P4Livercelltypes87_bwa_samse_BR1TR1_edited.bw</t>
   </si>
   <si>
@@ -3036,6 +3006,36 @@
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_1/bam/MEG01_ATAC_ATAC-Seq_P1Erythroidcelltypes93_ATAC_P1Erythroidcelltypes93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/A549_CTCF_ChIP-Seq_P3Lungepitheliacelltypes92_CTCF_P3Lungepitheliacelltypes92_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bam/A549_CTCF_ChIP-Seq_P3Lungepitheliacelltypes92_CTCF_P3Lungepitheliacelltypes92_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bigwig/A549_CTCF_ChIP-Seq_P3Lungepitheliacelltypes92_CTCF_P3Lungepitheliacelltypes92_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_3/bam/A549_CTCF_ChIP-Seq_P3Lungepitheliacelltypes92_CTCF_P3Lungepitheliacelltypes92_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bigwig/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes91_ATAC_P3Lungepitheliacelltypes91_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bam/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes91_ATAC_P3Lungepitheliacelltypes91_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bigwig/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes91_ATAC_P3Lungepitheliacelltypes91_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bam/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes91_ATAC_P3Lungepitheliacelltypes91_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bigwig/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes91_ATAC_P3Lungepitheliacelltypes91_bwa_samse_BR3TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bam/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes91_ATAC_P3Lungepitheliacelltypes91_bwa_samse_BR3TR1_edited.bam</t>
   </si>
 </sst>
 </file>
@@ -3425,7 +3425,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="J247" sqref="J247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3478,7 +3478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3508,13 +3508,13 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>986</v>
+        <v>976</v>
       </c>
       <c r="K2" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3544,10 +3544,10 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="K3" t="s">
-        <v>989</v>
+        <v>979</v>
       </c>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3580,10 +3580,10 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="K4" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3616,10 +3616,10 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="K5" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3652,10 +3652,10 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="K6" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3688,10 +3688,10 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="K7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3724,10 +3724,10 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="K8" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3760,10 +3760,10 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="K9" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3796,10 +3796,10 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="K10" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3832,10 +3832,10 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="K11" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3868,10 +3868,10 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="K12" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -3904,13 +3904,13 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="K13" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -3940,13 +3940,13 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="K14" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -3976,10 +3976,10 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>992</v>
+        <v>982</v>
       </c>
       <c r="K15" t="s">
-        <v>993</v>
+        <v>983</v>
       </c>
     </row>
     <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4012,10 +4012,10 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="K16" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4048,10 +4048,10 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="K17" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4084,10 +4084,10 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="K18" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4120,10 +4120,10 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="K19" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4156,10 +4156,10 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="K20" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4192,10 +4192,10 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="K21" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4228,10 +4228,10 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="K22" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4264,13 +4264,13 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="K23" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -4300,13 +4300,13 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>994</v>
+        <v>984</v>
       </c>
       <c r="K24" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -4336,10 +4336,10 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="K25" t="s">
-        <v>997</v>
+        <v>987</v>
       </c>
     </row>
     <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4372,10 +4372,10 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="K26" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
     </row>
     <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4408,10 +4408,10 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="K27" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4444,10 +4444,10 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="K28" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4480,10 +4480,10 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="K29" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4516,10 +4516,10 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="K30" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4552,10 +4552,10 @@
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="K31" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4588,10 +4588,10 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="K32" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4624,10 +4624,10 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="K33" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4660,10 +4660,10 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="K34" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4696,10 +4696,10 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="K35" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4732,10 +4732,10 @@
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="K36" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
     </row>
     <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4768,10 +4768,10 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="K37" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4804,10 +4804,10 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="K38" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
     </row>
     <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4840,10 +4840,10 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="K39" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
     </row>
     <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4876,10 +4876,10 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="K40" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
     </row>
     <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4912,10 +4912,10 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="K41" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
     <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4948,10 +4948,10 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="K42" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
     </row>
     <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -4984,10 +4984,10 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="K43" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5020,10 +5020,10 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="K44" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
     </row>
     <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5056,10 +5056,10 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="K45" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5092,10 +5092,10 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="K46" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5128,10 +5128,10 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="K47" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5164,10 +5164,10 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="K48" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5200,13 +5200,13 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="K49" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -5236,13 +5236,13 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>1002</v>
+        <v>992</v>
       </c>
       <c r="K50" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -5272,10 +5272,10 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="K51" t="s">
-        <v>1005</v>
+        <v>995</v>
       </c>
     </row>
     <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5308,10 +5308,10 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="K52" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5344,10 +5344,10 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="K53" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5380,10 +5380,10 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="K54" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5416,10 +5416,10 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="K55" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5452,10 +5452,10 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="K56" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5488,10 +5488,10 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="K57" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5524,10 +5524,10 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="K58" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5560,13 +5560,13 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="K59" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -5596,13 +5596,13 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="K60" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -5632,10 +5632,10 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="K61" t="s">
-        <v>1001</v>
+        <v>991</v>
       </c>
     </row>
     <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5668,10 +5668,10 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="K62" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5704,10 +5704,10 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="K63" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5740,10 +5740,10 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="K64" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5776,10 +5776,10 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="K65" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5812,10 +5812,10 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="K66" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5848,10 +5848,10 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="K67" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5884,10 +5884,10 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="K68" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -5920,10 +5920,10 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="K69" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6316,10 +6316,10 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K80" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6352,10 +6352,10 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K81" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6388,10 +6388,10 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K82" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6424,10 +6424,10 @@
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K83" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6460,10 +6460,10 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="K84" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6496,10 +6496,10 @@
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="K85" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6532,10 +6532,10 @@
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K86" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6568,10 +6568,10 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K87" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6604,10 +6604,10 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="K88" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6640,10 +6640,10 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K89" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6676,10 +6676,10 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K90" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6712,10 +6712,10 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K91" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6748,10 +6748,10 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K92" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6784,10 +6784,10 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="K93" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
     <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6820,10 +6820,10 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K94" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6856,10 +6856,10 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="K95" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6892,10 +6892,10 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K96" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6928,10 +6928,10 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="K97" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6964,10 +6964,10 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="K98" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7000,10 +7000,10 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K99" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7039,7 +7039,7 @@
         <v>65</v>
       </c>
       <c r="K100" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7075,7 +7075,7 @@
         <v>66</v>
       </c>
       <c r="K101" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7111,7 +7111,7 @@
         <v>60</v>
       </c>
       <c r="K102" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7147,7 +7147,7 @@
         <v>61</v>
       </c>
       <c r="K103" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7183,7 +7183,7 @@
         <v>77</v>
       </c>
       <c r="K104" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7219,7 +7219,7 @@
         <v>78</v>
       </c>
       <c r="K105" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7255,7 +7255,7 @@
         <v>71</v>
       </c>
       <c r="K106" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7291,7 +7291,7 @@
         <v>72</v>
       </c>
       <c r="K107" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7327,7 +7327,7 @@
         <v>89</v>
       </c>
       <c r="K108" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7363,7 +7363,7 @@
         <v>90</v>
       </c>
       <c r="K109" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7399,7 +7399,7 @@
         <v>83</v>
       </c>
       <c r="K110" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7435,7 +7435,7 @@
         <v>84</v>
       </c>
       <c r="K111" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7471,7 +7471,7 @@
         <v>67</v>
       </c>
       <c r="K112" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7507,7 +7507,7 @@
         <v>68</v>
       </c>
       <c r="K113" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7543,7 +7543,7 @@
         <v>62</v>
       </c>
       <c r="K114" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7579,7 +7579,7 @@
         <v>79</v>
       </c>
       <c r="K115" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7615,7 +7615,7 @@
         <v>80</v>
       </c>
       <c r="K116" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7651,7 +7651,7 @@
         <v>73</v>
       </c>
       <c r="K117" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7687,7 +7687,7 @@
         <v>74</v>
       </c>
       <c r="K118" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7723,7 +7723,7 @@
         <v>91</v>
       </c>
       <c r="K119" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7759,7 +7759,7 @@
         <v>92</v>
       </c>
       <c r="K120" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7795,7 +7795,7 @@
         <v>85</v>
       </c>
       <c r="K121" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
     </row>
     <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7831,7 +7831,7 @@
         <v>86</v>
       </c>
       <c r="K122" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7864,10 +7864,10 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K123" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7903,7 +7903,7 @@
         <v>153</v>
       </c>
       <c r="K124" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7939,7 +7939,7 @@
         <v>152</v>
       </c>
       <c r="K125" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -7975,7 +7975,7 @@
         <v>150</v>
       </c>
       <c r="K126" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8011,7 +8011,7 @@
         <v>151</v>
       </c>
       <c r="K127" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8047,7 +8047,7 @@
         <v>154</v>
       </c>
       <c r="K128" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8083,7 +8083,7 @@
         <v>155</v>
       </c>
       <c r="K129" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8119,7 +8119,7 @@
         <v>156</v>
       </c>
       <c r="K130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8155,7 +8155,7 @@
         <v>157</v>
       </c>
       <c r="K131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8191,7 +8191,7 @@
         <v>158</v>
       </c>
       <c r="K132" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8227,7 +8227,7 @@
         <v>159</v>
       </c>
       <c r="K133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8263,7 +8263,7 @@
         <v>160</v>
       </c>
       <c r="K134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8299,7 +8299,7 @@
         <v>161</v>
       </c>
       <c r="K135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8335,7 +8335,7 @@
         <v>69</v>
       </c>
       <c r="K136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8371,7 +8371,7 @@
         <v>70</v>
       </c>
       <c r="K137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8407,7 +8407,7 @@
         <v>63</v>
       </c>
       <c r="K138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8443,7 +8443,7 @@
         <v>64</v>
       </c>
       <c r="K139" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8479,7 +8479,7 @@
         <v>81</v>
       </c>
       <c r="K140" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8515,7 +8515,7 @@
         <v>82</v>
       </c>
       <c r="K141" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8551,7 +8551,7 @@
         <v>75</v>
       </c>
       <c r="K142" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8587,7 +8587,7 @@
         <v>76</v>
       </c>
       <c r="K143" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8623,7 +8623,7 @@
         <v>93</v>
       </c>
       <c r="K144" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8659,7 +8659,7 @@
         <v>94</v>
       </c>
       <c r="K145" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8695,7 +8695,7 @@
         <v>87</v>
       </c>
       <c r="K146" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8731,7 +8731,7 @@
         <v>88</v>
       </c>
       <c r="K147" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8764,10 +8764,10 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K148" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8800,10 +8800,10 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K149" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8836,10 +8836,10 @@
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K150" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8872,10 +8872,10 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K151" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9301,10 +9301,10 @@
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K164" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9334,10 +9334,10 @@
         <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K165" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9367,10 +9367,10 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="K166" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9400,10 +9400,10 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="K167" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9433,10 +9433,10 @@
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K168" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9466,10 +9466,10 @@
         <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="K169" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9499,10 +9499,10 @@
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="K170" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9532,10 +9532,10 @@
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="K171" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9565,10 +9565,10 @@
         <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="K172" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9598,10 +9598,10 @@
         <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="K173" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9631,10 +9631,10 @@
         <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="K174" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9664,10 +9664,10 @@
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="K175" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9697,10 +9697,10 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="K176" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9730,10 +9730,10 @@
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="K177" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9763,10 +9763,10 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K178" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9796,10 +9796,10 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K179" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9829,10 +9829,10 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="K180" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9862,10 +9862,10 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K181" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9895,10 +9895,10 @@
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="K182" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9928,10 +9928,10 @@
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="K183" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9964,7 +9964,7 @@
         <v>101</v>
       </c>
       <c r="K184" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -9997,7 +9997,7 @@
         <v>102</v>
       </c>
       <c r="K185" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10030,7 +10030,7 @@
         <v>95</v>
       </c>
       <c r="K186" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10063,7 +10063,7 @@
         <v>96</v>
       </c>
       <c r="K187" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10096,7 +10096,7 @@
         <v>113</v>
       </c>
       <c r="K188" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10129,7 +10129,7 @@
         <v>114</v>
       </c>
       <c r="K189" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10162,7 +10162,7 @@
         <v>107</v>
       </c>
       <c r="K190" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10195,7 +10195,7 @@
         <v>108</v>
       </c>
       <c r="K191" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10228,7 +10228,7 @@
         <v>125</v>
       </c>
       <c r="K192" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10261,7 +10261,7 @@
         <v>126</v>
       </c>
       <c r="K193" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10294,7 +10294,7 @@
         <v>119</v>
       </c>
       <c r="K194" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10327,7 +10327,7 @@
         <v>120</v>
       </c>
       <c r="K195" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10360,7 +10360,7 @@
         <v>103</v>
       </c>
       <c r="K196" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10393,7 +10393,7 @@
         <v>104</v>
       </c>
       <c r="K197" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10426,7 +10426,7 @@
         <v>97</v>
       </c>
       <c r="K198" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10459,7 +10459,7 @@
         <v>98</v>
       </c>
       <c r="K199" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10492,7 +10492,7 @@
         <v>115</v>
       </c>
       <c r="K200" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10525,7 +10525,7 @@
         <v>116</v>
       </c>
       <c r="K201" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10558,7 +10558,7 @@
         <v>109</v>
       </c>
       <c r="K202" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10591,7 +10591,7 @@
         <v>110</v>
       </c>
       <c r="K203" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10624,7 +10624,7 @@
         <v>127</v>
       </c>
       <c r="K204" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10657,7 +10657,7 @@
         <v>128</v>
       </c>
       <c r="K205" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10690,7 +10690,7 @@
         <v>121</v>
       </c>
       <c r="K206" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10723,7 +10723,7 @@
         <v>122</v>
       </c>
       <c r="K207" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10756,7 +10756,7 @@
         <v>164</v>
       </c>
       <c r="K208" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10789,7 +10789,7 @@
         <v>165</v>
       </c>
       <c r="K209" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10822,7 +10822,7 @@
         <v>162</v>
       </c>
       <c r="K210" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10855,7 +10855,7 @@
         <v>163</v>
       </c>
       <c r="K211" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10888,7 +10888,7 @@
         <v>166</v>
       </c>
       <c r="K212" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10921,7 +10921,7 @@
         <v>167</v>
       </c>
       <c r="K213" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10954,7 +10954,7 @@
         <v>168</v>
       </c>
       <c r="K214" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -10987,7 +10987,7 @@
         <v>169</v>
       </c>
       <c r="K215" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11020,7 +11020,7 @@
         <v>170</v>
       </c>
       <c r="K216" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11053,7 +11053,7 @@
         <v>171</v>
       </c>
       <c r="K217" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11086,7 +11086,7 @@
         <v>172</v>
       </c>
       <c r="K218" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11119,7 +11119,7 @@
         <v>173</v>
       </c>
       <c r="K219" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11152,7 +11152,7 @@
         <v>105</v>
       </c>
       <c r="K220" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11185,7 +11185,7 @@
         <v>106</v>
       </c>
       <c r="K221" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11218,7 +11218,7 @@
         <v>99</v>
       </c>
       <c r="K222" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11251,7 +11251,7 @@
         <v>100</v>
       </c>
       <c r="K223" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11284,7 +11284,7 @@
         <v>117</v>
       </c>
       <c r="K224" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11317,7 +11317,7 @@
         <v>118</v>
       </c>
       <c r="K225" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11350,7 +11350,7 @@
         <v>111</v>
       </c>
       <c r="K226" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11383,7 +11383,7 @@
         <v>112</v>
       </c>
       <c r="K227" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11416,7 +11416,7 @@
         <v>129</v>
       </c>
       <c r="K228" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11449,7 +11449,7 @@
         <v>130</v>
       </c>
       <c r="K229" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11482,7 +11482,7 @@
         <v>123</v>
       </c>
       <c r="K230" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11515,7 +11515,7 @@
         <v>124</v>
       </c>
       <c r="K231" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11545,10 +11545,10 @@
         <v>2</v>
       </c>
       <c r="J232" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="K232" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11578,10 +11578,10 @@
         <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K233" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11611,10 +11611,10 @@
         <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="K234" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11644,13 +11644,13 @@
         <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="K235" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>17</v>
       </c>
@@ -11680,13 +11680,13 @@
         <v>3</v>
       </c>
       <c r="J236" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="K236" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -11716,10 +11716,10 @@
         <v>3</v>
       </c>
       <c r="J237" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="K237" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11752,10 +11752,10 @@
         <v>3</v>
       </c>
       <c r="J238" t="s">
-        <v>225</v>
+        <v>996</v>
       </c>
       <c r="K238" t="s">
-        <v>270</v>
+        <v>997</v>
       </c>
     </row>
     <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11788,10 +11788,10 @@
         <v>3</v>
       </c>
       <c r="J239" t="s">
-        <v>226</v>
+        <v>998</v>
       </c>
       <c r="K239" t="s">
-        <v>271</v>
+        <v>999</v>
       </c>
     </row>
     <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11824,10 +11824,10 @@
         <v>3</v>
       </c>
       <c r="J240" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K240" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11860,10 +11860,10 @@
         <v>3</v>
       </c>
       <c r="J241" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K241" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11896,10 +11896,10 @@
         <v>3</v>
       </c>
       <c r="J242" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K242" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11932,10 +11932,10 @@
         <v>3</v>
       </c>
       <c r="J243" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K243" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -11968,10 +11968,10 @@
         <v>3</v>
       </c>
       <c r="J244" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K244" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12004,13 +12004,13 @@
         <v>3</v>
       </c>
       <c r="J245" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K245" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>18</v>
       </c>
@@ -12040,13 +12040,13 @@
         <v>3</v>
       </c>
       <c r="J246" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="K246" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>18</v>
       </c>
@@ -12076,10 +12076,10 @@
         <v>3</v>
       </c>
       <c r="J247" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="K247" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12112,10 +12112,10 @@
         <v>3</v>
       </c>
       <c r="J248" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K248" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12148,10 +12148,10 @@
         <v>3</v>
       </c>
       <c r="J249" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K249" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12184,10 +12184,10 @@
         <v>3</v>
       </c>
       <c r="J250" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K250" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12220,10 +12220,10 @@
         <v>3</v>
       </c>
       <c r="J251" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K251" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12256,10 +12256,10 @@
         <v>3</v>
       </c>
       <c r="J252" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K252" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12292,10 +12292,10 @@
         <v>3</v>
       </c>
       <c r="J253" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K253" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12328,10 +12328,10 @@
         <v>3</v>
       </c>
       <c r="J254" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K254" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12364,13 +12364,13 @@
         <v>3</v>
       </c>
       <c r="J255" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K255" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>27</v>
       </c>
@@ -12391,13 +12391,13 @@
         <v>3</v>
       </c>
       <c r="J256" t="s">
-        <v>551</v>
+        <v>1000</v>
       </c>
       <c r="K256" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>27</v>
       </c>
@@ -12418,13 +12418,13 @@
         <v>3</v>
       </c>
       <c r="J257" t="s">
-        <v>552</v>
+        <v>1002</v>
       </c>
       <c r="K257" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>27</v>
       </c>
@@ -12445,10 +12445,10 @@
         <v>3</v>
       </c>
       <c r="J258" t="s">
-        <v>553</v>
+        <v>1004</v>
       </c>
       <c r="K258" t="s">
-        <v>464</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12475,7 +12475,7 @@
         <v>54</v>
       </c>
       <c r="K259" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12502,7 +12502,7 @@
         <v>55</v>
       </c>
       <c r="K260" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12529,7 +12529,7 @@
         <v>175</v>
       </c>
       <c r="K261" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12556,7 +12556,7 @@
         <v>56</v>
       </c>
       <c r="K262" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12583,7 +12583,7 @@
         <v>57</v>
       </c>
       <c r="K263" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12610,7 +12610,7 @@
         <v>176</v>
       </c>
       <c r="K264" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12637,7 +12637,7 @@
         <v>177</v>
       </c>
       <c r="K265" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12664,7 +12664,7 @@
         <v>178</v>
       </c>
       <c r="K266" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12691,7 +12691,7 @@
         <v>179</v>
       </c>
       <c r="K267" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12718,7 +12718,7 @@
         <v>58</v>
       </c>
       <c r="K268" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12745,7 +12745,7 @@
         <v>59</v>
       </c>
       <c r="K269" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -12772,12 +12772,12 @@
         <v>180</v>
       </c>
       <c r="K270" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E271" t="s">
         <v>22</v>
@@ -12786,7 +12786,7 @@
         <v>13</v>
       </c>
       <c r="G271" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H271" t="str">
         <f t="shared" si="4"/>
@@ -12796,15 +12796,15 @@
         <v>4</v>
       </c>
       <c r="J271" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="K271" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E272" t="s">
         <v>22</v>
@@ -12813,7 +12813,7 @@
         <v>14</v>
       </c>
       <c r="G272" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H272" t="str">
         <f t="shared" si="4"/>
@@ -12823,15 +12823,15 @@
         <v>4</v>
       </c>
       <c r="J272" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="K272" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E273" t="s">
         <v>22</v>
@@ -12840,7 +12840,7 @@
         <v>13</v>
       </c>
       <c r="G273" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H273" t="str">
         <f t="shared" si="4"/>
@@ -12850,15 +12850,15 @@
         <v>4</v>
       </c>
       <c r="J273" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="K273" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E274" t="s">
         <v>22</v>
@@ -12867,7 +12867,7 @@
         <v>14</v>
       </c>
       <c r="G274" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H274" t="str">
         <f t="shared" si="4"/>
@@ -12877,15 +12877,15 @@
         <v>4</v>
       </c>
       <c r="J274" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="K274" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E275" t="s">
         <v>11</v>
@@ -12894,7 +12894,7 @@
         <v>13</v>
       </c>
       <c r="G275" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H275" t="str">
         <f t="shared" si="4"/>
@@ -12904,15 +12904,15 @@
         <v>4</v>
       </c>
       <c r="J275" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="K275" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
     </row>
     <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E276" t="s">
         <v>11</v>
@@ -12921,7 +12921,7 @@
         <v>14</v>
       </c>
       <c r="G276" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H276" t="str">
         <f t="shared" si="4"/>
@@ -12931,15 +12931,15 @@
         <v>4</v>
       </c>
       <c r="J276" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="K276" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
     </row>
     <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E277" t="s">
         <v>11</v>
@@ -12948,7 +12948,7 @@
         <v>13</v>
       </c>
       <c r="G277" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H277" t="str">
         <f t="shared" si="4"/>
@@ -12958,15 +12958,15 @@
         <v>4</v>
       </c>
       <c r="J277" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="K277" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
     </row>
     <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E278" t="s">
         <v>11</v>
@@ -12975,7 +12975,7 @@
         <v>14</v>
       </c>
       <c r="G278" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H278" t="str">
         <f t="shared" si="4"/>
@@ -12985,15 +12985,15 @@
         <v>4</v>
       </c>
       <c r="J278" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="K278" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
     </row>
     <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E279" t="s">
         <v>8</v>
@@ -13002,7 +13002,7 @@
         <v>13</v>
       </c>
       <c r="G279" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H279" t="str">
         <f t="shared" si="4"/>
@@ -13012,15 +13012,15 @@
         <v>4</v>
       </c>
       <c r="J279" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="K279" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
     </row>
     <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E280" t="s">
         <v>8</v>
@@ -13029,7 +13029,7 @@
         <v>14</v>
       </c>
       <c r="G280" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H280" t="str">
         <f t="shared" si="4"/>
@@ -13039,15 +13039,15 @@
         <v>4</v>
       </c>
       <c r="J280" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="K280" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
     </row>
     <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E281" t="s">
         <v>8</v>
@@ -13056,7 +13056,7 @@
         <v>13</v>
       </c>
       <c r="G281" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H281" t="str">
         <f t="shared" si="4"/>
@@ -13066,15 +13066,15 @@
         <v>4</v>
       </c>
       <c r="J281" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="K281" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
     </row>
     <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E282" t="s">
         <v>8</v>
@@ -13083,7 +13083,7 @@
         <v>14</v>
       </c>
       <c r="G282" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H282" t="str">
         <f t="shared" si="4"/>
@@ -13093,15 +13093,15 @@
         <v>4</v>
       </c>
       <c r="J282" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="K282" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
     </row>
     <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E283" t="s">
         <v>9</v>
@@ -13110,7 +13110,7 @@
         <v>13</v>
       </c>
       <c r="G283" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H283" t="str">
         <f t="shared" si="4"/>
@@ -13120,15 +13120,15 @@
         <v>4</v>
       </c>
       <c r="J283" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="K283" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
     </row>
     <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E284" t="s">
         <v>9</v>
@@ -13137,7 +13137,7 @@
         <v>14</v>
       </c>
       <c r="G284" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H284" t="str">
         <f t="shared" si="4"/>
@@ -13147,15 +13147,15 @@
         <v>4</v>
       </c>
       <c r="J284" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="K284" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
     </row>
     <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E285" t="s">
         <v>9</v>
@@ -13164,7 +13164,7 @@
         <v>13</v>
       </c>
       <c r="G285" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H285" t="str">
         <f t="shared" si="4"/>
@@ -13174,15 +13174,15 @@
         <v>4</v>
       </c>
       <c r="J285" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="K285" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
     </row>
     <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E286" t="s">
         <v>9</v>
@@ -13191,7 +13191,7 @@
         <v>14</v>
       </c>
       <c r="G286" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H286" t="str">
         <f t="shared" si="4"/>
@@ -13201,15 +13201,15 @@
         <v>4</v>
       </c>
       <c r="J286" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="K286" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
     </row>
     <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E287" t="s">
         <v>10</v>
@@ -13218,7 +13218,7 @@
         <v>13</v>
       </c>
       <c r="G287" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H287" t="str">
         <f t="shared" si="4"/>
@@ -13228,15 +13228,15 @@
         <v>4</v>
       </c>
       <c r="J287" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="K287" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
     </row>
     <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E288" t="s">
         <v>10</v>
@@ -13245,7 +13245,7 @@
         <v>14</v>
       </c>
       <c r="G288" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H288" t="str">
         <f t="shared" si="4"/>
@@ -13255,15 +13255,15 @@
         <v>4</v>
       </c>
       <c r="J288" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="K288" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
     </row>
     <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E289" t="s">
         <v>10</v>
@@ -13272,7 +13272,7 @@
         <v>13</v>
       </c>
       <c r="G289" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H289" t="str">
         <f t="shared" si="4"/>
@@ -13282,15 +13282,15 @@
         <v>4</v>
       </c>
       <c r="J289" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="K289" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
     </row>
     <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="E290" t="s">
         <v>10</v>
@@ -13299,7 +13299,7 @@
         <v>14</v>
       </c>
       <c r="G290" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H290" t="str">
         <f t="shared" si="4"/>
@@ -13309,15 +13309,15 @@
         <v>4</v>
       </c>
       <c r="J290" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="K290" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
     </row>
     <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E291" t="s">
         <v>22</v>
@@ -13326,7 +13326,7 @@
         <v>13</v>
       </c>
       <c r="G291" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H291" t="str">
         <f t="shared" si="4"/>
@@ -13336,15 +13336,15 @@
         <v>4</v>
       </c>
       <c r="J291" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="K291" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E292" t="s">
         <v>22</v>
@@ -13353,7 +13353,7 @@
         <v>14</v>
       </c>
       <c r="G292" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H292" t="str">
         <f t="shared" si="4"/>
@@ -13363,15 +13363,15 @@
         <v>4</v>
       </c>
       <c r="J292" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="K292" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
     </row>
     <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E293" t="s">
         <v>22</v>
@@ -13380,7 +13380,7 @@
         <v>13</v>
       </c>
       <c r="G293" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H293" t="str">
         <f t="shared" si="4"/>
@@ -13390,15 +13390,15 @@
         <v>4</v>
       </c>
       <c r="J293" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="K293" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E294" t="s">
         <v>22</v>
@@ -13407,7 +13407,7 @@
         <v>14</v>
       </c>
       <c r="G294" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H294" t="str">
         <f t="shared" si="4"/>
@@ -13417,15 +13417,15 @@
         <v>4</v>
       </c>
       <c r="J294" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="K294" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E295" t="s">
         <v>11</v>
@@ -13434,7 +13434,7 @@
         <v>13</v>
       </c>
       <c r="G295" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H295" t="str">
         <f t="shared" si="4"/>
@@ -13444,15 +13444,15 @@
         <v>4</v>
       </c>
       <c r="J295" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="K295" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
     </row>
     <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E296" t="s">
         <v>11</v>
@@ -13461,7 +13461,7 @@
         <v>14</v>
       </c>
       <c r="G296" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H296" t="str">
         <f t="shared" si="4"/>
@@ -13471,15 +13471,15 @@
         <v>4</v>
       </c>
       <c r="J296" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="K296" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
     </row>
     <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E297" t="s">
         <v>11</v>
@@ -13488,7 +13488,7 @@
         <v>13</v>
       </c>
       <c r="G297" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H297" t="str">
         <f t="shared" si="4"/>
@@ -13498,15 +13498,15 @@
         <v>4</v>
       </c>
       <c r="J297" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="K297" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
     </row>
     <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E298" t="s">
         <v>11</v>
@@ -13515,7 +13515,7 @@
         <v>14</v>
       </c>
       <c r="G298" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H298" t="str">
         <f t="shared" si="4"/>
@@ -13525,15 +13525,15 @@
         <v>4</v>
       </c>
       <c r="J298" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="K298" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
     </row>
     <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E299" t="s">
         <v>8</v>
@@ -13542,7 +13542,7 @@
         <v>13</v>
       </c>
       <c r="G299" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H299" t="str">
         <f t="shared" si="4"/>
@@ -13552,15 +13552,15 @@
         <v>4</v>
       </c>
       <c r="J299" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="K299" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
     </row>
     <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E300" t="s">
         <v>8</v>
@@ -13569,7 +13569,7 @@
         <v>14</v>
       </c>
       <c r="G300" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H300" t="str">
         <f t="shared" si="4"/>
@@ -13579,15 +13579,15 @@
         <v>4</v>
       </c>
       <c r="J300" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="K300" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
     </row>
     <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E301" t="s">
         <v>8</v>
@@ -13596,7 +13596,7 @@
         <v>13</v>
       </c>
       <c r="G301" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H301" t="str">
         <f t="shared" si="4"/>
@@ -13606,15 +13606,15 @@
         <v>4</v>
       </c>
       <c r="J301" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="K301" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
     </row>
     <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E302" t="s">
         <v>8</v>
@@ -13623,7 +13623,7 @@
         <v>14</v>
       </c>
       <c r="G302" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H302" t="str">
         <f t="shared" si="4"/>
@@ -13633,15 +13633,15 @@
         <v>4</v>
       </c>
       <c r="J302" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="K302" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
     </row>
     <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E303" t="s">
         <v>9</v>
@@ -13650,7 +13650,7 @@
         <v>13</v>
       </c>
       <c r="G303" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H303" t="str">
         <f t="shared" si="4"/>
@@ -13660,15 +13660,15 @@
         <v>4</v>
       </c>
       <c r="J303" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="K303" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
     </row>
     <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E304" t="s">
         <v>9</v>
@@ -13677,7 +13677,7 @@
         <v>14</v>
       </c>
       <c r="G304" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H304" t="str">
         <f t="shared" si="4"/>
@@ -13687,15 +13687,15 @@
         <v>4</v>
       </c>
       <c r="J304" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="K304" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
     </row>
     <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E305" t="s">
         <v>9</v>
@@ -13704,7 +13704,7 @@
         <v>13</v>
       </c>
       <c r="G305" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H305" t="str">
         <f t="shared" si="4"/>
@@ -13714,15 +13714,15 @@
         <v>4</v>
       </c>
       <c r="J305" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="K305" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
     </row>
     <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E306" t="s">
         <v>9</v>
@@ -13731,7 +13731,7 @@
         <v>14</v>
       </c>
       <c r="G306" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H306" t="str">
         <f t="shared" si="4"/>
@@ -13741,15 +13741,15 @@
         <v>4</v>
       </c>
       <c r="J306" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="K306" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
     </row>
     <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E307" t="s">
         <v>10</v>
@@ -13758,7 +13758,7 @@
         <v>13</v>
       </c>
       <c r="G307" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H307" t="str">
         <f t="shared" si="4"/>
@@ -13768,15 +13768,15 @@
         <v>4</v>
       </c>
       <c r="J307" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="K307" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
     </row>
     <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E308" t="s">
         <v>10</v>
@@ -13785,7 +13785,7 @@
         <v>14</v>
       </c>
       <c r="G308" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H308" t="str">
         <f t="shared" si="4"/>
@@ -13795,15 +13795,15 @@
         <v>4</v>
       </c>
       <c r="J308" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="K308" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
     </row>
     <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E309" t="s">
         <v>10</v>
@@ -13812,7 +13812,7 @@
         <v>181</v>
       </c>
       <c r="G309" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H309" t="str">
         <f t="shared" si="4"/>
@@ -13822,15 +13822,15 @@
         <v>4</v>
       </c>
       <c r="J309" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="K309" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
     </row>
     <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E310" t="s">
         <v>10</v>
@@ -13839,7 +13839,7 @@
         <v>13</v>
       </c>
       <c r="G310" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H310" t="str">
         <f t="shared" si="4"/>
@@ -13849,15 +13849,15 @@
         <v>4</v>
       </c>
       <c r="J310" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="K310" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
     </row>
     <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E311" t="s">
         <v>10</v>
@@ -13866,7 +13866,7 @@
         <v>14</v>
       </c>
       <c r="G311" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H311" t="str">
         <f t="shared" si="4"/>
@@ -13876,15 +13876,15 @@
         <v>4</v>
       </c>
       <c r="J311" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="K311" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
     </row>
     <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E312" t="s">
         <v>22</v>
@@ -13893,7 +13893,7 @@
         <v>13</v>
       </c>
       <c r="G312" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H312" t="str">
         <f t="shared" si="4"/>
@@ -13903,15 +13903,15 @@
         <v>4</v>
       </c>
       <c r="J312" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="K312" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E313" t="s">
         <v>22</v>
@@ -13920,7 +13920,7 @@
         <v>14</v>
       </c>
       <c r="G313" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H313" t="str">
         <f t="shared" si="4"/>
@@ -13930,15 +13930,15 @@
         <v>4</v>
       </c>
       <c r="J313" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="K313" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E314" t="s">
         <v>22</v>
@@ -13947,7 +13947,7 @@
         <v>13</v>
       </c>
       <c r="G314" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H314" t="str">
         <f t="shared" si="4"/>
@@ -13957,15 +13957,15 @@
         <v>4</v>
       </c>
       <c r="J314" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="K314" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E315" t="s">
         <v>22</v>
@@ -13974,7 +13974,7 @@
         <v>14</v>
       </c>
       <c r="G315" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H315" t="str">
         <f t="shared" si="4"/>
@@ -13984,15 +13984,15 @@
         <v>4</v>
       </c>
       <c r="J315" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="K315" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E316" t="s">
         <v>11</v>
@@ -14001,7 +14001,7 @@
         <v>13</v>
       </c>
       <c r="G316" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H316" t="str">
         <f t="shared" si="4"/>
@@ -14011,15 +14011,15 @@
         <v>4</v>
       </c>
       <c r="J316" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="K316" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
     </row>
     <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E317" t="s">
         <v>11</v>
@@ -14028,7 +14028,7 @@
         <v>14</v>
       </c>
       <c r="G317" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H317" t="str">
         <f t="shared" si="4"/>
@@ -14038,15 +14038,15 @@
         <v>4</v>
       </c>
       <c r="J317" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="K317" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
     </row>
     <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E318" t="s">
         <v>8</v>
@@ -14055,7 +14055,7 @@
         <v>13</v>
       </c>
       <c r="G318" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H318" t="str">
         <f t="shared" si="4"/>
@@ -14065,15 +14065,15 @@
         <v>4</v>
       </c>
       <c r="J318" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="K318" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
     </row>
     <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E319" t="s">
         <v>8</v>
@@ -14082,7 +14082,7 @@
         <v>14</v>
       </c>
       <c r="G319" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H319" t="str">
         <f t="shared" si="4"/>
@@ -14092,15 +14092,15 @@
         <v>4</v>
       </c>
       <c r="J319" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
       <c r="K319" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
     </row>
     <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E320" t="s">
         <v>8</v>
@@ -14109,7 +14109,7 @@
         <v>13</v>
       </c>
       <c r="G320" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H320" t="str">
         <f t="shared" si="4"/>
@@ -14119,15 +14119,15 @@
         <v>4</v>
       </c>
       <c r="J320" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="K320" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
     </row>
     <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E321" t="s">
         <v>8</v>
@@ -14136,7 +14136,7 @@
         <v>14</v>
       </c>
       <c r="G321" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H321" t="str">
         <f t="shared" si="4"/>
@@ -14146,15 +14146,15 @@
         <v>4</v>
       </c>
       <c r="J321" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="K321" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
     </row>
     <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E322" t="s">
         <v>8</v>
@@ -14163,7 +14163,7 @@
         <v>13</v>
       </c>
       <c r="G322" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H322" t="str">
         <f t="shared" ref="H322:H385" si="5">CONCATENATE(A322, "_", F322, "_", G322)</f>
@@ -14173,15 +14173,15 @@
         <v>4</v>
       </c>
       <c r="J322" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="K322" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
     </row>
     <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E323" t="s">
         <v>8</v>
@@ -14190,7 +14190,7 @@
         <v>14</v>
       </c>
       <c r="G323" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H323" t="str">
         <f t="shared" si="5"/>
@@ -14200,15 +14200,15 @@
         <v>4</v>
       </c>
       <c r="J323" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="K323" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E324" t="s">
         <v>9</v>
@@ -14217,7 +14217,7 @@
         <v>13</v>
       </c>
       <c r="G324" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H324" t="str">
         <f t="shared" si="5"/>
@@ -14227,15 +14227,15 @@
         <v>4</v>
       </c>
       <c r="J324" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="K324" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
     </row>
     <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E325" t="s">
         <v>9</v>
@@ -14244,7 +14244,7 @@
         <v>14</v>
       </c>
       <c r="G325" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H325" t="str">
         <f t="shared" si="5"/>
@@ -14254,15 +14254,15 @@
         <v>4</v>
       </c>
       <c r="J325" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="K325" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E326" t="s">
         <v>9</v>
@@ -14271,7 +14271,7 @@
         <v>13</v>
       </c>
       <c r="G326" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H326" t="str">
         <f t="shared" si="5"/>
@@ -14281,15 +14281,15 @@
         <v>4</v>
       </c>
       <c r="J326" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
       <c r="K326" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
     </row>
     <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E327" t="s">
         <v>9</v>
@@ -14298,7 +14298,7 @@
         <v>14</v>
       </c>
       <c r="G327" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H327" t="str">
         <f t="shared" si="5"/>
@@ -14308,15 +14308,15 @@
         <v>4</v>
       </c>
       <c r="J327" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="K327" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
     </row>
     <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E328" t="s">
         <v>9</v>
@@ -14325,7 +14325,7 @@
         <v>13</v>
       </c>
       <c r="G328" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H328" t="str">
         <f t="shared" si="5"/>
@@ -14335,15 +14335,15 @@
         <v>4</v>
       </c>
       <c r="J328" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
       <c r="K328" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
     </row>
     <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E329" t="s">
         <v>9</v>
@@ -14352,7 +14352,7 @@
         <v>14</v>
       </c>
       <c r="G329" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H329" t="str">
         <f t="shared" si="5"/>
@@ -14362,15 +14362,15 @@
         <v>4</v>
       </c>
       <c r="J329" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="K329" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
     </row>
     <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E330" t="s">
         <v>10</v>
@@ -14379,7 +14379,7 @@
         <v>13</v>
       </c>
       <c r="G330" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H330" t="str">
         <f t="shared" si="5"/>
@@ -14389,15 +14389,15 @@
         <v>4</v>
       </c>
       <c r="J330" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="K330" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
     </row>
     <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E331" t="s">
         <v>10</v>
@@ -14406,7 +14406,7 @@
         <v>14</v>
       </c>
       <c r="G331" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H331" t="str">
         <f t="shared" si="5"/>
@@ -14416,15 +14416,15 @@
         <v>4</v>
       </c>
       <c r="J331" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="K331" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
     </row>
     <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E332" t="s">
         <v>10</v>
@@ -14433,7 +14433,7 @@
         <v>13</v>
       </c>
       <c r="G332" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H332" t="str">
         <f t="shared" si="5"/>
@@ -14443,15 +14443,15 @@
         <v>4</v>
       </c>
       <c r="J332" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="K332" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
     </row>
     <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E333" t="s">
         <v>10</v>
@@ -14460,7 +14460,7 @@
         <v>14</v>
       </c>
       <c r="G333" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H333" t="str">
         <f t="shared" si="5"/>
@@ -14470,15 +14470,15 @@
         <v>4</v>
       </c>
       <c r="J333" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="K333" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
     </row>
     <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E334" t="s">
         <v>10</v>
@@ -14487,7 +14487,7 @@
         <v>13</v>
       </c>
       <c r="G334" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H334" t="str">
         <f t="shared" si="5"/>
@@ -14497,15 +14497,15 @@
         <v>4</v>
       </c>
       <c r="J334" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="K334" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
     </row>
     <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="E335" t="s">
         <v>10</v>
@@ -14514,7 +14514,7 @@
         <v>14</v>
       </c>
       <c r="G335" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H335" t="str">
         <f t="shared" si="5"/>
@@ -14524,15 +14524,15 @@
         <v>4</v>
       </c>
       <c r="J335" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="K335" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
     </row>
     <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E336" t="s">
         <v>22</v>
@@ -14541,7 +14541,7 @@
         <v>13</v>
       </c>
       <c r="G336" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H336" t="str">
         <f t="shared" si="5"/>
@@ -14551,15 +14551,15 @@
         <v>4</v>
       </c>
       <c r="J336" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="K336" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E337" t="s">
         <v>22</v>
@@ -14568,7 +14568,7 @@
         <v>14</v>
       </c>
       <c r="G337" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H337" t="str">
         <f t="shared" si="5"/>
@@ -14578,15 +14578,15 @@
         <v>4</v>
       </c>
       <c r="J337" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="K337" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E338" t="s">
         <v>22</v>
@@ -14595,7 +14595,7 @@
         <v>181</v>
       </c>
       <c r="G338" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H338" t="str">
         <f t="shared" si="5"/>
@@ -14605,15 +14605,15 @@
         <v>4</v>
       </c>
       <c r="J338" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="K338" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E339" t="s">
         <v>22</v>
@@ -14622,7 +14622,7 @@
         <v>13</v>
       </c>
       <c r="G339" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H339" t="str">
         <f t="shared" si="5"/>
@@ -14632,15 +14632,15 @@
         <v>4</v>
       </c>
       <c r="J339" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="K339" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E340" t="s">
         <v>22</v>
@@ -14649,7 +14649,7 @@
         <v>14</v>
       </c>
       <c r="G340" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H340" t="str">
         <f t="shared" si="5"/>
@@ -14659,15 +14659,15 @@
         <v>4</v>
       </c>
       <c r="J340" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="K340" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E341" t="s">
         <v>22</v>
@@ -14676,7 +14676,7 @@
         <v>181</v>
       </c>
       <c r="G341" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H341" t="str">
         <f t="shared" si="5"/>
@@ -14686,15 +14686,15 @@
         <v>4</v>
       </c>
       <c r="J341" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="K341" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E342" t="s">
         <v>8</v>
@@ -14703,7 +14703,7 @@
         <v>13</v>
       </c>
       <c r="G342" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H342" t="str">
         <f t="shared" si="5"/>
@@ -14713,15 +14713,15 @@
         <v>4</v>
       </c>
       <c r="J342" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="K342" t="s">
-        <v>968</v>
+        <v>958</v>
       </c>
     </row>
     <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E343" t="s">
         <v>8</v>
@@ -14730,7 +14730,7 @@
         <v>14</v>
       </c>
       <c r="G343" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H343" t="str">
         <f t="shared" si="5"/>
@@ -14740,15 +14740,15 @@
         <v>4</v>
       </c>
       <c r="J343" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="K343" t="s">
-        <v>969</v>
+        <v>959</v>
       </c>
     </row>
     <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E344" t="s">
         <v>8</v>
@@ -14757,7 +14757,7 @@
         <v>181</v>
       </c>
       <c r="G344" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H344" t="str">
         <f t="shared" si="5"/>
@@ -14767,15 +14767,15 @@
         <v>4</v>
       </c>
       <c r="J344" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="K344" t="s">
-        <v>970</v>
+        <v>960</v>
       </c>
     </row>
     <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E345" t="s">
         <v>8</v>
@@ -14784,7 +14784,7 @@
         <v>13</v>
       </c>
       <c r="G345" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H345" t="str">
         <f t="shared" si="5"/>
@@ -14794,15 +14794,15 @@
         <v>4</v>
       </c>
       <c r="J345" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="K345" t="s">
-        <v>977</v>
+        <v>967</v>
       </c>
     </row>
     <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E346" t="s">
         <v>8</v>
@@ -14811,7 +14811,7 @@
         <v>14</v>
       </c>
       <c r="G346" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H346" t="str">
         <f t="shared" si="5"/>
@@ -14821,15 +14821,15 @@
         <v>4</v>
       </c>
       <c r="J346" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="K346" t="s">
-        <v>978</v>
+        <v>968</v>
       </c>
     </row>
     <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E347" t="s">
         <v>8</v>
@@ -14838,7 +14838,7 @@
         <v>181</v>
       </c>
       <c r="G347" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H347" t="str">
         <f t="shared" si="5"/>
@@ -14848,15 +14848,15 @@
         <v>4</v>
       </c>
       <c r="J347" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="K347" t="s">
-        <v>979</v>
+        <v>969</v>
       </c>
     </row>
     <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E348" t="s">
         <v>9</v>
@@ -14865,7 +14865,7 @@
         <v>13</v>
       </c>
       <c r="G348" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H348" t="str">
         <f t="shared" si="5"/>
@@ -14875,15 +14875,15 @@
         <v>4</v>
       </c>
       <c r="J348" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="K348" t="s">
-        <v>971</v>
+        <v>961</v>
       </c>
     </row>
     <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E349" t="s">
         <v>9</v>
@@ -14892,7 +14892,7 @@
         <v>14</v>
       </c>
       <c r="G349" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H349" t="str">
         <f t="shared" si="5"/>
@@ -14902,15 +14902,15 @@
         <v>4</v>
       </c>
       <c r="J349" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="K349" t="s">
-        <v>972</v>
+        <v>962</v>
       </c>
     </row>
     <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E350" t="s">
         <v>9</v>
@@ -14919,7 +14919,7 @@
         <v>181</v>
       </c>
       <c r="G350" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H350" t="str">
         <f t="shared" si="5"/>
@@ -14929,15 +14929,15 @@
         <v>4</v>
       </c>
       <c r="J350" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
       <c r="K350" t="s">
-        <v>973</v>
+        <v>963</v>
       </c>
     </row>
     <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E351" t="s">
         <v>9</v>
@@ -14946,7 +14946,7 @@
         <v>13</v>
       </c>
       <c r="G351" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H351" t="str">
         <f t="shared" si="5"/>
@@ -14956,15 +14956,15 @@
         <v>4</v>
       </c>
       <c r="J351" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="K351" t="s">
-        <v>980</v>
+        <v>970</v>
       </c>
     </row>
     <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E352" t="s">
         <v>9</v>
@@ -14973,7 +14973,7 @@
         <v>14</v>
       </c>
       <c r="G352" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H352" t="str">
         <f t="shared" si="5"/>
@@ -14983,15 +14983,15 @@
         <v>4</v>
       </c>
       <c r="J352" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="K352" t="s">
-        <v>981</v>
+        <v>971</v>
       </c>
     </row>
     <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E353" t="s">
         <v>9</v>
@@ -15000,7 +15000,7 @@
         <v>181</v>
       </c>
       <c r="G353" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H353" t="str">
         <f t="shared" si="5"/>
@@ -15010,15 +15010,15 @@
         <v>4</v>
       </c>
       <c r="J353" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="K353" t="s">
-        <v>982</v>
+        <v>972</v>
       </c>
     </row>
     <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E354" t="s">
         <v>10</v>
@@ -15027,7 +15027,7 @@
         <v>13</v>
       </c>
       <c r="G354" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H354" t="str">
         <f t="shared" si="5"/>
@@ -15037,15 +15037,15 @@
         <v>4</v>
       </c>
       <c r="J354" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="K354" t="s">
-        <v>974</v>
+        <v>964</v>
       </c>
     </row>
     <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E355" t="s">
         <v>10</v>
@@ -15054,7 +15054,7 @@
         <v>14</v>
       </c>
       <c r="G355" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H355" t="str">
         <f t="shared" si="5"/>
@@ -15064,15 +15064,15 @@
         <v>4</v>
       </c>
       <c r="J355" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="K355" t="s">
-        <v>975</v>
+        <v>965</v>
       </c>
     </row>
     <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E356" t="s">
         <v>10</v>
@@ -15081,7 +15081,7 @@
         <v>181</v>
       </c>
       <c r="G356" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="H356" t="str">
         <f t="shared" si="5"/>
@@ -15091,15 +15091,15 @@
         <v>4</v>
       </c>
       <c r="J356" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="K356" t="s">
-        <v>976</v>
+        <v>966</v>
       </c>
     </row>
     <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E357" t="s">
         <v>10</v>
@@ -15108,7 +15108,7 @@
         <v>13</v>
       </c>
       <c r="G357" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H357" t="str">
         <f t="shared" si="5"/>
@@ -15118,15 +15118,15 @@
         <v>4</v>
       </c>
       <c r="J357" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="K357" t="s">
-        <v>983</v>
+        <v>973</v>
       </c>
     </row>
     <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E358" t="s">
         <v>10</v>
@@ -15135,7 +15135,7 @@
         <v>14</v>
       </c>
       <c r="G358" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H358" t="str">
         <f t="shared" si="5"/>
@@ -15145,15 +15145,15 @@
         <v>4</v>
       </c>
       <c r="J358" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="K358" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
     </row>
     <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E359" t="s">
         <v>10</v>
@@ -15162,7 +15162,7 @@
         <v>181</v>
       </c>
       <c r="G359" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="H359" t="str">
         <f t="shared" si="5"/>
@@ -15172,15 +15172,15 @@
         <v>4</v>
       </c>
       <c r="J359" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="K359" t="s">
-        <v>985</v>
+        <v>975</v>
       </c>
     </row>
     <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="E360" t="s">
         <v>22</v>
@@ -15199,15 +15199,15 @@
         <v>5</v>
       </c>
       <c r="J360" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="K360" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
     </row>
     <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="E361" t="s">
         <v>22</v>
@@ -15226,15 +15226,15 @@
         <v>5</v>
       </c>
       <c r="J361" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="K361" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="E362" t="s">
         <v>11</v>
@@ -15253,15 +15253,15 @@
         <v>5</v>
       </c>
       <c r="J362" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="K362" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
     </row>
     <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="E363" t="s">
         <v>11</v>
@@ -15280,15 +15280,15 @@
         <v>5</v>
       </c>
       <c r="J363" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="K363" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
     </row>
     <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="E364" t="s">
         <v>8</v>
@@ -15307,15 +15307,15 @@
         <v>5</v>
       </c>
       <c r="J364" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="K364" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="E365" t="s">
         <v>8</v>
@@ -15334,15 +15334,15 @@
         <v>5</v>
       </c>
       <c r="J365" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="K365" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="E366" t="s">
         <v>9</v>
@@ -15361,15 +15361,15 @@
         <v>5</v>
       </c>
       <c r="J366" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="K366" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="E367" t="s">
         <v>9</v>
@@ -15388,15 +15388,15 @@
         <v>5</v>
       </c>
       <c r="J367" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="K367" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="E368" t="s">
         <v>10</v>
@@ -15415,15 +15415,15 @@
         <v>5</v>
       </c>
       <c r="J368" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="K368" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
     </row>
     <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="E369" t="s">
         <v>10</v>
@@ -15442,15 +15442,15 @@
         <v>5</v>
       </c>
       <c r="J369" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="K369" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E370" t="s">
         <v>22</v>
@@ -15469,15 +15469,15 @@
         <v>5</v>
       </c>
       <c r="J370" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="K370" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
     </row>
     <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E371" t="s">
         <v>22</v>
@@ -15496,15 +15496,15 @@
         <v>5</v>
       </c>
       <c r="J371" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="K371" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E372" t="s">
         <v>11</v>
@@ -15523,15 +15523,15 @@
         <v>5</v>
       </c>
       <c r="J372" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="K372" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
     </row>
     <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E373" t="s">
         <v>11</v>
@@ -15550,15 +15550,15 @@
         <v>5</v>
       </c>
       <c r="J373" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="K373" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
     </row>
     <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E374" t="s">
         <v>8</v>
@@ -15577,15 +15577,15 @@
         <v>5</v>
       </c>
       <c r="J374" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="K374" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
     </row>
     <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E375" t="s">
         <v>8</v>
@@ -15604,15 +15604,15 @@
         <v>5</v>
       </c>
       <c r="J375" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="K375" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
     </row>
     <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E376" t="s">
         <v>9</v>
@@ -15631,15 +15631,15 @@
         <v>5</v>
       </c>
       <c r="J376" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="K376" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
     </row>
     <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E377" t="s">
         <v>9</v>
@@ -15658,15 +15658,15 @@
         <v>5</v>
       </c>
       <c r="J377" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="K377" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E378" t="s">
         <v>10</v>
@@ -15685,15 +15685,15 @@
         <v>5</v>
       </c>
       <c r="J378" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="K378" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
     <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="E379" t="s">
         <v>10</v>
@@ -15712,15 +15712,15 @@
         <v>5</v>
       </c>
       <c r="J379" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="K379" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
     </row>
     <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E380" t="s">
         <v>22</v>
@@ -15739,15 +15739,15 @@
         <v>5</v>
       </c>
       <c r="J380" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="K380" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
     </row>
     <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E381" t="s">
         <v>22</v>
@@ -15766,15 +15766,15 @@
         <v>5</v>
       </c>
       <c r="J381" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="K381" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
     </row>
     <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E382" t="s">
         <v>11</v>
@@ -15793,15 +15793,15 @@
         <v>5</v>
       </c>
       <c r="J382" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="K382" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E383" t="s">
         <v>11</v>
@@ -15820,15 +15820,15 @@
         <v>5</v>
       </c>
       <c r="J383" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="K383" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
     </row>
     <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E384" t="s">
         <v>8</v>
@@ -15847,15 +15847,15 @@
         <v>5</v>
       </c>
       <c r="J384" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="K384" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
     </row>
     <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E385" t="s">
         <v>8</v>
@@ -15874,15 +15874,15 @@
         <v>5</v>
       </c>
       <c r="J385" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="K385" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
     </row>
     <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E386" t="s">
         <v>9</v>
@@ -15901,15 +15901,15 @@
         <v>5</v>
       </c>
       <c r="J386" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="K386" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
     <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E387" t="s">
         <v>9</v>
@@ -15928,15 +15928,15 @@
         <v>5</v>
       </c>
       <c r="J387" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="K387" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
     </row>
     <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E388" t="s">
         <v>10</v>
@@ -15955,15 +15955,15 @@
         <v>5</v>
       </c>
       <c r="J388" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="K388" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
     </row>
     <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="E389" t="s">
         <v>10</v>
@@ -15982,15 +15982,15 @@
         <v>5</v>
       </c>
       <c r="J389" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="K389" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="E390" t="s">
         <v>22</v>
@@ -16009,15 +16009,15 @@
         <v>5</v>
       </c>
       <c r="J390" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="K390" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
     </row>
     <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="E391" t="s">
         <v>22</v>
@@ -16036,15 +16036,15 @@
         <v>5</v>
       </c>
       <c r="J391" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="K391" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
     </row>
     <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="E392" t="s">
         <v>11</v>
@@ -16063,15 +16063,15 @@
         <v>5</v>
       </c>
       <c r="J392" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="K392" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
     </row>
     <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="E393" t="s">
         <v>11</v>
@@ -16090,15 +16090,15 @@
         <v>5</v>
       </c>
       <c r="J393" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="K393" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="E394" t="s">
         <v>8</v>
@@ -16117,15 +16117,15 @@
         <v>5</v>
       </c>
       <c r="J394" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="K394" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="E395" t="s">
         <v>8</v>
@@ -16144,15 +16144,15 @@
         <v>5</v>
       </c>
       <c r="J395" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="K395" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
     </row>
     <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="E396" t="s">
         <v>9</v>
@@ -16171,15 +16171,15 @@
         <v>5</v>
       </c>
       <c r="J396" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="K396" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
     </row>
     <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="E397" t="s">
         <v>9</v>
@@ -16198,15 +16198,15 @@
         <v>5</v>
       </c>
       <c r="J397" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="K397" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
     </row>
     <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="E398" t="s">
         <v>10</v>
@@ -16225,15 +16225,15 @@
         <v>5</v>
       </c>
       <c r="J398" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="K398" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
     </row>
     <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="E399" t="s">
         <v>10</v>
@@ -16252,15 +16252,15 @@
         <v>5</v>
       </c>
       <c r="J399" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="K399" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
     </row>
     <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="E400" t="s">
         <v>22</v>
@@ -16279,15 +16279,15 @@
         <v>6</v>
       </c>
       <c r="J400" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="K400" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
     </row>
     <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="E401" t="s">
         <v>22</v>
@@ -16306,15 +16306,15 @@
         <v>6</v>
       </c>
       <c r="J401" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="K401" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
     <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="E402" t="s">
         <v>11</v>
@@ -16333,15 +16333,15 @@
         <v>6</v>
       </c>
       <c r="J402" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="K402" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
     </row>
     <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="E403" t="s">
         <v>11</v>
@@ -16360,15 +16360,15 @@
         <v>6</v>
       </c>
       <c r="J403" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="K403" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
     </row>
     <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="E404" t="s">
         <v>8</v>
@@ -16387,15 +16387,15 @@
         <v>6</v>
       </c>
       <c r="J404" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="K404" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
     </row>
     <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="E405" t="s">
         <v>8</v>
@@ -16414,15 +16414,15 @@
         <v>6</v>
       </c>
       <c r="J405" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="K405" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
     </row>
     <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="E406" t="s">
         <v>9</v>
@@ -16441,15 +16441,15 @@
         <v>6</v>
       </c>
       <c r="J406" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="K406" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
     </row>
     <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="E407" t="s">
         <v>9</v>
@@ -16468,15 +16468,15 @@
         <v>6</v>
       </c>
       <c r="J407" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="K407" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
     </row>
     <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="E408" t="s">
         <v>10</v>
@@ -16495,15 +16495,15 @@
         <v>6</v>
       </c>
       <c r="J408" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="K408" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
     </row>
     <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="E409" t="s">
         <v>10</v>
@@ -16522,15 +16522,15 @@
         <v>6</v>
       </c>
       <c r="J409" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="K409" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
     </row>
     <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="E410" t="s">
         <v>22</v>
@@ -16549,15 +16549,15 @@
         <v>6</v>
       </c>
       <c r="J410" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="K410" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
     </row>
     <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="E411" t="s">
         <v>22</v>
@@ -16576,15 +16576,15 @@
         <v>6</v>
       </c>
       <c r="J411" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="K411" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="E412" t="s">
         <v>11</v>
@@ -16603,15 +16603,15 @@
         <v>6</v>
       </c>
       <c r="J412" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="K412" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="E413" t="s">
         <v>11</v>
@@ -16630,15 +16630,15 @@
         <v>6</v>
       </c>
       <c r="J413" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="K413" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
     </row>
     <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="E414" t="s">
         <v>8</v>
@@ -16657,15 +16657,15 @@
         <v>6</v>
       </c>
       <c r="J414" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="K414" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="E415" t="s">
         <v>8</v>
@@ -16684,15 +16684,15 @@
         <v>6</v>
       </c>
       <c r="J415" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="K415" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
     </row>
     <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="E416" t="s">
         <v>9</v>
@@ -16711,15 +16711,15 @@
         <v>6</v>
       </c>
       <c r="J416" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="K416" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
     </row>
     <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="E417" t="s">
         <v>9</v>
@@ -16738,15 +16738,15 @@
         <v>6</v>
       </c>
       <c r="J417" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="K417" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
     </row>
     <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="E418" t="s">
         <v>10</v>
@@ -16765,15 +16765,15 @@
         <v>6</v>
       </c>
       <c r="J418" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="K418" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
     </row>
     <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="E419" t="s">
         <v>10</v>
@@ -16792,15 +16792,15 @@
         <v>6</v>
       </c>
       <c r="J419" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="K419" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
     </row>
     <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="E420" t="s">
         <v>22</v>
@@ -16819,15 +16819,15 @@
         <v>6</v>
       </c>
       <c r="J420" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="K420" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="E421" t="s">
         <v>22</v>
@@ -16846,15 +16846,15 @@
         <v>6</v>
       </c>
       <c r="J421" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="K421" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
     <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="E422" t="s">
         <v>11</v>
@@ -16873,15 +16873,15 @@
         <v>6</v>
       </c>
       <c r="J422" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="K422" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
     </row>
     <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="E423" t="s">
         <v>11</v>
@@ -16900,15 +16900,15 @@
         <v>6</v>
       </c>
       <c r="J423" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="K423" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
     </row>
     <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="E424" t="s">
         <v>8</v>
@@ -16927,15 +16927,15 @@
         <v>6</v>
       </c>
       <c r="J424" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="K424" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
     </row>
     <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="E425" t="s">
         <v>8</v>
@@ -16954,15 +16954,15 @@
         <v>6</v>
       </c>
       <c r="J425" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="K425" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="E426" t="s">
         <v>9</v>
@@ -16981,15 +16981,15 @@
         <v>6</v>
       </c>
       <c r="J426" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="K426" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
     </row>
     <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="E427" t="s">
         <v>9</v>
@@ -17008,15 +17008,15 @@
         <v>6</v>
       </c>
       <c r="J427" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="K427" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
     </row>
     <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="E428" t="s">
         <v>10</v>
@@ -17035,15 +17035,15 @@
         <v>6</v>
       </c>
       <c r="J428" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="K428" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
     </row>
     <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="E429" t="s">
         <v>10</v>
@@ -17062,15 +17062,15 @@
         <v>6</v>
       </c>
       <c r="J429" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="K429" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
     </row>
     <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="E430" t="s">
         <v>22</v>
@@ -17089,15 +17089,15 @@
         <v>6</v>
       </c>
       <c r="J430" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="K430" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
     </row>
     <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="E431" t="s">
         <v>22</v>
@@ -17116,15 +17116,15 @@
         <v>6</v>
       </c>
       <c r="J431" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="K431" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
     </row>
     <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="E432" t="s">
         <v>11</v>
@@ -17143,15 +17143,15 @@
         <v>6</v>
       </c>
       <c r="J432" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="K432" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
     </row>
     <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="E433" t="s">
         <v>11</v>
@@ -17170,15 +17170,15 @@
         <v>6</v>
       </c>
       <c r="J433" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="K433" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
     </row>
     <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="E434" t="s">
         <v>8</v>
@@ -17197,15 +17197,15 @@
         <v>6</v>
       </c>
       <c r="J434" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="K434" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
     </row>
     <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="E435" t="s">
         <v>8</v>
@@ -17224,15 +17224,15 @@
         <v>6</v>
       </c>
       <c r="J435" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="K435" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
     </row>
     <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="E436" t="s">
         <v>9</v>
@@ -17251,15 +17251,15 @@
         <v>6</v>
       </c>
       <c r="J436" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="K436" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
     </row>
     <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="E437" t="s">
         <v>9</v>
@@ -17278,15 +17278,15 @@
         <v>6</v>
       </c>
       <c r="J437" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="K437" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
     </row>
     <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="E438" t="s">
         <v>10</v>
@@ -17305,15 +17305,15 @@
         <v>6</v>
       </c>
       <c r="J438" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="K438" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
     <row r="439" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="E439" t="s">
         <v>10</v>
@@ -17332,15 +17332,15 @@
         <v>6</v>
       </c>
       <c r="J439" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="K439" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
     </row>
     <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E440" t="s">
         <v>22</v>
@@ -17359,15 +17359,15 @@
         <v>6</v>
       </c>
       <c r="J440" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="K440" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
     </row>
     <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E441" t="s">
         <v>22</v>
@@ -17386,15 +17386,15 @@
         <v>6</v>
       </c>
       <c r="J441" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="K441" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E442" t="s">
         <v>11</v>
@@ -17413,15 +17413,15 @@
         <v>6</v>
       </c>
       <c r="J442" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="K442" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
     </row>
     <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E443" t="s">
         <v>11</v>
@@ -17440,15 +17440,15 @@
         <v>6</v>
       </c>
       <c r="J443" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="K443" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
     </row>
     <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E444" t="s">
         <v>8</v>
@@ -17467,15 +17467,15 @@
         <v>6</v>
       </c>
       <c r="J444" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="K444" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
     </row>
     <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E445" t="s">
         <v>8</v>
@@ -17494,15 +17494,15 @@
         <v>6</v>
       </c>
       <c r="J445" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="K445" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
     </row>
     <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E446" t="s">
         <v>9</v>
@@ -17521,15 +17521,15 @@
         <v>6</v>
       </c>
       <c r="J446" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="K446" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E447" t="s">
         <v>9</v>
@@ -17548,15 +17548,15 @@
         <v>6</v>
       </c>
       <c r="J447" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="K447" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
     </row>
     <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E448" t="s">
         <v>10</v>
@@ -17575,15 +17575,15 @@
         <v>6</v>
       </c>
       <c r="J448" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="K448" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
     </row>
     <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="E449" t="s">
         <v>10</v>
@@ -17602,15 +17602,15 @@
         <v>6</v>
       </c>
       <c r="J449" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="K449" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
     </row>
     <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="E450" t="s">
         <v>22</v>
@@ -17629,15 +17629,15 @@
         <v>6</v>
       </c>
       <c r="J450" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="K450" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
     </row>
     <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="E451" t="s">
         <v>22</v>
@@ -17656,15 +17656,15 @@
         <v>6</v>
       </c>
       <c r="J451" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="K451" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
     </row>
     <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="E452" t="s">
         <v>11</v>
@@ -17683,15 +17683,15 @@
         <v>6</v>
       </c>
       <c r="J452" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="K452" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
     </row>
     <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="E453" t="s">
         <v>11</v>
@@ -17710,15 +17710,15 @@
         <v>6</v>
       </c>
       <c r="J453" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="K453" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
     </row>
     <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="E454" t="s">
         <v>8</v>
@@ -17737,15 +17737,15 @@
         <v>6</v>
       </c>
       <c r="J454" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="K454" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
     </row>
     <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="E455" t="s">
         <v>8</v>
@@ -17764,15 +17764,15 @@
         <v>6</v>
       </c>
       <c r="J455" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="K455" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
     </row>
     <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="E456" t="s">
         <v>9</v>
@@ -17791,15 +17791,15 @@
         <v>6</v>
       </c>
       <c r="J456" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="K456" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
     </row>
     <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="E457" t="s">
         <v>9</v>
@@ -17818,15 +17818,15 @@
         <v>6</v>
       </c>
       <c r="J457" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="K457" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
     </row>
     <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="E458" t="s">
         <v>10</v>
@@ -17845,15 +17845,15 @@
         <v>6</v>
       </c>
       <c r="J458" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="K458" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
     </row>
     <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="E459" t="s">
         <v>10</v>
@@ -17872,23 +17872,14 @@
         <v>6</v>
       </c>
       <c r="J459" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="K459" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K459">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="F36P"/>
-        <filter val="HEL9217"/>
-        <filter val="K562"/>
-        <filter val="MEG01"/>
-        <filter val="UT7"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="4">
       <filters>
         <filter val="ATAC"/>
@@ -17896,7 +17887,7 @@
     </filterColumn>
     <filterColumn colId="8">
       <filters>
-        <filter val="1"/>
+        <filter val="3"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:K459">

--- a/inst/extdata/data_gsk.xlsx
+++ b/inst/extdata/data_gsk.xlsx
@@ -11,14 +11,14 @@
     <sheet name="other_cell_lines" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$K$459</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$K$460</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3486" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3495" uniqueCount="1007">
   <si>
     <t>Cell</t>
   </si>
@@ -3036,6 +3036,9 @@
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_3/bam/NHBE_ATAC_ATAC-seq_P3Lungepitheliacelltypes91_ATAC_P3Lungepitheliacelltypes91_bwa_samse_BR3TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bigwig/F36P_TF_BR1_CTCF_TR1_edited.bw</t>
   </si>
 </sst>
 </file>
@@ -3421,11 +3424,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K459"/>
+  <dimension ref="A1:K460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J247" sqref="J247"/>
+      <selection pane="bottomLeft" activeCell="J460" sqref="J460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3550,7 +3553,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3586,7 +3589,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3982,7 +3985,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -4018,7 +4021,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -4342,7 +4345,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -4378,7 +4381,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -4414,7 +4417,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -4450,7 +4453,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -4846,7 +4849,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -4882,7 +4885,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -5278,7 +5281,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -5314,7 +5317,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -5638,7 +5641,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -5674,7 +5677,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -11650,7 +11653,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>17</v>
       </c>
@@ -11686,7 +11689,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -12010,7 +12013,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>18</v>
       </c>
@@ -12046,7 +12049,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>18</v>
       </c>
@@ -12370,7 +12373,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>27</v>
       </c>
@@ -12397,7 +12400,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>27</v>
       </c>
@@ -12424,7 +12427,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>27</v>
       </c>
@@ -17878,21 +17881,54 @@
         <v>833</v>
       </c>
     </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>2</v>
+      </c>
+      <c r="B460" t="s">
+        <v>134</v>
+      </c>
+      <c r="C460" t="s">
+        <v>141</v>
+      </c>
+      <c r="D460" t="s">
+        <v>138</v>
+      </c>
+      <c r="E460" t="s">
+        <v>11</v>
+      </c>
+      <c r="F460" t="s">
+        <v>13</v>
+      </c>
+      <c r="G460" t="s">
+        <v>26</v>
+      </c>
+      <c r="H460" t="str">
+        <f t="shared" si="7"/>
+        <v>F36P_BR1_Baseline</v>
+      </c>
+      <c r="I460">
+        <v>1</v>
+      </c>
+      <c r="J460" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K460" t="s">
+        <v>458</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K459">
+  <autoFilter ref="A1:K460">
     <filterColumn colId="4">
       <filters>
-        <filter val="ATAC"/>
+        <filter val="CTCF"/>
       </filters>
     </filterColumn>
     <filterColumn colId="8">
       <filters>
-        <filter val="3"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:K459">
-      <sortCondition ref="I1:I459"/>
-    </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/inst/extdata/data_gsk.xlsx
+++ b/inst/extdata/data_gsk.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3495" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3495" uniqueCount="1008">
   <si>
     <t>Cell</t>
   </si>
@@ -3039,6 +3039,9 @@
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bigwig/F36P_TF_BR1_CTCF_TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/F36P_TF_BR1_CTCF_TR1_edited.bam</t>
   </si>
 </sst>
 </file>
@@ -3427,8 +3430,8 @@
   <dimension ref="A1:K460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J460" sqref="J460"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3625,7 +3628,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -3661,7 +3664,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -3697,7 +3700,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -3733,7 +3736,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -3769,7 +3772,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -3805,7 +3808,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -3841,7 +3844,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3877,7 +3880,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -4057,7 +4060,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -4093,7 +4096,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -4129,7 +4132,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -4165,7 +4168,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -4201,7 +4204,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -4237,7 +4240,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -4489,7 +4492,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -4525,7 +4528,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -4561,7 +4564,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -4597,7 +4600,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -4633,7 +4636,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -4669,7 +4672,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -4705,7 +4708,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -4741,7 +4744,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -4921,7 +4924,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -4957,7 +4960,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -4993,7 +4996,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -5029,7 +5032,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -5065,7 +5068,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -5101,7 +5104,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -5137,7 +5140,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -5173,7 +5176,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -5353,7 +5356,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -5389,7 +5392,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -5425,7 +5428,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -5461,7 +5464,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -5497,7 +5500,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -5533,7 +5536,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -5713,7 +5716,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -5749,7 +5752,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -5785,7 +5788,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -5821,7 +5824,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -5857,7 +5860,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -5893,7 +5896,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -17914,7 +17917,7 @@
         <v>1006</v>
       </c>
       <c r="K460" t="s">
-        <v>458</v>
+        <v>1007</v>
       </c>
     </row>
   </sheetData>
@@ -17922,6 +17925,9 @@
     <filterColumn colId="4">
       <filters>
         <filter val="CTCF"/>
+        <filter val="H3K27ac"/>
+        <filter val="H3K27me3"/>
+        <filter val="H3K4me3"/>
       </filters>
     </filterColumn>
     <filterColumn colId="8">

--- a/inst/extdata/data_gsk.xlsx
+++ b/inst/extdata/data_gsk.xlsx
@@ -2984,76 +2984,76 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_VD3_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CTR_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_CTR_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CTR_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_CTR_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CTR_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_CTR_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CTR_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_CTR_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PMA_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_PMA_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PMA_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_PMA_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PMA_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_PMA_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PMA_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_PMA_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VD3_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_VD3_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VD3_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_VD3_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VD3_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_VD3_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VD3_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_VD3_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CTR_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_CTR_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CTR_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_CTR_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CTR_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_CTR_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CTR_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_CTR_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PMA_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_PMA_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PMA_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_PMA_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PMA_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_PMA_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PMA_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_PMA_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VD3_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_VD3_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VD3_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_VD3_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VD3_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_VD3_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_VD3_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_VD3_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
   </si>
 </sst>
 </file>
@@ -3438,11 +3438,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K462"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="J79" sqref="J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3495,7 +3496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3531,7 +3532,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3567,7 +3568,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3603,7 +3604,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -3675,7 +3676,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -3711,7 +3712,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -3747,7 +3748,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -3819,7 +3820,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -3855,7 +3856,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -3891,7 +3892,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -3927,7 +3928,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -3963,7 +3964,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -3999,7 +4000,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -4035,7 +4036,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -4071,7 +4072,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -4107,7 +4108,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -4143,7 +4144,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -4179,7 +4180,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -4215,7 +4216,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -4251,7 +4252,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -4287,7 +4288,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -4323,7 +4324,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -4395,7 +4396,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -4431,7 +4432,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -4467,7 +4468,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -4503,7 +4504,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -4575,7 +4576,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -4611,7 +4612,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -4647,7 +4648,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -4683,7 +4684,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -4719,7 +4720,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -4755,7 +4756,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -4791,7 +4792,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -4863,7 +4864,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -4899,7 +4900,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -4935,7 +4936,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -4971,7 +4972,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -5007,7 +5008,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -5043,7 +5044,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -5079,7 +5080,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -5115,7 +5116,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -5151,7 +5152,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -5187,7 +5188,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -5223,7 +5224,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -5259,7 +5260,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -5295,7 +5296,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -5331,7 +5332,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -5403,7 +5404,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -5439,7 +5440,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -5475,7 +5476,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -5511,7 +5512,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -5547,7 +5548,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -5583,7 +5584,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -5619,7 +5620,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -5655,7 +5656,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -5691,7 +5692,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -5727,7 +5728,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -5763,7 +5764,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -5799,7 +5800,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -5835,7 +5836,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -5871,7 +5872,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -5907,7 +5908,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -6303,7 +6304,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>20</v>
       </c>
@@ -6339,7 +6340,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>20</v>
       </c>
@@ -6375,7 +6376,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>20</v>
       </c>
@@ -6411,7 +6412,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -6447,7 +6448,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>20</v>
       </c>
@@ -6483,7 +6484,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -6519,7 +6520,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -6555,7 +6556,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -6591,7 +6592,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -6627,7 +6628,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -6663,7 +6664,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>20</v>
       </c>
@@ -6699,7 +6700,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>20</v>
       </c>
@@ -6735,7 +6736,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -6771,7 +6772,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>20</v>
       </c>
@@ -6807,7 +6808,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>20</v>
       </c>
@@ -6843,7 +6844,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -6879,7 +6880,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>20</v>
       </c>
@@ -6915,7 +6916,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>20</v>
       </c>
@@ -6951,7 +6952,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>20</v>
       </c>
@@ -6987,7 +6988,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>20</v>
       </c>
@@ -7023,7 +7024,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>20</v>
       </c>
@@ -7059,7 +7060,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>20</v>
       </c>
@@ -7095,7 +7096,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>20</v>
       </c>
@@ -7131,7 +7132,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>20</v>
       </c>
@@ -7167,7 +7168,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>20</v>
       </c>
@@ -7203,7 +7204,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>20</v>
       </c>
@@ -7239,7 +7240,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -7275,7 +7276,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>20</v>
       </c>
@@ -7311,7 +7312,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -7347,7 +7348,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>20</v>
       </c>
@@ -7383,7 +7384,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>20</v>
       </c>
@@ -7419,7 +7420,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>20</v>
       </c>
@@ -7455,7 +7456,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>20</v>
       </c>
@@ -7491,7 +7492,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>20</v>
       </c>
@@ -7527,7 +7528,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>20</v>
       </c>
@@ -7563,7 +7564,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>20</v>
       </c>
@@ -7599,7 +7600,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>20</v>
       </c>
@@ -7635,7 +7636,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>20</v>
       </c>
@@ -7671,7 +7672,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>20</v>
       </c>
@@ -7707,7 +7708,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>20</v>
       </c>
@@ -7743,7 +7744,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>20</v>
       </c>
@@ -7779,7 +7780,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>20</v>
       </c>
@@ -7815,7 +7816,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>20</v>
       </c>
@@ -7851,7 +7852,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>20</v>
       </c>
@@ -7887,7 +7888,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>20</v>
       </c>
@@ -7923,7 +7924,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>20</v>
       </c>
@@ -7959,7 +7960,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>20</v>
       </c>
@@ -7995,7 +7996,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>20</v>
       </c>
@@ -8031,7 +8032,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>20</v>
       </c>
@@ -8067,7 +8068,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>20</v>
       </c>
@@ -8103,7 +8104,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>20</v>
       </c>
@@ -8139,7 +8140,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>20</v>
       </c>
@@ -8175,7 +8176,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>20</v>
       </c>
@@ -8211,7 +8212,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>20</v>
       </c>
@@ -8247,7 +8248,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -8283,7 +8284,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>20</v>
       </c>
@@ -8319,7 +8320,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>20</v>
       </c>
@@ -8355,7 +8356,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -8391,7 +8392,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>20</v>
       </c>
@@ -8427,7 +8428,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -8463,7 +8464,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>20</v>
       </c>
@@ -8499,7 +8500,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>20</v>
       </c>
@@ -8535,7 +8536,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>20</v>
       </c>
@@ -8571,7 +8572,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>20</v>
       </c>
@@ -8607,7 +8608,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>20</v>
       </c>
@@ -8643,7 +8644,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -8679,7 +8680,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>20</v>
       </c>
@@ -8715,7 +8716,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>20</v>
       </c>
@@ -8751,7 +8752,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>20</v>
       </c>
@@ -8787,7 +8788,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>20</v>
       </c>
@@ -8823,7 +8824,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>20</v>
       </c>
@@ -8859,7 +8860,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>20</v>
       </c>
@@ -8895,7 +8896,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>21</v>
       </c>
@@ -8928,7 +8929,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>21</v>
       </c>
@@ -8961,7 +8962,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>21</v>
       </c>
@@ -8994,7 +8995,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>21</v>
       </c>
@@ -9027,7 +9028,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>21</v>
       </c>
@@ -9060,7 +9061,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>21</v>
       </c>
@@ -9093,7 +9094,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>21</v>
       </c>
@@ -9126,7 +9127,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>21</v>
       </c>
@@ -9159,7 +9160,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>21</v>
       </c>
@@ -9192,7 +9193,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>21</v>
       </c>
@@ -9225,7 +9226,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>21</v>
       </c>
@@ -9258,7 +9259,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>21</v>
       </c>
@@ -9291,7 +9292,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>21</v>
       </c>
@@ -9324,7 +9325,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>21</v>
       </c>
@@ -9357,7 +9358,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>21</v>
       </c>
@@ -9390,7 +9391,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>21</v>
       </c>
@@ -9423,7 +9424,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>21</v>
       </c>
@@ -9456,7 +9457,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>21</v>
       </c>
@@ -9489,7 +9490,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>21</v>
       </c>
@@ -9522,7 +9523,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>21</v>
       </c>
@@ -9555,7 +9556,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>21</v>
       </c>
@@ -9588,7 +9589,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>21</v>
       </c>
@@ -9621,7 +9622,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>21</v>
       </c>
@@ -9654,7 +9655,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>21</v>
       </c>
@@ -9687,7 +9688,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>21</v>
       </c>
@@ -9720,7 +9721,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>21</v>
       </c>
@@ -9753,7 +9754,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>21</v>
       </c>
@@ -9786,7 +9787,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>21</v>
       </c>
@@ -9819,7 +9820,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>21</v>
       </c>
@@ -9852,7 +9853,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>21</v>
       </c>
@@ -9885,7 +9886,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>21</v>
       </c>
@@ -9918,7 +9919,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>21</v>
       </c>
@@ -9951,7 +9952,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>21</v>
       </c>
@@ -9984,7 +9985,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>21</v>
       </c>
@@ -10017,7 +10018,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>21</v>
       </c>
@@ -10050,7 +10051,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>21</v>
       </c>
@@ -10083,7 +10084,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>21</v>
       </c>
@@ -10116,7 +10117,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>21</v>
       </c>
@@ -10149,7 +10150,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>21</v>
       </c>
@@ -10182,7 +10183,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>21</v>
       </c>
@@ -10215,7 +10216,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>21</v>
       </c>
@@ -10248,7 +10249,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -10281,7 +10282,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>21</v>
       </c>
@@ -10314,7 +10315,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>21</v>
       </c>
@@ -10347,7 +10348,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>21</v>
       </c>
@@ -10380,7 +10381,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>21</v>
       </c>
@@ -10413,7 +10414,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>21</v>
       </c>
@@ -10446,7 +10447,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>21</v>
       </c>
@@ -10479,7 +10480,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>21</v>
       </c>
@@ -10512,7 +10513,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>21</v>
       </c>
@@ -10545,7 +10546,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>21</v>
       </c>
@@ -10578,7 +10579,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>21</v>
       </c>
@@ -10611,7 +10612,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>21</v>
       </c>
@@ -10644,7 +10645,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>21</v>
       </c>
@@ -10677,7 +10678,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>21</v>
       </c>
@@ -10710,7 +10711,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>21</v>
       </c>
@@ -10743,7 +10744,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>21</v>
       </c>
@@ -10776,7 +10777,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>21</v>
       </c>
@@ -10809,7 +10810,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>21</v>
       </c>
@@ -10842,7 +10843,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>21</v>
       </c>
@@ -10875,7 +10876,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>21</v>
       </c>
@@ -10908,7 +10909,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>21</v>
       </c>
@@ -10941,7 +10942,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>21</v>
       </c>
@@ -10974,7 +10975,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>21</v>
       </c>
@@ -11007,7 +11008,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>21</v>
       </c>
@@ -11040,7 +11041,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>21</v>
       </c>
@@ -11073,7 +11074,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>21</v>
       </c>
@@ -11106,7 +11107,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>21</v>
       </c>
@@ -11139,7 +11140,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>21</v>
       </c>
@@ -11172,7 +11173,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>21</v>
       </c>
@@ -11205,7 +11206,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>21</v>
       </c>
@@ -11238,7 +11239,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>21</v>
       </c>
@@ -11271,7 +11272,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>21</v>
       </c>
@@ -11304,7 +11305,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>21</v>
       </c>
@@ -11337,7 +11338,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>21</v>
       </c>
@@ -11370,7 +11371,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>21</v>
       </c>
@@ -11403,7 +11404,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>21</v>
       </c>
@@ -11436,7 +11437,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>21</v>
       </c>
@@ -11469,7 +11470,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>21</v>
       </c>
@@ -11502,7 +11503,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>21</v>
       </c>
@@ -11535,7 +11536,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>21</v>
       </c>
@@ -11568,7 +11569,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>21</v>
       </c>
@@ -11601,7 +11602,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>21</v>
       </c>
@@ -11634,7 +11635,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>21</v>
       </c>
@@ -11667,7 +11668,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>17</v>
       </c>
@@ -11703,7 +11704,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>17</v>
       </c>
@@ -11739,7 +11740,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>17</v>
       </c>
@@ -11775,7 +11776,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>17</v>
       </c>
@@ -11811,7 +11812,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>17</v>
       </c>
@@ -11847,7 +11848,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>17</v>
       </c>
@@ -11883,7 +11884,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>17</v>
       </c>
@@ -11919,7 +11920,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>17</v>
       </c>
@@ -11955,7 +11956,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>17</v>
       </c>
@@ -11991,7 +11992,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>17</v>
       </c>
@@ -12027,7 +12028,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>18</v>
       </c>
@@ -12063,7 +12064,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>18</v>
       </c>
@@ -12099,7 +12100,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>18</v>
       </c>
@@ -12135,7 +12136,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>18</v>
       </c>
@@ -12171,7 +12172,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>18</v>
       </c>
@@ -12207,7 +12208,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>18</v>
       </c>
@@ -12243,7 +12244,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>18</v>
       </c>
@@ -12279,7 +12280,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>18</v>
       </c>
@@ -12315,7 +12316,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>18</v>
       </c>
@@ -12351,7 +12352,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>18</v>
       </c>
@@ -12387,7 +12388,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>26</v>
       </c>
@@ -12414,7 +12415,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>26</v>
       </c>
@@ -12441,7 +12442,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>26</v>
       </c>
@@ -12468,7 +12469,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>26</v>
       </c>
@@ -12495,7 +12496,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>26</v>
       </c>
@@ -12522,7 +12523,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>26</v>
       </c>
@@ -12549,7 +12550,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>26</v>
       </c>
@@ -12576,7 +12577,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>26</v>
       </c>
@@ -12603,7 +12604,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>26</v>
       </c>
@@ -12630,7 +12631,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>26</v>
       </c>
@@ -12657,7 +12658,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>26</v>
       </c>
@@ -12684,7 +12685,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>26</v>
       </c>
@@ -12711,7 +12712,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>26</v>
       </c>
@@ -12738,7 +12739,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>26</v>
       </c>
@@ -12765,7 +12766,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>26</v>
       </c>
@@ -12792,7 +12793,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>486</v>
       </c>
@@ -12819,7 +12820,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>486</v>
       </c>
@@ -12846,7 +12847,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>486</v>
       </c>
@@ -12873,7 +12874,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>486</v>
       </c>
@@ -12900,7 +12901,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>486</v>
       </c>
@@ -12927,7 +12928,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>486</v>
       </c>
@@ -12954,7 +12955,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>486</v>
       </c>
@@ -12981,7 +12982,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>486</v>
       </c>
@@ -13008,7 +13009,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>486</v>
       </c>
@@ -13035,7 +13036,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>486</v>
       </c>
@@ -13062,7 +13063,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>486</v>
       </c>
@@ -13089,7 +13090,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>486</v>
       </c>
@@ -13116,7 +13117,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>486</v>
       </c>
@@ -13143,7 +13144,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>486</v>
       </c>
@@ -13170,7 +13171,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>486</v>
       </c>
@@ -13197,7 +13198,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>486</v>
       </c>
@@ -13224,7 +13225,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>486</v>
       </c>
@@ -13251,7 +13252,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>486</v>
       </c>
@@ -13278,7 +13279,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>486</v>
       </c>
@@ -13305,7 +13306,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>486</v>
       </c>
@@ -13332,7 +13333,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>487</v>
       </c>
@@ -13359,7 +13360,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>487</v>
       </c>
@@ -13386,7 +13387,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>487</v>
       </c>
@@ -13413,7 +13414,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>487</v>
       </c>
@@ -13440,7 +13441,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>487</v>
       </c>
@@ -13467,7 +13468,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>487</v>
       </c>
@@ -13494,7 +13495,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>487</v>
       </c>
@@ -13521,7 +13522,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>487</v>
       </c>
@@ -13548,7 +13549,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>487</v>
       </c>
@@ -13575,7 +13576,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>487</v>
       </c>
@@ -13602,7 +13603,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>487</v>
       </c>
@@ -13629,7 +13630,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>487</v>
       </c>
@@ -13656,7 +13657,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>487</v>
       </c>
@@ -13683,7 +13684,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>487</v>
       </c>
@@ -13710,7 +13711,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>487</v>
       </c>
@@ -13737,7 +13738,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>487</v>
       </c>
@@ -13764,7 +13765,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>487</v>
       </c>
@@ -13791,7 +13792,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>487</v>
       </c>
@@ -13818,7 +13819,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>487</v>
       </c>
@@ -13845,7 +13846,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>487</v>
       </c>
@@ -13872,7 +13873,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>487</v>
       </c>
@@ -13899,7 +13900,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>488</v>
       </c>
@@ -13926,7 +13927,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>488</v>
       </c>
@@ -13953,7 +13954,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>488</v>
       </c>
@@ -13980,7 +13981,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>488</v>
       </c>
@@ -14007,7 +14008,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>488</v>
       </c>
@@ -14034,7 +14035,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>488</v>
       </c>
@@ -14061,7 +14062,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>488</v>
       </c>
@@ -14088,7 +14089,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>488</v>
       </c>
@@ -14115,7 +14116,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>488</v>
       </c>
@@ -14142,7 +14143,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>488</v>
       </c>
@@ -14169,7 +14170,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>488</v>
       </c>
@@ -14196,7 +14197,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>488</v>
       </c>
@@ -14223,7 +14224,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>488</v>
       </c>
@@ -14250,7 +14251,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>488</v>
       </c>
@@ -14277,7 +14278,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>488</v>
       </c>
@@ -14304,7 +14305,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>488</v>
       </c>
@@ -14331,7 +14332,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>488</v>
       </c>
@@ -14358,7 +14359,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>488</v>
       </c>
@@ -14385,7 +14386,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>488</v>
       </c>
@@ -14412,7 +14413,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>488</v>
       </c>
@@ -14439,7 +14440,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>488</v>
       </c>
@@ -14466,7 +14467,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>488</v>
       </c>
@@ -14493,7 +14494,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>488</v>
       </c>
@@ -14520,7 +14521,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>488</v>
       </c>
@@ -14547,7 +14548,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>489</v>
       </c>
@@ -14574,7 +14575,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>489</v>
       </c>
@@ -14601,7 +14602,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>489</v>
       </c>
@@ -14628,7 +14629,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>489</v>
       </c>
@@ -14655,7 +14656,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>489</v>
       </c>
@@ -14682,7 +14683,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>489</v>
       </c>
@@ -14709,7 +14710,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>489</v>
       </c>
@@ -14736,7 +14737,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>489</v>
       </c>
@@ -14763,7 +14764,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>489</v>
       </c>
@@ -14790,7 +14791,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>489</v>
       </c>
@@ -14817,7 +14818,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>489</v>
       </c>
@@ -14844,7 +14845,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>489</v>
       </c>
@@ -14871,7 +14872,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>489</v>
       </c>
@@ -14898,7 +14899,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>489</v>
       </c>
@@ -14925,7 +14926,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>489</v>
       </c>
@@ -14952,7 +14953,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>489</v>
       </c>
@@ -14979,7 +14980,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>489</v>
       </c>
@@ -15006,7 +15007,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>489</v>
       </c>
@@ -15033,7 +15034,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>489</v>
       </c>
@@ -15060,7 +15061,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>489</v>
       </c>
@@ -15087,7 +15088,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>489</v>
       </c>
@@ -15114,7 +15115,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>489</v>
       </c>
@@ -15141,7 +15142,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>489</v>
       </c>
@@ -15168,7 +15169,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>489</v>
       </c>
@@ -15195,7 +15196,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>535</v>
       </c>
@@ -15222,7 +15223,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>535</v>
       </c>
@@ -15249,7 +15250,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>535</v>
       </c>
@@ -15276,7 +15277,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>535</v>
       </c>
@@ -15303,7 +15304,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>535</v>
       </c>
@@ -15330,7 +15331,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>535</v>
       </c>
@@ -15357,7 +15358,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>535</v>
       </c>
@@ -15384,7 +15385,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>535</v>
       </c>
@@ -15411,7 +15412,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>535</v>
       </c>
@@ -15438,7 +15439,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>535</v>
       </c>
@@ -15465,7 +15466,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>534</v>
       </c>
@@ -15492,7 +15493,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>534</v>
       </c>
@@ -15519,7 +15520,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>534</v>
       </c>
@@ -15546,7 +15547,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>534</v>
       </c>
@@ -15573,7 +15574,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>534</v>
       </c>
@@ -15600,7 +15601,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>534</v>
       </c>
@@ -15627,7 +15628,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>534</v>
       </c>
@@ -15654,7 +15655,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>534</v>
       </c>
@@ -15681,7 +15682,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>534</v>
       </c>
@@ -15708,7 +15709,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>534</v>
       </c>
@@ -15735,7 +15736,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>536</v>
       </c>
@@ -15762,7 +15763,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>536</v>
       </c>
@@ -15789,7 +15790,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>536</v>
       </c>
@@ -15816,7 +15817,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>536</v>
       </c>
@@ -15843,7 +15844,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>536</v>
       </c>
@@ -15870,7 +15871,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>536</v>
       </c>
@@ -15897,7 +15898,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>536</v>
       </c>
@@ -15924,7 +15925,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>536</v>
       </c>
@@ -15951,7 +15952,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>536</v>
       </c>
@@ -15978,7 +15979,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>536</v>
       </c>
@@ -16005,7 +16006,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>537</v>
       </c>
@@ -16032,7 +16033,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>537</v>
       </c>
@@ -16059,7 +16060,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>537</v>
       </c>
@@ -16086,7 +16087,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>537</v>
       </c>
@@ -16113,7 +16114,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>537</v>
       </c>
@@ -16140,7 +16141,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>537</v>
       </c>
@@ -16167,7 +16168,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>537</v>
       </c>
@@ -16194,7 +16195,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>537</v>
       </c>
@@ -16221,7 +16222,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>537</v>
       </c>
@@ -16248,7 +16249,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>537</v>
       </c>
@@ -16275,7 +16276,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>620</v>
       </c>
@@ -16302,7 +16303,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>620</v>
       </c>
@@ -16329,7 +16330,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>620</v>
       </c>
@@ -16356,7 +16357,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>620</v>
       </c>
@@ -16383,7 +16384,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>620</v>
       </c>
@@ -16410,7 +16411,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>620</v>
       </c>
@@ -16437,7 +16438,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>620</v>
       </c>
@@ -16464,7 +16465,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>620</v>
       </c>
@@ -16491,7 +16492,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>620</v>
       </c>
@@ -16518,7 +16519,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>620</v>
       </c>
@@ -16545,7 +16546,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>621</v>
       </c>
@@ -16572,7 +16573,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>621</v>
       </c>
@@ -16599,7 +16600,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>621</v>
       </c>
@@ -16626,7 +16627,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>621</v>
       </c>
@@ -16653,7 +16654,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>621</v>
       </c>
@@ -16680,7 +16681,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>621</v>
       </c>
@@ -16707,7 +16708,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>621</v>
       </c>
@@ -16734,7 +16735,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>621</v>
       </c>
@@ -16761,7 +16762,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>621</v>
       </c>
@@ -16788,7 +16789,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>621</v>
       </c>
@@ -16815,7 +16816,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>622</v>
       </c>
@@ -16842,7 +16843,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>622</v>
       </c>
@@ -16869,7 +16870,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>622</v>
       </c>
@@ -16896,7 +16897,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>622</v>
       </c>
@@ -16923,7 +16924,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>622</v>
       </c>
@@ -16950,7 +16951,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>622</v>
       </c>
@@ -16977,7 +16978,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>622</v>
       </c>
@@ -17004,7 +17005,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>622</v>
       </c>
@@ -17031,7 +17032,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>622</v>
       </c>
@@ -17058,7 +17059,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>622</v>
       </c>
@@ -17085,7 +17086,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>623</v>
       </c>
@@ -17112,7 +17113,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>623</v>
       </c>
@@ -17139,7 +17140,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>623</v>
       </c>
@@ -17166,7 +17167,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>623</v>
       </c>
@@ -17193,7 +17194,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>623</v>
       </c>
@@ -17220,7 +17221,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>623</v>
       </c>
@@ -17247,7 +17248,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>623</v>
       </c>
@@ -17274,7 +17275,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>623</v>
       </c>
@@ -17301,7 +17302,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>623</v>
       </c>
@@ -17328,7 +17329,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>623</v>
       </c>
@@ -17355,7 +17356,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>625</v>
       </c>
@@ -17382,7 +17383,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>625</v>
       </c>
@@ -17409,7 +17410,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>625</v>
       </c>
@@ -17436,7 +17437,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>625</v>
       </c>
@@ -17463,7 +17464,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>625</v>
       </c>
@@ -17490,7 +17491,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>625</v>
       </c>
@@ -17517,7 +17518,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>625</v>
       </c>
@@ -17544,7 +17545,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>625</v>
       </c>
@@ -17571,7 +17572,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>625</v>
       </c>
@@ -17598,7 +17599,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>625</v>
       </c>
@@ -17625,7 +17626,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>624</v>
       </c>
@@ -17652,7 +17653,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>624</v>
       </c>
@@ -17679,7 +17680,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>624</v>
       </c>
@@ -17706,7 +17707,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>624</v>
       </c>
@@ -17733,7 +17734,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>624</v>
       </c>
@@ -17760,7 +17761,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>624</v>
       </c>
@@ -17787,7 +17788,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>624</v>
       </c>
@@ -17814,7 +17815,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>624</v>
       </c>
@@ -17841,7 +17842,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>624</v>
       </c>
@@ -17868,7 +17869,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>624</v>
       </c>
@@ -17895,7 +17896,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>2</v>
       </c>
@@ -18004,7 +18005,23 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K462"/>
+  <autoFilter ref="A1:K462">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="THP-1"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="ATAC"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="8">
+      <filters>
+        <filter val="2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/inst/extdata/data_gsk.xlsx
+++ b/inst/extdata/data_gsk.xlsx
@@ -2912,78 +2912,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/F36P_TF_BR1_CTCF_TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CTR_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_CTR_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CTR_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_CTR_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CTR_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_CTR_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CTR_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_CTR_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PMA_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_PMA_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PMA_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_PMA_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PMA_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_PMA_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PMA_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_PMA_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VD3_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_VD3_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VD3_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_VD3_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VD3_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_VD3_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VD3_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_VD3_LPS_ATAC_ATAC-seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CTR_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
   </si>
   <si>
@@ -3054,6 +2982,78 @@
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_VD3_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CTR_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_CTR_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CTR_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_CTR_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CTR_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_CTR_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CTR_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_CTR_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PMA_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_PMA_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PMA_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_PMA_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PMA_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_PMA_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PMA_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_PMA_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VD3_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_VD3_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VD3_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_VD3_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VD3_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_VD3_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_VD3_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_VD3_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
   </si>
 </sst>
 </file>
@@ -3443,7 +3443,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J79" sqref="J79"/>
+      <selection pane="bottomLeft" activeCell="J157" sqref="J157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5944,7 +5944,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -5974,13 +5974,13 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>988</v>
+        <v>964</v>
       </c>
       <c r="K70" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -6010,13 +6010,13 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>990</v>
+        <v>966</v>
       </c>
       <c r="K71" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -6046,13 +6046,13 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>992</v>
+        <v>968</v>
       </c>
       <c r="K72" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -6082,13 +6082,13 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>994</v>
+        <v>970</v>
       </c>
       <c r="K73" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>20</v>
       </c>
@@ -6118,13 +6118,13 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>996</v>
+        <v>972</v>
       </c>
       <c r="K74" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>20</v>
       </c>
@@ -6154,13 +6154,13 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>998</v>
+        <v>974</v>
       </c>
       <c r="K75" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -6190,13 +6190,13 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>1000</v>
+        <v>976</v>
       </c>
       <c r="K76" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>20</v>
       </c>
@@ -6226,13 +6226,13 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>1002</v>
+        <v>978</v>
       </c>
       <c r="K77" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>20</v>
       </c>
@@ -6262,13 +6262,13 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>1004</v>
+        <v>980</v>
       </c>
       <c r="K78" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>20</v>
       </c>
@@ -6298,10 +6298,10 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>1006</v>
+        <v>982</v>
       </c>
       <c r="K79" t="s">
-        <v>1007</v>
+        <v>983</v>
       </c>
     </row>
     <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8896,7 +8896,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>21</v>
       </c>
@@ -8923,13 +8923,13 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>964</v>
+        <v>988</v>
       </c>
       <c r="K152" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>21</v>
       </c>
@@ -8956,13 +8956,13 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>966</v>
+        <v>990</v>
       </c>
       <c r="K153" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>21</v>
       </c>
@@ -8989,13 +8989,13 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>968</v>
+        <v>992</v>
       </c>
       <c r="K154" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>21</v>
       </c>
@@ -9022,13 +9022,13 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>970</v>
+        <v>994</v>
       </c>
       <c r="K155" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>21</v>
       </c>
@@ -9055,13 +9055,13 @@
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>972</v>
+        <v>996</v>
       </c>
       <c r="K156" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>21</v>
       </c>
@@ -9088,13 +9088,13 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>974</v>
+        <v>998</v>
       </c>
       <c r="K157" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>21</v>
       </c>
@@ -9121,13 +9121,13 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>976</v>
+        <v>1000</v>
       </c>
       <c r="K158" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>21</v>
       </c>
@@ -9154,13 +9154,13 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>978</v>
+        <v>1002</v>
       </c>
       <c r="K159" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>21</v>
       </c>
@@ -9187,13 +9187,13 @@
         <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>980</v>
+        <v>1004</v>
       </c>
       <c r="K160" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>21</v>
       </c>
@@ -9220,13 +9220,13 @@
         <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>982</v>
+        <v>1006</v>
       </c>
       <c r="K161" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>21</v>
       </c>
@@ -9253,13 +9253,13 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>984</v>
+        <v>1008</v>
       </c>
       <c r="K162" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>21</v>
       </c>
@@ -9286,10 +9286,10 @@
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>986</v>
+        <v>1010</v>
       </c>
       <c r="K163" t="s">
-        <v>987</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -17932,7 +17932,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>20</v>
       </c>
@@ -17962,13 +17962,13 @@
         <v>2</v>
       </c>
       <c r="J461" t="s">
-        <v>1008</v>
+        <v>984</v>
       </c>
       <c r="K461" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>20</v>
       </c>
@@ -17998,17 +17998,17 @@
         <v>2</v>
       </c>
       <c r="J462" t="s">
-        <v>1010</v>
+        <v>986</v>
       </c>
       <c r="K462" t="s">
-        <v>1011</v>
+        <v>987</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K462">
     <filterColumn colId="0">
       <filters>
-        <filter val="THP-1"/>
+        <filter val="U937"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">

--- a/inst/extdata/data_gsk.xlsx
+++ b/inst/extdata/data_gsk.xlsx
@@ -2912,30 +2912,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/chip-seq/project_1/bam/F36P_TF_BR1_CTCF_TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CTR_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_CTR_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CTR_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_CTR_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CTR_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_CTR_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_CTR_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_CTR_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_PMA_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
   </si>
   <si>
@@ -2984,30 +2960,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_VD3_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CTR_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_CTR_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CTR_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_CTR_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CTR_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_CTR_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_CTR_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_CTR_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_PMA_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
   </si>
   <si>
@@ -3054,6 +3006,54 @@
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_VD3_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_ATAC_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_ATAC_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_ATAC_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_ATAC_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_ATAC_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_ATAC_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_ATAC_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_ATAC_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
   </si>
 </sst>
 </file>
@@ -3443,7 +3443,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J157" sqref="J157"/>
+      <selection pane="bottomLeft" activeCell="J154" sqref="J154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5974,10 +5974,10 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>964</v>
+        <v>996</v>
       </c>
       <c r="K70" t="s">
-        <v>965</v>
+        <v>997</v>
       </c>
     </row>
     <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6010,13 +6010,13 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>966</v>
+        <v>998</v>
       </c>
       <c r="K71" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -6046,13 +6046,13 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>968</v>
+        <v>1004</v>
       </c>
       <c r="K72" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -6082,10 +6082,10 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>970</v>
+        <v>1006</v>
       </c>
       <c r="K73" t="s">
-        <v>971</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6118,10 +6118,10 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="K74" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6154,10 +6154,10 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="K75" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
     </row>
     <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6190,10 +6190,10 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="K76" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
     </row>
     <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6226,10 +6226,10 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="K77" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6262,10 +6262,10 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="K78" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
     </row>
     <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -6298,10 +6298,10 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="K79" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
     </row>
     <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8896,7 +8896,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>21</v>
       </c>
@@ -8923,13 +8923,13 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>988</v>
+        <v>1000</v>
       </c>
       <c r="K152" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>21</v>
       </c>
@@ -8956,10 +8956,10 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>990</v>
+        <v>1002</v>
       </c>
       <c r="K153" t="s">
-        <v>991</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -8989,10 +8989,10 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>992</v>
+        <v>1008</v>
       </c>
       <c r="K154" t="s">
-        <v>993</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
@@ -9022,13 +9022,13 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>994</v>
+        <v>1010</v>
       </c>
       <c r="K155" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>21</v>
       </c>
@@ -9055,13 +9055,13 @@
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>996</v>
+        <v>980</v>
       </c>
       <c r="K156" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>21</v>
       </c>
@@ -9088,13 +9088,13 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>998</v>
+        <v>982</v>
       </c>
       <c r="K157" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>21</v>
       </c>
@@ -9121,13 +9121,13 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>1000</v>
+        <v>984</v>
       </c>
       <c r="K158" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>21</v>
       </c>
@@ -9154,13 +9154,13 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>1002</v>
+        <v>986</v>
       </c>
       <c r="K159" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>21</v>
       </c>
@@ -9187,13 +9187,13 @@
         <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>1004</v>
+        <v>988</v>
       </c>
       <c r="K160" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>21</v>
       </c>
@@ -9220,13 +9220,13 @@
         <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>1006</v>
+        <v>990</v>
       </c>
       <c r="K161" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>21</v>
       </c>
@@ -9253,13 +9253,13 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>1008</v>
+        <v>992</v>
       </c>
       <c r="K162" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>21</v>
       </c>
@@ -9286,10 +9286,10 @@
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>1010</v>
+        <v>994</v>
       </c>
       <c r="K163" t="s">
-        <v>1011</v>
+        <v>995</v>
       </c>
     </row>
     <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -17962,10 +17962,10 @@
         <v>2</v>
       </c>
       <c r="J461" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="K461" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
     </row>
     <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -17998,22 +17998,22 @@
         <v>2</v>
       </c>
       <c r="J462" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="K462" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K462">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="U937"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="4">
       <filters>
         <filter val="ATAC"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="LPS"/>
       </filters>
     </filterColumn>
     <filterColumn colId="8">

--- a/inst/extdata/data_gsk.xlsx
+++ b/inst/extdata/data_gsk.xlsx
@@ -3008,30 +3008,6 @@
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_VD3_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
   </si>
   <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_ATAC_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_ATAC_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_ATAC_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_ATAC_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_ATAC_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_ATAC_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_ATAC_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
-  </si>
-  <si>
-    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_ATAC_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
-  </si>
-  <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
   </si>
   <si>
@@ -3054,6 +3030,30 @@
   </si>
   <si>
     <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_LPS_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/THP1_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/THP1_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR1TR1_edited.bam</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bigwig/U937_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bw</t>
+  </si>
+  <si>
+    <t>/GWD/bioinfo/projects/RD-Epigenetics-NetworkData/otar_020/GSK/atac-seq/project_2/bam/U937_ATAC_ATAC-Seq_P2MonocyteMacrophage93_ATAC_P2MonocyteMacrophage93_bwa_samse_BR2TR1_edited.bam</t>
   </si>
 </sst>
 </file>
@@ -3443,7 +3443,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J154" sqref="J154"/>
+      <selection pane="bottomLeft" activeCell="J152" sqref="J152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5944,7 +5944,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -5974,13 +5974,13 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="K70" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>20</v>
       </c>
@@ -6010,13 +6010,13 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="K71" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>20</v>
       </c>
@@ -6046,13 +6046,13 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="K72" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -6082,10 +6082,10 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="K73" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
     </row>
     <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -8896,7 +8896,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>21</v>
       </c>
@@ -8923,13 +8923,13 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="K152" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>21</v>
       </c>
@@ -8956,13 +8956,13 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="K153" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>21</v>
       </c>
@@ -8989,13 +8989,13 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="K154" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>21</v>
       </c>
@@ -9022,10 +9022,10 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="K155" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -18013,7 +18013,7 @@
     </filterColumn>
     <filterColumn colId="6">
       <filters>
-        <filter val="LPS"/>
+        <filter val="Baseline"/>
       </filters>
     </filterColumn>
     <filterColumn colId="8">

--- a/inst/extdata/data_gsk.xlsx
+++ b/inst/extdata/data_gsk.xlsx
@@ -1331,9 +1331,6 @@
     <t>HUT78</t>
   </si>
   <si>
-    <t>HU78-B</t>
-  </si>
-  <si>
     <t>Jurkat</t>
   </si>
   <si>
@@ -2778,6 +2775,9 @@
   </si>
   <si>
     <t>B lymphocyte</t>
+  </si>
+  <si>
+    <t>HUT78-B</t>
   </si>
 </sst>
 </file>
@@ -3168,8 +3168,8 @@
   <dimension ref="A1:K414"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D405" sqref="D405:D414"/>
+      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A317" sqref="A317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3245,17 +3245,17 @@
         <v>25</v>
       </c>
       <c r="H2" t="str">
-        <f>CONCATENATE(A2, "_", F2, "_", G2)</f>
+        <f t="shared" ref="H2:H65" si="0">CONCATENATE(A2, "_", F2, "_", G2)</f>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>833</v>
+      </c>
+      <c r="K2" t="s">
         <v>834</v>
-      </c>
-      <c r="K2" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3281,17 +3281,17 @@
         <v>25</v>
       </c>
       <c r="H3" t="str">
-        <f>CONCATENATE(A3, "_", F3, "_", G3)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR2_Baseline</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
+        <v>835</v>
+      </c>
+      <c r="K3" t="s">
         <v>836</v>
-      </c>
-      <c r="K3" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3317,14 +3317,14 @@
         <v>25</v>
       </c>
       <c r="H4" t="str">
-        <f>CONCATENATE(A4, "_", F4, "_", G4)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K4" t="s">
         <v>316</v>
@@ -3353,17 +3353,17 @@
         <v>25</v>
       </c>
       <c r="H5" t="str">
-        <f>CONCATENATE(A5, "_", F5, "_", G5)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
+        <v>863</v>
+      </c>
+      <c r="K5" t="s">
         <v>864</v>
-      </c>
-      <c r="K5" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3389,14 +3389,14 @@
         <v>25</v>
       </c>
       <c r="H6" t="str">
-        <f>CONCATENATE(A6, "_", F6, "_", G6)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR2_Baseline</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K6" t="s">
         <v>369</v>
@@ -3425,14 +3425,14 @@
         <v>25</v>
       </c>
       <c r="H7" t="str">
-        <f>CONCATENATE(A7, "_", F7, "_", G7)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K7" t="s">
         <v>317</v>
@@ -3461,14 +3461,14 @@
         <v>25</v>
       </c>
       <c r="H8" t="str">
-        <f>CONCATENATE(A8, "_", F8, "_", G8)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K8" t="s">
         <v>318</v>
@@ -3497,14 +3497,14 @@
         <v>25</v>
       </c>
       <c r="H9" t="str">
-        <f>CONCATENATE(A9, "_", F9, "_", G9)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR2_Baseline</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K9" t="s">
         <v>319</v>
@@ -3533,14 +3533,14 @@
         <v>25</v>
       </c>
       <c r="H10" t="str">
-        <f>CONCATENATE(A10, "_", F10, "_", G10)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K10" t="s">
         <v>320</v>
@@ -3569,14 +3569,14 @@
         <v>25</v>
       </c>
       <c r="H11" t="str">
-        <f>CONCATENATE(A11, "_", F11, "_", G11)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR2_Baseline</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K11" t="s">
         <v>321</v>
@@ -3605,14 +3605,14 @@
         <v>25</v>
       </c>
       <c r="H12" t="str">
-        <f>CONCATENATE(A12, "_", F12, "_", G12)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K12" t="s">
         <v>322</v>
@@ -3641,14 +3641,14 @@
         <v>25</v>
       </c>
       <c r="H13" t="str">
-        <f>CONCATENATE(A13, "_", F13, "_", G13)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR1_Baseline</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K13" t="s">
         <v>323</v>
@@ -3677,14 +3677,14 @@
         <v>25</v>
       </c>
       <c r="H14" t="str">
-        <f>CONCATENATE(A14, "_", F14, "_", G14)</f>
+        <f t="shared" si="0"/>
         <v>F36P_BR2_Baseline</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K14" t="s">
         <v>324</v>
@@ -3713,17 +3713,17 @@
         <v>25</v>
       </c>
       <c r="H15" t="str">
-        <f>CONCATENATE(A15, "_", F15, "_", G15)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR1_Baseline</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
+        <v>837</v>
+      </c>
+      <c r="K15" t="s">
         <v>838</v>
-      </c>
-      <c r="K15" t="s">
-        <v>839</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3749,17 +3749,17 @@
         <v>25</v>
       </c>
       <c r="H16" t="str">
-        <f>CONCATENATE(A16, "_", F16, "_", G16)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR2_Baseline</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" t="s">
+        <v>839</v>
+      </c>
+      <c r="K16" t="s">
         <v>840</v>
-      </c>
-      <c r="K16" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3785,14 +3785,14 @@
         <v>25</v>
       </c>
       <c r="H17" t="str">
-        <f>CONCATENATE(A17, "_", F17, "_", G17)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR1_Baseline</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K17" t="s">
         <v>325</v>
@@ -3821,14 +3821,14 @@
         <v>25</v>
       </c>
       <c r="H18" t="str">
-        <f>CONCATENATE(A18, "_", F18, "_", G18)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR2_Baseline</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K18" t="s">
         <v>368</v>
@@ -3857,14 +3857,14 @@
         <v>25</v>
       </c>
       <c r="H19" t="str">
-        <f>CONCATENATE(A19, "_", F19, "_", G19)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR1_Baseline</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K19" t="s">
         <v>326</v>
@@ -3893,14 +3893,14 @@
         <v>25</v>
       </c>
       <c r="H20" t="str">
-        <f>CONCATENATE(A20, "_", F20, "_", G20)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR2_Baseline</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K20" t="s">
         <v>327</v>
@@ -3929,14 +3929,14 @@
         <v>25</v>
       </c>
       <c r="H21" t="str">
-        <f>CONCATENATE(A21, "_", F21, "_", G21)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR1_Baseline</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K21" t="s">
         <v>328</v>
@@ -3965,14 +3965,14 @@
         <v>25</v>
       </c>
       <c r="H22" t="str">
-        <f>CONCATENATE(A22, "_", F22, "_", G22)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR2_Baseline</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K22" t="s">
         <v>329</v>
@@ -4001,14 +4001,14 @@
         <v>25</v>
       </c>
       <c r="H23" t="str">
-        <f>CONCATENATE(A23, "_", F23, "_", G23)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR1_Baseline</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K23" t="s">
         <v>330</v>
@@ -4037,14 +4037,14 @@
         <v>25</v>
       </c>
       <c r="H24" t="str">
-        <f>CONCATENATE(A24, "_", F24, "_", G24)</f>
+        <f t="shared" si="0"/>
         <v>HEL9217_BR2_Baseline</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K24" t="s">
         <v>331</v>
@@ -4073,17 +4073,17 @@
         <v>25</v>
       </c>
       <c r="H25" t="str">
-        <f>CONCATENATE(A25, "_", F25, "_", G25)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
+        <v>841</v>
+      </c>
+      <c r="K25" t="s">
         <v>842</v>
-      </c>
-      <c r="K25" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -4109,17 +4109,17 @@
         <v>25</v>
       </c>
       <c r="H26" t="str">
-        <f>CONCATENATE(A26, "_", F26, "_", G26)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
+        <v>843</v>
+      </c>
+      <c r="K26" t="s">
         <v>844</v>
-      </c>
-      <c r="K26" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -4145,14 +4145,14 @@
         <v>25</v>
       </c>
       <c r="H27" t="str">
-        <f>CONCATENATE(A27, "_", F27, "_", G27)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K27" t="s">
         <v>332</v>
@@ -4181,14 +4181,14 @@
         <v>25</v>
       </c>
       <c r="H28" t="str">
-        <f>CONCATENATE(A28, "_", F28, "_", G28)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K28" t="s">
         <v>333</v>
@@ -4217,14 +4217,14 @@
         <v>25</v>
       </c>
       <c r="H29" t="str">
-        <f>CONCATENATE(A29, "_", F29, "_", G29)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K29" t="s">
         <v>366</v>
@@ -4253,14 +4253,14 @@
         <v>25</v>
       </c>
       <c r="H30" t="str">
-        <f>CONCATENATE(A30, "_", F30, "_", G30)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K30" t="s">
         <v>367</v>
@@ -4289,14 +4289,14 @@
         <v>25</v>
       </c>
       <c r="H31" t="str">
-        <f>CONCATENATE(A31, "_", F31, "_", G31)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K31" t="s">
         <v>334</v>
@@ -4325,14 +4325,14 @@
         <v>25</v>
       </c>
       <c r="H32" t="str">
-        <f>CONCATENATE(A32, "_", F32, "_", G32)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K32" t="s">
         <v>335</v>
@@ -4361,14 +4361,14 @@
         <v>25</v>
       </c>
       <c r="H33" t="str">
-        <f>CONCATENATE(A33, "_", F33, "_", G33)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K33" t="s">
         <v>336</v>
@@ -4397,14 +4397,14 @@
         <v>25</v>
       </c>
       <c r="H34" t="str">
-        <f>CONCATENATE(A34, "_", F34, "_", G34)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K34" t="s">
         <v>337</v>
@@ -4433,14 +4433,14 @@
         <v>25</v>
       </c>
       <c r="H35" t="str">
-        <f>CONCATENATE(A35, "_", F35, "_", G35)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K35" t="s">
         <v>338</v>
@@ -4469,14 +4469,14 @@
         <v>25</v>
       </c>
       <c r="H36" t="str">
-        <f>CONCATENATE(A36, "_", F36, "_", G36)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K36" t="s">
         <v>339</v>
@@ -4505,14 +4505,14 @@
         <v>25</v>
       </c>
       <c r="H37" t="str">
-        <f>CONCATENATE(A37, "_", F37, "_", G37)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR1_Baseline</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K37" t="s">
         <v>340</v>
@@ -4541,14 +4541,14 @@
         <v>25</v>
       </c>
       <c r="H38" t="str">
-        <f>CONCATENATE(A38, "_", F38, "_", G38)</f>
+        <f t="shared" si="0"/>
         <v>K562_BR2_Baseline</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K38" t="s">
         <v>341</v>
@@ -4577,17 +4577,17 @@
         <v>25</v>
       </c>
       <c r="H39" t="str">
-        <f>CONCATENATE(A39, "_", F39, "_", G39)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
+        <v>527</v>
+      </c>
+      <c r="K39" t="s">
         <v>528</v>
-      </c>
-      <c r="K39" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
@@ -4613,17 +4613,17 @@
         <v>25</v>
       </c>
       <c r="H40" t="str">
-        <f>CONCATENATE(A40, "_", F40, "_", G40)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR2_Baseline</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
+        <v>529</v>
+      </c>
+      <c r="K40" t="s">
         <v>530</v>
-      </c>
-      <c r="K40" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -4649,17 +4649,17 @@
         <v>25</v>
       </c>
       <c r="H41" t="str">
-        <f>CONCATENATE(A41, "_", F41, "_", G41)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K41" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
@@ -4685,17 +4685,17 @@
         <v>25</v>
       </c>
       <c r="H42" t="str">
-        <f>CONCATENATE(A42, "_", F42, "_", G42)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR2_Baseline</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K42" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -4721,14 +4721,14 @@
         <v>25</v>
       </c>
       <c r="H43" t="str">
-        <f>CONCATENATE(A43, "_", F43, "_", G43)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K43" t="s">
         <v>342</v>
@@ -4757,14 +4757,14 @@
         <v>25</v>
       </c>
       <c r="H44" t="str">
-        <f>CONCATENATE(A44, "_", F44, "_", G44)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K44" t="s">
         <v>343</v>
@@ -4793,14 +4793,14 @@
         <v>25</v>
       </c>
       <c r="H45" t="str">
-        <f>CONCATENATE(A45, "_", F45, "_", G45)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR2_Baseline</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K45" t="s">
         <v>344</v>
@@ -4829,14 +4829,14 @@
         <v>25</v>
       </c>
       <c r="H46" t="str">
-        <f>CONCATENATE(A46, "_", F46, "_", G46)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K46" t="s">
         <v>345</v>
@@ -4865,14 +4865,14 @@
         <v>25</v>
       </c>
       <c r="H47" t="str">
-        <f>CONCATENATE(A47, "_", F47, "_", G47)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR2_Baseline</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K47" t="s">
         <v>346</v>
@@ -4901,14 +4901,14 @@
         <v>25</v>
       </c>
       <c r="H48" t="str">
-        <f>CONCATENATE(A48, "_", F48, "_", G48)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K48" t="s">
         <v>347</v>
@@ -4937,14 +4937,14 @@
         <v>25</v>
       </c>
       <c r="H49" t="str">
-        <f>CONCATENATE(A49, "_", F49, "_", G49)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR1_Baseline</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K49" t="s">
         <v>348</v>
@@ -4973,14 +4973,14 @@
         <v>25</v>
       </c>
       <c r="H50" t="str">
-        <f>CONCATENATE(A50, "_", F50, "_", G50)</f>
+        <f t="shared" si="0"/>
         <v>KU812_BR2_Baseline</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K50" t="s">
         <v>349</v>
@@ -5009,17 +5009,17 @@
         <v>25</v>
       </c>
       <c r="H51" t="str">
-        <f>CONCATENATE(A51, "_", F51, "_", G51)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR1_Baseline</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
+        <v>849</v>
+      </c>
+      <c r="K51" t="s">
         <v>850</v>
-      </c>
-      <c r="K51" t="s">
-        <v>851</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -5045,17 +5045,17 @@
         <v>25</v>
       </c>
       <c r="H52" t="str">
-        <f>CONCATENATE(A52, "_", F52, "_", G52)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR2_Baseline</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
+        <v>851</v>
+      </c>
+      <c r="K52" t="s">
         <v>852</v>
-      </c>
-      <c r="K52" t="s">
-        <v>853</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -5081,14 +5081,14 @@
         <v>25</v>
       </c>
       <c r="H53" t="str">
-        <f>CONCATENATE(A53, "_", F53, "_", G53)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR1_Baseline</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K53" t="s">
         <v>350</v>
@@ -5117,14 +5117,14 @@
         <v>25</v>
       </c>
       <c r="H54" t="str">
-        <f>CONCATENATE(A54, "_", F54, "_", G54)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR2_Baseline</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K54" t="s">
         <v>365</v>
@@ -5153,14 +5153,14 @@
         <v>25</v>
       </c>
       <c r="H55" t="str">
-        <f>CONCATENATE(A55, "_", F55, "_", G55)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR1_Baseline</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K55" t="s">
         <v>351</v>
@@ -5189,14 +5189,14 @@
         <v>25</v>
       </c>
       <c r="H56" t="str">
-        <f>CONCATENATE(A56, "_", F56, "_", G56)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR2_Baseline</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K56" t="s">
         <v>352</v>
@@ -5225,14 +5225,14 @@
         <v>25</v>
       </c>
       <c r="H57" t="str">
-        <f>CONCATENATE(A57, "_", F57, "_", G57)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR1_Baseline</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K57" t="s">
         <v>353</v>
@@ -5261,14 +5261,14 @@
         <v>25</v>
       </c>
       <c r="H58" t="str">
-        <f>CONCATENATE(A58, "_", F58, "_", G58)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR2_Baseline</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K58" t="s">
         <v>354</v>
@@ -5297,14 +5297,14 @@
         <v>25</v>
       </c>
       <c r="H59" t="str">
-        <f>CONCATENATE(A59, "_", F59, "_", G59)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR1_Baseline</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K59" t="s">
         <v>355</v>
@@ -5333,14 +5333,14 @@
         <v>25</v>
       </c>
       <c r="H60" t="str">
-        <f>CONCATENATE(A60, "_", F60, "_", G60)</f>
+        <f t="shared" si="0"/>
         <v>MEG01_BR2_Baseline</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K60" t="s">
         <v>356</v>
@@ -5369,17 +5369,17 @@
         <v>25</v>
       </c>
       <c r="H61" t="str">
-        <f>CONCATENATE(A61, "_", F61, "_", G61)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61" t="s">
+        <v>845</v>
+      </c>
+      <c r="K61" t="s">
         <v>846</v>
-      </c>
-      <c r="K61" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -5405,17 +5405,17 @@
         <v>25</v>
       </c>
       <c r="H62" t="str">
-        <f>CONCATENATE(A62, "_", F62, "_", G62)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
       <c r="J62" t="s">
+        <v>847</v>
+      </c>
+      <c r="K62" t="s">
         <v>848</v>
-      </c>
-      <c r="K62" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -5441,14 +5441,14 @@
         <v>25</v>
       </c>
       <c r="H63" t="str">
-        <f>CONCATENATE(A63, "_", F63, "_", G63)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K63" t="s">
         <v>357</v>
@@ -5477,14 +5477,14 @@
         <v>25</v>
       </c>
       <c r="H64" t="str">
-        <f>CONCATENATE(A64, "_", F64, "_", G64)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K64" t="s">
         <v>358</v>
@@ -5513,14 +5513,14 @@
         <v>25</v>
       </c>
       <c r="H65" t="str">
-        <f>CONCATENATE(A65, "_", F65, "_", G65)</f>
+        <f t="shared" si="0"/>
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K65" t="s">
         <v>359</v>
@@ -5549,14 +5549,14 @@
         <v>25</v>
       </c>
       <c r="H66" t="str">
-        <f>CONCATENATE(A66, "_", F66, "_", G66)</f>
+        <f t="shared" ref="H66:H129" si="1">CONCATENATE(A66, "_", F66, "_", G66)</f>
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K66" t="s">
         <v>360</v>
@@ -5585,14 +5585,14 @@
         <v>25</v>
       </c>
       <c r="H67" t="str">
-        <f>CONCATENATE(A67, "_", F67, "_", G67)</f>
+        <f t="shared" si="1"/>
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K67" t="s">
         <v>361</v>
@@ -5621,14 +5621,14 @@
         <v>25</v>
       </c>
       <c r="H68" t="str">
-        <f>CONCATENATE(A68, "_", F68, "_", G68)</f>
+        <f t="shared" si="1"/>
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K68" t="s">
         <v>362</v>
@@ -5657,14 +5657,14 @@
         <v>25</v>
       </c>
       <c r="H69" t="str">
-        <f>CONCATENATE(A69, "_", F69, "_", G69)</f>
+        <f t="shared" si="1"/>
         <v>UT7_BR1_Baseline</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K69" t="s">
         <v>363</v>
@@ -5693,14 +5693,14 @@
         <v>25</v>
       </c>
       <c r="H70" t="str">
-        <f>CONCATENATE(A70, "_", F70, "_", G70)</f>
+        <f t="shared" si="1"/>
         <v>UT7_BR2_Baseline</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K70" t="s">
         <v>364</v>
@@ -5729,17 +5729,17 @@
         <v>25</v>
       </c>
       <c r="H71" t="str">
-        <f>CONCATENATE(A71, "_", F71, "_", G71)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I71">
         <v>2</v>
       </c>
       <c r="J71" t="s">
+        <v>905</v>
+      </c>
+      <c r="K71" t="s">
         <v>906</v>
-      </c>
-      <c r="K71" t="s">
-        <v>907</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
@@ -5765,17 +5765,17 @@
         <v>27</v>
       </c>
       <c r="H72" t="str">
-        <f>CONCATENATE(A72, "_", F72, "_", G72)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
+        <v>897</v>
+      </c>
+      <c r="K72" t="s">
         <v>898</v>
-      </c>
-      <c r="K72" t="s">
-        <v>899</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
@@ -5801,17 +5801,17 @@
         <v>29</v>
       </c>
       <c r="H73" t="str">
-        <f>CONCATENATE(A73, "_", F73, "_", G73)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
+        <v>865</v>
+      </c>
+      <c r="K73" t="s">
         <v>866</v>
-      </c>
-      <c r="K73" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -5837,17 +5837,17 @@
         <v>28</v>
       </c>
       <c r="H74" t="str">
-        <f>CONCATENATE(A74, "_", F74, "_", G74)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I74">
         <v>2</v>
       </c>
       <c r="J74" t="s">
+        <v>869</v>
+      </c>
+      <c r="K74" t="s">
         <v>870</v>
-      </c>
-      <c r="K74" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
@@ -5873,17 +5873,17 @@
         <v>31</v>
       </c>
       <c r="H75" t="str">
-        <f>CONCATENATE(A75, "_", F75, "_", G75)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I75">
         <v>2</v>
       </c>
       <c r="J75" t="s">
+        <v>873</v>
+      </c>
+      <c r="K75" t="s">
         <v>874</v>
-      </c>
-      <c r="K75" t="s">
-        <v>875</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -5909,17 +5909,17 @@
         <v>30</v>
       </c>
       <c r="H76" t="str">
-        <f>CONCATENATE(A76, "_", F76, "_", G76)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I76">
         <v>2</v>
       </c>
       <c r="J76" t="s">
+        <v>875</v>
+      </c>
+      <c r="K76" t="s">
         <v>876</v>
-      </c>
-      <c r="K76" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
@@ -5945,17 +5945,17 @@
         <v>25</v>
       </c>
       <c r="H77" t="str">
-        <f>CONCATENATE(A77, "_", F77, "_", G77)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I77">
         <v>2</v>
       </c>
       <c r="J77" t="s">
+        <v>907</v>
+      </c>
+      <c r="K77" t="s">
         <v>908</v>
-      </c>
-      <c r="K77" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
@@ -5981,17 +5981,17 @@
         <v>27</v>
       </c>
       <c r="H78" t="str">
-        <f>CONCATENATE(A78, "_", F78, "_", G78)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I78">
         <v>2</v>
       </c>
       <c r="J78" t="s">
+        <v>899</v>
+      </c>
+      <c r="K78" t="s">
         <v>900</v>
-      </c>
-      <c r="K78" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
@@ -6017,17 +6017,17 @@
         <v>29</v>
       </c>
       <c r="H79" t="str">
-        <f>CONCATENATE(A79, "_", F79, "_", G79)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I79">
         <v>2</v>
       </c>
       <c r="J79" t="s">
+        <v>867</v>
+      </c>
+      <c r="K79" t="s">
         <v>868</v>
-      </c>
-      <c r="K79" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
@@ -6053,17 +6053,17 @@
         <v>28</v>
       </c>
       <c r="H80" t="str">
-        <f>CONCATENATE(A80, "_", F80, "_", G80)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I80">
         <v>2</v>
       </c>
       <c r="J80" t="s">
+        <v>871</v>
+      </c>
+      <c r="K80" t="s">
         <v>872</v>
-      </c>
-      <c r="K80" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -6089,17 +6089,17 @@
         <v>31</v>
       </c>
       <c r="H81" t="str">
-        <f>CONCATENATE(A81, "_", F81, "_", G81)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I81">
         <v>2</v>
       </c>
       <c r="J81" t="s">
+        <v>877</v>
+      </c>
+      <c r="K81" t="s">
         <v>878</v>
-      </c>
-      <c r="K81" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -6125,17 +6125,17 @@
         <v>30</v>
       </c>
       <c r="H82" t="str">
-        <f>CONCATENATE(A82, "_", F82, "_", G82)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I82">
         <v>2</v>
       </c>
       <c r="J82" t="s">
+        <v>879</v>
+      </c>
+      <c r="K82" t="s">
         <v>880</v>
-      </c>
-      <c r="K82" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -6161,7 +6161,7 @@
         <v>25</v>
       </c>
       <c r="H83" t="str">
-        <f>CONCATENATE(A83, "_", F83, "_", G83)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I83">
@@ -6197,7 +6197,7 @@
         <v>27</v>
       </c>
       <c r="H84" t="str">
-        <f>CONCATENATE(A84, "_", F84, "_", G84)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I84">
@@ -6233,7 +6233,7 @@
         <v>29</v>
       </c>
       <c r="H85" t="str">
-        <f>CONCATENATE(A85, "_", F85, "_", G85)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I85">
@@ -6269,7 +6269,7 @@
         <v>28</v>
       </c>
       <c r="H86" t="str">
-        <f>CONCATENATE(A86, "_", F86, "_", G86)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I86">
@@ -6305,7 +6305,7 @@
         <v>31</v>
       </c>
       <c r="H87" t="str">
-        <f>CONCATENATE(A87, "_", F87, "_", G87)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I87">
@@ -6341,7 +6341,7 @@
         <v>30</v>
       </c>
       <c r="H88" t="str">
-        <f>CONCATENATE(A88, "_", F88, "_", G88)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I88">
@@ -6377,7 +6377,7 @@
         <v>25</v>
       </c>
       <c r="H89" t="str">
-        <f>CONCATENATE(A89, "_", F89, "_", G89)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I89">
@@ -6413,7 +6413,7 @@
         <v>27</v>
       </c>
       <c r="H90" t="str">
-        <f>CONCATENATE(A90, "_", F90, "_", G90)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I90">
@@ -6449,7 +6449,7 @@
         <v>29</v>
       </c>
       <c r="H91" t="str">
-        <f>CONCATENATE(A91, "_", F91, "_", G91)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I91">
@@ -6485,7 +6485,7 @@
         <v>28</v>
       </c>
       <c r="H92" t="str">
-        <f>CONCATENATE(A92, "_", F92, "_", G92)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I92">
@@ -6521,7 +6521,7 @@
         <v>31</v>
       </c>
       <c r="H93" t="str">
-        <f>CONCATENATE(A93, "_", F93, "_", G93)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I93">
@@ -6557,7 +6557,7 @@
         <v>30</v>
       </c>
       <c r="H94" t="str">
-        <f>CONCATENATE(A94, "_", F94, "_", G94)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I94">
@@ -6593,7 +6593,7 @@
         <v>25</v>
       </c>
       <c r="H95" t="str">
-        <f>CONCATENATE(A95, "_", F95, "_", G95)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I95">
@@ -6629,7 +6629,7 @@
         <v>27</v>
       </c>
       <c r="H96" t="str">
-        <f>CONCATENATE(A96, "_", F96, "_", G96)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I96">
@@ -6665,7 +6665,7 @@
         <v>29</v>
       </c>
       <c r="H97" t="str">
-        <f>CONCATENATE(A97, "_", F97, "_", G97)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I97">
@@ -6701,7 +6701,7 @@
         <v>28</v>
       </c>
       <c r="H98" t="str">
-        <f>CONCATENATE(A98, "_", F98, "_", G98)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I98">
@@ -6737,7 +6737,7 @@
         <v>31</v>
       </c>
       <c r="H99" t="str">
-        <f>CONCATENATE(A99, "_", F99, "_", G99)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I99">
@@ -6773,7 +6773,7 @@
         <v>30</v>
       </c>
       <c r="H100" t="str">
-        <f>CONCATENATE(A100, "_", F100, "_", G100)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I100">
@@ -6809,7 +6809,7 @@
         <v>25</v>
       </c>
       <c r="H101" t="str">
-        <f>CONCATENATE(A101, "_", F101, "_", G101)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I101">
@@ -6845,7 +6845,7 @@
         <v>27</v>
       </c>
       <c r="H102" t="str">
-        <f>CONCATENATE(A102, "_", F102, "_", G102)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I102">
@@ -6881,7 +6881,7 @@
         <v>29</v>
       </c>
       <c r="H103" t="str">
-        <f>CONCATENATE(A103, "_", F103, "_", G103)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I103">
@@ -6917,7 +6917,7 @@
         <v>28</v>
       </c>
       <c r="H104" t="str">
-        <f>CONCATENATE(A104, "_", F104, "_", G104)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I104">
@@ -6953,7 +6953,7 @@
         <v>31</v>
       </c>
       <c r="H105" t="str">
-        <f>CONCATENATE(A105, "_", F105, "_", G105)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I105">
@@ -6989,7 +6989,7 @@
         <v>30</v>
       </c>
       <c r="H106" t="str">
-        <f>CONCATENATE(A106, "_", F106, "_", G106)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I106">
@@ -7025,7 +7025,7 @@
         <v>25</v>
       </c>
       <c r="H107" t="str">
-        <f>CONCATENATE(A107, "_", F107, "_", G107)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I107">
@@ -7061,7 +7061,7 @@
         <v>27</v>
       </c>
       <c r="H108" t="str">
-        <f>CONCATENATE(A108, "_", F108, "_", G108)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I108">
@@ -7097,7 +7097,7 @@
         <v>29</v>
       </c>
       <c r="H109" t="str">
-        <f>CONCATENATE(A109, "_", F109, "_", G109)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I109">
@@ -7133,7 +7133,7 @@
         <v>28</v>
       </c>
       <c r="H110" t="str">
-        <f>CONCATENATE(A110, "_", F110, "_", G110)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I110">
@@ -7169,7 +7169,7 @@
         <v>31</v>
       </c>
       <c r="H111" t="str">
-        <f>CONCATENATE(A111, "_", F111, "_", G111)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I111">
@@ -7205,7 +7205,7 @@
         <v>30</v>
       </c>
       <c r="H112" t="str">
-        <f>CONCATENATE(A112, "_", F112, "_", G112)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I112">
@@ -7241,7 +7241,7 @@
         <v>25</v>
       </c>
       <c r="H113" t="str">
-        <f>CONCATENATE(A113, "_", F113, "_", G113)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I113">
@@ -7277,7 +7277,7 @@
         <v>27</v>
       </c>
       <c r="H114" t="str">
-        <f>CONCATENATE(A114, "_", F114, "_", G114)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I114">
@@ -7313,7 +7313,7 @@
         <v>29</v>
       </c>
       <c r="H115" t="str">
-        <f>CONCATENATE(A115, "_", F115, "_", G115)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I115">
@@ -7349,7 +7349,7 @@
         <v>28</v>
       </c>
       <c r="H116" t="str">
-        <f>CONCATENATE(A116, "_", F116, "_", G116)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I116">
@@ -7385,7 +7385,7 @@
         <v>31</v>
       </c>
       <c r="H117" t="str">
-        <f>CONCATENATE(A117, "_", F117, "_", G117)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I117">
@@ -7421,7 +7421,7 @@
         <v>30</v>
       </c>
       <c r="H118" t="str">
-        <f>CONCATENATE(A118, "_", F118, "_", G118)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I118">
@@ -7457,7 +7457,7 @@
         <v>25</v>
       </c>
       <c r="H119" t="str">
-        <f>CONCATENATE(A119, "_", F119, "_", G119)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_Baseline</v>
       </c>
       <c r="I119">
@@ -7493,7 +7493,7 @@
         <v>27</v>
       </c>
       <c r="H120" t="str">
-        <f>CONCATENATE(A120, "_", F120, "_", G120)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_LPS</v>
       </c>
       <c r="I120">
@@ -7529,7 +7529,7 @@
         <v>29</v>
       </c>
       <c r="H121" t="str">
-        <f>CONCATENATE(A121, "_", F121, "_", G121)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA</v>
       </c>
       <c r="I121">
@@ -7565,7 +7565,7 @@
         <v>28</v>
       </c>
       <c r="H122" t="str">
-        <f>CONCATENATE(A122, "_", F122, "_", G122)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_PMA+LPS</v>
       </c>
       <c r="I122">
@@ -7601,7 +7601,7 @@
         <v>31</v>
       </c>
       <c r="H123" t="str">
-        <f>CONCATENATE(A123, "_", F123, "_", G123)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3</v>
       </c>
       <c r="I123">
@@ -7637,7 +7637,7 @@
         <v>30</v>
       </c>
       <c r="H124" t="str">
-        <f>CONCATENATE(A124, "_", F124, "_", G124)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR1_VD3+LPS</v>
       </c>
       <c r="I124">
@@ -7673,7 +7673,7 @@
         <v>25</v>
       </c>
       <c r="H125" t="str">
-        <f>CONCATENATE(A125, "_", F125, "_", G125)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_Baseline</v>
       </c>
       <c r="I125">
@@ -7709,7 +7709,7 @@
         <v>27</v>
       </c>
       <c r="H126" t="str">
-        <f>CONCATENATE(A126, "_", F126, "_", G126)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_LPS</v>
       </c>
       <c r="I126">
@@ -7745,7 +7745,7 @@
         <v>29</v>
       </c>
       <c r="H127" t="str">
-        <f>CONCATENATE(A127, "_", F127, "_", G127)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA</v>
       </c>
       <c r="I127">
@@ -7781,7 +7781,7 @@
         <v>28</v>
       </c>
       <c r="H128" t="str">
-        <f>CONCATENATE(A128, "_", F128, "_", G128)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_PMA+LPS</v>
       </c>
       <c r="I128">
@@ -7817,7 +7817,7 @@
         <v>31</v>
       </c>
       <c r="H129" t="str">
-        <f>CONCATENATE(A129, "_", F129, "_", G129)</f>
+        <f t="shared" si="1"/>
         <v>THP-1_BR2_VD3</v>
       </c>
       <c r="I129">
@@ -7853,7 +7853,7 @@
         <v>30</v>
       </c>
       <c r="H130" t="str">
-        <f>CONCATENATE(A130, "_", F130, "_", G130)</f>
+        <f t="shared" ref="H130:H193" si="2">CONCATENATE(A130, "_", F130, "_", G130)</f>
         <v>THP-1_BR2_VD3+LPS</v>
       </c>
       <c r="I130">
@@ -7886,17 +7886,17 @@
         <v>25</v>
       </c>
       <c r="H131" t="str">
-        <f>CONCATENATE(A131, "_", F131, "_", G131)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I131">
         <v>2</v>
       </c>
       <c r="J131" t="s">
+        <v>909</v>
+      </c>
+      <c r="K131" t="s">
         <v>910</v>
-      </c>
-      <c r="K131" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -7919,17 +7919,17 @@
         <v>27</v>
       </c>
       <c r="H132" t="str">
-        <f>CONCATENATE(A132, "_", F132, "_", G132)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I132">
         <v>2</v>
       </c>
       <c r="J132" t="s">
+        <v>901</v>
+      </c>
+      <c r="K132" t="s">
         <v>902</v>
-      </c>
-      <c r="K132" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -7952,17 +7952,17 @@
         <v>29</v>
       </c>
       <c r="H133" t="str">
-        <f>CONCATENATE(A133, "_", F133, "_", G133)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I133">
         <v>2</v>
       </c>
       <c r="J133" t="s">
+        <v>881</v>
+      </c>
+      <c r="K133" t="s">
         <v>882</v>
-      </c>
-      <c r="K133" t="s">
-        <v>883</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -7985,17 +7985,17 @@
         <v>28</v>
       </c>
       <c r="H134" t="str">
-        <f>CONCATENATE(A134, "_", F134, "_", G134)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I134">
         <v>2</v>
       </c>
       <c r="J134" t="s">
+        <v>885</v>
+      </c>
+      <c r="K134" t="s">
         <v>886</v>
-      </c>
-      <c r="K134" t="s">
-        <v>887</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -8018,17 +8018,17 @@
         <v>31</v>
       </c>
       <c r="H135" t="str">
-        <f>CONCATENATE(A135, "_", F135, "_", G135)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I135">
         <v>2</v>
       </c>
       <c r="J135" t="s">
+        <v>889</v>
+      </c>
+      <c r="K135" t="s">
         <v>890</v>
-      </c>
-      <c r="K135" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -8051,17 +8051,17 @@
         <v>30</v>
       </c>
       <c r="H136" t="str">
-        <f>CONCATENATE(A136, "_", F136, "_", G136)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I136">
         <v>2</v>
       </c>
       <c r="J136" t="s">
+        <v>893</v>
+      </c>
+      <c r="K136" t="s">
         <v>894</v>
-      </c>
-      <c r="K136" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
@@ -8084,17 +8084,17 @@
         <v>25</v>
       </c>
       <c r="H137" t="str">
-        <f>CONCATENATE(A137, "_", F137, "_", G137)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I137">
         <v>2</v>
       </c>
       <c r="J137" t="s">
+        <v>911</v>
+      </c>
+      <c r="K137" t="s">
         <v>912</v>
-      </c>
-      <c r="K137" t="s">
-        <v>913</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -8117,17 +8117,17 @@
         <v>27</v>
       </c>
       <c r="H138" t="str">
-        <f>CONCATENATE(A138, "_", F138, "_", G138)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I138">
         <v>2</v>
       </c>
       <c r="J138" t="s">
+        <v>903</v>
+      </c>
+      <c r="K138" t="s">
         <v>904</v>
-      </c>
-      <c r="K138" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -8150,17 +8150,17 @@
         <v>29</v>
       </c>
       <c r="H139" t="str">
-        <f>CONCATENATE(A139, "_", F139, "_", G139)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I139">
         <v>2</v>
       </c>
       <c r="J139" t="s">
+        <v>883</v>
+      </c>
+      <c r="K139" t="s">
         <v>884</v>
-      </c>
-      <c r="K139" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -8183,17 +8183,17 @@
         <v>28</v>
       </c>
       <c r="H140" t="str">
-        <f>CONCATENATE(A140, "_", F140, "_", G140)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I140">
         <v>2</v>
       </c>
       <c r="J140" t="s">
+        <v>887</v>
+      </c>
+      <c r="K140" t="s">
         <v>888</v>
-      </c>
-      <c r="K140" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
@@ -8216,17 +8216,17 @@
         <v>31</v>
       </c>
       <c r="H141" t="str">
-        <f>CONCATENATE(A141, "_", F141, "_", G141)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I141">
         <v>2</v>
       </c>
       <c r="J141" t="s">
+        <v>891</v>
+      </c>
+      <c r="K141" t="s">
         <v>892</v>
-      </c>
-      <c r="K141" t="s">
-        <v>893</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
@@ -8249,17 +8249,17 @@
         <v>30</v>
       </c>
       <c r="H142" t="str">
-        <f>CONCATENATE(A142, "_", F142, "_", G142)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I142">
         <v>2</v>
       </c>
       <c r="J142" t="s">
+        <v>895</v>
+      </c>
+      <c r="K142" t="s">
         <v>896</v>
-      </c>
-      <c r="K142" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
@@ -8282,7 +8282,7 @@
         <v>25</v>
       </c>
       <c r="H143" t="str">
-        <f>CONCATENATE(A143, "_", F143, "_", G143)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I143">
@@ -8315,7 +8315,7 @@
         <v>27</v>
       </c>
       <c r="H144" t="str">
-        <f>CONCATENATE(A144, "_", F144, "_", G144)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I144">
@@ -8348,7 +8348,7 @@
         <v>29</v>
       </c>
       <c r="H145" t="str">
-        <f>CONCATENATE(A145, "_", F145, "_", G145)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I145">
@@ -8381,7 +8381,7 @@
         <v>28</v>
       </c>
       <c r="H146" t="str">
-        <f>CONCATENATE(A146, "_", F146, "_", G146)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I146">
@@ -8414,7 +8414,7 @@
         <v>31</v>
       </c>
       <c r="H147" t="str">
-        <f>CONCATENATE(A147, "_", F147, "_", G147)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I147">
@@ -8447,7 +8447,7 @@
         <v>30</v>
       </c>
       <c r="H148" t="str">
-        <f>CONCATENATE(A148, "_", F148, "_", G148)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I148">
@@ -8480,7 +8480,7 @@
         <v>25</v>
       </c>
       <c r="H149" t="str">
-        <f>CONCATENATE(A149, "_", F149, "_", G149)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I149">
@@ -8513,7 +8513,7 @@
         <v>27</v>
       </c>
       <c r="H150" t="str">
-        <f>CONCATENATE(A150, "_", F150, "_", G150)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I150">
@@ -8546,7 +8546,7 @@
         <v>29</v>
       </c>
       <c r="H151" t="str">
-        <f>CONCATENATE(A151, "_", F151, "_", G151)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I151">
@@ -8579,7 +8579,7 @@
         <v>28</v>
       </c>
       <c r="H152" t="str">
-        <f>CONCATENATE(A152, "_", F152, "_", G152)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I152">
@@ -8612,7 +8612,7 @@
         <v>31</v>
       </c>
       <c r="H153" t="str">
-        <f>CONCATENATE(A153, "_", F153, "_", G153)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I153">
@@ -8645,7 +8645,7 @@
         <v>30</v>
       </c>
       <c r="H154" t="str">
-        <f>CONCATENATE(A154, "_", F154, "_", G154)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I154">
@@ -8678,7 +8678,7 @@
         <v>25</v>
       </c>
       <c r="H155" t="str">
-        <f>CONCATENATE(A155, "_", F155, "_", G155)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I155">
@@ -8711,7 +8711,7 @@
         <v>27</v>
       </c>
       <c r="H156" t="str">
-        <f>CONCATENATE(A156, "_", F156, "_", G156)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I156">
@@ -8744,7 +8744,7 @@
         <v>29</v>
       </c>
       <c r="H157" t="str">
-        <f>CONCATENATE(A157, "_", F157, "_", G157)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I157">
@@ -8777,7 +8777,7 @@
         <v>28</v>
       </c>
       <c r="H158" t="str">
-        <f>CONCATENATE(A158, "_", F158, "_", G158)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I158">
@@ -8810,7 +8810,7 @@
         <v>31</v>
       </c>
       <c r="H159" t="str">
-        <f>CONCATENATE(A159, "_", F159, "_", G159)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I159">
@@ -8843,7 +8843,7 @@
         <v>30</v>
       </c>
       <c r="H160" t="str">
-        <f>CONCATENATE(A160, "_", F160, "_", G160)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I160">
@@ -8876,7 +8876,7 @@
         <v>25</v>
       </c>
       <c r="H161" t="str">
-        <f>CONCATENATE(A161, "_", F161, "_", G161)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I161">
@@ -8909,7 +8909,7 @@
         <v>27</v>
       </c>
       <c r="H162" t="str">
-        <f>CONCATENATE(A162, "_", F162, "_", G162)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I162">
@@ -8942,7 +8942,7 @@
         <v>29</v>
       </c>
       <c r="H163" t="str">
-        <f>CONCATENATE(A163, "_", F163, "_", G163)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I163">
@@ -8975,7 +8975,7 @@
         <v>28</v>
       </c>
       <c r="H164" t="str">
-        <f>CONCATENATE(A164, "_", F164, "_", G164)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I164">
@@ -9008,7 +9008,7 @@
         <v>31</v>
       </c>
       <c r="H165" t="str">
-        <f>CONCATENATE(A165, "_", F165, "_", G165)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I165">
@@ -9041,7 +9041,7 @@
         <v>30</v>
       </c>
       <c r="H166" t="str">
-        <f>CONCATENATE(A166, "_", F166, "_", G166)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I166">
@@ -9074,7 +9074,7 @@
         <v>25</v>
       </c>
       <c r="H167" t="str">
-        <f>CONCATENATE(A167, "_", F167, "_", G167)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I167">
@@ -9107,7 +9107,7 @@
         <v>27</v>
       </c>
       <c r="H168" t="str">
-        <f>CONCATENATE(A168, "_", F168, "_", G168)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I168">
@@ -9140,7 +9140,7 @@
         <v>29</v>
       </c>
       <c r="H169" t="str">
-        <f>CONCATENATE(A169, "_", F169, "_", G169)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I169">
@@ -9173,7 +9173,7 @@
         <v>28</v>
       </c>
       <c r="H170" t="str">
-        <f>CONCATENATE(A170, "_", F170, "_", G170)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I170">
@@ -9206,7 +9206,7 @@
         <v>31</v>
       </c>
       <c r="H171" t="str">
-        <f>CONCATENATE(A171, "_", F171, "_", G171)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I171">
@@ -9239,7 +9239,7 @@
         <v>30</v>
       </c>
       <c r="H172" t="str">
-        <f>CONCATENATE(A172, "_", F172, "_", G172)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I172">
@@ -9272,7 +9272,7 @@
         <v>25</v>
       </c>
       <c r="H173" t="str">
-        <f>CONCATENATE(A173, "_", F173, "_", G173)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I173">
@@ -9305,7 +9305,7 @@
         <v>27</v>
       </c>
       <c r="H174" t="str">
-        <f>CONCATENATE(A174, "_", F174, "_", G174)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I174">
@@ -9338,7 +9338,7 @@
         <v>29</v>
       </c>
       <c r="H175" t="str">
-        <f>CONCATENATE(A175, "_", F175, "_", G175)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I175">
@@ -9371,7 +9371,7 @@
         <v>28</v>
       </c>
       <c r="H176" t="str">
-        <f>CONCATENATE(A176, "_", F176, "_", G176)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I176">
@@ -9404,7 +9404,7 @@
         <v>31</v>
       </c>
       <c r="H177" t="str">
-        <f>CONCATENATE(A177, "_", F177, "_", G177)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I177">
@@ -9437,7 +9437,7 @@
         <v>30</v>
       </c>
       <c r="H178" t="str">
-        <f>CONCATENATE(A178, "_", F178, "_", G178)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I178">
@@ -9470,7 +9470,7 @@
         <v>25</v>
       </c>
       <c r="H179" t="str">
-        <f>CONCATENATE(A179, "_", F179, "_", G179)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_Baseline</v>
       </c>
       <c r="I179">
@@ -9503,7 +9503,7 @@
         <v>27</v>
       </c>
       <c r="H180" t="str">
-        <f>CONCATENATE(A180, "_", F180, "_", G180)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_LPS</v>
       </c>
       <c r="I180">
@@ -9536,7 +9536,7 @@
         <v>29</v>
       </c>
       <c r="H181" t="str">
-        <f>CONCATENATE(A181, "_", F181, "_", G181)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA</v>
       </c>
       <c r="I181">
@@ -9569,7 +9569,7 @@
         <v>28</v>
       </c>
       <c r="H182" t="str">
-        <f>CONCATENATE(A182, "_", F182, "_", G182)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_PMA+LPS</v>
       </c>
       <c r="I182">
@@ -9602,7 +9602,7 @@
         <v>31</v>
       </c>
       <c r="H183" t="str">
-        <f>CONCATENATE(A183, "_", F183, "_", G183)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3</v>
       </c>
       <c r="I183">
@@ -9635,7 +9635,7 @@
         <v>30</v>
       </c>
       <c r="H184" t="str">
-        <f>CONCATENATE(A184, "_", F184, "_", G184)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR1_VD3+LPS</v>
       </c>
       <c r="I184">
@@ -9668,7 +9668,7 @@
         <v>25</v>
       </c>
       <c r="H185" t="str">
-        <f>CONCATENATE(A185, "_", F185, "_", G185)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_Baseline</v>
       </c>
       <c r="I185">
@@ -9701,7 +9701,7 @@
         <v>27</v>
       </c>
       <c r="H186" t="str">
-        <f>CONCATENATE(A186, "_", F186, "_", G186)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_LPS</v>
       </c>
       <c r="I186">
@@ -9734,7 +9734,7 @@
         <v>29</v>
       </c>
       <c r="H187" t="str">
-        <f>CONCATENATE(A187, "_", F187, "_", G187)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_PMA</v>
       </c>
       <c r="I187">
@@ -9767,7 +9767,7 @@
         <v>28</v>
       </c>
       <c r="H188" t="str">
-        <f>CONCATENATE(A188, "_", F188, "_", G188)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_PMA+LPS</v>
       </c>
       <c r="I188">
@@ -9800,7 +9800,7 @@
         <v>31</v>
       </c>
       <c r="H189" t="str">
-        <f>CONCATENATE(A189, "_", F189, "_", G189)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_VD3</v>
       </c>
       <c r="I189">
@@ -9833,7 +9833,7 @@
         <v>30</v>
       </c>
       <c r="H190" t="str">
-        <f>CONCATENATE(A190, "_", F190, "_", G190)</f>
+        <f t="shared" si="2"/>
         <v>U937_BR2_VD3+LPS</v>
       </c>
       <c r="I190">
@@ -9869,7 +9869,7 @@
         <v>25</v>
       </c>
       <c r="H191" t="str">
-        <f>CONCATENATE(A191, "_", F191, "_", G191)</f>
+        <f t="shared" si="2"/>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I191">
@@ -9905,7 +9905,7 @@
         <v>25</v>
       </c>
       <c r="H192" t="str">
-        <f>CONCATENATE(A192, "_", F192, "_", G192)</f>
+        <f t="shared" si="2"/>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I192">
@@ -9941,17 +9941,17 @@
         <v>25</v>
       </c>
       <c r="H193" t="str">
-        <f>CONCATENATE(A193, "_", F193, "_", G193)</f>
+        <f t="shared" si="2"/>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I193">
         <v>3</v>
       </c>
       <c r="J193" t="s">
+        <v>853</v>
+      </c>
+      <c r="K193" t="s">
         <v>854</v>
-      </c>
-      <c r="K193" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
@@ -9977,17 +9977,17 @@
         <v>25</v>
       </c>
       <c r="H194" t="str">
-        <f>CONCATENATE(A194, "_", F194, "_", G194)</f>
+        <f t="shared" ref="H194:H257" si="3">CONCATENATE(A194, "_", F194, "_", G194)</f>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I194">
         <v>3</v>
       </c>
       <c r="J194" t="s">
+        <v>855</v>
+      </c>
+      <c r="K194" t="s">
         <v>856</v>
-      </c>
-      <c r="K194" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -10013,7 +10013,7 @@
         <v>25</v>
       </c>
       <c r="H195" t="str">
-        <f>CONCATENATE(A195, "_", F195, "_", G195)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I195">
@@ -10049,7 +10049,7 @@
         <v>25</v>
       </c>
       <c r="H196" t="str">
-        <f>CONCATENATE(A196, "_", F196, "_", G196)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I196">
@@ -10085,7 +10085,7 @@
         <v>25</v>
       </c>
       <c r="H197" t="str">
-        <f>CONCATENATE(A197, "_", F197, "_", G197)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I197">
@@ -10121,7 +10121,7 @@
         <v>25</v>
       </c>
       <c r="H198" t="str">
-        <f>CONCATENATE(A198, "_", F198, "_", G198)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I198">
@@ -10157,7 +10157,7 @@
         <v>25</v>
       </c>
       <c r="H199" t="str">
-        <f>CONCATENATE(A199, "_", F199, "_", G199)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR1_Baseline</v>
       </c>
       <c r="I199">
@@ -10193,7 +10193,7 @@
         <v>25</v>
       </c>
       <c r="H200" t="str">
-        <f>CONCATENATE(A200, "_", F200, "_", G200)</f>
+        <f t="shared" si="3"/>
         <v>A549_BR2_Baseline</v>
       </c>
       <c r="I200">
@@ -10229,7 +10229,7 @@
         <v>25</v>
       </c>
       <c r="H201" t="str">
-        <f>CONCATENATE(A201, "_", F201, "_", G201)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I201">
@@ -10265,7 +10265,7 @@
         <v>25</v>
       </c>
       <c r="H202" t="str">
-        <f>CONCATENATE(A202, "_", F202, "_", G202)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I202">
@@ -10301,7 +10301,7 @@
         <v>25</v>
       </c>
       <c r="H203" t="str">
-        <f>CONCATENATE(A203, "_", F203, "_", G203)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I203">
@@ -10337,7 +10337,7 @@
         <v>25</v>
       </c>
       <c r="H204" t="str">
-        <f>CONCATENATE(A204, "_", F204, "_", G204)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I204">
@@ -10373,7 +10373,7 @@
         <v>25</v>
       </c>
       <c r="H205" t="str">
-        <f>CONCATENATE(A205, "_", F205, "_", G205)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I205">
@@ -10409,7 +10409,7 @@
         <v>25</v>
       </c>
       <c r="H206" t="str">
-        <f>CONCATENATE(A206, "_", F206, "_", G206)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I206">
@@ -10445,7 +10445,7 @@
         <v>25</v>
       </c>
       <c r="H207" t="str">
-        <f>CONCATENATE(A207, "_", F207, "_", G207)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I207">
@@ -10481,7 +10481,7 @@
         <v>25</v>
       </c>
       <c r="H208" t="str">
-        <f>CONCATENATE(A208, "_", F208, "_", G208)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I208">
@@ -10517,7 +10517,7 @@
         <v>25</v>
       </c>
       <c r="H209" t="str">
-        <f>CONCATENATE(A209, "_", F209, "_", G209)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR1_Baseline</v>
       </c>
       <c r="I209">
@@ -10553,7 +10553,7 @@
         <v>25</v>
       </c>
       <c r="H210" t="str">
-        <f>CONCATENATE(A210, "_", F210, "_", G210)</f>
+        <f t="shared" si="3"/>
         <v>BEAS2B_BR2_Baseline</v>
       </c>
       <c r="I210">
@@ -10589,17 +10589,17 @@
         <v>25</v>
       </c>
       <c r="H211" t="str">
-        <f>CONCATENATE(A211, "_", F211, "_", G211)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I211">
         <v>3</v>
       </c>
       <c r="J211" t="s">
+        <v>857</v>
+      </c>
+      <c r="K211" t="s">
         <v>858</v>
-      </c>
-      <c r="K211" t="s">
-        <v>859</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -10625,17 +10625,17 @@
         <v>25</v>
       </c>
       <c r="H212" t="str">
-        <f>CONCATENATE(A212, "_", F212, "_", G212)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I212">
         <v>3</v>
       </c>
       <c r="J212" t="s">
+        <v>859</v>
+      </c>
+      <c r="K212" t="s">
         <v>860</v>
-      </c>
-      <c r="K212" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
@@ -10661,17 +10661,17 @@
         <v>25</v>
       </c>
       <c r="H213" t="str">
-        <f>CONCATENATE(A213, "_", F213, "_", G213)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I213">
         <v>3</v>
       </c>
       <c r="J213" t="s">
+        <v>861</v>
+      </c>
+      <c r="K213" t="s">
         <v>862</v>
-      </c>
-      <c r="K213" t="s">
-        <v>863</v>
       </c>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
@@ -10697,7 +10697,7 @@
         <v>25</v>
       </c>
       <c r="H214" t="str">
-        <f>CONCATENATE(A214, "_", F214, "_", G214)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I214">
@@ -10733,7 +10733,7 @@
         <v>25</v>
       </c>
       <c r="H215" t="str">
-        <f>CONCATENATE(A215, "_", F215, "_", G215)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I215">
@@ -10769,7 +10769,7 @@
         <v>25</v>
       </c>
       <c r="H216" t="str">
-        <f>CONCATENATE(A216, "_", F216, "_", G216)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I216">
@@ -10805,7 +10805,7 @@
         <v>25</v>
       </c>
       <c r="H217" t="str">
-        <f>CONCATENATE(A217, "_", F217, "_", G217)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I217">
@@ -10841,7 +10841,7 @@
         <v>25</v>
       </c>
       <c r="H218" t="str">
-        <f>CONCATENATE(A218, "_", F218, "_", G218)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I218">
@@ -10877,7 +10877,7 @@
         <v>25</v>
       </c>
       <c r="H219" t="str">
-        <f>CONCATENATE(A219, "_", F219, "_", G219)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I219">
@@ -10913,7 +10913,7 @@
         <v>25</v>
       </c>
       <c r="H220" t="str">
-        <f>CONCATENATE(A220, "_", F220, "_", G220)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I220">
@@ -10949,7 +10949,7 @@
         <v>25</v>
       </c>
       <c r="H221" t="str">
-        <f>CONCATENATE(A221, "_", F221, "_", G221)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I221">
@@ -10985,7 +10985,7 @@
         <v>25</v>
       </c>
       <c r="H222" t="str">
-        <f>CONCATENATE(A222, "_", F222, "_", G222)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I222">
@@ -11021,7 +11021,7 @@
         <v>25</v>
       </c>
       <c r="H223" t="str">
-        <f>CONCATENATE(A223, "_", F223, "_", G223)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR1_Baseline</v>
       </c>
       <c r="I223">
@@ -11057,7 +11057,7 @@
         <v>25</v>
       </c>
       <c r="H224" t="str">
-        <f>CONCATENATE(A224, "_", F224, "_", G224)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR2_Baseline</v>
       </c>
       <c r="I224">
@@ -11093,7 +11093,7 @@
         <v>25</v>
       </c>
       <c r="H225" t="str">
-        <f>CONCATENATE(A225, "_", F225, "_", G225)</f>
+        <f t="shared" si="3"/>
         <v>NHBE_BR3_Baseline</v>
       </c>
       <c r="I225">
@@ -11117,7 +11117,7 @@
         <v>121</v>
       </c>
       <c r="D226" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E226" t="s">
         <v>22</v>
@@ -11129,7 +11129,7 @@
         <v>392</v>
       </c>
       <c r="H226" t="str">
-        <f>CONCATENATE(A226, "_", F226, "_", G226)</f>
+        <f t="shared" si="3"/>
         <v>HEP3B_BR1_2D</v>
       </c>
       <c r="I226">
@@ -11153,7 +11153,7 @@
         <v>121</v>
       </c>
       <c r="D227" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E227" t="s">
         <v>22</v>
@@ -11165,7 +11165,7 @@
         <v>393</v>
       </c>
       <c r="H227" t="str">
-        <f>CONCATENATE(A227, "_", F227, "_", G227)</f>
+        <f t="shared" si="3"/>
         <v>HEP3B_BR1_3D</v>
       </c>
       <c r="I227">
@@ -11189,7 +11189,7 @@
         <v>121</v>
       </c>
       <c r="D228" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E228" t="s">
         <v>22</v>
@@ -11201,7 +11201,7 @@
         <v>392</v>
       </c>
       <c r="H228" t="str">
-        <f>CONCATENATE(A228, "_", F228, "_", G228)</f>
+        <f t="shared" si="3"/>
         <v>HEP3B_BR2_2D</v>
       </c>
       <c r="I228">
@@ -11225,7 +11225,7 @@
         <v>121</v>
       </c>
       <c r="D229" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E229" t="s">
         <v>22</v>
@@ -11237,7 +11237,7 @@
         <v>393</v>
       </c>
       <c r="H229" t="str">
-        <f>CONCATENATE(A229, "_", F229, "_", G229)</f>
+        <f t="shared" si="3"/>
         <v>HEP3B_BR2_3D</v>
       </c>
       <c r="I229">
@@ -11261,7 +11261,7 @@
         <v>121</v>
       </c>
       <c r="D230" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E230" t="s">
         <v>11</v>
@@ -11273,17 +11273,17 @@
         <v>392</v>
       </c>
       <c r="H230" t="str">
-        <f>CONCATENATE(A230, "_", F230, "_", G230)</f>
+        <f t="shared" si="3"/>
         <v>HEP3B_BR1_2D</v>
       </c>
       <c r="I230">
         <v>4</v>
       </c>
       <c r="J230" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K230" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -11297,7 +11297,7 @@
         <v>121</v>
       </c>
       <c r="D231" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E231" t="s">
         <v>11</v>
@@ -11309,17 +11309,17 @@
         <v>393</v>
       </c>
       <c r="H231" t="str">
-        <f>CONCATENATE(A231, "_", F231, "_", G231)</f>
+        <f t="shared" si="3"/>
         <v>HEP3B_BR1_3D</v>
       </c>
       <c r="I231">
         <v>4</v>
       </c>
       <c r="J231" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K231" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
@@ -11333,7 +11333,7 @@
         <v>121</v>
       </c>
       <c r="D232" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E232" t="s">
         <v>11</v>
@@ -11345,17 +11345,17 @@
         <v>392</v>
       </c>
       <c r="H232" t="str">
-        <f>CONCATENATE(A232, "_", F232, "_", G232)</f>
+        <f t="shared" si="3"/>
         <v>HEP3B_BR2_2D</v>
       </c>
       <c r="I232">
         <v>4</v>
       </c>
       <c r="J232" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="K232" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -11369,7 +11369,7 @@
         <v>121</v>
       </c>
       <c r="D233" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E233" t="s">
         <v>11</v>
@@ -11381,17 +11381,17 @@
         <v>393</v>
       </c>
       <c r="H233" t="str">
-        <f>CONCATENATE(A233, "_", F233, "_", G233)</f>
+        <f t="shared" si="3"/>
         <v>HEP3B_BR2_3D</v>
       </c>
       <c r="I233">
         <v>4</v>
       </c>
       <c r="J233" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="K233" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
@@ -11405,7 +11405,7 @@
         <v>121</v>
       </c>
       <c r="D234" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E234" t="s">
         <v>8</v>
@@ -11417,17 +11417,17 @@
         <v>392</v>
       </c>
       <c r="H234" t="str">
-        <f>CONCATENATE(A234, "_", F234, "_", G234)</f>
+        <f t="shared" si="3"/>
         <v>HEP3B_BR1_2D</v>
       </c>
       <c r="I234">
         <v>4</v>
       </c>
       <c r="J234" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="K234" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -11441,7 +11441,7 @@
         <v>121</v>
       </c>
       <c r="D235" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E235" t="s">
         <v>8</v>
@@ -11453,17 +11453,17 @@
         <v>393</v>
       </c>
       <c r="H235" t="str">
-        <f>CONCATENATE(A235, "_", F235, "_", G235)</f>
+        <f t="shared" si="3"/>
         <v>HEP3B_BR1_3D</v>
       </c>
       <c r="I235">
         <v>4</v>
       </c>
       <c r="J235" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K235" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -11477,7 +11477,7 @@
         <v>121</v>
       </c>
       <c r="D236" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E236" t="s">
         <v>8</v>
@@ -11489,17 +11489,17 @@
         <v>392</v>
       </c>
       <c r="H236" t="str">
-        <f>CONCATENATE(A236, "_", F236, "_", G236)</f>
+        <f t="shared" si="3"/>
         <v>HEP3B_BR2_2D</v>
       </c>
       <c r="I236">
         <v>4</v>
       </c>
       <c r="J236" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K236" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -11513,7 +11513,7 @@
         <v>121</v>
       </c>
       <c r="D237" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E237" t="s">
         <v>8</v>
@@ -11525,17 +11525,17 @@
         <v>393</v>
       </c>
       <c r="H237" t="str">
-        <f>CONCATENATE(A237, "_", F237, "_", G237)</f>
+        <f t="shared" si="3"/>
         <v>HEP3B_BR2_3D</v>
       </c>
       <c r="I237">
         <v>4</v>
       </c>
       <c r="J237" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K237" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
@@ -11549,7 +11549,7 @@
         <v>121</v>
       </c>
       <c r="D238" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E238" t="s">
         <v>9</v>
@@ -11561,17 +11561,17 @@
         <v>392</v>
       </c>
       <c r="H238" t="str">
-        <f>CONCATENATE(A238, "_", F238, "_", G238)</f>
+        <f t="shared" si="3"/>
         <v>HEP3B_BR1_2D</v>
       </c>
       <c r="I238">
         <v>4</v>
       </c>
       <c r="J238" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="K238" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
@@ -11585,7 +11585,7 @@
         <v>121</v>
       </c>
       <c r="D239" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E239" t="s">
         <v>9</v>
@@ -11597,17 +11597,17 @@
         <v>393</v>
       </c>
       <c r="H239" t="str">
-        <f>CONCATENATE(A239, "_", F239, "_", G239)</f>
+        <f t="shared" si="3"/>
         <v>HEP3B_BR1_3D</v>
       </c>
       <c r="I239">
         <v>4</v>
       </c>
       <c r="J239" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K239" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
@@ -11621,7 +11621,7 @@
         <v>121</v>
       </c>
       <c r="D240" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E240" t="s">
         <v>9</v>
@@ -11633,17 +11633,17 @@
         <v>392</v>
       </c>
       <c r="H240" t="str">
-        <f>CONCATENATE(A240, "_", F240, "_", G240)</f>
+        <f t="shared" si="3"/>
         <v>HEP3B_BR2_2D</v>
       </c>
       <c r="I240">
         <v>4</v>
       </c>
       <c r="J240" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K240" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
@@ -11657,7 +11657,7 @@
         <v>121</v>
       </c>
       <c r="D241" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E241" t="s">
         <v>9</v>
@@ -11669,17 +11669,17 @@
         <v>393</v>
       </c>
       <c r="H241" t="str">
-        <f>CONCATENATE(A241, "_", F241, "_", G241)</f>
+        <f t="shared" si="3"/>
         <v>HEP3B_BR2_3D</v>
       </c>
       <c r="I241">
         <v>4</v>
       </c>
       <c r="J241" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="K241" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -11693,7 +11693,7 @@
         <v>121</v>
       </c>
       <c r="D242" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E242" t="s">
         <v>10</v>
@@ -11705,17 +11705,17 @@
         <v>392</v>
       </c>
       <c r="H242" t="str">
-        <f>CONCATENATE(A242, "_", F242, "_", G242)</f>
+        <f t="shared" si="3"/>
         <v>HEP3B_BR1_2D</v>
       </c>
       <c r="I242">
         <v>4</v>
       </c>
       <c r="J242" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K242" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -11729,7 +11729,7 @@
         <v>121</v>
       </c>
       <c r="D243" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E243" t="s">
         <v>10</v>
@@ -11741,17 +11741,17 @@
         <v>393</v>
       </c>
       <c r="H243" t="str">
-        <f>CONCATENATE(A243, "_", F243, "_", G243)</f>
+        <f t="shared" si="3"/>
         <v>HEP3B_BR1_3D</v>
       </c>
       <c r="I243">
         <v>4</v>
       </c>
       <c r="J243" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="K243" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -11765,7 +11765,7 @@
         <v>121</v>
       </c>
       <c r="D244" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E244" t="s">
         <v>10</v>
@@ -11777,17 +11777,17 @@
         <v>392</v>
       </c>
       <c r="H244" t="str">
-        <f>CONCATENATE(A244, "_", F244, "_", G244)</f>
+        <f t="shared" si="3"/>
         <v>HEP3B_BR2_2D</v>
       </c>
       <c r="I244">
         <v>4</v>
       </c>
       <c r="J244" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K244" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
@@ -11801,7 +11801,7 @@
         <v>121</v>
       </c>
       <c r="D245" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E245" t="s">
         <v>10</v>
@@ -11813,17 +11813,17 @@
         <v>393</v>
       </c>
       <c r="H245" t="str">
-        <f>CONCATENATE(A245, "_", F245, "_", G245)</f>
+        <f t="shared" si="3"/>
         <v>HEP3B_BR2_3D</v>
       </c>
       <c r="I245">
         <v>4</v>
       </c>
       <c r="J245" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K245" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -11837,7 +11837,7 @@
         <v>121</v>
       </c>
       <c r="D246" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E246" t="s">
         <v>22</v>
@@ -11849,7 +11849,7 @@
         <v>392</v>
       </c>
       <c r="H246" t="str">
-        <f>CONCATENATE(A246, "_", F246, "_", G246)</f>
+        <f t="shared" si="3"/>
         <v>HEPG2_BR1_2D</v>
       </c>
       <c r="I246">
@@ -11873,7 +11873,7 @@
         <v>121</v>
       </c>
       <c r="D247" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E247" t="s">
         <v>22</v>
@@ -11885,7 +11885,7 @@
         <v>393</v>
       </c>
       <c r="H247" t="str">
-        <f>CONCATENATE(A247, "_", F247, "_", G247)</f>
+        <f t="shared" si="3"/>
         <v>HEPG2_BR1_3D</v>
       </c>
       <c r="I247">
@@ -11909,7 +11909,7 @@
         <v>121</v>
       </c>
       <c r="D248" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E248" t="s">
         <v>22</v>
@@ -11921,7 +11921,7 @@
         <v>392</v>
       </c>
       <c r="H248" t="str">
-        <f>CONCATENATE(A248, "_", F248, "_", G248)</f>
+        <f t="shared" si="3"/>
         <v>HEPG2_BR2_2D</v>
       </c>
       <c r="I248">
@@ -11945,7 +11945,7 @@
         <v>121</v>
       </c>
       <c r="D249" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E249" t="s">
         <v>22</v>
@@ -11957,7 +11957,7 @@
         <v>393</v>
       </c>
       <c r="H249" t="str">
-        <f>CONCATENATE(A249, "_", F249, "_", G249)</f>
+        <f t="shared" si="3"/>
         <v>HEPG2_BR2_3D</v>
       </c>
       <c r="I249">
@@ -11981,7 +11981,7 @@
         <v>121</v>
       </c>
       <c r="D250" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E250" t="s">
         <v>11</v>
@@ -11993,17 +11993,17 @@
         <v>392</v>
       </c>
       <c r="H250" t="str">
-        <f>CONCATENATE(A250, "_", F250, "_", G250)</f>
+        <f t="shared" si="3"/>
         <v>HEPG2_BR1_2D</v>
       </c>
       <c r="I250">
         <v>4</v>
       </c>
       <c r="J250" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="K250" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
@@ -12017,7 +12017,7 @@
         <v>121</v>
       </c>
       <c r="D251" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E251" t="s">
         <v>11</v>
@@ -12029,17 +12029,17 @@
         <v>393</v>
       </c>
       <c r="H251" t="str">
-        <f>CONCATENATE(A251, "_", F251, "_", G251)</f>
+        <f t="shared" si="3"/>
         <v>HEPG2_BR1_3D</v>
       </c>
       <c r="I251">
         <v>4</v>
       </c>
       <c r="J251" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="K251" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -12053,7 +12053,7 @@
         <v>121</v>
       </c>
       <c r="D252" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E252" t="s">
         <v>11</v>
@@ -12065,17 +12065,17 @@
         <v>392</v>
       </c>
       <c r="H252" t="str">
-        <f>CONCATENATE(A252, "_", F252, "_", G252)</f>
+        <f t="shared" si="3"/>
         <v>HEPG2_BR2_2D</v>
       </c>
       <c r="I252">
         <v>4</v>
       </c>
       <c r="J252" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="K252" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -12089,7 +12089,7 @@
         <v>121</v>
       </c>
       <c r="D253" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E253" t="s">
         <v>11</v>
@@ -12101,17 +12101,17 @@
         <v>393</v>
       </c>
       <c r="H253" t="str">
-        <f>CONCATENATE(A253, "_", F253, "_", G253)</f>
+        <f t="shared" si="3"/>
         <v>HEPG2_BR2_3D</v>
       </c>
       <c r="I253">
         <v>4</v>
       </c>
       <c r="J253" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="K253" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
@@ -12125,7 +12125,7 @@
         <v>121</v>
       </c>
       <c r="D254" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E254" t="s">
         <v>8</v>
@@ -12137,17 +12137,17 @@
         <v>392</v>
       </c>
       <c r="H254" t="str">
-        <f>CONCATENATE(A254, "_", F254, "_", G254)</f>
+        <f t="shared" si="3"/>
         <v>HEPG2_BR1_2D</v>
       </c>
       <c r="I254">
         <v>4</v>
       </c>
       <c r="J254" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="K254" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
@@ -12161,7 +12161,7 @@
         <v>121</v>
       </c>
       <c r="D255" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E255" t="s">
         <v>8</v>
@@ -12173,17 +12173,17 @@
         <v>393</v>
       </c>
       <c r="H255" t="str">
-        <f>CONCATENATE(A255, "_", F255, "_", G255)</f>
+        <f t="shared" si="3"/>
         <v>HEPG2_BR1_3D</v>
       </c>
       <c r="I255">
         <v>4</v>
       </c>
       <c r="J255" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K255" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
@@ -12197,7 +12197,7 @@
         <v>121</v>
       </c>
       <c r="D256" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E256" t="s">
         <v>8</v>
@@ -12209,17 +12209,17 @@
         <v>392</v>
       </c>
       <c r="H256" t="str">
-        <f>CONCATENATE(A256, "_", F256, "_", G256)</f>
+        <f t="shared" si="3"/>
         <v>HEPG2_BR2_2D</v>
       </c>
       <c r="I256">
         <v>4</v>
       </c>
       <c r="J256" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K256" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
@@ -12233,7 +12233,7 @@
         <v>121</v>
       </c>
       <c r="D257" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E257" t="s">
         <v>8</v>
@@ -12245,17 +12245,17 @@
         <v>393</v>
       </c>
       <c r="H257" t="str">
-        <f>CONCATENATE(A257, "_", F257, "_", G257)</f>
+        <f t="shared" si="3"/>
         <v>HEPG2_BR2_3D</v>
       </c>
       <c r="I257">
         <v>4</v>
       </c>
       <c r="J257" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K257" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
@@ -12269,7 +12269,7 @@
         <v>121</v>
       </c>
       <c r="D258" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E258" t="s">
         <v>9</v>
@@ -12281,17 +12281,17 @@
         <v>392</v>
       </c>
       <c r="H258" t="str">
-        <f>CONCATENATE(A258, "_", F258, "_", G258)</f>
+        <f t="shared" ref="H258:H321" si="4">CONCATENATE(A258, "_", F258, "_", G258)</f>
         <v>HEPG2_BR1_2D</v>
       </c>
       <c r="I258">
         <v>4</v>
       </c>
       <c r="J258" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K258" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
@@ -12305,7 +12305,7 @@
         <v>121</v>
       </c>
       <c r="D259" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E259" t="s">
         <v>9</v>
@@ -12317,17 +12317,17 @@
         <v>393</v>
       </c>
       <c r="H259" t="str">
-        <f>CONCATENATE(A259, "_", F259, "_", G259)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR1_3D</v>
       </c>
       <c r="I259">
         <v>4</v>
       </c>
       <c r="J259" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K259" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
@@ -12341,7 +12341,7 @@
         <v>121</v>
       </c>
       <c r="D260" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E260" t="s">
         <v>9</v>
@@ -12353,17 +12353,17 @@
         <v>392</v>
       </c>
       <c r="H260" t="str">
-        <f>CONCATENATE(A260, "_", F260, "_", G260)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR2_2D</v>
       </c>
       <c r="I260">
         <v>4</v>
       </c>
       <c r="J260" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K260" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
@@ -12377,7 +12377,7 @@
         <v>121</v>
       </c>
       <c r="D261" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E261" t="s">
         <v>9</v>
@@ -12389,17 +12389,17 @@
         <v>393</v>
       </c>
       <c r="H261" t="str">
-        <f>CONCATENATE(A261, "_", F261, "_", G261)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR2_3D</v>
       </c>
       <c r="I261">
         <v>4</v>
       </c>
       <c r="J261" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K261" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
@@ -12413,7 +12413,7 @@
         <v>121</v>
       </c>
       <c r="D262" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E262" t="s">
         <v>10</v>
@@ -12425,17 +12425,17 @@
         <v>392</v>
       </c>
       <c r="H262" t="str">
-        <f>CONCATENATE(A262, "_", F262, "_", G262)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR1_2D</v>
       </c>
       <c r="I262">
         <v>4</v>
       </c>
       <c r="J262" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="K262" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
@@ -12449,7 +12449,7 @@
         <v>121</v>
       </c>
       <c r="D263" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E263" t="s">
         <v>10</v>
@@ -12461,17 +12461,17 @@
         <v>393</v>
       </c>
       <c r="H263" t="str">
-        <f>CONCATENATE(A263, "_", F263, "_", G263)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR1_3D</v>
       </c>
       <c r="I263">
         <v>4</v>
       </c>
       <c r="J263" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K263" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
@@ -12485,7 +12485,7 @@
         <v>121</v>
       </c>
       <c r="D264" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E264" t="s">
         <v>10</v>
@@ -12497,17 +12497,17 @@
         <v>392</v>
       </c>
       <c r="H264" t="str">
-        <f>CONCATENATE(A264, "_", F264, "_", G264)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR2_2D</v>
       </c>
       <c r="I264">
         <v>4</v>
       </c>
       <c r="J264" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K264" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
@@ -12521,7 +12521,7 @@
         <v>121</v>
       </c>
       <c r="D265" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E265" t="s">
         <v>10</v>
@@ -12533,17 +12533,17 @@
         <v>393</v>
       </c>
       <c r="H265" t="str">
-        <f>CONCATENATE(A265, "_", F265, "_", G265)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR2_3D</v>
       </c>
       <c r="I265">
         <v>4</v>
       </c>
       <c r="J265" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K265" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
@@ -12557,7 +12557,7 @@
         <v>121</v>
       </c>
       <c r="D266" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E266" t="s">
         <v>10</v>
@@ -12569,17 +12569,17 @@
         <v>392</v>
       </c>
       <c r="H266" t="str">
-        <f>CONCATENATE(A266, "_", F266, "_", G266)</f>
+        <f t="shared" si="4"/>
         <v>HEPG2_BR3_2D</v>
       </c>
       <c r="I266">
         <v>4</v>
       </c>
       <c r="J266" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K266" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -12593,7 +12593,7 @@
         <v>121</v>
       </c>
       <c r="D267" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E267" t="s">
         <v>22</v>
@@ -12605,7 +12605,7 @@
         <v>392</v>
       </c>
       <c r="H267" t="str">
-        <f>CONCATENATE(A267, "_", F267, "_", G267)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR1_2D</v>
       </c>
       <c r="I267">
@@ -12629,7 +12629,7 @@
         <v>121</v>
       </c>
       <c r="D268" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E268" t="s">
         <v>22</v>
@@ -12641,7 +12641,7 @@
         <v>393</v>
       </c>
       <c r="H268" t="str">
-        <f>CONCATENATE(A268, "_", F268, "_", G268)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR1_3D</v>
       </c>
       <c r="I268">
@@ -12665,7 +12665,7 @@
         <v>121</v>
       </c>
       <c r="D269" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E269" t="s">
         <v>22</v>
@@ -12677,7 +12677,7 @@
         <v>392</v>
       </c>
       <c r="H269" t="str">
-        <f>CONCATENATE(A269, "_", F269, "_", G269)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR2_2D</v>
       </c>
       <c r="I269">
@@ -12701,7 +12701,7 @@
         <v>121</v>
       </c>
       <c r="D270" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E270" t="s">
         <v>22</v>
@@ -12713,7 +12713,7 @@
         <v>393</v>
       </c>
       <c r="H270" t="str">
-        <f>CONCATENATE(A270, "_", F270, "_", G270)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR2_3D</v>
       </c>
       <c r="I270">
@@ -12737,7 +12737,7 @@
         <v>121</v>
       </c>
       <c r="D271" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E271" t="s">
         <v>11</v>
@@ -12749,17 +12749,17 @@
         <v>393</v>
       </c>
       <c r="H271" t="str">
-        <f>CONCATENATE(A271, "_", F271, "_", G271)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR1_3D</v>
       </c>
       <c r="I271">
         <v>4</v>
       </c>
       <c r="J271" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K271" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -12773,7 +12773,7 @@
         <v>121</v>
       </c>
       <c r="D272" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E272" t="s">
         <v>11</v>
@@ -12785,17 +12785,17 @@
         <v>393</v>
       </c>
       <c r="H272" t="str">
-        <f>CONCATENATE(A272, "_", F272, "_", G272)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR2_3D</v>
       </c>
       <c r="I272">
         <v>4</v>
       </c>
       <c r="J272" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K272" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
@@ -12809,7 +12809,7 @@
         <v>121</v>
       </c>
       <c r="D273" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E273" t="s">
         <v>8</v>
@@ -12821,17 +12821,17 @@
         <v>392</v>
       </c>
       <c r="H273" t="str">
-        <f>CONCATENATE(A273, "_", F273, "_", G273)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR1_2D</v>
       </c>
       <c r="I273">
         <v>4</v>
       </c>
       <c r="J273" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K273" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
@@ -12845,7 +12845,7 @@
         <v>121</v>
       </c>
       <c r="D274" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E274" t="s">
         <v>8</v>
@@ -12857,17 +12857,17 @@
         <v>392</v>
       </c>
       <c r="H274" t="str">
-        <f>CONCATENATE(A274, "_", F274, "_", G274)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR1_2D</v>
       </c>
       <c r="I274">
         <v>4</v>
       </c>
       <c r="J274" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K274" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
@@ -12881,7 +12881,7 @@
         <v>121</v>
       </c>
       <c r="D275" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E275" t="s">
         <v>8</v>
@@ -12893,17 +12893,17 @@
         <v>393</v>
       </c>
       <c r="H275" t="str">
-        <f>CONCATENATE(A275, "_", F275, "_", G275)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR1_3D</v>
       </c>
       <c r="I275">
         <v>4</v>
       </c>
       <c r="J275" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K275" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
@@ -12917,7 +12917,7 @@
         <v>121</v>
       </c>
       <c r="D276" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E276" t="s">
         <v>8</v>
@@ -12929,17 +12929,17 @@
         <v>392</v>
       </c>
       <c r="H276" t="str">
-        <f>CONCATENATE(A276, "_", F276, "_", G276)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR2_2D</v>
       </c>
       <c r="I276">
         <v>4</v>
       </c>
       <c r="J276" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K276" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -12953,7 +12953,7 @@
         <v>121</v>
       </c>
       <c r="D277" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E277" t="s">
         <v>8</v>
@@ -12965,17 +12965,17 @@
         <v>392</v>
       </c>
       <c r="H277" t="str">
-        <f>CONCATENATE(A277, "_", F277, "_", G277)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR2_2D</v>
       </c>
       <c r="I277">
         <v>4</v>
       </c>
       <c r="J277" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K277" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -12989,7 +12989,7 @@
         <v>121</v>
       </c>
       <c r="D278" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E278" t="s">
         <v>8</v>
@@ -13001,17 +13001,17 @@
         <v>393</v>
       </c>
       <c r="H278" t="str">
-        <f>CONCATENATE(A278, "_", F278, "_", G278)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR2_3D</v>
       </c>
       <c r="I278">
         <v>4</v>
       </c>
       <c r="J278" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K278" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -13025,7 +13025,7 @@
         <v>121</v>
       </c>
       <c r="D279" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E279" t="s">
         <v>9</v>
@@ -13037,17 +13037,17 @@
         <v>392</v>
       </c>
       <c r="H279" t="str">
-        <f>CONCATENATE(A279, "_", F279, "_", G279)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR1_2D</v>
       </c>
       <c r="I279">
         <v>4</v>
       </c>
       <c r="J279" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K279" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -13061,7 +13061,7 @@
         <v>121</v>
       </c>
       <c r="D280" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E280" t="s">
         <v>9</v>
@@ -13073,17 +13073,17 @@
         <v>392</v>
       </c>
       <c r="H280" t="str">
-        <f>CONCATENATE(A280, "_", F280, "_", G280)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR1_2D</v>
       </c>
       <c r="I280">
         <v>4</v>
       </c>
       <c r="J280" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="K280" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -13097,7 +13097,7 @@
         <v>121</v>
       </c>
       <c r="D281" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E281" t="s">
         <v>9</v>
@@ -13109,17 +13109,17 @@
         <v>393</v>
       </c>
       <c r="H281" t="str">
-        <f>CONCATENATE(A281, "_", F281, "_", G281)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR1_3D</v>
       </c>
       <c r="I281">
         <v>4</v>
       </c>
       <c r="J281" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K281" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
@@ -13133,7 +13133,7 @@
         <v>121</v>
       </c>
       <c r="D282" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E282" t="s">
         <v>9</v>
@@ -13145,17 +13145,17 @@
         <v>392</v>
       </c>
       <c r="H282" t="str">
-        <f>CONCATENATE(A282, "_", F282, "_", G282)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR2_2D</v>
       </c>
       <c r="I282">
         <v>4</v>
       </c>
       <c r="J282" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K282" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
@@ -13169,7 +13169,7 @@
         <v>121</v>
       </c>
       <c r="D283" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E283" t="s">
         <v>9</v>
@@ -13181,17 +13181,17 @@
         <v>392</v>
       </c>
       <c r="H283" t="str">
-        <f>CONCATENATE(A283, "_", F283, "_", G283)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR2_2D</v>
       </c>
       <c r="I283">
         <v>4</v>
       </c>
       <c r="J283" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K283" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
@@ -13205,7 +13205,7 @@
         <v>121</v>
       </c>
       <c r="D284" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E284" t="s">
         <v>9</v>
@@ -13217,17 +13217,17 @@
         <v>393</v>
       </c>
       <c r="H284" t="str">
-        <f>CONCATENATE(A284, "_", F284, "_", G284)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR2_3D</v>
       </c>
       <c r="I284">
         <v>4</v>
       </c>
       <c r="J284" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="K284" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
@@ -13241,7 +13241,7 @@
         <v>121</v>
       </c>
       <c r="D285" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E285" t="s">
         <v>10</v>
@@ -13253,17 +13253,17 @@
         <v>392</v>
       </c>
       <c r="H285" t="str">
-        <f>CONCATENATE(A285, "_", F285, "_", G285)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR1_2D</v>
       </c>
       <c r="I285">
         <v>4</v>
       </c>
       <c r="J285" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K285" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
@@ -13277,7 +13277,7 @@
         <v>121</v>
       </c>
       <c r="D286" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E286" t="s">
         <v>10</v>
@@ -13289,17 +13289,17 @@
         <v>392</v>
       </c>
       <c r="H286" t="str">
-        <f>CONCATENATE(A286, "_", F286, "_", G286)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR1_2D</v>
       </c>
       <c r="I286">
         <v>4</v>
       </c>
       <c r="J286" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="K286" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
@@ -13313,7 +13313,7 @@
         <v>121</v>
       </c>
       <c r="D287" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E287" t="s">
         <v>10</v>
@@ -13325,17 +13325,17 @@
         <v>393</v>
       </c>
       <c r="H287" t="str">
-        <f>CONCATENATE(A287, "_", F287, "_", G287)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR1_3D</v>
       </c>
       <c r="I287">
         <v>4</v>
       </c>
       <c r="J287" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="K287" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
@@ -13349,7 +13349,7 @@
         <v>121</v>
       </c>
       <c r="D288" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E288" t="s">
         <v>10</v>
@@ -13361,17 +13361,17 @@
         <v>392</v>
       </c>
       <c r="H288" t="str">
-        <f>CONCATENATE(A288, "_", F288, "_", G288)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR2_2D</v>
       </c>
       <c r="I288">
         <v>4</v>
       </c>
       <c r="J288" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K288" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
@@ -13385,7 +13385,7 @@
         <v>121</v>
       </c>
       <c r="D289" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E289" t="s">
         <v>10</v>
@@ -13397,17 +13397,17 @@
         <v>392</v>
       </c>
       <c r="H289" t="str">
-        <f>CONCATENATE(A289, "_", F289, "_", G289)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR2_2D</v>
       </c>
       <c r="I289">
         <v>4</v>
       </c>
       <c r="J289" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K289" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
@@ -13421,7 +13421,7 @@
         <v>121</v>
       </c>
       <c r="D290" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E290" t="s">
         <v>10</v>
@@ -13433,17 +13433,17 @@
         <v>393</v>
       </c>
       <c r="H290" t="str">
-        <f>CONCATENATE(A290, "_", F290, "_", G290)</f>
+        <f t="shared" si="4"/>
         <v>HUH7_BR2_3D</v>
       </c>
       <c r="I290">
         <v>4</v>
       </c>
       <c r="J290" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="K290" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
@@ -13457,7 +13457,7 @@
         <v>121</v>
       </c>
       <c r="D291" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E291" t="s">
         <v>22</v>
@@ -13469,7 +13469,7 @@
         <v>392</v>
       </c>
       <c r="H291" t="str">
-        <f>CONCATENATE(A291, "_", F291, "_", G291)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR1_2D</v>
       </c>
       <c r="I291">
@@ -13493,7 +13493,7 @@
         <v>121</v>
       </c>
       <c r="D292" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E292" t="s">
         <v>22</v>
@@ -13505,7 +13505,7 @@
         <v>393</v>
       </c>
       <c r="H292" t="str">
-        <f>CONCATENATE(A292, "_", F292, "_", G292)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR1_3D</v>
       </c>
       <c r="I292">
@@ -13529,7 +13529,7 @@
         <v>121</v>
       </c>
       <c r="D293" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E293" t="s">
         <v>22</v>
@@ -13541,7 +13541,7 @@
         <v>392</v>
       </c>
       <c r="H293" t="str">
-        <f>CONCATENATE(A293, "_", F293, "_", G293)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR2_2D</v>
       </c>
       <c r="I293">
@@ -13565,7 +13565,7 @@
         <v>121</v>
       </c>
       <c r="D294" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E294" t="s">
         <v>22</v>
@@ -13577,7 +13577,7 @@
         <v>393</v>
       </c>
       <c r="H294" t="str">
-        <f>CONCATENATE(A294, "_", F294, "_", G294)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR2_3D</v>
       </c>
       <c r="I294">
@@ -13601,7 +13601,7 @@
         <v>121</v>
       </c>
       <c r="D295" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E295" t="s">
         <v>22</v>
@@ -13613,7 +13613,7 @@
         <v>392</v>
       </c>
       <c r="H295" t="str">
-        <f>CONCATENATE(A295, "_", F295, "_", G295)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR3_2D</v>
       </c>
       <c r="I295">
@@ -13637,7 +13637,7 @@
         <v>121</v>
       </c>
       <c r="D296" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E296" t="s">
         <v>22</v>
@@ -13649,7 +13649,7 @@
         <v>393</v>
       </c>
       <c r="H296" t="str">
-        <f>CONCATENATE(A296, "_", F296, "_", G296)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR3_3D</v>
       </c>
       <c r="I296">
@@ -13673,7 +13673,7 @@
         <v>121</v>
       </c>
       <c r="D297" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E297" t="s">
         <v>8</v>
@@ -13685,17 +13685,17 @@
         <v>392</v>
       </c>
       <c r="H297" t="str">
-        <f>CONCATENATE(A297, "_", F297, "_", G297)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR1_2D</v>
       </c>
       <c r="I297">
         <v>4</v>
       </c>
       <c r="J297" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="K297" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
@@ -13709,7 +13709,7 @@
         <v>121</v>
       </c>
       <c r="D298" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E298" t="s">
         <v>8</v>
@@ -13721,17 +13721,17 @@
         <v>393</v>
       </c>
       <c r="H298" t="str">
-        <f>CONCATENATE(A298, "_", F298, "_", G298)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR1_3D</v>
       </c>
       <c r="I298">
         <v>4</v>
       </c>
       <c r="J298" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K298" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
@@ -13745,7 +13745,7 @@
         <v>121</v>
       </c>
       <c r="D299" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E299" t="s">
         <v>8</v>
@@ -13757,17 +13757,17 @@
         <v>392</v>
       </c>
       <c r="H299" t="str">
-        <f>CONCATENATE(A299, "_", F299, "_", G299)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR2_2D</v>
       </c>
       <c r="I299">
         <v>4</v>
       </c>
       <c r="J299" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="K299" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
@@ -13781,7 +13781,7 @@
         <v>121</v>
       </c>
       <c r="D300" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E300" t="s">
         <v>8</v>
@@ -13793,17 +13793,17 @@
         <v>393</v>
       </c>
       <c r="H300" t="str">
-        <f>CONCATENATE(A300, "_", F300, "_", G300)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR2_3D</v>
       </c>
       <c r="I300">
         <v>4</v>
       </c>
       <c r="J300" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="K300" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
@@ -13817,7 +13817,7 @@
         <v>121</v>
       </c>
       <c r="D301" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E301" t="s">
         <v>8</v>
@@ -13829,17 +13829,17 @@
         <v>392</v>
       </c>
       <c r="H301" t="str">
-        <f>CONCATENATE(A301, "_", F301, "_", G301)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR3_2D</v>
       </c>
       <c r="I301">
         <v>4</v>
       </c>
       <c r="J301" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K301" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
@@ -13853,7 +13853,7 @@
         <v>121</v>
       </c>
       <c r="D302" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E302" t="s">
         <v>8</v>
@@ -13865,17 +13865,17 @@
         <v>393</v>
       </c>
       <c r="H302" t="str">
-        <f>CONCATENATE(A302, "_", F302, "_", G302)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR3_3D</v>
       </c>
       <c r="I302">
         <v>4</v>
       </c>
       <c r="J302" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="K302" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
@@ -13889,7 +13889,7 @@
         <v>121</v>
       </c>
       <c r="D303" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E303" t="s">
         <v>9</v>
@@ -13901,17 +13901,17 @@
         <v>392</v>
       </c>
       <c r="H303" t="str">
-        <f>CONCATENATE(A303, "_", F303, "_", G303)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR1_2D</v>
       </c>
       <c r="I303">
         <v>4</v>
       </c>
       <c r="J303" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K303" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
@@ -13925,7 +13925,7 @@
         <v>121</v>
       </c>
       <c r="D304" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E304" t="s">
         <v>9</v>
@@ -13937,17 +13937,17 @@
         <v>393</v>
       </c>
       <c r="H304" t="str">
-        <f>CONCATENATE(A304, "_", F304, "_", G304)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR1_3D</v>
       </c>
       <c r="I304">
         <v>4</v>
       </c>
       <c r="J304" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K304" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
@@ -13961,7 +13961,7 @@
         <v>121</v>
       </c>
       <c r="D305" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E305" t="s">
         <v>9</v>
@@ -13973,17 +13973,17 @@
         <v>392</v>
       </c>
       <c r="H305" t="str">
-        <f>CONCATENATE(A305, "_", F305, "_", G305)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR2_2D</v>
       </c>
       <c r="I305">
         <v>4</v>
       </c>
       <c r="J305" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="K305" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
@@ -13997,7 +13997,7 @@
         <v>121</v>
       </c>
       <c r="D306" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E306" t="s">
         <v>9</v>
@@ -14009,17 +14009,17 @@
         <v>393</v>
       </c>
       <c r="H306" t="str">
-        <f>CONCATENATE(A306, "_", F306, "_", G306)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR2_3D</v>
       </c>
       <c r="I306">
         <v>4</v>
       </c>
       <c r="J306" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K306" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
@@ -14033,7 +14033,7 @@
         <v>121</v>
       </c>
       <c r="D307" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E307" t="s">
         <v>9</v>
@@ -14045,17 +14045,17 @@
         <v>392</v>
       </c>
       <c r="H307" t="str">
-        <f>CONCATENATE(A307, "_", F307, "_", G307)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR3_2D</v>
       </c>
       <c r="I307">
         <v>4</v>
       </c>
       <c r="J307" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="K307" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
@@ -14069,7 +14069,7 @@
         <v>121</v>
       </c>
       <c r="D308" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E308" t="s">
         <v>9</v>
@@ -14081,17 +14081,17 @@
         <v>393</v>
       </c>
       <c r="H308" t="str">
-        <f>CONCATENATE(A308, "_", F308, "_", G308)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR3_3D</v>
       </c>
       <c r="I308">
         <v>4</v>
       </c>
       <c r="J308" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K308" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
@@ -14105,7 +14105,7 @@
         <v>121</v>
       </c>
       <c r="D309" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E309" t="s">
         <v>10</v>
@@ -14117,17 +14117,17 @@
         <v>392</v>
       </c>
       <c r="H309" t="str">
-        <f>CONCATENATE(A309, "_", F309, "_", G309)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR1_2D</v>
       </c>
       <c r="I309">
         <v>4</v>
       </c>
       <c r="J309" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K309" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
@@ -14141,7 +14141,7 @@
         <v>121</v>
       </c>
       <c r="D310" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E310" t="s">
         <v>10</v>
@@ -14153,17 +14153,17 @@
         <v>393</v>
       </c>
       <c r="H310" t="str">
-        <f>CONCATENATE(A310, "_", F310, "_", G310)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR1_3D</v>
       </c>
       <c r="I310">
         <v>4</v>
       </c>
       <c r="J310" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K310" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
@@ -14177,7 +14177,7 @@
         <v>121</v>
       </c>
       <c r="D311" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E311" t="s">
         <v>10</v>
@@ -14189,17 +14189,17 @@
         <v>392</v>
       </c>
       <c r="H311" t="str">
-        <f>CONCATENATE(A311, "_", F311, "_", G311)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR2_2D</v>
       </c>
       <c r="I311">
         <v>4</v>
       </c>
       <c r="J311" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K311" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
@@ -14213,7 +14213,7 @@
         <v>121</v>
       </c>
       <c r="D312" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E312" t="s">
         <v>10</v>
@@ -14225,17 +14225,17 @@
         <v>393</v>
       </c>
       <c r="H312" t="str">
-        <f>CONCATENATE(A312, "_", F312, "_", G312)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR2_3D</v>
       </c>
       <c r="I312">
         <v>4</v>
       </c>
       <c r="J312" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K312" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
@@ -14249,7 +14249,7 @@
         <v>121</v>
       </c>
       <c r="D313" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E313" t="s">
         <v>10</v>
@@ -14261,17 +14261,17 @@
         <v>392</v>
       </c>
       <c r="H313" t="str">
-        <f>CONCATENATE(A313, "_", F313, "_", G313)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR3_2D</v>
       </c>
       <c r="I313">
         <v>4</v>
       </c>
       <c r="J313" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K313" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
@@ -14285,7 +14285,7 @@
         <v>121</v>
       </c>
       <c r="D314" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E314" t="s">
         <v>10</v>
@@ -14297,22 +14297,22 @@
         <v>393</v>
       </c>
       <c r="H314" t="str">
-        <f>CONCATENATE(A314, "_", F314, "_", G314)</f>
+        <f t="shared" si="4"/>
         <v>PHH_BR3_3D</v>
       </c>
       <c r="I314">
         <v>4</v>
       </c>
       <c r="J314" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K314" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>437</v>
+        <v>919</v>
       </c>
       <c r="B315" t="s">
         <v>126</v>
@@ -14321,7 +14321,7 @@
         <v>117</v>
       </c>
       <c r="D315" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E315" t="s">
         <v>22</v>
@@ -14333,8 +14333,8 @@
         <v>25</v>
       </c>
       <c r="H315" t="str">
-        <f>CONCATENATE(A315, "_", F315, "_", G315)</f>
-        <v>HU78-B_BR1_Baseline</v>
+        <f t="shared" si="4"/>
+        <v>HUT78-B_BR1_Baseline</v>
       </c>
       <c r="I315">
         <v>5</v>
@@ -14348,7 +14348,7 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>437</v>
+        <v>919</v>
       </c>
       <c r="B316" t="s">
         <v>126</v>
@@ -14357,7 +14357,7 @@
         <v>117</v>
       </c>
       <c r="D316" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E316" t="s">
         <v>22</v>
@@ -14369,8 +14369,8 @@
         <v>25</v>
       </c>
       <c r="H316" t="str">
-        <f>CONCATENATE(A316, "_", F316, "_", G316)</f>
-        <v>HU78-B_BR2_Baseline</v>
+        <f t="shared" si="4"/>
+        <v>HUT78-B_BR2_Baseline</v>
       </c>
       <c r="I316">
         <v>5</v>
@@ -14384,7 +14384,7 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>437</v>
+        <v>919</v>
       </c>
       <c r="B317" t="s">
         <v>126</v>
@@ -14393,7 +14393,7 @@
         <v>117</v>
       </c>
       <c r="D317" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E317" t="s">
         <v>11</v>
@@ -14405,22 +14405,22 @@
         <v>25</v>
       </c>
       <c r="H317" t="str">
-        <f>CONCATENATE(A317, "_", F317, "_", G317)</f>
-        <v>HU78-B_BR1_Baseline</v>
+        <f t="shared" si="4"/>
+        <v>HUT78-B_BR1_Baseline</v>
       </c>
       <c r="I317">
         <v>5</v>
       </c>
       <c r="J317" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K317" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>437</v>
+        <v>919</v>
       </c>
       <c r="B318" t="s">
         <v>126</v>
@@ -14429,7 +14429,7 @@
         <v>117</v>
       </c>
       <c r="D318" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E318" t="s">
         <v>11</v>
@@ -14441,22 +14441,22 @@
         <v>25</v>
       </c>
       <c r="H318" t="str">
-        <f>CONCATENATE(A318, "_", F318, "_", G318)</f>
-        <v>HU78-B_BR2_Baseline</v>
+        <f t="shared" si="4"/>
+        <v>HUT78-B_BR2_Baseline</v>
       </c>
       <c r="I318">
         <v>5</v>
       </c>
       <c r="J318" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K318" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>437</v>
+        <v>919</v>
       </c>
       <c r="B319" t="s">
         <v>126</v>
@@ -14465,7 +14465,7 @@
         <v>117</v>
       </c>
       <c r="D319" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E319" t="s">
         <v>8</v>
@@ -14477,22 +14477,22 @@
         <v>25</v>
       </c>
       <c r="H319" t="str">
-        <f>CONCATENATE(A319, "_", F319, "_", G319)</f>
-        <v>HU78-B_BR1_Baseline</v>
+        <f t="shared" si="4"/>
+        <v>HUT78-B_BR1_Baseline</v>
       </c>
       <c r="I319">
         <v>5</v>
       </c>
       <c r="J319" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K319" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>437</v>
+        <v>919</v>
       </c>
       <c r="B320" t="s">
         <v>126</v>
@@ -14501,7 +14501,7 @@
         <v>117</v>
       </c>
       <c r="D320" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E320" t="s">
         <v>8</v>
@@ -14513,22 +14513,22 @@
         <v>25</v>
       </c>
       <c r="H320" t="str">
-        <f>CONCATENATE(A320, "_", F320, "_", G320)</f>
-        <v>HU78-B_BR2_Baseline</v>
+        <f t="shared" si="4"/>
+        <v>HUT78-B_BR2_Baseline</v>
       </c>
       <c r="I320">
         <v>5</v>
       </c>
       <c r="J320" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K320" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>437</v>
+        <v>919</v>
       </c>
       <c r="B321" t="s">
         <v>126</v>
@@ -14537,7 +14537,7 @@
         <v>117</v>
       </c>
       <c r="D321" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E321" t="s">
         <v>9</v>
@@ -14549,22 +14549,22 @@
         <v>25</v>
       </c>
       <c r="H321" t="str">
-        <f>CONCATENATE(A321, "_", F321, "_", G321)</f>
-        <v>HU78-B_BR1_Baseline</v>
+        <f t="shared" si="4"/>
+        <v>HUT78-B_BR1_Baseline</v>
       </c>
       <c r="I321">
         <v>5</v>
       </c>
       <c r="J321" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K321" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>437</v>
+        <v>919</v>
       </c>
       <c r="B322" t="s">
         <v>126</v>
@@ -14573,7 +14573,7 @@
         <v>117</v>
       </c>
       <c r="D322" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E322" t="s">
         <v>9</v>
@@ -14585,22 +14585,22 @@
         <v>25</v>
       </c>
       <c r="H322" t="str">
-        <f>CONCATENATE(A322, "_", F322, "_", G322)</f>
-        <v>HU78-B_BR2_Baseline</v>
+        <f t="shared" ref="H322:H385" si="5">CONCATENATE(A322, "_", F322, "_", G322)</f>
+        <v>HUT78-B_BR2_Baseline</v>
       </c>
       <c r="I322">
         <v>5</v>
       </c>
       <c r="J322" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="K322" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>437</v>
+        <v>919</v>
       </c>
       <c r="B323" t="s">
         <v>126</v>
@@ -14609,7 +14609,7 @@
         <v>117</v>
       </c>
       <c r="D323" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E323" t="s">
         <v>10</v>
@@ -14621,22 +14621,22 @@
         <v>25</v>
       </c>
       <c r="H323" t="str">
-        <f>CONCATENATE(A323, "_", F323, "_", G323)</f>
-        <v>HU78-B_BR1_Baseline</v>
+        <f t="shared" si="5"/>
+        <v>HUT78-B_BR1_Baseline</v>
       </c>
       <c r="I323">
         <v>5</v>
       </c>
       <c r="J323" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K323" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>437</v>
+        <v>919</v>
       </c>
       <c r="B324" t="s">
         <v>126</v>
@@ -14645,7 +14645,7 @@
         <v>117</v>
       </c>
       <c r="D324" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E324" t="s">
         <v>10</v>
@@ -14657,17 +14657,17 @@
         <v>25</v>
       </c>
       <c r="H324" t="str">
-        <f>CONCATENATE(A324, "_", F324, "_", G324)</f>
-        <v>HU78-B_BR2_Baseline</v>
+        <f t="shared" si="5"/>
+        <v>HUT78-B_BR2_Baseline</v>
       </c>
       <c r="I324">
         <v>5</v>
       </c>
       <c r="J324" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K324" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
@@ -14681,7 +14681,7 @@
         <v>117</v>
       </c>
       <c r="D325" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E325" t="s">
         <v>22</v>
@@ -14693,7 +14693,7 @@
         <v>25</v>
       </c>
       <c r="H325" t="str">
-        <f>CONCATENATE(A325, "_", F325, "_", G325)</f>
+        <f t="shared" si="5"/>
         <v>HUT78_BR1_Baseline</v>
       </c>
       <c r="I325">
@@ -14717,7 +14717,7 @@
         <v>117</v>
       </c>
       <c r="D326" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E326" t="s">
         <v>22</v>
@@ -14729,7 +14729,7 @@
         <v>25</v>
       </c>
       <c r="H326" t="str">
-        <f>CONCATENATE(A326, "_", F326, "_", G326)</f>
+        <f t="shared" si="5"/>
         <v>HUT78_BR2_Baseline</v>
       </c>
       <c r="I326">
@@ -14753,7 +14753,7 @@
         <v>117</v>
       </c>
       <c r="D327" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E327" t="s">
         <v>11</v>
@@ -14765,17 +14765,17 @@
         <v>25</v>
       </c>
       <c r="H327" t="str">
-        <f>CONCATENATE(A327, "_", F327, "_", G327)</f>
+        <f t="shared" si="5"/>
         <v>HUT78_BR1_Baseline</v>
       </c>
       <c r="I327">
         <v>5</v>
       </c>
       <c r="J327" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K327" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
@@ -14789,7 +14789,7 @@
         <v>117</v>
       </c>
       <c r="D328" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E328" t="s">
         <v>11</v>
@@ -14801,17 +14801,17 @@
         <v>25</v>
       </c>
       <c r="H328" t="str">
-        <f>CONCATENATE(A328, "_", F328, "_", G328)</f>
+        <f t="shared" si="5"/>
         <v>HUT78_BR2_Baseline</v>
       </c>
       <c r="I328">
         <v>5</v>
       </c>
       <c r="J328" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K328" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
@@ -14825,7 +14825,7 @@
         <v>117</v>
       </c>
       <c r="D329" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E329" t="s">
         <v>8</v>
@@ -14837,17 +14837,17 @@
         <v>25</v>
       </c>
       <c r="H329" t="str">
-        <f>CONCATENATE(A329, "_", F329, "_", G329)</f>
+        <f t="shared" si="5"/>
         <v>HUT78_BR1_Baseline</v>
       </c>
       <c r="I329">
         <v>5</v>
       </c>
       <c r="J329" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K329" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
@@ -14861,7 +14861,7 @@
         <v>117</v>
       </c>
       <c r="D330" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E330" t="s">
         <v>8</v>
@@ -14873,17 +14873,17 @@
         <v>25</v>
       </c>
       <c r="H330" t="str">
-        <f>CONCATENATE(A330, "_", F330, "_", G330)</f>
+        <f t="shared" si="5"/>
         <v>HUT78_BR2_Baseline</v>
       </c>
       <c r="I330">
         <v>5</v>
       </c>
       <c r="J330" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K330" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
@@ -14897,7 +14897,7 @@
         <v>117</v>
       </c>
       <c r="D331" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E331" t="s">
         <v>9</v>
@@ -14909,17 +14909,17 @@
         <v>25</v>
       </c>
       <c r="H331" t="str">
-        <f>CONCATENATE(A331, "_", F331, "_", G331)</f>
+        <f t="shared" si="5"/>
         <v>HUT78_BR1_Baseline</v>
       </c>
       <c r="I331">
         <v>5</v>
       </c>
       <c r="J331" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K331" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
@@ -14933,7 +14933,7 @@
         <v>117</v>
       </c>
       <c r="D332" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E332" t="s">
         <v>9</v>
@@ -14945,17 +14945,17 @@
         <v>25</v>
       </c>
       <c r="H332" t="str">
-        <f>CONCATENATE(A332, "_", F332, "_", G332)</f>
+        <f t="shared" si="5"/>
         <v>HUT78_BR2_Baseline</v>
       </c>
       <c r="I332">
         <v>5</v>
       </c>
       <c r="J332" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K332" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
@@ -14969,7 +14969,7 @@
         <v>117</v>
       </c>
       <c r="D333" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E333" t="s">
         <v>10</v>
@@ -14981,17 +14981,17 @@
         <v>25</v>
       </c>
       <c r="H333" t="str">
-        <f>CONCATENATE(A333, "_", F333, "_", G333)</f>
+        <f t="shared" si="5"/>
         <v>HUT78_BR1_Baseline</v>
       </c>
       <c r="I333">
         <v>5</v>
       </c>
       <c r="J333" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K333" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
@@ -15005,7 +15005,7 @@
         <v>117</v>
       </c>
       <c r="D334" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E334" t="s">
         <v>10</v>
@@ -15017,22 +15017,22 @@
         <v>25</v>
       </c>
       <c r="H334" t="str">
-        <f>CONCATENATE(A334, "_", F334, "_", G334)</f>
+        <f t="shared" si="5"/>
         <v>HUT78_BR2_Baseline</v>
       </c>
       <c r="I334">
         <v>5</v>
       </c>
       <c r="J334" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K334" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B335" t="s">
         <v>126</v>
@@ -15041,7 +15041,7 @@
         <v>117</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E335" t="s">
         <v>22</v>
@@ -15053,7 +15053,7 @@
         <v>25</v>
       </c>
       <c r="H335" t="str">
-        <f>CONCATENATE(A335, "_", F335, "_", G335)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat_BR1_Baseline</v>
       </c>
       <c r="I335">
@@ -15068,7 +15068,7 @@
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B336" t="s">
         <v>126</v>
@@ -15077,7 +15077,7 @@
         <v>117</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E336" t="s">
         <v>22</v>
@@ -15089,7 +15089,7 @@
         <v>25</v>
       </c>
       <c r="H336" t="str">
-        <f>CONCATENATE(A336, "_", F336, "_", G336)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat_BR2_Baseline</v>
       </c>
       <c r="I336">
@@ -15104,7 +15104,7 @@
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B337" t="s">
         <v>126</v>
@@ -15113,7 +15113,7 @@
         <v>117</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E337" t="s">
         <v>11</v>
@@ -15125,22 +15125,22 @@
         <v>25</v>
       </c>
       <c r="H337" t="str">
-        <f>CONCATENATE(A337, "_", F337, "_", G337)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat_BR1_Baseline</v>
       </c>
       <c r="I337">
         <v>5</v>
       </c>
       <c r="J337" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K337" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B338" t="s">
         <v>126</v>
@@ -15149,7 +15149,7 @@
         <v>117</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E338" t="s">
         <v>11</v>
@@ -15161,22 +15161,22 @@
         <v>25</v>
       </c>
       <c r="H338" t="str">
-        <f>CONCATENATE(A338, "_", F338, "_", G338)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat_BR2_Baseline</v>
       </c>
       <c r="I338">
         <v>5</v>
       </c>
       <c r="J338" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="K338" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B339" t="s">
         <v>126</v>
@@ -15185,7 +15185,7 @@
         <v>117</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E339" t="s">
         <v>8</v>
@@ -15197,22 +15197,22 @@
         <v>25</v>
       </c>
       <c r="H339" t="str">
-        <f>CONCATENATE(A339, "_", F339, "_", G339)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat_BR1_Baseline</v>
       </c>
       <c r="I339">
         <v>5</v>
       </c>
       <c r="J339" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K339" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B340" t="s">
         <v>126</v>
@@ -15221,7 +15221,7 @@
         <v>117</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E340" t="s">
         <v>8</v>
@@ -15233,22 +15233,22 @@
         <v>25</v>
       </c>
       <c r="H340" t="str">
-        <f>CONCATENATE(A340, "_", F340, "_", G340)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat_BR2_Baseline</v>
       </c>
       <c r="I340">
         <v>5</v>
       </c>
       <c r="J340" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K340" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B341" t="s">
         <v>126</v>
@@ -15257,7 +15257,7 @@
         <v>117</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E341" t="s">
         <v>9</v>
@@ -15269,22 +15269,22 @@
         <v>25</v>
       </c>
       <c r="H341" t="str">
-        <f>CONCATENATE(A341, "_", F341, "_", G341)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat_BR1_Baseline</v>
       </c>
       <c r="I341">
         <v>5</v>
       </c>
       <c r="J341" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K341" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B342" t="s">
         <v>126</v>
@@ -15293,7 +15293,7 @@
         <v>117</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E342" t="s">
         <v>9</v>
@@ -15305,22 +15305,22 @@
         <v>25</v>
       </c>
       <c r="H342" t="str">
-        <f>CONCATENATE(A342, "_", F342, "_", G342)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat_BR2_Baseline</v>
       </c>
       <c r="I342">
         <v>5</v>
       </c>
       <c r="J342" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="K342" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B343" t="s">
         <v>126</v>
@@ -15329,7 +15329,7 @@
         <v>117</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E343" t="s">
         <v>10</v>
@@ -15341,22 +15341,22 @@
         <v>25</v>
       </c>
       <c r="H343" t="str">
-        <f>CONCATENATE(A343, "_", F343, "_", G343)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat_BR1_Baseline</v>
       </c>
       <c r="I343">
         <v>5</v>
       </c>
       <c r="J343" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="K343" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B344" t="s">
         <v>126</v>
@@ -15365,7 +15365,7 @@
         <v>117</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E344" t="s">
         <v>10</v>
@@ -15377,22 +15377,22 @@
         <v>25</v>
       </c>
       <c r="H344" t="str">
-        <f>CONCATENATE(A344, "_", F344, "_", G344)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat_BR2_Baseline</v>
       </c>
       <c r="I344">
         <v>5</v>
       </c>
       <c r="J344" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="K344" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B345" t="s">
         <v>126</v>
@@ -15401,7 +15401,7 @@
         <v>117</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E345" t="s">
         <v>22</v>
@@ -15413,7 +15413,7 @@
         <v>25</v>
       </c>
       <c r="H345" t="str">
-        <f>CONCATENATE(A345, "_", F345, "_", G345)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat-B_BR1_Baseline</v>
       </c>
       <c r="I345">
@@ -15428,7 +15428,7 @@
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B346" t="s">
         <v>126</v>
@@ -15437,7 +15437,7 @@
         <v>117</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E346" t="s">
         <v>22</v>
@@ -15449,7 +15449,7 @@
         <v>25</v>
       </c>
       <c r="H346" t="str">
-        <f>CONCATENATE(A346, "_", F346, "_", G346)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat-B_BR2_Baseline</v>
       </c>
       <c r="I346">
@@ -15464,7 +15464,7 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B347" t="s">
         <v>126</v>
@@ -15473,7 +15473,7 @@
         <v>117</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E347" t="s">
         <v>11</v>
@@ -15485,22 +15485,22 @@
         <v>25</v>
       </c>
       <c r="H347" t="str">
-        <f>CONCATENATE(A347, "_", F347, "_", G347)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat-B_BR1_Baseline</v>
       </c>
       <c r="I347">
         <v>5</v>
       </c>
       <c r="J347" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="K347" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B348" t="s">
         <v>126</v>
@@ -15509,7 +15509,7 @@
         <v>117</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E348" t="s">
         <v>11</v>
@@ -15521,22 +15521,22 @@
         <v>25</v>
       </c>
       <c r="H348" t="str">
-        <f>CONCATENATE(A348, "_", F348, "_", G348)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat-B_BR2_Baseline</v>
       </c>
       <c r="I348">
         <v>5</v>
       </c>
       <c r="J348" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K348" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B349" t="s">
         <v>126</v>
@@ -15545,7 +15545,7 @@
         <v>117</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E349" t="s">
         <v>8</v>
@@ -15557,22 +15557,22 @@
         <v>25</v>
       </c>
       <c r="H349" t="str">
-        <f>CONCATENATE(A349, "_", F349, "_", G349)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat-B_BR1_Baseline</v>
       </c>
       <c r="I349">
         <v>5</v>
       </c>
       <c r="J349" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K349" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B350" t="s">
         <v>126</v>
@@ -15581,7 +15581,7 @@
         <v>117</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E350" t="s">
         <v>8</v>
@@ -15593,22 +15593,22 @@
         <v>25</v>
       </c>
       <c r="H350" t="str">
-        <f>CONCATENATE(A350, "_", F350, "_", G350)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat-B_BR2_Baseline</v>
       </c>
       <c r="I350">
         <v>5</v>
       </c>
       <c r="J350" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K350" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B351" t="s">
         <v>126</v>
@@ -15617,7 +15617,7 @@
         <v>117</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E351" t="s">
         <v>9</v>
@@ -15629,22 +15629,22 @@
         <v>25</v>
       </c>
       <c r="H351" t="str">
-        <f>CONCATENATE(A351, "_", F351, "_", G351)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat-B_BR1_Baseline</v>
       </c>
       <c r="I351">
         <v>5</v>
       </c>
       <c r="J351" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K351" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B352" t="s">
         <v>126</v>
@@ -15653,7 +15653,7 @@
         <v>117</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E352" t="s">
         <v>9</v>
@@ -15665,22 +15665,22 @@
         <v>25</v>
       </c>
       <c r="H352" t="str">
-        <f>CONCATENATE(A352, "_", F352, "_", G352)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat-B_BR2_Baseline</v>
       </c>
       <c r="I352">
         <v>5</v>
       </c>
       <c r="J352" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K352" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B353" t="s">
         <v>126</v>
@@ -15689,7 +15689,7 @@
         <v>117</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E353" t="s">
         <v>10</v>
@@ -15701,22 +15701,22 @@
         <v>25</v>
       </c>
       <c r="H353" t="str">
-        <f>CONCATENATE(A353, "_", F353, "_", G353)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat-B_BR1_Baseline</v>
       </c>
       <c r="I353">
         <v>5</v>
       </c>
       <c r="J353" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K353" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B354" t="s">
         <v>126</v>
@@ -15725,7 +15725,7 @@
         <v>117</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E354" t="s">
         <v>10</v>
@@ -15737,22 +15737,22 @@
         <v>25</v>
       </c>
       <c r="H354" t="str">
-        <f>CONCATENATE(A354, "_", F354, "_", G354)</f>
+        <f t="shared" si="5"/>
         <v>Jurkat-B_BR2_Baseline</v>
       </c>
       <c r="I354">
         <v>5</v>
       </c>
       <c r="J354" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="K354" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B355" t="s">
         <v>126</v>
@@ -15761,7 +15761,7 @@
         <v>117</v>
       </c>
       <c r="D355" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E355" t="s">
         <v>22</v>
@@ -15773,22 +15773,22 @@
         <v>25</v>
       </c>
       <c r="H355" t="str">
-        <f>CONCATENATE(A355, "_", F355, "_", G355)</f>
+        <f t="shared" si="5"/>
         <v>ARH77_BR1_Baseline</v>
       </c>
       <c r="I355">
         <v>6</v>
       </c>
       <c r="J355" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="K355" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B356" t="s">
         <v>126</v>
@@ -15797,7 +15797,7 @@
         <v>117</v>
       </c>
       <c r="D356" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E356" t="s">
         <v>22</v>
@@ -15809,22 +15809,22 @@
         <v>25</v>
       </c>
       <c r="H356" t="str">
-        <f>CONCATENATE(A356, "_", F356, "_", G356)</f>
+        <f t="shared" si="5"/>
         <v>ARH77_BR2_Baseline</v>
       </c>
       <c r="I356">
         <v>6</v>
       </c>
       <c r="J356" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K356" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B357" t="s">
         <v>126</v>
@@ -15833,7 +15833,7 @@
         <v>117</v>
       </c>
       <c r="D357" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E357" t="s">
         <v>11</v>
@@ -15845,22 +15845,22 @@
         <v>25</v>
       </c>
       <c r="H357" t="str">
-        <f>CONCATENATE(A357, "_", F357, "_", G357)</f>
+        <f t="shared" si="5"/>
         <v>ARH77_BR1_Baseline</v>
       </c>
       <c r="I357">
         <v>6</v>
       </c>
       <c r="J357" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K357" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B358" t="s">
         <v>126</v>
@@ -15869,7 +15869,7 @@
         <v>117</v>
       </c>
       <c r="D358" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E358" t="s">
         <v>11</v>
@@ -15881,22 +15881,22 @@
         <v>25</v>
       </c>
       <c r="H358" t="str">
-        <f>CONCATENATE(A358, "_", F358, "_", G358)</f>
+        <f t="shared" si="5"/>
         <v>ARH77_BR2_Baseline</v>
       </c>
       <c r="I358">
         <v>6</v>
       </c>
       <c r="J358" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="K358" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B359" t="s">
         <v>126</v>
@@ -15905,7 +15905,7 @@
         <v>117</v>
       </c>
       <c r="D359" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E359" t="s">
         <v>8</v>
@@ -15917,22 +15917,22 @@
         <v>25</v>
       </c>
       <c r="H359" t="str">
-        <f>CONCATENATE(A359, "_", F359, "_", G359)</f>
+        <f t="shared" si="5"/>
         <v>ARH77_BR1_Baseline</v>
       </c>
       <c r="I359">
         <v>6</v>
       </c>
       <c r="J359" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K359" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B360" t="s">
         <v>126</v>
@@ -15941,7 +15941,7 @@
         <v>117</v>
       </c>
       <c r="D360" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E360" t="s">
         <v>8</v>
@@ -15953,22 +15953,22 @@
         <v>25</v>
       </c>
       <c r="H360" t="str">
-        <f>CONCATENATE(A360, "_", F360, "_", G360)</f>
+        <f t="shared" si="5"/>
         <v>ARH77_BR2_Baseline</v>
       </c>
       <c r="I360">
         <v>6</v>
       </c>
       <c r="J360" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K360" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B361" t="s">
         <v>126</v>
@@ -15977,7 +15977,7 @@
         <v>117</v>
       </c>
       <c r="D361" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E361" t="s">
         <v>9</v>
@@ -15989,22 +15989,22 @@
         <v>25</v>
       </c>
       <c r="H361" t="str">
-        <f>CONCATENATE(A361, "_", F361, "_", G361)</f>
+        <f t="shared" si="5"/>
         <v>ARH77_BR1_Baseline</v>
       </c>
       <c r="I361">
         <v>6</v>
       </c>
       <c r="J361" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K361" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B362" t="s">
         <v>126</v>
@@ -16013,7 +16013,7 @@
         <v>117</v>
       </c>
       <c r="D362" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E362" t="s">
         <v>9</v>
@@ -16025,22 +16025,22 @@
         <v>25</v>
       </c>
       <c r="H362" t="str">
-        <f>CONCATENATE(A362, "_", F362, "_", G362)</f>
+        <f t="shared" si="5"/>
         <v>ARH77_BR2_Baseline</v>
       </c>
       <c r="I362">
         <v>6</v>
       </c>
       <c r="J362" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K362" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B363" t="s">
         <v>126</v>
@@ -16049,7 +16049,7 @@
         <v>117</v>
       </c>
       <c r="D363" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E363" t="s">
         <v>10</v>
@@ -16061,22 +16061,22 @@
         <v>25</v>
       </c>
       <c r="H363" t="str">
-        <f>CONCATENATE(A363, "_", F363, "_", G363)</f>
+        <f t="shared" si="5"/>
         <v>ARH77_BR1_Baseline</v>
       </c>
       <c r="I363">
         <v>6</v>
       </c>
       <c r="J363" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K363" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B364" t="s">
         <v>126</v>
@@ -16085,7 +16085,7 @@
         <v>117</v>
       </c>
       <c r="D364" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E364" t="s">
         <v>10</v>
@@ -16097,22 +16097,22 @@
         <v>25</v>
       </c>
       <c r="H364" t="str">
-        <f>CONCATENATE(A364, "_", F364, "_", G364)</f>
+        <f t="shared" si="5"/>
         <v>ARH77_BR2_Baseline</v>
       </c>
       <c r="I364">
         <v>6</v>
       </c>
       <c r="J364" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K364" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B365" t="s">
         <v>126</v>
@@ -16121,7 +16121,7 @@
         <v>117</v>
       </c>
       <c r="D365" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E365" t="s">
         <v>22</v>
@@ -16133,22 +16133,22 @@
         <v>25</v>
       </c>
       <c r="H365" t="str">
-        <f>CONCATENATE(A365, "_", F365, "_", G365)</f>
+        <f t="shared" si="5"/>
         <v>Daudi_BR1_Baseline</v>
       </c>
       <c r="I365">
         <v>6</v>
       </c>
       <c r="J365" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="K365" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B366" t="s">
         <v>126</v>
@@ -16157,7 +16157,7 @@
         <v>117</v>
       </c>
       <c r="D366" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E366" t="s">
         <v>22</v>
@@ -16169,22 +16169,22 @@
         <v>25</v>
       </c>
       <c r="H366" t="str">
-        <f>CONCATENATE(A366, "_", F366, "_", G366)</f>
+        <f t="shared" si="5"/>
         <v>Daudi_BR2_Baseline</v>
       </c>
       <c r="I366">
         <v>6</v>
       </c>
       <c r="J366" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="K366" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B367" t="s">
         <v>126</v>
@@ -16193,7 +16193,7 @@
         <v>117</v>
       </c>
       <c r="D367" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E367" t="s">
         <v>11</v>
@@ -16205,22 +16205,22 @@
         <v>25</v>
       </c>
       <c r="H367" t="str">
-        <f>CONCATENATE(A367, "_", F367, "_", G367)</f>
+        <f t="shared" si="5"/>
         <v>Daudi_BR1_Baseline</v>
       </c>
       <c r="I367">
         <v>6</v>
       </c>
       <c r="J367" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K367" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B368" t="s">
         <v>126</v>
@@ -16229,7 +16229,7 @@
         <v>117</v>
       </c>
       <c r="D368" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E368" t="s">
         <v>11</v>
@@ -16241,22 +16241,22 @@
         <v>25</v>
       </c>
       <c r="H368" t="str">
-        <f>CONCATENATE(A368, "_", F368, "_", G368)</f>
+        <f t="shared" si="5"/>
         <v>Daudi_BR2_Baseline</v>
       </c>
       <c r="I368">
         <v>6</v>
       </c>
       <c r="J368" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K368" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B369" t="s">
         <v>126</v>
@@ -16265,7 +16265,7 @@
         <v>117</v>
       </c>
       <c r="D369" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E369" t="s">
         <v>8</v>
@@ -16277,22 +16277,22 @@
         <v>25</v>
       </c>
       <c r="H369" t="str">
-        <f>CONCATENATE(A369, "_", F369, "_", G369)</f>
+        <f t="shared" si="5"/>
         <v>Daudi_BR1_Baseline</v>
       </c>
       <c r="I369">
         <v>6</v>
       </c>
       <c r="J369" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K369" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B370" t="s">
         <v>126</v>
@@ -16301,7 +16301,7 @@
         <v>117</v>
       </c>
       <c r="D370" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E370" t="s">
         <v>8</v>
@@ -16313,22 +16313,22 @@
         <v>25</v>
       </c>
       <c r="H370" t="str">
-        <f>CONCATENATE(A370, "_", F370, "_", G370)</f>
+        <f t="shared" si="5"/>
         <v>Daudi_BR2_Baseline</v>
       </c>
       <c r="I370">
         <v>6</v>
       </c>
       <c r="J370" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K370" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B371" t="s">
         <v>126</v>
@@ -16337,7 +16337,7 @@
         <v>117</v>
       </c>
       <c r="D371" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E371" t="s">
         <v>9</v>
@@ -16349,22 +16349,22 @@
         <v>25</v>
       </c>
       <c r="H371" t="str">
-        <f>CONCATENATE(A371, "_", F371, "_", G371)</f>
+        <f t="shared" si="5"/>
         <v>Daudi_BR1_Baseline</v>
       </c>
       <c r="I371">
         <v>6</v>
       </c>
       <c r="J371" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K371" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B372" t="s">
         <v>126</v>
@@ -16373,7 +16373,7 @@
         <v>117</v>
       </c>
       <c r="D372" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E372" t="s">
         <v>9</v>
@@ -16385,22 +16385,22 @@
         <v>25</v>
       </c>
       <c r="H372" t="str">
-        <f>CONCATENATE(A372, "_", F372, "_", G372)</f>
+        <f t="shared" si="5"/>
         <v>Daudi_BR2_Baseline</v>
       </c>
       <c r="I372">
         <v>6</v>
       </c>
       <c r="J372" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K372" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B373" t="s">
         <v>126</v>
@@ -16409,7 +16409,7 @@
         <v>117</v>
       </c>
       <c r="D373" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E373" t="s">
         <v>10</v>
@@ -16421,22 +16421,22 @@
         <v>25</v>
       </c>
       <c r="H373" t="str">
-        <f>CONCATENATE(A373, "_", F373, "_", G373)</f>
+        <f t="shared" si="5"/>
         <v>Daudi_BR1_Baseline</v>
       </c>
       <c r="I373">
         <v>6</v>
       </c>
       <c r="J373" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K373" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B374" t="s">
         <v>126</v>
@@ -16445,7 +16445,7 @@
         <v>117</v>
       </c>
       <c r="D374" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E374" t="s">
         <v>10</v>
@@ -16457,22 +16457,22 @@
         <v>25</v>
       </c>
       <c r="H374" t="str">
-        <f>CONCATENATE(A374, "_", F374, "_", G374)</f>
+        <f t="shared" si="5"/>
         <v>Daudi_BR2_Baseline</v>
       </c>
       <c r="I374">
         <v>6</v>
       </c>
       <c r="J374" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K374" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B375" t="s">
         <v>126</v>
@@ -16481,7 +16481,7 @@
         <v>117</v>
       </c>
       <c r="D375" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E375" t="s">
         <v>22</v>
@@ -16493,22 +16493,22 @@
         <v>25</v>
       </c>
       <c r="H375" t="str">
-        <f>CONCATENATE(A375, "_", F375, "_", G375)</f>
+        <f t="shared" si="5"/>
         <v>Namalwa_BR1_Baseline</v>
       </c>
       <c r="I375">
         <v>6</v>
       </c>
       <c r="J375" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K375" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B376" t="s">
         <v>126</v>
@@ -16517,7 +16517,7 @@
         <v>117</v>
       </c>
       <c r="D376" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E376" t="s">
         <v>22</v>
@@ -16529,22 +16529,22 @@
         <v>25</v>
       </c>
       <c r="H376" t="str">
-        <f>CONCATENATE(A376, "_", F376, "_", G376)</f>
+        <f t="shared" si="5"/>
         <v>Namalwa_BR2_Baseline</v>
       </c>
       <c r="I376">
         <v>6</v>
       </c>
       <c r="J376" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="K376" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B377" t="s">
         <v>126</v>
@@ -16553,7 +16553,7 @@
         <v>117</v>
       </c>
       <c r="D377" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E377" t="s">
         <v>11</v>
@@ -16565,22 +16565,22 @@
         <v>25</v>
       </c>
       <c r="H377" t="str">
-        <f>CONCATENATE(A377, "_", F377, "_", G377)</f>
+        <f t="shared" si="5"/>
         <v>Namalwa_BR1_Baseline</v>
       </c>
       <c r="I377">
         <v>6</v>
       </c>
       <c r="J377" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="K377" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B378" t="s">
         <v>126</v>
@@ -16589,7 +16589,7 @@
         <v>117</v>
       </c>
       <c r="D378" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E378" t="s">
         <v>11</v>
@@ -16601,22 +16601,22 @@
         <v>25</v>
       </c>
       <c r="H378" t="str">
-        <f>CONCATENATE(A378, "_", F378, "_", G378)</f>
+        <f t="shared" si="5"/>
         <v>Namalwa_BR2_Baseline</v>
       </c>
       <c r="I378">
         <v>6</v>
       </c>
       <c r="J378" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="K378" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B379" t="s">
         <v>126</v>
@@ -16625,7 +16625,7 @@
         <v>117</v>
       </c>
       <c r="D379" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E379" t="s">
         <v>8</v>
@@ -16637,22 +16637,22 @@
         <v>25</v>
       </c>
       <c r="H379" t="str">
-        <f>CONCATENATE(A379, "_", F379, "_", G379)</f>
+        <f t="shared" si="5"/>
         <v>Namalwa_BR1_Baseline</v>
       </c>
       <c r="I379">
         <v>6</v>
       </c>
       <c r="J379" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="K379" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B380" t="s">
         <v>126</v>
@@ -16661,7 +16661,7 @@
         <v>117</v>
       </c>
       <c r="D380" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E380" t="s">
         <v>8</v>
@@ -16673,22 +16673,22 @@
         <v>25</v>
       </c>
       <c r="H380" t="str">
-        <f>CONCATENATE(A380, "_", F380, "_", G380)</f>
+        <f t="shared" si="5"/>
         <v>Namalwa_BR2_Baseline</v>
       </c>
       <c r="I380">
         <v>6</v>
       </c>
       <c r="J380" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K380" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B381" t="s">
         <v>126</v>
@@ -16697,7 +16697,7 @@
         <v>117</v>
       </c>
       <c r="D381" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E381" t="s">
         <v>9</v>
@@ -16709,22 +16709,22 @@
         <v>25</v>
       </c>
       <c r="H381" t="str">
-        <f>CONCATENATE(A381, "_", F381, "_", G381)</f>
+        <f t="shared" si="5"/>
         <v>Namalwa_BR1_Baseline</v>
       </c>
       <c r="I381">
         <v>6</v>
       </c>
       <c r="J381" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="K381" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B382" t="s">
         <v>126</v>
@@ -16733,7 +16733,7 @@
         <v>117</v>
       </c>
       <c r="D382" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E382" t="s">
         <v>9</v>
@@ -16745,22 +16745,22 @@
         <v>25</v>
       </c>
       <c r="H382" t="str">
-        <f>CONCATENATE(A382, "_", F382, "_", G382)</f>
+        <f t="shared" si="5"/>
         <v>Namalwa_BR2_Baseline</v>
       </c>
       <c r="I382">
         <v>6</v>
       </c>
       <c r="J382" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K382" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B383" t="s">
         <v>126</v>
@@ -16769,7 +16769,7 @@
         <v>117</v>
       </c>
       <c r="D383" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E383" t="s">
         <v>10</v>
@@ -16781,22 +16781,22 @@
         <v>25</v>
       </c>
       <c r="H383" t="str">
-        <f>CONCATENATE(A383, "_", F383, "_", G383)</f>
+        <f t="shared" si="5"/>
         <v>Namalwa_BR1_Baseline</v>
       </c>
       <c r="I383">
         <v>6</v>
       </c>
       <c r="J383" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K383" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B384" t="s">
         <v>126</v>
@@ -16805,7 +16805,7 @@
         <v>117</v>
       </c>
       <c r="D384" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E384" t="s">
         <v>10</v>
@@ -16817,22 +16817,22 @@
         <v>25</v>
       </c>
       <c r="H384" t="str">
-        <f>CONCATENATE(A384, "_", F384, "_", G384)</f>
+        <f t="shared" si="5"/>
         <v>Namalwa_BR2_Baseline</v>
       </c>
       <c r="I384">
         <v>6</v>
       </c>
       <c r="J384" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K384" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B385" t="s">
         <v>126</v>
@@ -16841,7 +16841,7 @@
         <v>117</v>
       </c>
       <c r="D385" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E385" t="s">
         <v>22</v>
@@ -16853,22 +16853,22 @@
         <v>25</v>
       </c>
       <c r="H385" t="str">
-        <f>CONCATENATE(A385, "_", F385, "_", G385)</f>
+        <f t="shared" si="5"/>
         <v>Raji_BR1_Baseline</v>
       </c>
       <c r="I385">
         <v>6</v>
       </c>
       <c r="J385" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K385" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B386" t="s">
         <v>126</v>
@@ -16877,7 +16877,7 @@
         <v>117</v>
       </c>
       <c r="D386" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E386" t="s">
         <v>22</v>
@@ -16889,22 +16889,22 @@
         <v>25</v>
       </c>
       <c r="H386" t="str">
-        <f>CONCATENATE(A386, "_", F386, "_", G386)</f>
+        <f t="shared" ref="H386:H449" si="6">CONCATENATE(A386, "_", F386, "_", G386)</f>
         <v>Raji_BR2_Baseline</v>
       </c>
       <c r="I386">
         <v>6</v>
       </c>
       <c r="J386" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="K386" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B387" t="s">
         <v>126</v>
@@ -16913,7 +16913,7 @@
         <v>117</v>
       </c>
       <c r="D387" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E387" t="s">
         <v>11</v>
@@ -16925,22 +16925,22 @@
         <v>25</v>
       </c>
       <c r="H387" t="str">
-        <f>CONCATENATE(A387, "_", F387, "_", G387)</f>
+        <f t="shared" si="6"/>
         <v>Raji_BR1_Baseline</v>
       </c>
       <c r="I387">
         <v>6</v>
       </c>
       <c r="J387" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K387" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B388" t="s">
         <v>126</v>
@@ -16949,7 +16949,7 @@
         <v>117</v>
       </c>
       <c r="D388" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E388" t="s">
         <v>11</v>
@@ -16961,22 +16961,22 @@
         <v>25</v>
       </c>
       <c r="H388" t="str">
-        <f>CONCATENATE(A388, "_", F388, "_", G388)</f>
+        <f t="shared" si="6"/>
         <v>Raji_BR2_Baseline</v>
       </c>
       <c r="I388">
         <v>6</v>
       </c>
       <c r="J388" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K388" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B389" t="s">
         <v>126</v>
@@ -16985,7 +16985,7 @@
         <v>117</v>
       </c>
       <c r="D389" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E389" t="s">
         <v>8</v>
@@ -16997,22 +16997,22 @@
         <v>25</v>
       </c>
       <c r="H389" t="str">
-        <f>CONCATENATE(A389, "_", F389, "_", G389)</f>
+        <f t="shared" si="6"/>
         <v>Raji_BR1_Baseline</v>
       </c>
       <c r="I389">
         <v>6</v>
       </c>
       <c r="J389" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K389" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B390" t="s">
         <v>126</v>
@@ -17021,7 +17021,7 @@
         <v>117</v>
       </c>
       <c r="D390" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E390" t="s">
         <v>8</v>
@@ -17033,22 +17033,22 @@
         <v>25</v>
       </c>
       <c r="H390" t="str">
-        <f>CONCATENATE(A390, "_", F390, "_", G390)</f>
+        <f t="shared" si="6"/>
         <v>Raji_BR2_Baseline</v>
       </c>
       <c r="I390">
         <v>6</v>
       </c>
       <c r="J390" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="K390" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B391" t="s">
         <v>126</v>
@@ -17057,7 +17057,7 @@
         <v>117</v>
       </c>
       <c r="D391" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E391" t="s">
         <v>9</v>
@@ -17069,22 +17069,22 @@
         <v>25</v>
       </c>
       <c r="H391" t="str">
-        <f>CONCATENATE(A391, "_", F391, "_", G391)</f>
+        <f t="shared" si="6"/>
         <v>Raji_BR1_Baseline</v>
       </c>
       <c r="I391">
         <v>6</v>
       </c>
       <c r="J391" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="K391" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B392" t="s">
         <v>126</v>
@@ -17093,7 +17093,7 @@
         <v>117</v>
       </c>
       <c r="D392" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E392" t="s">
         <v>9</v>
@@ -17105,22 +17105,22 @@
         <v>25</v>
       </c>
       <c r="H392" t="str">
-        <f>CONCATENATE(A392, "_", F392, "_", G392)</f>
+        <f t="shared" si="6"/>
         <v>Raji_BR2_Baseline</v>
       </c>
       <c r="I392">
         <v>6</v>
       </c>
       <c r="J392" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="K392" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B393" t="s">
         <v>126</v>
@@ -17129,7 +17129,7 @@
         <v>117</v>
       </c>
       <c r="D393" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E393" t="s">
         <v>10</v>
@@ -17141,22 +17141,22 @@
         <v>25</v>
       </c>
       <c r="H393" t="str">
-        <f>CONCATENATE(A393, "_", F393, "_", G393)</f>
+        <f t="shared" si="6"/>
         <v>Raji_BR1_Baseline</v>
       </c>
       <c r="I393">
         <v>6</v>
       </c>
       <c r="J393" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="K393" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B394" t="s">
         <v>126</v>
@@ -17165,7 +17165,7 @@
         <v>117</v>
       </c>
       <c r="D394" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E394" t="s">
         <v>10</v>
@@ -17177,22 +17177,22 @@
         <v>25</v>
       </c>
       <c r="H394" t="str">
-        <f>CONCATENATE(A394, "_", F394, "_", G394)</f>
+        <f t="shared" si="6"/>
         <v>Raji_BR2_Baseline</v>
       </c>
       <c r="I394">
         <v>6</v>
       </c>
       <c r="J394" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="K394" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B395" t="s">
         <v>126</v>
@@ -17201,7 +17201,7 @@
         <v>117</v>
       </c>
       <c r="D395" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E395" t="s">
         <v>22</v>
@@ -17213,22 +17213,22 @@
         <v>25</v>
       </c>
       <c r="H395" t="str">
-        <f>CONCATENATE(A395, "_", F395, "_", G395)</f>
+        <f t="shared" si="6"/>
         <v>Ramos_BR1_Baseline</v>
       </c>
       <c r="I395">
         <v>6</v>
       </c>
       <c r="J395" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="K395" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B396" t="s">
         <v>126</v>
@@ -17237,7 +17237,7 @@
         <v>117</v>
       </c>
       <c r="D396" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E396" t="s">
         <v>22</v>
@@ -17249,22 +17249,22 @@
         <v>25</v>
       </c>
       <c r="H396" t="str">
-        <f>CONCATENATE(A396, "_", F396, "_", G396)</f>
+        <f t="shared" si="6"/>
         <v>Ramos_BR2_Baseline</v>
       </c>
       <c r="I396">
         <v>6</v>
       </c>
       <c r="J396" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K396" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B397" t="s">
         <v>126</v>
@@ -17273,7 +17273,7 @@
         <v>117</v>
       </c>
       <c r="D397" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E397" t="s">
         <v>11</v>
@@ -17285,22 +17285,22 @@
         <v>25</v>
       </c>
       <c r="H397" t="str">
-        <f>CONCATENATE(A397, "_", F397, "_", G397)</f>
+        <f t="shared" si="6"/>
         <v>Ramos_BR1_Baseline</v>
       </c>
       <c r="I397">
         <v>6</v>
       </c>
       <c r="J397" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="K397" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B398" t="s">
         <v>126</v>
@@ -17309,7 +17309,7 @@
         <v>117</v>
       </c>
       <c r="D398" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E398" t="s">
         <v>11</v>
@@ -17321,22 +17321,22 @@
         <v>25</v>
       </c>
       <c r="H398" t="str">
-        <f>CONCATENATE(A398, "_", F398, "_", G398)</f>
+        <f t="shared" si="6"/>
         <v>Ramos_BR2_Baseline</v>
       </c>
       <c r="I398">
         <v>6</v>
       </c>
       <c r="J398" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="K398" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B399" t="s">
         <v>126</v>
@@ -17345,7 +17345,7 @@
         <v>117</v>
       </c>
       <c r="D399" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E399" t="s">
         <v>8</v>
@@ -17357,22 +17357,22 @@
         <v>25</v>
       </c>
       <c r="H399" t="str">
-        <f>CONCATENATE(A399, "_", F399, "_", G399)</f>
+        <f t="shared" si="6"/>
         <v>Ramos_BR1_Baseline</v>
       </c>
       <c r="I399">
         <v>6</v>
       </c>
       <c r="J399" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="K399" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B400" t="s">
         <v>126</v>
@@ -17381,7 +17381,7 @@
         <v>117</v>
       </c>
       <c r="D400" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E400" t="s">
         <v>8</v>
@@ -17393,22 +17393,22 @@
         <v>25</v>
       </c>
       <c r="H400" t="str">
-        <f>CONCATENATE(A400, "_", F400, "_", G400)</f>
+        <f t="shared" si="6"/>
         <v>Ramos_BR2_Baseline</v>
       </c>
       <c r="I400">
         <v>6</v>
       </c>
       <c r="J400" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K400" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B401" t="s">
         <v>126</v>
@@ -17417,7 +17417,7 @@
         <v>117</v>
       </c>
       <c r="D401" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E401" t="s">
         <v>9</v>
@@ -17429,22 +17429,22 @@
         <v>25</v>
       </c>
       <c r="H401" t="str">
-        <f>CONCATENATE(A401, "_", F401, "_", G401)</f>
+        <f t="shared" si="6"/>
         <v>Ramos_BR1_Baseline</v>
       </c>
       <c r="I401">
         <v>6</v>
       </c>
       <c r="J401" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="K401" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B402" t="s">
         <v>126</v>
@@ -17453,7 +17453,7 @@
         <v>117</v>
       </c>
       <c r="D402" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E402" t="s">
         <v>9</v>
@@ -17465,22 +17465,22 @@
         <v>25</v>
       </c>
       <c r="H402" t="str">
-        <f>CONCATENATE(A402, "_", F402, "_", G402)</f>
+        <f t="shared" si="6"/>
         <v>Ramos_BR2_Baseline</v>
       </c>
       <c r="I402">
         <v>6</v>
       </c>
       <c r="J402" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="K402" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B403" t="s">
         <v>126</v>
@@ -17489,7 +17489,7 @@
         <v>117</v>
       </c>
       <c r="D403" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E403" t="s">
         <v>10</v>
@@ -17501,22 +17501,22 @@
         <v>25</v>
       </c>
       <c r="H403" t="str">
-        <f>CONCATENATE(A403, "_", F403, "_", G403)</f>
+        <f t="shared" si="6"/>
         <v>Ramos_BR1_Baseline</v>
       </c>
       <c r="I403">
         <v>6</v>
       </c>
       <c r="J403" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="K403" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B404" t="s">
         <v>126</v>
@@ -17525,7 +17525,7 @@
         <v>117</v>
       </c>
       <c r="D404" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E404" t="s">
         <v>10</v>
@@ -17537,22 +17537,22 @@
         <v>25</v>
       </c>
       <c r="H404" t="str">
-        <f>CONCATENATE(A404, "_", F404, "_", G404)</f>
+        <f t="shared" si="6"/>
         <v>Ramos_BR2_Baseline</v>
       </c>
       <c r="I404">
         <v>6</v>
       </c>
       <c r="J404" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="K404" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B405" t="s">
         <v>126</v>
@@ -17561,7 +17561,7 @@
         <v>117</v>
       </c>
       <c r="D405" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E405" t="s">
         <v>22</v>
@@ -17573,22 +17573,22 @@
         <v>25</v>
       </c>
       <c r="H405" t="str">
-        <f>CONCATENATE(A405, "_", F405, "_", G405)</f>
+        <f t="shared" si="6"/>
         <v>Toledo_BR1_Baseline</v>
       </c>
       <c r="I405">
         <v>6</v>
       </c>
       <c r="J405" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K405" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B406" t="s">
         <v>126</v>
@@ -17597,7 +17597,7 @@
         <v>117</v>
       </c>
       <c r="D406" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E406" t="s">
         <v>22</v>
@@ -17609,22 +17609,22 @@
         <v>25</v>
       </c>
       <c r="H406" t="str">
-        <f>CONCATENATE(A406, "_", F406, "_", G406)</f>
+        <f t="shared" si="6"/>
         <v>Toledo_BR2_Baseline</v>
       </c>
       <c r="I406">
         <v>6</v>
       </c>
       <c r="J406" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K406" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B407" t="s">
         <v>126</v>
@@ -17633,7 +17633,7 @@
         <v>117</v>
       </c>
       <c r="D407" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E407" t="s">
         <v>11</v>
@@ -17645,22 +17645,22 @@
         <v>25</v>
       </c>
       <c r="H407" t="str">
-        <f>CONCATENATE(A407, "_", F407, "_", G407)</f>
+        <f t="shared" si="6"/>
         <v>Toledo_BR1_Baseline</v>
       </c>
       <c r="I407">
         <v>6</v>
       </c>
       <c r="J407" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="K407" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B408" t="s">
         <v>126</v>
@@ -17669,7 +17669,7 @@
         <v>117</v>
       </c>
       <c r="D408" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E408" t="s">
         <v>11</v>
@@ -17681,22 +17681,22 @@
         <v>25</v>
       </c>
       <c r="H408" t="str">
-        <f>CONCATENATE(A408, "_", F408, "_", G408)</f>
+        <f t="shared" si="6"/>
         <v>Toledo_BR2_Baseline</v>
       </c>
       <c r="I408">
         <v>6</v>
       </c>
       <c r="J408" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="K408" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B409" t="s">
         <v>126</v>
@@ -17705,7 +17705,7 @@
         <v>117</v>
       </c>
       <c r="D409" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E409" t="s">
         <v>8</v>
@@ -17717,22 +17717,22 @@
         <v>25</v>
       </c>
       <c r="H409" t="str">
-        <f>CONCATENATE(A409, "_", F409, "_", G409)</f>
+        <f t="shared" si="6"/>
         <v>Toledo_BR1_Baseline</v>
       </c>
       <c r="I409">
         <v>6</v>
       </c>
       <c r="J409" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="K409" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B410" t="s">
         <v>126</v>
@@ -17741,7 +17741,7 @@
         <v>117</v>
       </c>
       <c r="D410" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E410" t="s">
         <v>8</v>
@@ -17753,22 +17753,22 @@
         <v>25</v>
       </c>
       <c r="H410" t="str">
-        <f>CONCATENATE(A410, "_", F410, "_", G410)</f>
+        <f t="shared" si="6"/>
         <v>Toledo_BR2_Baseline</v>
       </c>
       <c r="I410">
         <v>6</v>
       </c>
       <c r="J410" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="K410" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B411" t="s">
         <v>126</v>
@@ -17777,7 +17777,7 @@
         <v>117</v>
       </c>
       <c r="D411" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E411" t="s">
         <v>9</v>
@@ -17789,22 +17789,22 @@
         <v>25</v>
       </c>
       <c r="H411" t="str">
-        <f>CONCATENATE(A411, "_", F411, "_", G411)</f>
+        <f t="shared" si="6"/>
         <v>Toledo_BR1_Baseline</v>
       </c>
       <c r="I411">
         <v>6</v>
       </c>
       <c r="J411" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="K411" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B412" t="s">
         <v>126</v>
@@ -17813,7 +17813,7 @@
         <v>117</v>
       </c>
       <c r="D412" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E412" t="s">
         <v>9</v>
@@ -17825,22 +17825,22 @@
         <v>25</v>
       </c>
       <c r="H412" t="str">
-        <f>CONCATENATE(A412, "_", F412, "_", G412)</f>
+        <f t="shared" si="6"/>
         <v>Toledo_BR2_Baseline</v>
       </c>
       <c r="I412">
         <v>6</v>
       </c>
       <c r="J412" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="K412" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B413" t="s">
         <v>126</v>
@@ -17849,7 +17849,7 @@
         <v>117</v>
       </c>
       <c r="D413" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E413" t="s">
         <v>10</v>
@@ -17861,22 +17861,22 @@
         <v>25</v>
       </c>
       <c r="H413" t="str">
-        <f>CONCATENATE(A413, "_", F413, "_", G413)</f>
+        <f t="shared" si="6"/>
         <v>Toledo_BR1_Baseline</v>
       </c>
       <c r="I413">
         <v>6</v>
       </c>
       <c r="J413" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="K413" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B414" t="s">
         <v>126</v>
@@ -17885,7 +17885,7 @@
         <v>117</v>
       </c>
       <c r="D414" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E414" t="s">
         <v>10</v>
@@ -17897,17 +17897,17 @@
         <v>25</v>
       </c>
       <c r="H414" t="str">
-        <f>CONCATENATE(A414, "_", F414, "_", G414)</f>
+        <f t="shared" si="6"/>
         <v>Toledo_BR2_Baseline</v>
       </c>
       <c r="I414">
         <v>6</v>
       </c>
       <c r="J414" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K414" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
